--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10297400</v>
+        <v>9632300</v>
       </c>
       <c r="E8" s="3">
-        <v>10124300</v>
+        <v>9940400</v>
       </c>
       <c r="F8" s="3">
-        <v>9445300</v>
+        <v>9773300</v>
       </c>
       <c r="G8" s="3">
-        <v>8546400</v>
+        <v>9117800</v>
       </c>
       <c r="H8" s="3">
-        <v>7667200</v>
+        <v>8250100</v>
       </c>
       <c r="I8" s="3">
-        <v>6622300</v>
+        <v>7401300</v>
       </c>
       <c r="J8" s="3">
+        <v>6392700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6027600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6022200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2703300</v>
+        <v>2840600</v>
       </c>
       <c r="E9" s="3">
-        <v>2940400</v>
+        <v>2609500</v>
       </c>
       <c r="F9" s="3">
-        <v>2906500</v>
+        <v>2838500</v>
       </c>
       <c r="G9" s="3">
-        <v>2486500</v>
+        <v>2805800</v>
       </c>
       <c r="H9" s="3">
-        <v>2238000</v>
+        <v>2400300</v>
       </c>
       <c r="I9" s="3">
-        <v>2013000</v>
+        <v>2160400</v>
       </c>
       <c r="J9" s="3">
+        <v>1943200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1939900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2572800</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7594100</v>
+        <v>6791600</v>
       </c>
       <c r="E10" s="3">
-        <v>7183900</v>
+        <v>7330800</v>
       </c>
       <c r="F10" s="3">
-        <v>6538700</v>
+        <v>6934800</v>
       </c>
       <c r="G10" s="3">
-        <v>6060000</v>
+        <v>6312000</v>
       </c>
       <c r="H10" s="3">
-        <v>5429100</v>
+        <v>5849900</v>
       </c>
       <c r="I10" s="3">
-        <v>4609300</v>
+        <v>5240900</v>
       </c>
       <c r="J10" s="3">
+        <v>4449500</v>
+      </c>
+      <c r="K10" s="3">
         <v>4087600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3449400</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,29 +889,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>603000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>946300</v>
+        <v>582100</v>
       </c>
       <c r="F14" s="3">
-        <v>1126900</v>
+        <v>913400</v>
       </c>
       <c r="G14" s="3">
-        <v>2835000</v>
+        <v>1087900</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>2736700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -903,39 +922,45 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1769100</v>
+        <v>1790600</v>
       </c>
       <c r="E15" s="3">
-        <v>1547000</v>
+        <v>1707700</v>
       </c>
       <c r="F15" s="3">
-        <v>1459700</v>
+        <v>1493300</v>
       </c>
       <c r="G15" s="3">
-        <v>1328700</v>
+        <v>1409100</v>
       </c>
       <c r="H15" s="3">
-        <v>1212700</v>
+        <v>1282600</v>
       </c>
       <c r="I15" s="3">
-        <v>1117900</v>
+        <v>1170700</v>
       </c>
       <c r="J15" s="3">
+        <v>1079100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1035100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1020200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6623800</v>
+        <v>5427600</v>
       </c>
       <c r="E17" s="3">
-        <v>7655100</v>
+        <v>6394100</v>
       </c>
       <c r="F17" s="3">
-        <v>7546000</v>
+        <v>7389700</v>
       </c>
       <c r="G17" s="3">
-        <v>8723300</v>
+        <v>7284300</v>
       </c>
       <c r="H17" s="3">
-        <v>5189000</v>
+        <v>8420900</v>
       </c>
       <c r="I17" s="3">
-        <v>4457300</v>
+        <v>5009100</v>
       </c>
       <c r="J17" s="3">
+        <v>4302700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4091400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3908000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3673600</v>
+        <v>4204600</v>
       </c>
       <c r="E18" s="3">
-        <v>2469200</v>
+        <v>3546200</v>
       </c>
       <c r="F18" s="3">
-        <v>1899300</v>
+        <v>2383500</v>
       </c>
       <c r="G18" s="3">
-        <v>-176900</v>
+        <v>1833400</v>
       </c>
       <c r="H18" s="3">
-        <v>2478200</v>
+        <v>-170800</v>
       </c>
       <c r="I18" s="3">
-        <v>2165000</v>
+        <v>2392300</v>
       </c>
       <c r="J18" s="3">
+        <v>2090000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1936200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2114200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>913100</v>
+        <v>1143100</v>
       </c>
       <c r="E20" s="3">
-        <v>1501800</v>
+        <v>881500</v>
       </c>
       <c r="F20" s="3">
-        <v>62500</v>
+        <v>1449700</v>
       </c>
       <c r="G20" s="3">
-        <v>427600</v>
+        <v>60300</v>
       </c>
       <c r="H20" s="3">
-        <v>496800</v>
+        <v>412800</v>
       </c>
       <c r="I20" s="3">
-        <v>490800</v>
+        <v>479600</v>
       </c>
       <c r="J20" s="3">
+        <v>473800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-310900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>399500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6356600</v>
+        <v>7139700</v>
       </c>
       <c r="E21" s="3">
-        <v>5518600</v>
+        <v>6136800</v>
       </c>
       <c r="F21" s="3">
-        <v>3422100</v>
+        <v>5327800</v>
       </c>
       <c r="G21" s="3">
-        <v>1580000</v>
+        <v>3303900</v>
       </c>
       <c r="H21" s="3">
-        <v>4188300</v>
+        <v>1525600</v>
       </c>
       <c r="I21" s="3">
-        <v>3774200</v>
+        <v>4043500</v>
       </c>
       <c r="J21" s="3">
+        <v>3643800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2660800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3538700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1614000</v>
+        <v>1578400</v>
       </c>
       <c r="E22" s="3">
-        <v>1482200</v>
+        <v>1558000</v>
       </c>
       <c r="F22" s="3">
-        <v>1331700</v>
+        <v>1430900</v>
       </c>
       <c r="G22" s="3">
-        <v>1083300</v>
+        <v>1285500</v>
       </c>
       <c r="H22" s="3">
-        <v>849100</v>
+        <v>1045700</v>
       </c>
       <c r="I22" s="3">
-        <v>757300</v>
+        <v>819700</v>
       </c>
       <c r="J22" s="3">
+        <v>731100</v>
+      </c>
+      <c r="K22" s="3">
         <v>166400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>758200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2972800</v>
+        <v>3769300</v>
       </c>
       <c r="E23" s="3">
-        <v>2488700</v>
+        <v>2869700</v>
       </c>
       <c r="F23" s="3">
-        <v>630100</v>
+        <v>2402400</v>
       </c>
       <c r="G23" s="3">
-        <v>-832600</v>
+        <v>608200</v>
       </c>
       <c r="H23" s="3">
-        <v>2125900</v>
+        <v>-803700</v>
       </c>
       <c r="I23" s="3">
-        <v>1898500</v>
+        <v>2052200</v>
       </c>
       <c r="J23" s="3">
+        <v>1832700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1458900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1755400</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>450900</v>
+        <v>547900</v>
       </c>
       <c r="E24" s="3">
-        <v>538200</v>
+        <v>435300</v>
       </c>
       <c r="F24" s="3">
-        <v>265000</v>
+        <v>519600</v>
       </c>
       <c r="G24" s="3">
-        <v>25600</v>
+        <v>255800</v>
       </c>
       <c r="H24" s="3">
-        <v>625600</v>
+        <v>24700</v>
       </c>
       <c r="I24" s="3">
-        <v>460000</v>
+        <v>603900</v>
       </c>
       <c r="J24" s="3">
+        <v>444000</v>
+      </c>
+      <c r="K24" s="3">
         <v>350800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>441700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2521800</v>
+        <v>3221400</v>
       </c>
       <c r="E26" s="3">
-        <v>1950500</v>
+        <v>2434400</v>
       </c>
       <c r="F26" s="3">
-        <v>365100</v>
+        <v>1882900</v>
       </c>
       <c r="G26" s="3">
-        <v>-858200</v>
+        <v>352400</v>
       </c>
       <c r="H26" s="3">
-        <v>1500300</v>
+        <v>-828400</v>
       </c>
       <c r="I26" s="3">
-        <v>1438600</v>
+        <v>1448300</v>
       </c>
       <c r="J26" s="3">
+        <v>1388700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1108100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1313700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2538400</v>
+        <v>2889300</v>
       </c>
       <c r="E27" s="3">
-        <v>1650900</v>
+        <v>2450400</v>
       </c>
       <c r="F27" s="3">
-        <v>93300</v>
+        <v>1593600</v>
       </c>
       <c r="G27" s="3">
-        <v>-933500</v>
+        <v>90100</v>
       </c>
       <c r="H27" s="3">
-        <v>1312100</v>
+        <v>-901100</v>
       </c>
       <c r="I27" s="3">
-        <v>1288800</v>
+        <v>1266600</v>
       </c>
       <c r="J27" s="3">
+        <v>1244100</v>
+      </c>
+      <c r="K27" s="3">
         <v>977900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1172300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,26 +1345,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>125700</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>605200</v>
+        <v>121400</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>584300</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-913100</v>
+        <v>-1143100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1501800</v>
+        <v>-881500</v>
       </c>
       <c r="F32" s="3">
-        <v>-62500</v>
+        <v>-1449700</v>
       </c>
       <c r="G32" s="3">
-        <v>-427600</v>
+        <v>-60300</v>
       </c>
       <c r="H32" s="3">
-        <v>-496800</v>
+        <v>-412800</v>
       </c>
       <c r="I32" s="3">
-        <v>-490800</v>
+        <v>-479600</v>
       </c>
       <c r="J32" s="3">
+        <v>-473800</v>
+      </c>
+      <c r="K32" s="3">
         <v>310900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-399500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2664100</v>
+        <v>2889300</v>
       </c>
       <c r="E33" s="3">
-        <v>2256100</v>
+        <v>2571800</v>
       </c>
       <c r="F33" s="3">
-        <v>93300</v>
+        <v>2177900</v>
       </c>
       <c r="G33" s="3">
-        <v>-933500</v>
+        <v>90100</v>
       </c>
       <c r="H33" s="3">
-        <v>1312100</v>
+        <v>-901100</v>
       </c>
       <c r="I33" s="3">
-        <v>1288800</v>
+        <v>1266600</v>
       </c>
       <c r="J33" s="3">
+        <v>1244100</v>
+      </c>
+      <c r="K33" s="3">
         <v>977900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1172300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2664100</v>
+        <v>2889300</v>
       </c>
       <c r="E35" s="3">
-        <v>2256100</v>
+        <v>2571800</v>
       </c>
       <c r="F35" s="3">
-        <v>93300</v>
+        <v>2177900</v>
       </c>
       <c r="G35" s="3">
-        <v>-933500</v>
+        <v>90100</v>
       </c>
       <c r="H35" s="3">
-        <v>1312100</v>
+        <v>-901100</v>
       </c>
       <c r="I35" s="3">
-        <v>1288800</v>
+        <v>1266600</v>
       </c>
       <c r="J35" s="3">
+        <v>1244100</v>
+      </c>
+      <c r="K35" s="3">
         <v>977900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1172300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,46 +1647,50 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>335700</v>
+        <v>975400</v>
       </c>
       <c r="E41" s="3">
-        <v>819800</v>
+        <v>323900</v>
       </c>
       <c r="F41" s="3">
-        <v>764800</v>
+        <v>790900</v>
       </c>
       <c r="G41" s="3">
-        <v>639900</v>
+        <v>737900</v>
       </c>
       <c r="H41" s="3">
-        <v>368100</v>
+        <v>617300</v>
       </c>
       <c r="I41" s="3">
-        <v>697800</v>
+        <v>355100</v>
       </c>
       <c r="J41" s="3">
+        <v>673300</v>
+      </c>
+      <c r="K41" s="3">
         <v>414800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>502400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>539800</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>520700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1618,222 +1707,246 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2028000</v>
+        <v>1870100</v>
       </c>
       <c r="E43" s="3">
-        <v>1898500</v>
+        <v>1956600</v>
       </c>
       <c r="F43" s="3">
-        <v>1562000</v>
+        <v>1831700</v>
       </c>
       <c r="G43" s="3">
-        <v>1044100</v>
+        <v>1507000</v>
       </c>
       <c r="H43" s="3">
-        <v>988400</v>
+        <v>1007300</v>
       </c>
       <c r="I43" s="3">
-        <v>844600</v>
+        <v>953600</v>
       </c>
       <c r="J43" s="3">
+        <v>814900</v>
+      </c>
+      <c r="K43" s="3">
         <v>791900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>840400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>324500</v>
+        <v>328300</v>
       </c>
       <c r="E44" s="3">
-        <v>284600</v>
+        <v>313000</v>
       </c>
       <c r="F44" s="3">
-        <v>277000</v>
+        <v>274500</v>
       </c>
       <c r="G44" s="3">
-        <v>243200</v>
+        <v>267300</v>
       </c>
       <c r="H44" s="3">
-        <v>219800</v>
+        <v>234600</v>
       </c>
       <c r="I44" s="3">
-        <v>189000</v>
+        <v>212100</v>
       </c>
       <c r="J44" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K44" s="3">
         <v>168600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>190500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>637600</v>
+        <v>2382900</v>
       </c>
       <c r="E45" s="3">
-        <v>520200</v>
+        <v>615200</v>
       </c>
       <c r="F45" s="3">
-        <v>3481700</v>
+        <v>501900</v>
       </c>
       <c r="G45" s="3">
-        <v>1541700</v>
+        <v>3359000</v>
       </c>
       <c r="H45" s="3">
-        <v>1855600</v>
+        <v>1487400</v>
       </c>
       <c r="I45" s="3">
-        <v>637600</v>
+        <v>1790300</v>
       </c>
       <c r="J45" s="3">
+        <v>615200</v>
+      </c>
+      <c r="K45" s="3">
         <v>750500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>855800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3865600</v>
+        <v>5556700</v>
       </c>
       <c r="E46" s="3">
-        <v>3523100</v>
+        <v>3729400</v>
       </c>
       <c r="F46" s="3">
-        <v>6085600</v>
+        <v>3398900</v>
       </c>
       <c r="G46" s="3">
-        <v>2949400</v>
+        <v>5871200</v>
       </c>
       <c r="H46" s="3">
-        <v>2343400</v>
+        <v>2845500</v>
       </c>
       <c r="I46" s="3">
-        <v>2369000</v>
+        <v>2260900</v>
       </c>
       <c r="J46" s="3">
+        <v>2285600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2125900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2389200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6382200</v>
+        <v>5766600</v>
       </c>
       <c r="E47" s="3">
-        <v>5536000</v>
+        <v>6157300</v>
       </c>
       <c r="F47" s="3">
-        <v>5015100</v>
+        <v>5341000</v>
       </c>
       <c r="G47" s="3">
-        <v>4892400</v>
+        <v>4838400</v>
       </c>
       <c r="H47" s="3">
-        <v>4394800</v>
+        <v>4720000</v>
       </c>
       <c r="I47" s="3">
-        <v>4557400</v>
+        <v>4240000</v>
       </c>
       <c r="J47" s="3">
+        <v>4396800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4327800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4236000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50062800</v>
+        <v>47562700</v>
       </c>
       <c r="E48" s="3">
-        <v>43117600</v>
+        <v>48299100</v>
       </c>
       <c r="F48" s="3">
-        <v>41008200</v>
+        <v>41598600</v>
       </c>
       <c r="G48" s="3">
-        <v>67475600</v>
+        <v>39563600</v>
       </c>
       <c r="H48" s="3">
-        <v>62894100</v>
+        <v>65098500</v>
       </c>
       <c r="I48" s="3">
-        <v>28309400</v>
+        <v>60678400</v>
       </c>
       <c r="J48" s="3">
+        <v>27312100</v>
+      </c>
+      <c r="K48" s="3">
         <v>25378800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>93656500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11464200</v>
+        <v>10605000</v>
       </c>
       <c r="E49" s="3">
-        <v>10298200</v>
+        <v>11060400</v>
       </c>
       <c r="F49" s="3">
-        <v>12083800</v>
+        <v>9935400</v>
       </c>
       <c r="G49" s="3">
-        <v>7362300</v>
+        <v>11658100</v>
       </c>
       <c r="H49" s="3">
-        <v>4414400</v>
+        <v>7102900</v>
       </c>
       <c r="I49" s="3">
-        <v>3456100</v>
+        <v>4258800</v>
       </c>
       <c r="J49" s="3">
+        <v>3334300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2886200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4594800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2691200</v>
+        <v>2612400</v>
       </c>
       <c r="E52" s="3">
-        <v>2341200</v>
+        <v>2596400</v>
       </c>
       <c r="F52" s="3">
-        <v>2091300</v>
+        <v>2258700</v>
       </c>
       <c r="G52" s="3">
-        <v>1812000</v>
+        <v>2017600</v>
       </c>
       <c r="H52" s="3">
-        <v>1662200</v>
+        <v>1748100</v>
       </c>
       <c r="I52" s="3">
-        <v>1882000</v>
+        <v>1603600</v>
       </c>
       <c r="J52" s="3">
+        <v>1815700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1665900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1738500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>74466000</v>
+        <v>72103400</v>
       </c>
       <c r="E54" s="3">
-        <v>64816000</v>
+        <v>71842600</v>
       </c>
       <c r="F54" s="3">
-        <v>66283900</v>
+        <v>62532600</v>
       </c>
       <c r="G54" s="3">
-        <v>48478200</v>
+        <v>63948800</v>
       </c>
       <c r="H54" s="3">
-        <v>44057000</v>
+        <v>46770300</v>
       </c>
       <c r="I54" s="3">
-        <v>40573900</v>
+        <v>42505000</v>
       </c>
       <c r="J54" s="3">
+        <v>39144500</v>
+      </c>
+      <c r="K54" s="3">
         <v>36384600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36366500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2932100</v>
+        <v>2711200</v>
       </c>
       <c r="E57" s="3">
-        <v>2762700</v>
+        <v>2828800</v>
       </c>
       <c r="F57" s="3">
-        <v>2077700</v>
+        <v>2665400</v>
       </c>
       <c r="G57" s="3">
-        <v>2753000</v>
+        <v>2004500</v>
       </c>
       <c r="H57" s="3">
-        <v>1222500</v>
+        <v>2656000</v>
       </c>
       <c r="I57" s="3">
-        <v>651900</v>
+        <v>1179500</v>
       </c>
       <c r="J57" s="3">
+        <v>628900</v>
+      </c>
+      <c r="K57" s="3">
         <v>694800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4685400</v>
+        <v>5087500</v>
       </c>
       <c r="E58" s="3">
-        <v>3484700</v>
+        <v>4520300</v>
       </c>
       <c r="F58" s="3">
-        <v>1966300</v>
+        <v>3361900</v>
       </c>
       <c r="G58" s="3">
-        <v>2834300</v>
+        <v>1897000</v>
       </c>
       <c r="H58" s="3">
-        <v>3209900</v>
+        <v>2734400</v>
       </c>
       <c r="I58" s="3">
-        <v>2119100</v>
+        <v>3096800</v>
       </c>
       <c r="J58" s="3">
+        <v>2044500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2385600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2174900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2128100</v>
+        <v>1569500</v>
       </c>
       <c r="E59" s="3">
-        <v>1187900</v>
+        <v>2053200</v>
       </c>
       <c r="F59" s="3">
-        <v>1737400</v>
+        <v>1146100</v>
       </c>
       <c r="G59" s="3">
-        <v>1531900</v>
+        <v>1676200</v>
       </c>
       <c r="H59" s="3">
-        <v>1276700</v>
+        <v>1478000</v>
       </c>
       <c r="I59" s="3">
-        <v>1262400</v>
+        <v>1231800</v>
       </c>
       <c r="J59" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1346700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1558000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9745600</v>
+        <v>9368200</v>
       </c>
       <c r="E60" s="3">
-        <v>7435300</v>
+        <v>9402300</v>
       </c>
       <c r="F60" s="3">
-        <v>5781400</v>
+        <v>7173400</v>
       </c>
       <c r="G60" s="3">
-        <v>5542000</v>
+        <v>5577800</v>
       </c>
       <c r="H60" s="3">
-        <v>5706100</v>
+        <v>5346800</v>
       </c>
       <c r="I60" s="3">
-        <v>4033400</v>
+        <v>5505100</v>
       </c>
       <c r="J60" s="3">
+        <v>3891400</v>
+      </c>
+      <c r="K60" s="3">
         <v>4427200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4242200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33135600</v>
+        <v>31152600</v>
       </c>
       <c r="E61" s="3">
-        <v>29270000</v>
+        <v>31968200</v>
       </c>
       <c r="F61" s="3">
-        <v>31800100</v>
+        <v>28238800</v>
       </c>
       <c r="G61" s="3">
-        <v>23575900</v>
+        <v>30679800</v>
       </c>
       <c r="H61" s="3">
-        <v>18157300</v>
+        <v>22745300</v>
       </c>
       <c r="I61" s="3">
-        <v>17280300</v>
+        <v>17517600</v>
       </c>
       <c r="J61" s="3">
+        <v>16671500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14312800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14396600</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8253600</v>
+        <v>8053600</v>
       </c>
       <c r="E62" s="3">
-        <v>7867400</v>
+        <v>7962800</v>
       </c>
       <c r="F62" s="3">
-        <v>9142600</v>
+        <v>7590200</v>
       </c>
       <c r="G62" s="3">
-        <v>6641900</v>
+        <v>8820500</v>
       </c>
       <c r="H62" s="3">
-        <v>4646200</v>
+        <v>6407900</v>
       </c>
       <c r="I62" s="3">
-        <v>4102000</v>
+        <v>4482500</v>
       </c>
       <c r="J62" s="3">
+        <v>3957400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3841500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4414200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52380600</v>
+        <v>49761100</v>
       </c>
       <c r="E66" s="3">
-        <v>45966900</v>
+        <v>50535300</v>
       </c>
       <c r="F66" s="3">
-        <v>48023500</v>
+        <v>44347500</v>
       </c>
       <c r="G66" s="3">
-        <v>36103800</v>
+        <v>46331700</v>
       </c>
       <c r="H66" s="3">
-        <v>29701300</v>
+        <v>34831900</v>
       </c>
       <c r="I66" s="3">
-        <v>26628400</v>
+        <v>28655000</v>
       </c>
       <c r="J66" s="3">
+        <v>25690300</v>
+      </c>
+      <c r="K66" s="3">
         <v>23654200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23464800</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,39 +2547,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2996100</v>
+        <v>2890600</v>
       </c>
       <c r="E70" s="3">
-        <v>2996100</v>
+        <v>2890600</v>
       </c>
       <c r="F70" s="3">
-        <v>2996100</v>
+        <v>2890600</v>
       </c>
       <c r="G70" s="3">
-        <v>1881200</v>
+        <v>2890600</v>
       </c>
       <c r="H70" s="3">
-        <v>1697500</v>
+        <v>1814900</v>
       </c>
       <c r="I70" s="3">
-        <v>1364800</v>
+        <v>1637700</v>
       </c>
       <c r="J70" s="3">
+        <v>1316700</v>
+      </c>
+      <c r="K70" s="3">
         <v>921400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1880600</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2087500</v>
+        <v>2872400</v>
       </c>
       <c r="E72" s="3">
-        <v>1221800</v>
+        <v>2013900</v>
       </c>
       <c r="F72" s="3">
-        <v>856700</v>
+        <v>1178700</v>
       </c>
       <c r="G72" s="3">
-        <v>2084500</v>
+        <v>826500</v>
       </c>
       <c r="H72" s="3">
-        <v>4123800</v>
+        <v>2011000</v>
       </c>
       <c r="I72" s="3">
-        <v>3836200</v>
+        <v>3978500</v>
       </c>
       <c r="J72" s="3">
+        <v>3701100</v>
+      </c>
+      <c r="K72" s="3">
         <v>3528300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3555400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19089300</v>
+        <v>19451600</v>
       </c>
       <c r="E76" s="3">
-        <v>15853000</v>
+        <v>18416700</v>
       </c>
       <c r="F76" s="3">
-        <v>15264300</v>
+        <v>15294500</v>
       </c>
       <c r="G76" s="3">
-        <v>10493200</v>
+        <v>14726500</v>
       </c>
       <c r="H76" s="3">
-        <v>12658200</v>
+        <v>10123500</v>
       </c>
       <c r="I76" s="3">
-        <v>12580600</v>
+        <v>12212300</v>
       </c>
       <c r="J76" s="3">
+        <v>12137500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11809000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11021100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2664100</v>
+        <v>2889300</v>
       </c>
       <c r="E81" s="3">
-        <v>2256100</v>
+        <v>2571800</v>
       </c>
       <c r="F81" s="3">
-        <v>93300</v>
+        <v>2177900</v>
       </c>
       <c r="G81" s="3">
-        <v>-933500</v>
+        <v>90100</v>
       </c>
       <c r="H81" s="3">
-        <v>1312100</v>
+        <v>-901100</v>
       </c>
       <c r="I81" s="3">
-        <v>1288800</v>
+        <v>1266600</v>
       </c>
       <c r="J81" s="3">
+        <v>1244100</v>
+      </c>
+      <c r="K81" s="3">
         <v>977900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1172300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1769100</v>
+        <v>1790600</v>
       </c>
       <c r="E83" s="3">
-        <v>1547000</v>
+        <v>1707700</v>
       </c>
       <c r="F83" s="3">
-        <v>1459700</v>
+        <v>1493300</v>
       </c>
       <c r="G83" s="3">
-        <v>1328700</v>
+        <v>1409100</v>
       </c>
       <c r="H83" s="3">
-        <v>1212700</v>
+        <v>1282600</v>
       </c>
       <c r="I83" s="3">
-        <v>1117900</v>
+        <v>1170700</v>
       </c>
       <c r="J83" s="3">
+        <v>1079100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1035100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1020200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4934500</v>
+        <v>5146400</v>
       </c>
       <c r="E89" s="3">
-        <v>3937100</v>
+        <v>4763500</v>
       </c>
       <c r="F89" s="3">
-        <v>3815900</v>
+        <v>3800600</v>
       </c>
       <c r="G89" s="3">
-        <v>3097700</v>
+        <v>3683600</v>
       </c>
       <c r="H89" s="3">
-        <v>3070600</v>
+        <v>2990300</v>
       </c>
       <c r="I89" s="3">
-        <v>2765800</v>
+        <v>2964200</v>
       </c>
       <c r="J89" s="3">
+        <v>2669900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2688200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2831700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7463200</v>
+        <v>-5945800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5667800</v>
+        <v>-7204400</v>
       </c>
       <c r="F91" s="3">
-        <v>-3991300</v>
+        <v>-5471200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3334100</v>
+        <v>-3852900</v>
       </c>
       <c r="H91" s="3">
-        <v>-3279900</v>
+        <v>-3218500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3358200</v>
+        <v>-3166200</v>
       </c>
       <c r="J91" s="3">
+        <v>-3241800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1953500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1930600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7542200</v>
+        <v>-4993800</v>
       </c>
       <c r="E94" s="3">
-        <v>-2784600</v>
+        <v>-7280700</v>
       </c>
       <c r="F94" s="3">
-        <v>-14139700</v>
+        <v>-2688000</v>
       </c>
       <c r="G94" s="3">
-        <v>-3470400</v>
+        <v>-13649400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3119600</v>
+        <v>-3350000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3854300</v>
+        <v>-3011400</v>
       </c>
       <c r="J94" s="3">
+        <v>-3720700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2451100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2346200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1301600</v>
+        <v>-1422900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1124700</v>
+        <v>-1256400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1156300</v>
+        <v>-1085700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1157800</v>
+        <v>-1116200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1083300</v>
+        <v>-1117600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1020800</v>
+        <v>-1045700</v>
       </c>
       <c r="J96" s="3">
+        <v>-985400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-964300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2068700</v>
+        <v>503600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1068200</v>
+        <v>1996900</v>
       </c>
       <c r="F100" s="3">
-        <v>10544300</v>
+        <v>-1031200</v>
       </c>
       <c r="G100" s="3">
-        <v>560100</v>
+        <v>10178700</v>
       </c>
       <c r="H100" s="3">
-        <v>-280800</v>
+        <v>540700</v>
       </c>
       <c r="I100" s="3">
-        <v>1350500</v>
+        <v>-271100</v>
       </c>
       <c r="J100" s="3">
+        <v>1303700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-303400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-493200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55000</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-29400</v>
+        <v>53000</v>
       </c>
       <c r="F101" s="3">
-        <v>-95600</v>
+        <v>-28300</v>
       </c>
       <c r="G101" s="3">
-        <v>84300</v>
+        <v>-92300</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>81400</v>
       </c>
       <c r="I101" s="3">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-11300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-484000</v>
+        <v>651800</v>
       </c>
       <c r="E102" s="3">
-        <v>55000</v>
+        <v>-467300</v>
       </c>
       <c r="F102" s="3">
-        <v>125000</v>
+        <v>53000</v>
       </c>
       <c r="G102" s="3">
-        <v>271800</v>
+        <v>120600</v>
       </c>
       <c r="H102" s="3">
-        <v>-329700</v>
+        <v>262300</v>
       </c>
       <c r="I102" s="3">
-        <v>283000</v>
+        <v>-318300</v>
       </c>
       <c r="J102" s="3">
+        <v>273200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-77500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9632300</v>
+        <v>10088200</v>
       </c>
       <c r="E8" s="3">
-        <v>9940400</v>
+        <v>10411000</v>
       </c>
       <c r="F8" s="3">
-        <v>9773300</v>
+        <v>10235900</v>
       </c>
       <c r="G8" s="3">
-        <v>9117800</v>
+        <v>9549400</v>
       </c>
       <c r="H8" s="3">
-        <v>8250100</v>
+        <v>8640700</v>
       </c>
       <c r="I8" s="3">
-        <v>7401300</v>
+        <v>7751700</v>
       </c>
       <c r="J8" s="3">
-        <v>6392700</v>
+        <v>6695300</v>
       </c>
       <c r="K8" s="3">
         <v>6027600</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2840600</v>
+        <v>2975100</v>
       </c>
       <c r="E9" s="3">
-        <v>2609500</v>
+        <v>2733100</v>
       </c>
       <c r="F9" s="3">
-        <v>2838500</v>
+        <v>2972800</v>
       </c>
       <c r="G9" s="3">
-        <v>2805800</v>
+        <v>2938600</v>
       </c>
       <c r="H9" s="3">
-        <v>2400300</v>
+        <v>2513900</v>
       </c>
       <c r="I9" s="3">
-        <v>2160400</v>
+        <v>2262700</v>
       </c>
       <c r="J9" s="3">
-        <v>1943200</v>
+        <v>2035200</v>
       </c>
       <c r="K9" s="3">
         <v>1939900</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6791600</v>
+        <v>7113100</v>
       </c>
       <c r="E10" s="3">
-        <v>7330800</v>
+        <v>7677900</v>
       </c>
       <c r="F10" s="3">
-        <v>6934800</v>
+        <v>7263100</v>
       </c>
       <c r="G10" s="3">
-        <v>6312000</v>
+        <v>6610800</v>
       </c>
       <c r="H10" s="3">
-        <v>5849900</v>
+        <v>6126800</v>
       </c>
       <c r="I10" s="3">
-        <v>5240900</v>
+        <v>5489000</v>
       </c>
       <c r="J10" s="3">
-        <v>4449500</v>
+        <v>4660200</v>
       </c>
       <c r="K10" s="3">
         <v>4087600</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>582100</v>
+        <v>609600</v>
       </c>
       <c r="F14" s="3">
-        <v>913400</v>
+        <v>956700</v>
       </c>
       <c r="G14" s="3">
-        <v>1087900</v>
+        <v>1139400</v>
       </c>
       <c r="H14" s="3">
-        <v>2736700</v>
+        <v>2866300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1790600</v>
+        <v>1875300</v>
       </c>
       <c r="E15" s="3">
-        <v>1707700</v>
+        <v>1788600</v>
       </c>
       <c r="F15" s="3">
-        <v>1493300</v>
+        <v>1564000</v>
       </c>
       <c r="G15" s="3">
-        <v>1409100</v>
+        <v>1475800</v>
       </c>
       <c r="H15" s="3">
-        <v>1282600</v>
+        <v>1343300</v>
       </c>
       <c r="I15" s="3">
-        <v>1170700</v>
+        <v>1226100</v>
       </c>
       <c r="J15" s="3">
-        <v>1079100</v>
+        <v>1130200</v>
       </c>
       <c r="K15" s="3">
         <v>1035100</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5427600</v>
+        <v>5684600</v>
       </c>
       <c r="E17" s="3">
-        <v>6394100</v>
+        <v>6696800</v>
       </c>
       <c r="F17" s="3">
-        <v>7389700</v>
+        <v>7739500</v>
       </c>
       <c r="G17" s="3">
-        <v>7284300</v>
+        <v>7629200</v>
       </c>
       <c r="H17" s="3">
-        <v>8420900</v>
+        <v>8819500</v>
       </c>
       <c r="I17" s="3">
-        <v>5009100</v>
+        <v>5246200</v>
       </c>
       <c r="J17" s="3">
-        <v>4302700</v>
+        <v>4506400</v>
       </c>
       <c r="K17" s="3">
         <v>4091400</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4204600</v>
+        <v>4403700</v>
       </c>
       <c r="E18" s="3">
-        <v>3546200</v>
+        <v>3714100</v>
       </c>
       <c r="F18" s="3">
-        <v>2383500</v>
+        <v>2496400</v>
       </c>
       <c r="G18" s="3">
-        <v>1833400</v>
+        <v>1920200</v>
       </c>
       <c r="H18" s="3">
-        <v>-170800</v>
+        <v>-178900</v>
       </c>
       <c r="I18" s="3">
-        <v>2392300</v>
+        <v>2505500</v>
       </c>
       <c r="J18" s="3">
-        <v>2090000</v>
+        <v>2188900</v>
       </c>
       <c r="K18" s="3">
         <v>1936200</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1143100</v>
+        <v>1197200</v>
       </c>
       <c r="E20" s="3">
-        <v>881500</v>
+        <v>923200</v>
       </c>
       <c r="F20" s="3">
-        <v>1449700</v>
+        <v>1518400</v>
       </c>
       <c r="G20" s="3">
-        <v>60300</v>
+        <v>63200</v>
       </c>
       <c r="H20" s="3">
-        <v>412800</v>
+        <v>432300</v>
       </c>
       <c r="I20" s="3">
-        <v>479600</v>
+        <v>502300</v>
       </c>
       <c r="J20" s="3">
-        <v>473800</v>
+        <v>496200</v>
       </c>
       <c r="K20" s="3">
         <v>-310900</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7139700</v>
+        <v>7472100</v>
       </c>
       <c r="E21" s="3">
-        <v>6136800</v>
+        <v>6422000</v>
       </c>
       <c r="F21" s="3">
-        <v>5327800</v>
+        <v>5575400</v>
       </c>
       <c r="G21" s="3">
-        <v>3303900</v>
+        <v>3455900</v>
       </c>
       <c r="H21" s="3">
-        <v>1525600</v>
+        <v>1593800</v>
       </c>
       <c r="I21" s="3">
-        <v>4043500</v>
+        <v>4231300</v>
       </c>
       <c r="J21" s="3">
-        <v>3643800</v>
+        <v>3812900</v>
       </c>
       <c r="K21" s="3">
         <v>2660800</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1578400</v>
+        <v>1653100</v>
       </c>
       <c r="E22" s="3">
-        <v>1558000</v>
+        <v>1631800</v>
       </c>
       <c r="F22" s="3">
-        <v>1430900</v>
+        <v>1498600</v>
       </c>
       <c r="G22" s="3">
-        <v>1285500</v>
+        <v>1346400</v>
       </c>
       <c r="H22" s="3">
-        <v>1045700</v>
+        <v>1095200</v>
       </c>
       <c r="I22" s="3">
-        <v>819700</v>
+        <v>858500</v>
       </c>
       <c r="J22" s="3">
-        <v>731100</v>
+        <v>765700</v>
       </c>
       <c r="K22" s="3">
         <v>166400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3769300</v>
+        <v>3947800</v>
       </c>
       <c r="E23" s="3">
-        <v>2869700</v>
+        <v>3005500</v>
       </c>
       <c r="F23" s="3">
-        <v>2402400</v>
+        <v>2516200</v>
       </c>
       <c r="G23" s="3">
-        <v>608200</v>
+        <v>637000</v>
       </c>
       <c r="H23" s="3">
-        <v>-803700</v>
+        <v>-841800</v>
       </c>
       <c r="I23" s="3">
-        <v>2052200</v>
+        <v>2149300</v>
       </c>
       <c r="J23" s="3">
-        <v>1832700</v>
+        <v>1919500</v>
       </c>
       <c r="K23" s="3">
         <v>1458900</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>547900</v>
+        <v>573900</v>
       </c>
       <c r="E24" s="3">
-        <v>435300</v>
+        <v>455900</v>
       </c>
       <c r="F24" s="3">
-        <v>519600</v>
+        <v>544200</v>
       </c>
       <c r="G24" s="3">
-        <v>255800</v>
+        <v>267900</v>
       </c>
       <c r="H24" s="3">
-        <v>24700</v>
+        <v>25900</v>
       </c>
       <c r="I24" s="3">
-        <v>603900</v>
+        <v>632500</v>
       </c>
       <c r="J24" s="3">
-        <v>444000</v>
+        <v>465000</v>
       </c>
       <c r="K24" s="3">
         <v>350800</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3221400</v>
+        <v>3373900</v>
       </c>
       <c r="E26" s="3">
-        <v>2434400</v>
+        <v>2549700</v>
       </c>
       <c r="F26" s="3">
-        <v>1882900</v>
+        <v>1972000</v>
       </c>
       <c r="G26" s="3">
-        <v>352400</v>
+        <v>369100</v>
       </c>
       <c r="H26" s="3">
-        <v>-828400</v>
+        <v>-867600</v>
       </c>
       <c r="I26" s="3">
-        <v>1448300</v>
+        <v>1516900</v>
       </c>
       <c r="J26" s="3">
-        <v>1388700</v>
+        <v>1454400</v>
       </c>
       <c r="K26" s="3">
         <v>1108100</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2889300</v>
+        <v>3026100</v>
       </c>
       <c r="E27" s="3">
-        <v>2450400</v>
+        <v>2566400</v>
       </c>
       <c r="F27" s="3">
-        <v>1593600</v>
+        <v>1669100</v>
       </c>
       <c r="G27" s="3">
-        <v>90100</v>
+        <v>94400</v>
       </c>
       <c r="H27" s="3">
-        <v>-901100</v>
+        <v>-943800</v>
       </c>
       <c r="I27" s="3">
-        <v>1266600</v>
+        <v>1326600</v>
       </c>
       <c r="J27" s="3">
-        <v>1244100</v>
+        <v>1303000</v>
       </c>
       <c r="K27" s="3">
         <v>977900</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>121400</v>
+        <v>127100</v>
       </c>
       <c r="F29" s="3">
-        <v>584300</v>
+        <v>611900</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1143100</v>
+        <v>-1197200</v>
       </c>
       <c r="E32" s="3">
-        <v>-881500</v>
+        <v>-923200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1449700</v>
+        <v>-1518400</v>
       </c>
       <c r="G32" s="3">
-        <v>-60300</v>
+        <v>-63200</v>
       </c>
       <c r="H32" s="3">
-        <v>-412800</v>
+        <v>-432300</v>
       </c>
       <c r="I32" s="3">
-        <v>-479600</v>
+        <v>-502300</v>
       </c>
       <c r="J32" s="3">
-        <v>-473800</v>
+        <v>-496200</v>
       </c>
       <c r="K32" s="3">
         <v>310900</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2889300</v>
+        <v>3026100</v>
       </c>
       <c r="E33" s="3">
-        <v>2571800</v>
+        <v>2693500</v>
       </c>
       <c r="F33" s="3">
-        <v>2177900</v>
+        <v>2281000</v>
       </c>
       <c r="G33" s="3">
-        <v>90100</v>
+        <v>94400</v>
       </c>
       <c r="H33" s="3">
-        <v>-901100</v>
+        <v>-943800</v>
       </c>
       <c r="I33" s="3">
-        <v>1266600</v>
+        <v>1326600</v>
       </c>
       <c r="J33" s="3">
-        <v>1244100</v>
+        <v>1303000</v>
       </c>
       <c r="K33" s="3">
         <v>977900</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2889300</v>
+        <v>3026100</v>
       </c>
       <c r="E35" s="3">
-        <v>2571800</v>
+        <v>2693500</v>
       </c>
       <c r="F35" s="3">
-        <v>2177900</v>
+        <v>2281000</v>
       </c>
       <c r="G35" s="3">
-        <v>90100</v>
+        <v>94400</v>
       </c>
       <c r="H35" s="3">
-        <v>-901100</v>
+        <v>-943800</v>
       </c>
       <c r="I35" s="3">
-        <v>1266600</v>
+        <v>1326600</v>
       </c>
       <c r="J35" s="3">
-        <v>1244100</v>
+        <v>1303000</v>
       </c>
       <c r="K35" s="3">
         <v>977900</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>975400</v>
+        <v>1022100</v>
       </c>
       <c r="E41" s="3">
-        <v>323900</v>
+        <v>339400</v>
       </c>
       <c r="F41" s="3">
-        <v>790900</v>
+        <v>828800</v>
       </c>
       <c r="G41" s="3">
-        <v>737900</v>
+        <v>773300</v>
       </c>
       <c r="H41" s="3">
-        <v>617300</v>
+        <v>646900</v>
       </c>
       <c r="I41" s="3">
-        <v>355100</v>
+        <v>372200</v>
       </c>
       <c r="J41" s="3">
-        <v>673300</v>
+        <v>705500</v>
       </c>
       <c r="K41" s="3">
         <v>414800</v>
@@ -1690,7 +1690,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>520700</v>
+        <v>545700</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1870100</v>
+        <v>1959800</v>
       </c>
       <c r="E43" s="3">
-        <v>1956600</v>
+        <v>2050400</v>
       </c>
       <c r="F43" s="3">
-        <v>1831700</v>
+        <v>1919500</v>
       </c>
       <c r="G43" s="3">
-        <v>1507000</v>
+        <v>1579300</v>
       </c>
       <c r="H43" s="3">
-        <v>1007300</v>
+        <v>1055600</v>
       </c>
       <c r="I43" s="3">
-        <v>953600</v>
+        <v>999300</v>
       </c>
       <c r="J43" s="3">
-        <v>814900</v>
+        <v>853900</v>
       </c>
       <c r="K43" s="3">
         <v>791900</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>328300</v>
+        <v>344000</v>
       </c>
       <c r="E44" s="3">
-        <v>313000</v>
+        <v>328000</v>
       </c>
       <c r="F44" s="3">
-        <v>274500</v>
+        <v>287700</v>
       </c>
       <c r="G44" s="3">
-        <v>267300</v>
+        <v>280100</v>
       </c>
       <c r="H44" s="3">
-        <v>234600</v>
+        <v>245800</v>
       </c>
       <c r="I44" s="3">
-        <v>212100</v>
+        <v>222200</v>
       </c>
       <c r="J44" s="3">
-        <v>182300</v>
+        <v>191000</v>
       </c>
       <c r="K44" s="3">
         <v>168600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2382900</v>
+        <v>2497100</v>
       </c>
       <c r="E45" s="3">
-        <v>615200</v>
+        <v>644600</v>
       </c>
       <c r="F45" s="3">
-        <v>501900</v>
+        <v>525900</v>
       </c>
       <c r="G45" s="3">
-        <v>3359000</v>
+        <v>3520000</v>
       </c>
       <c r="H45" s="3">
-        <v>1487400</v>
+        <v>1558700</v>
       </c>
       <c r="I45" s="3">
-        <v>1790300</v>
+        <v>1876100</v>
       </c>
       <c r="J45" s="3">
-        <v>615200</v>
+        <v>644600</v>
       </c>
       <c r="K45" s="3">
         <v>750500</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5556700</v>
+        <v>5823100</v>
       </c>
       <c r="E46" s="3">
-        <v>3729400</v>
+        <v>3908200</v>
       </c>
       <c r="F46" s="3">
-        <v>3398900</v>
+        <v>3561900</v>
       </c>
       <c r="G46" s="3">
-        <v>5871200</v>
+        <v>6152700</v>
       </c>
       <c r="H46" s="3">
-        <v>2845500</v>
+        <v>2982000</v>
       </c>
       <c r="I46" s="3">
-        <v>2260900</v>
+        <v>2369300</v>
       </c>
       <c r="J46" s="3">
-        <v>2285600</v>
+        <v>2395200</v>
       </c>
       <c r="K46" s="3">
         <v>2125900</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5766600</v>
+        <v>6043100</v>
       </c>
       <c r="E47" s="3">
-        <v>6157300</v>
+        <v>6452500</v>
       </c>
       <c r="F47" s="3">
-        <v>5341000</v>
+        <v>5597100</v>
       </c>
       <c r="G47" s="3">
-        <v>4838400</v>
+        <v>5070400</v>
       </c>
       <c r="H47" s="3">
-        <v>4720000</v>
+        <v>4946300</v>
       </c>
       <c r="I47" s="3">
-        <v>4240000</v>
+        <v>4443200</v>
       </c>
       <c r="J47" s="3">
-        <v>4396800</v>
+        <v>4607600</v>
       </c>
       <c r="K47" s="3">
         <v>4327800</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47562700</v>
+        <v>49843000</v>
       </c>
       <c r="E48" s="3">
-        <v>48299100</v>
+        <v>50614800</v>
       </c>
       <c r="F48" s="3">
-        <v>41598600</v>
+        <v>43593000</v>
       </c>
       <c r="G48" s="3">
-        <v>39563600</v>
+        <v>41460400</v>
       </c>
       <c r="H48" s="3">
-        <v>65098500</v>
+        <v>68219500</v>
       </c>
       <c r="I48" s="3">
-        <v>60678400</v>
+        <v>63587500</v>
       </c>
       <c r="J48" s="3">
-        <v>27312100</v>
+        <v>28621600</v>
       </c>
       <c r="K48" s="3">
         <v>25378800</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10605000</v>
+        <v>11113400</v>
       </c>
       <c r="E49" s="3">
-        <v>11060400</v>
+        <v>11590600</v>
       </c>
       <c r="F49" s="3">
-        <v>9935400</v>
+        <v>10411700</v>
       </c>
       <c r="G49" s="3">
-        <v>11658100</v>
+        <v>12217000</v>
       </c>
       <c r="H49" s="3">
-        <v>7102900</v>
+        <v>7443500</v>
       </c>
       <c r="I49" s="3">
-        <v>4258800</v>
+        <v>4463000</v>
       </c>
       <c r="J49" s="3">
-        <v>3334300</v>
+        <v>3494200</v>
       </c>
       <c r="K49" s="3">
         <v>2886200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2612400</v>
+        <v>2737600</v>
       </c>
       <c r="E52" s="3">
-        <v>2596400</v>
+        <v>2720900</v>
       </c>
       <c r="F52" s="3">
-        <v>2258700</v>
+        <v>2367000</v>
       </c>
       <c r="G52" s="3">
-        <v>2017600</v>
+        <v>2114300</v>
       </c>
       <c r="H52" s="3">
-        <v>1748100</v>
+        <v>1831900</v>
       </c>
       <c r="I52" s="3">
-        <v>1603600</v>
+        <v>1680500</v>
       </c>
       <c r="J52" s="3">
-        <v>1815700</v>
+        <v>1902700</v>
       </c>
       <c r="K52" s="3">
         <v>1665900</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>72103400</v>
+        <v>75560300</v>
       </c>
       <c r="E54" s="3">
-        <v>71842600</v>
+        <v>75287000</v>
       </c>
       <c r="F54" s="3">
-        <v>62532600</v>
+        <v>65530600</v>
       </c>
       <c r="G54" s="3">
-        <v>63948800</v>
+        <v>67014700</v>
       </c>
       <c r="H54" s="3">
-        <v>46770300</v>
+        <v>49012700</v>
       </c>
       <c r="I54" s="3">
-        <v>42505000</v>
+        <v>44542800</v>
       </c>
       <c r="J54" s="3">
-        <v>39144500</v>
+        <v>41021200</v>
       </c>
       <c r="K54" s="3">
         <v>36384600</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2711200</v>
+        <v>2841100</v>
       </c>
       <c r="E57" s="3">
-        <v>2828800</v>
+        <v>2964400</v>
       </c>
       <c r="F57" s="3">
-        <v>2665400</v>
+        <v>2793200</v>
       </c>
       <c r="G57" s="3">
-        <v>2004500</v>
+        <v>2100600</v>
       </c>
       <c r="H57" s="3">
-        <v>2656000</v>
+        <v>2783300</v>
       </c>
       <c r="I57" s="3">
-        <v>1179500</v>
+        <v>1236000</v>
       </c>
       <c r="J57" s="3">
-        <v>628900</v>
+        <v>659100</v>
       </c>
       <c r="K57" s="3">
         <v>694800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5087500</v>
+        <v>5331400</v>
       </c>
       <c r="E58" s="3">
-        <v>4520300</v>
+        <v>4737000</v>
       </c>
       <c r="F58" s="3">
-        <v>3361900</v>
+        <v>3523100</v>
       </c>
       <c r="G58" s="3">
-        <v>1897000</v>
+        <v>1988000</v>
       </c>
       <c r="H58" s="3">
-        <v>2734400</v>
+        <v>2865500</v>
       </c>
       <c r="I58" s="3">
-        <v>3096800</v>
+        <v>3245300</v>
       </c>
       <c r="J58" s="3">
-        <v>2044500</v>
+        <v>2142500</v>
       </c>
       <c r="K58" s="3">
         <v>2385600</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1569500</v>
+        <v>1644700</v>
       </c>
       <c r="E59" s="3">
-        <v>2053200</v>
+        <v>2151600</v>
       </c>
       <c r="F59" s="3">
-        <v>1146100</v>
+        <v>1201000</v>
       </c>
       <c r="G59" s="3">
-        <v>1676200</v>
+        <v>1756600</v>
       </c>
       <c r="H59" s="3">
-        <v>1478000</v>
+        <v>1548800</v>
       </c>
       <c r="I59" s="3">
-        <v>1231800</v>
+        <v>1290800</v>
       </c>
       <c r="J59" s="3">
-        <v>1218000</v>
+        <v>1276300</v>
       </c>
       <c r="K59" s="3">
         <v>1346700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9368200</v>
+        <v>9817300</v>
       </c>
       <c r="E60" s="3">
-        <v>9402300</v>
+        <v>9853100</v>
       </c>
       <c r="F60" s="3">
-        <v>7173400</v>
+        <v>7517300</v>
       </c>
       <c r="G60" s="3">
-        <v>5577800</v>
+        <v>5845200</v>
       </c>
       <c r="H60" s="3">
-        <v>5346800</v>
+        <v>5603100</v>
       </c>
       <c r="I60" s="3">
-        <v>5505100</v>
+        <v>5769100</v>
       </c>
       <c r="J60" s="3">
-        <v>3891400</v>
+        <v>4077900</v>
       </c>
       <c r="K60" s="3">
         <v>4427200</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31152600</v>
+        <v>32646200</v>
       </c>
       <c r="E61" s="3">
-        <v>31968200</v>
+        <v>33500900</v>
       </c>
       <c r="F61" s="3">
-        <v>28238800</v>
+        <v>29592700</v>
       </c>
       <c r="G61" s="3">
-        <v>30679800</v>
+        <v>32150700</v>
       </c>
       <c r="H61" s="3">
-        <v>22745300</v>
+        <v>23835800</v>
       </c>
       <c r="I61" s="3">
-        <v>17517600</v>
+        <v>18357500</v>
       </c>
       <c r="J61" s="3">
-        <v>16671500</v>
+        <v>17470800</v>
       </c>
       <c r="K61" s="3">
         <v>14312800</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8053600</v>
+        <v>8439700</v>
       </c>
       <c r="E62" s="3">
-        <v>7962800</v>
+        <v>8344600</v>
       </c>
       <c r="F62" s="3">
-        <v>7590200</v>
+        <v>7954200</v>
       </c>
       <c r="G62" s="3">
-        <v>8820500</v>
+        <v>9243400</v>
       </c>
       <c r="H62" s="3">
-        <v>6407900</v>
+        <v>6715100</v>
       </c>
       <c r="I62" s="3">
-        <v>4482500</v>
+        <v>4697400</v>
       </c>
       <c r="J62" s="3">
-        <v>3957400</v>
+        <v>4147200</v>
       </c>
       <c r="K62" s="3">
         <v>3841500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49761100</v>
+        <v>52146800</v>
       </c>
       <c r="E66" s="3">
-        <v>50535300</v>
+        <v>52958200</v>
       </c>
       <c r="F66" s="3">
-        <v>44347500</v>
+        <v>46473700</v>
       </c>
       <c r="G66" s="3">
-        <v>46331700</v>
+        <v>48553000</v>
       </c>
       <c r="H66" s="3">
-        <v>34831900</v>
+        <v>36501900</v>
       </c>
       <c r="I66" s="3">
-        <v>28655000</v>
+        <v>30028800</v>
       </c>
       <c r="J66" s="3">
-        <v>25690300</v>
+        <v>26922000</v>
       </c>
       <c r="K66" s="3">
         <v>23654200</v>
@@ -2557,25 +2557,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2890600</v>
+        <v>3029100</v>
       </c>
       <c r="E70" s="3">
-        <v>2890600</v>
+        <v>3029100</v>
       </c>
       <c r="F70" s="3">
-        <v>2890600</v>
+        <v>3029100</v>
       </c>
       <c r="G70" s="3">
-        <v>2890600</v>
+        <v>3029100</v>
       </c>
       <c r="H70" s="3">
-        <v>1814900</v>
+        <v>1902000</v>
       </c>
       <c r="I70" s="3">
-        <v>1637700</v>
+        <v>1716300</v>
       </c>
       <c r="J70" s="3">
-        <v>1316700</v>
+        <v>1379900</v>
       </c>
       <c r="K70" s="3">
         <v>921400</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2872400</v>
+        <v>3010100</v>
       </c>
       <c r="E72" s="3">
-        <v>2013900</v>
+        <v>2110500</v>
       </c>
       <c r="F72" s="3">
-        <v>1178700</v>
+        <v>1235200</v>
       </c>
       <c r="G72" s="3">
-        <v>826500</v>
+        <v>866100</v>
       </c>
       <c r="H72" s="3">
-        <v>2011000</v>
+        <v>2107500</v>
       </c>
       <c r="I72" s="3">
-        <v>3978500</v>
+        <v>4169300</v>
       </c>
       <c r="J72" s="3">
-        <v>3701100</v>
+        <v>3878500</v>
       </c>
       <c r="K72" s="3">
         <v>3528300</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19451600</v>
+        <v>20384300</v>
       </c>
       <c r="E76" s="3">
-        <v>18416700</v>
+        <v>19299800</v>
       </c>
       <c r="F76" s="3">
-        <v>15294500</v>
+        <v>16027800</v>
       </c>
       <c r="G76" s="3">
-        <v>14726500</v>
+        <v>15432700</v>
       </c>
       <c r="H76" s="3">
-        <v>10123500</v>
+        <v>10608800</v>
       </c>
       <c r="I76" s="3">
-        <v>12212300</v>
+        <v>12797700</v>
       </c>
       <c r="J76" s="3">
-        <v>12137500</v>
+        <v>12719300</v>
       </c>
       <c r="K76" s="3">
         <v>11809000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2889300</v>
+        <v>3026100</v>
       </c>
       <c r="E81" s="3">
-        <v>2571800</v>
+        <v>2693500</v>
       </c>
       <c r="F81" s="3">
-        <v>2177900</v>
+        <v>2281000</v>
       </c>
       <c r="G81" s="3">
-        <v>90100</v>
+        <v>94400</v>
       </c>
       <c r="H81" s="3">
-        <v>-901100</v>
+        <v>-943800</v>
       </c>
       <c r="I81" s="3">
-        <v>1266600</v>
+        <v>1326600</v>
       </c>
       <c r="J81" s="3">
-        <v>1244100</v>
+        <v>1303000</v>
       </c>
       <c r="K81" s="3">
         <v>977900</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1790600</v>
+        <v>1875300</v>
       </c>
       <c r="E83" s="3">
-        <v>1707700</v>
+        <v>1788600</v>
       </c>
       <c r="F83" s="3">
-        <v>1493300</v>
+        <v>1564000</v>
       </c>
       <c r="G83" s="3">
-        <v>1409100</v>
+        <v>1475800</v>
       </c>
       <c r="H83" s="3">
-        <v>1282600</v>
+        <v>1343300</v>
       </c>
       <c r="I83" s="3">
-        <v>1170700</v>
+        <v>1226100</v>
       </c>
       <c r="J83" s="3">
-        <v>1079100</v>
+        <v>1130200</v>
       </c>
       <c r="K83" s="3">
         <v>1035100</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5146400</v>
+        <v>5390000</v>
       </c>
       <c r="E89" s="3">
-        <v>4763500</v>
+        <v>4988900</v>
       </c>
       <c r="F89" s="3">
-        <v>3800600</v>
+        <v>3980500</v>
       </c>
       <c r="G89" s="3">
-        <v>3683600</v>
+        <v>3858000</v>
       </c>
       <c r="H89" s="3">
-        <v>2990300</v>
+        <v>3131900</v>
       </c>
       <c r="I89" s="3">
-        <v>2964200</v>
+        <v>3104500</v>
       </c>
       <c r="J89" s="3">
-        <v>2669900</v>
+        <v>2796200</v>
       </c>
       <c r="K89" s="3">
         <v>2688200</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5945800</v>
+        <v>-6227200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7204400</v>
+        <v>-7545400</v>
       </c>
       <c r="F91" s="3">
-        <v>-5471200</v>
+        <v>-5730200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3852900</v>
+        <v>-4035300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3218500</v>
+        <v>-3370900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3166200</v>
+        <v>-3316100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3241800</v>
+        <v>-3395200</v>
       </c>
       <c r="K91" s="3">
         <v>-1953500</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4993800</v>
+        <v>-5230200</v>
       </c>
       <c r="E94" s="3">
-        <v>-7280700</v>
+        <v>-7625400</v>
       </c>
       <c r="F94" s="3">
-        <v>-2688000</v>
+        <v>-2815300</v>
       </c>
       <c r="G94" s="3">
-        <v>-13649400</v>
+        <v>-14295600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3350000</v>
+        <v>-3508600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3011400</v>
+        <v>-3154000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3720700</v>
+        <v>-3896800</v>
       </c>
       <c r="K94" s="3">
         <v>-2451100</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1422900</v>
+        <v>-1490200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1256400</v>
+        <v>-1315900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1085700</v>
+        <v>-1137100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1116200</v>
+        <v>-1169000</v>
       </c>
       <c r="H96" s="3">
-        <v>-1117600</v>
+        <v>-1170600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1045700</v>
+        <v>-1095200</v>
       </c>
       <c r="J96" s="3">
-        <v>-985400</v>
+        <v>-1032000</v>
       </c>
       <c r="K96" s="3">
         <v>-964300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>503600</v>
+        <v>527400</v>
       </c>
       <c r="E100" s="3">
-        <v>1996900</v>
+        <v>2091500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1031200</v>
+        <v>-1080000</v>
       </c>
       <c r="G100" s="3">
-        <v>10178700</v>
+        <v>10660600</v>
       </c>
       <c r="H100" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="I100" s="3">
-        <v>-271100</v>
+        <v>-283900</v>
       </c>
       <c r="J100" s="3">
-        <v>1303700</v>
+        <v>1365400</v>
       </c>
       <c r="K100" s="3">
         <v>-303400</v>
@@ -3465,25 +3465,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="E101" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="F101" s="3">
-        <v>-28300</v>
+        <v>-29700</v>
       </c>
       <c r="G101" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="H101" s="3">
-        <v>81400</v>
+        <v>85200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="K101" s="3">
         <v>-11300</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>651800</v>
+        <v>682700</v>
       </c>
       <c r="E102" s="3">
-        <v>-467300</v>
+        <v>-489400</v>
       </c>
       <c r="F102" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="G102" s="3">
-        <v>120600</v>
+        <v>126300</v>
       </c>
       <c r="H102" s="3">
-        <v>262300</v>
+        <v>274800</v>
       </c>
       <c r="I102" s="3">
-        <v>-318300</v>
+        <v>-333400</v>
       </c>
       <c r="J102" s="3">
-        <v>273200</v>
+        <v>286200</v>
       </c>
       <c r="K102" s="3">
         <v>-77500</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10088200</v>
+        <v>10204000</v>
       </c>
       <c r="E8" s="3">
-        <v>10411000</v>
+        <v>10530400</v>
       </c>
       <c r="F8" s="3">
-        <v>10235900</v>
+        <v>10353300</v>
       </c>
       <c r="G8" s="3">
-        <v>9549400</v>
+        <v>9658900</v>
       </c>
       <c r="H8" s="3">
-        <v>8640700</v>
+        <v>8739800</v>
       </c>
       <c r="I8" s="3">
-        <v>7751700</v>
+        <v>7840600</v>
       </c>
       <c r="J8" s="3">
-        <v>6695300</v>
+        <v>6772100</v>
       </c>
       <c r="K8" s="3">
         <v>6027600</v>
@@ -752,25 +752,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2975100</v>
+        <v>3009200</v>
       </c>
       <c r="E9" s="3">
-        <v>2733100</v>
+        <v>2764400</v>
       </c>
       <c r="F9" s="3">
-        <v>2972800</v>
+        <v>3006900</v>
       </c>
       <c r="G9" s="3">
-        <v>2938600</v>
+        <v>2972300</v>
       </c>
       <c r="H9" s="3">
-        <v>2513900</v>
+        <v>2542700</v>
       </c>
       <c r="I9" s="3">
-        <v>2262700</v>
+        <v>2288700</v>
       </c>
       <c r="J9" s="3">
-        <v>2035200</v>
+        <v>2058500</v>
       </c>
       <c r="K9" s="3">
         <v>1939900</v>
@@ -785,25 +785,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7113100</v>
+        <v>7194700</v>
       </c>
       <c r="E10" s="3">
-        <v>7677900</v>
+        <v>7765900</v>
       </c>
       <c r="F10" s="3">
-        <v>7263100</v>
+        <v>7346400</v>
       </c>
       <c r="G10" s="3">
-        <v>6610800</v>
+        <v>6686700</v>
       </c>
       <c r="H10" s="3">
-        <v>6126800</v>
+        <v>6197100</v>
       </c>
       <c r="I10" s="3">
-        <v>5489000</v>
+        <v>5551900</v>
       </c>
       <c r="J10" s="3">
-        <v>4660200</v>
+        <v>4713600</v>
       </c>
       <c r="K10" s="3">
         <v>4087600</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>609600</v>
+        <v>616600</v>
       </c>
       <c r="F14" s="3">
-        <v>956700</v>
+        <v>967700</v>
       </c>
       <c r="G14" s="3">
-        <v>1139400</v>
+        <v>1152400</v>
       </c>
       <c r="H14" s="3">
-        <v>2866300</v>
+        <v>2899100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1875300</v>
+        <v>1896800</v>
       </c>
       <c r="E15" s="3">
-        <v>1788600</v>
+        <v>1809100</v>
       </c>
       <c r="F15" s="3">
-        <v>1564000</v>
+        <v>1582000</v>
       </c>
       <c r="G15" s="3">
-        <v>1475800</v>
+        <v>1492700</v>
       </c>
       <c r="H15" s="3">
-        <v>1343300</v>
+        <v>1358700</v>
       </c>
       <c r="I15" s="3">
-        <v>1226100</v>
+        <v>1240200</v>
       </c>
       <c r="J15" s="3">
-        <v>1130200</v>
+        <v>1143200</v>
       </c>
       <c r="K15" s="3">
         <v>1035100</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5684600</v>
+        <v>5749800</v>
       </c>
       <c r="E17" s="3">
-        <v>6696800</v>
+        <v>6773600</v>
       </c>
       <c r="F17" s="3">
-        <v>7739500</v>
+        <v>7828300</v>
       </c>
       <c r="G17" s="3">
-        <v>7629200</v>
+        <v>7716700</v>
       </c>
       <c r="H17" s="3">
-        <v>8819500</v>
+        <v>8920700</v>
       </c>
       <c r="I17" s="3">
-        <v>5246200</v>
+        <v>5306400</v>
       </c>
       <c r="J17" s="3">
-        <v>4506400</v>
+        <v>4558100</v>
       </c>
       <c r="K17" s="3">
         <v>4091400</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4403700</v>
+        <v>4454200</v>
       </c>
       <c r="E18" s="3">
-        <v>3714100</v>
+        <v>3756700</v>
       </c>
       <c r="F18" s="3">
-        <v>2496400</v>
+        <v>2525000</v>
       </c>
       <c r="G18" s="3">
-        <v>1920200</v>
+        <v>1942300</v>
       </c>
       <c r="H18" s="3">
-        <v>-178900</v>
+        <v>-180900</v>
       </c>
       <c r="I18" s="3">
-        <v>2505500</v>
+        <v>2534200</v>
       </c>
       <c r="J18" s="3">
-        <v>2188900</v>
+        <v>2214000</v>
       </c>
       <c r="K18" s="3">
         <v>1936200</v>
@@ -1058,25 +1058,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1197200</v>
+        <v>1334900</v>
       </c>
       <c r="E20" s="3">
-        <v>923200</v>
+        <v>1026900</v>
       </c>
       <c r="F20" s="3">
-        <v>1518400</v>
+        <v>1612000</v>
       </c>
       <c r="G20" s="3">
-        <v>63200</v>
+        <v>151700</v>
       </c>
       <c r="H20" s="3">
-        <v>432300</v>
+        <v>473400</v>
       </c>
       <c r="I20" s="3">
-        <v>502300</v>
+        <v>562000</v>
       </c>
       <c r="J20" s="3">
-        <v>496200</v>
+        <v>501900</v>
       </c>
       <c r="K20" s="3">
         <v>-310900</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7472100</v>
+        <v>7682500</v>
       </c>
       <c r="E21" s="3">
-        <v>6422000</v>
+        <v>6589500</v>
       </c>
       <c r="F21" s="3">
-        <v>5575400</v>
+        <v>5716200</v>
       </c>
       <c r="G21" s="3">
-        <v>3455900</v>
+        <v>3584000</v>
       </c>
       <c r="H21" s="3">
-        <v>1593800</v>
+        <v>1648900</v>
       </c>
       <c r="I21" s="3">
-        <v>4231300</v>
+        <v>4334200</v>
       </c>
       <c r="J21" s="3">
-        <v>3812900</v>
+        <v>3857100</v>
       </c>
       <c r="K21" s="3">
         <v>2660800</v>
@@ -1124,25 +1124,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1653100</v>
+        <v>1796000</v>
       </c>
       <c r="E22" s="3">
-        <v>1631800</v>
+        <v>1743600</v>
       </c>
       <c r="F22" s="3">
-        <v>1498600</v>
+        <v>1592000</v>
       </c>
       <c r="G22" s="3">
-        <v>1346400</v>
+        <v>1449600</v>
       </c>
       <c r="H22" s="3">
-        <v>1095200</v>
+        <v>1144000</v>
       </c>
       <c r="I22" s="3">
-        <v>858500</v>
+        <v>922200</v>
       </c>
       <c r="J22" s="3">
-        <v>765700</v>
+        <v>774400</v>
       </c>
       <c r="K22" s="3">
         <v>166400</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3947800</v>
+        <v>3993100</v>
       </c>
       <c r="E23" s="3">
-        <v>3005500</v>
+        <v>3040000</v>
       </c>
       <c r="F23" s="3">
-        <v>2516200</v>
+        <v>2545000</v>
       </c>
       <c r="G23" s="3">
-        <v>637000</v>
+        <v>644300</v>
       </c>
       <c r="H23" s="3">
-        <v>-841800</v>
+        <v>-851400</v>
       </c>
       <c r="I23" s="3">
-        <v>2149300</v>
+        <v>2174000</v>
       </c>
       <c r="J23" s="3">
-        <v>1919500</v>
+        <v>1941500</v>
       </c>
       <c r="K23" s="3">
         <v>1458900</v>
@@ -1190,25 +1190,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>573900</v>
+        <v>580400</v>
       </c>
       <c r="E24" s="3">
-        <v>455900</v>
+        <v>461100</v>
       </c>
       <c r="F24" s="3">
-        <v>544200</v>
+        <v>550400</v>
       </c>
       <c r="G24" s="3">
-        <v>267900</v>
+        <v>271000</v>
       </c>
       <c r="H24" s="3">
-        <v>25900</v>
+        <v>26200</v>
       </c>
       <c r="I24" s="3">
-        <v>632500</v>
+        <v>639700</v>
       </c>
       <c r="J24" s="3">
-        <v>465000</v>
+        <v>470400</v>
       </c>
       <c r="K24" s="3">
         <v>350800</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3373900</v>
+        <v>3412600</v>
       </c>
       <c r="E26" s="3">
-        <v>2549700</v>
+        <v>2578900</v>
       </c>
       <c r="F26" s="3">
-        <v>1972000</v>
+        <v>1994600</v>
       </c>
       <c r="G26" s="3">
-        <v>369100</v>
+        <v>373400</v>
       </c>
       <c r="H26" s="3">
-        <v>-867600</v>
+        <v>-877600</v>
       </c>
       <c r="I26" s="3">
-        <v>1516900</v>
+        <v>1534300</v>
       </c>
       <c r="J26" s="3">
-        <v>1454400</v>
+        <v>1471100</v>
       </c>
       <c r="K26" s="3">
         <v>1108100</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3026100</v>
+        <v>3060800</v>
       </c>
       <c r="E27" s="3">
-        <v>2566400</v>
+        <v>2595800</v>
       </c>
       <c r="F27" s="3">
-        <v>1669100</v>
+        <v>1688200</v>
       </c>
       <c r="G27" s="3">
-        <v>94400</v>
+        <v>95500</v>
       </c>
       <c r="H27" s="3">
-        <v>-943800</v>
+        <v>-954600</v>
       </c>
       <c r="I27" s="3">
-        <v>1326600</v>
+        <v>1341800</v>
       </c>
       <c r="J27" s="3">
-        <v>1303000</v>
+        <v>1317900</v>
       </c>
       <c r="K27" s="3">
         <v>977900</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>127100</v>
+        <v>128600</v>
       </c>
       <c r="F29" s="3">
-        <v>611900</v>
+        <v>618900</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1197200</v>
+        <v>-1334900</v>
       </c>
       <c r="E32" s="3">
-        <v>-923200</v>
+        <v>-1026900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1518400</v>
+        <v>-1612000</v>
       </c>
       <c r="G32" s="3">
-        <v>-63200</v>
+        <v>-151700</v>
       </c>
       <c r="H32" s="3">
-        <v>-432300</v>
+        <v>-473400</v>
       </c>
       <c r="I32" s="3">
-        <v>-502300</v>
+        <v>-562000</v>
       </c>
       <c r="J32" s="3">
-        <v>-496200</v>
+        <v>-501900</v>
       </c>
       <c r="K32" s="3">
         <v>310900</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3026100</v>
+        <v>3060800</v>
       </c>
       <c r="E33" s="3">
-        <v>2693500</v>
+        <v>2724400</v>
       </c>
       <c r="F33" s="3">
-        <v>2281000</v>
+        <v>2307200</v>
       </c>
       <c r="G33" s="3">
-        <v>94400</v>
+        <v>95500</v>
       </c>
       <c r="H33" s="3">
-        <v>-943800</v>
+        <v>-954600</v>
       </c>
       <c r="I33" s="3">
-        <v>1326600</v>
+        <v>1341800</v>
       </c>
       <c r="J33" s="3">
-        <v>1303000</v>
+        <v>1317900</v>
       </c>
       <c r="K33" s="3">
         <v>977900</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3026100</v>
+        <v>3060800</v>
       </c>
       <c r="E35" s="3">
-        <v>2693500</v>
+        <v>2724400</v>
       </c>
       <c r="F35" s="3">
-        <v>2281000</v>
+        <v>2307200</v>
       </c>
       <c r="G35" s="3">
-        <v>94400</v>
+        <v>95500</v>
       </c>
       <c r="H35" s="3">
-        <v>-943800</v>
+        <v>-954600</v>
       </c>
       <c r="I35" s="3">
-        <v>1326600</v>
+        <v>1341800</v>
       </c>
       <c r="J35" s="3">
-        <v>1303000</v>
+        <v>1317900</v>
       </c>
       <c r="K35" s="3">
         <v>977900</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1022100</v>
+        <v>1033900</v>
       </c>
       <c r="E41" s="3">
-        <v>339400</v>
+        <v>343300</v>
       </c>
       <c r="F41" s="3">
-        <v>828800</v>
+        <v>838300</v>
       </c>
       <c r="G41" s="3">
-        <v>773300</v>
+        <v>782100</v>
       </c>
       <c r="H41" s="3">
-        <v>646900</v>
+        <v>654300</v>
       </c>
       <c r="I41" s="3">
-        <v>372200</v>
+        <v>376400</v>
       </c>
       <c r="J41" s="3">
-        <v>705500</v>
+        <v>713600</v>
       </c>
       <c r="K41" s="3">
         <v>414800</v>
@@ -1690,7 +1690,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>545700</v>
+        <v>552000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1720,25 +1720,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1959800</v>
+        <v>1982300</v>
       </c>
       <c r="E43" s="3">
-        <v>2050400</v>
+        <v>2073900</v>
       </c>
       <c r="F43" s="3">
-        <v>1919500</v>
+        <v>1941500</v>
       </c>
       <c r="G43" s="3">
-        <v>1579300</v>
+        <v>1597400</v>
       </c>
       <c r="H43" s="3">
-        <v>1055600</v>
+        <v>1067700</v>
       </c>
       <c r="I43" s="3">
-        <v>999300</v>
+        <v>1010800</v>
       </c>
       <c r="J43" s="3">
-        <v>853900</v>
+        <v>863700</v>
       </c>
       <c r="K43" s="3">
         <v>791900</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>344000</v>
+        <v>348000</v>
       </c>
       <c r="E44" s="3">
-        <v>328000</v>
+        <v>331800</v>
       </c>
       <c r="F44" s="3">
-        <v>287700</v>
+        <v>291000</v>
       </c>
       <c r="G44" s="3">
-        <v>280100</v>
+        <v>283300</v>
       </c>
       <c r="H44" s="3">
-        <v>245800</v>
+        <v>248700</v>
       </c>
       <c r="I44" s="3">
-        <v>222200</v>
+        <v>224800</v>
       </c>
       <c r="J44" s="3">
-        <v>191000</v>
+        <v>193200</v>
       </c>
       <c r="K44" s="3">
         <v>168600</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2497100</v>
+        <v>2525800</v>
       </c>
       <c r="E45" s="3">
-        <v>644600</v>
+        <v>652000</v>
       </c>
       <c r="F45" s="3">
-        <v>525900</v>
+        <v>531900</v>
       </c>
       <c r="G45" s="3">
-        <v>3520000</v>
+        <v>3560400</v>
       </c>
       <c r="H45" s="3">
-        <v>1558700</v>
+        <v>1576600</v>
       </c>
       <c r="I45" s="3">
-        <v>1876100</v>
+        <v>1897600</v>
       </c>
       <c r="J45" s="3">
-        <v>644600</v>
+        <v>652000</v>
       </c>
       <c r="K45" s="3">
         <v>750500</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5823100</v>
+        <v>5889900</v>
       </c>
       <c r="E46" s="3">
-        <v>3908200</v>
+        <v>3953000</v>
       </c>
       <c r="F46" s="3">
-        <v>3561900</v>
+        <v>3602800</v>
       </c>
       <c r="G46" s="3">
-        <v>6152700</v>
+        <v>6223200</v>
       </c>
       <c r="H46" s="3">
-        <v>2982000</v>
+        <v>3016200</v>
       </c>
       <c r="I46" s="3">
-        <v>2369300</v>
+        <v>2396400</v>
       </c>
       <c r="J46" s="3">
-        <v>2395200</v>
+        <v>2422600</v>
       </c>
       <c r="K46" s="3">
         <v>2125900</v>
@@ -1852,25 +1852,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6043100</v>
+        <v>6112400</v>
       </c>
       <c r="E47" s="3">
-        <v>6452500</v>
+        <v>6526500</v>
       </c>
       <c r="F47" s="3">
-        <v>5597100</v>
+        <v>5661300</v>
       </c>
       <c r="G47" s="3">
-        <v>5070400</v>
+        <v>5128500</v>
       </c>
       <c r="H47" s="3">
-        <v>4946300</v>
+        <v>5003100</v>
       </c>
       <c r="I47" s="3">
-        <v>4443200</v>
+        <v>4494200</v>
       </c>
       <c r="J47" s="3">
-        <v>4607600</v>
+        <v>4660500</v>
       </c>
       <c r="K47" s="3">
         <v>4327800</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>49843000</v>
+        <v>50414700</v>
       </c>
       <c r="E48" s="3">
-        <v>50614800</v>
+        <v>51195300</v>
       </c>
       <c r="F48" s="3">
-        <v>43593000</v>
+        <v>44093000</v>
       </c>
       <c r="G48" s="3">
-        <v>41460400</v>
+        <v>41935900</v>
       </c>
       <c r="H48" s="3">
-        <v>68219500</v>
+        <v>69002000</v>
       </c>
       <c r="I48" s="3">
-        <v>63587500</v>
+        <v>64316900</v>
       </c>
       <c r="J48" s="3">
-        <v>28621600</v>
+        <v>28949900</v>
       </c>
       <c r="K48" s="3">
         <v>25378800</v>
@@ -1918,25 +1918,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11113400</v>
+        <v>11240900</v>
       </c>
       <c r="E49" s="3">
-        <v>11590600</v>
+        <v>11723600</v>
       </c>
       <c r="F49" s="3">
-        <v>10411700</v>
+        <v>10531100</v>
       </c>
       <c r="G49" s="3">
-        <v>12217000</v>
+        <v>12357200</v>
       </c>
       <c r="H49" s="3">
-        <v>7443500</v>
+        <v>7528800</v>
       </c>
       <c r="I49" s="3">
-        <v>4463000</v>
+        <v>4514200</v>
       </c>
       <c r="J49" s="3">
-        <v>3494200</v>
+        <v>3534200</v>
       </c>
       <c r="K49" s="3">
         <v>2886200</v>
@@ -2017,25 +2017,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2737600</v>
+        <v>2769000</v>
       </c>
       <c r="E52" s="3">
-        <v>2720900</v>
+        <v>2752100</v>
       </c>
       <c r="F52" s="3">
-        <v>2367000</v>
+        <v>2394100</v>
       </c>
       <c r="G52" s="3">
-        <v>2114300</v>
+        <v>2138600</v>
       </c>
       <c r="H52" s="3">
-        <v>1831900</v>
+        <v>1853000</v>
       </c>
       <c r="I52" s="3">
-        <v>1680500</v>
+        <v>1699800</v>
       </c>
       <c r="J52" s="3">
-        <v>1902700</v>
+        <v>1924500</v>
       </c>
       <c r="K52" s="3">
         <v>1665900</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75560300</v>
+        <v>76427000</v>
       </c>
       <c r="E54" s="3">
-        <v>75287000</v>
+        <v>76150600</v>
       </c>
       <c r="F54" s="3">
-        <v>65530600</v>
+        <v>66282300</v>
       </c>
       <c r="G54" s="3">
-        <v>67014700</v>
+        <v>67783400</v>
       </c>
       <c r="H54" s="3">
-        <v>49012700</v>
+        <v>49574900</v>
       </c>
       <c r="I54" s="3">
-        <v>44542800</v>
+        <v>45053700</v>
       </c>
       <c r="J54" s="3">
-        <v>41021200</v>
+        <v>41491800</v>
       </c>
       <c r="K54" s="3">
         <v>36384600</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2841100</v>
+        <v>2873700</v>
       </c>
       <c r="E57" s="3">
-        <v>2964400</v>
+        <v>2998400</v>
       </c>
       <c r="F57" s="3">
-        <v>2793200</v>
+        <v>2825200</v>
       </c>
       <c r="G57" s="3">
-        <v>2100600</v>
+        <v>2124700</v>
       </c>
       <c r="H57" s="3">
-        <v>2783300</v>
+        <v>2815200</v>
       </c>
       <c r="I57" s="3">
-        <v>1236000</v>
+        <v>1250200</v>
       </c>
       <c r="J57" s="3">
-        <v>659100</v>
+        <v>666700</v>
       </c>
       <c r="K57" s="3">
         <v>694800</v>
@@ -2179,25 +2179,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5331400</v>
+        <v>5392600</v>
       </c>
       <c r="E58" s="3">
-        <v>4737000</v>
+        <v>4791400</v>
       </c>
       <c r="F58" s="3">
-        <v>3523100</v>
+        <v>3563500</v>
       </c>
       <c r="G58" s="3">
-        <v>1988000</v>
+        <v>2010800</v>
       </c>
       <c r="H58" s="3">
-        <v>2865500</v>
+        <v>2898400</v>
       </c>
       <c r="I58" s="3">
-        <v>3245300</v>
+        <v>3282500</v>
       </c>
       <c r="J58" s="3">
-        <v>2142500</v>
+        <v>2167000</v>
       </c>
       <c r="K58" s="3">
         <v>2385600</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1644700</v>
+        <v>1663600</v>
       </c>
       <c r="E59" s="3">
-        <v>2151600</v>
+        <v>2176300</v>
       </c>
       <c r="F59" s="3">
-        <v>1201000</v>
+        <v>1214800</v>
       </c>
       <c r="G59" s="3">
-        <v>1756600</v>
+        <v>1776700</v>
       </c>
       <c r="H59" s="3">
-        <v>1548800</v>
+        <v>1566600</v>
       </c>
       <c r="I59" s="3">
-        <v>1290800</v>
+        <v>1305600</v>
       </c>
       <c r="J59" s="3">
-        <v>1276300</v>
+        <v>1291000</v>
       </c>
       <c r="K59" s="3">
         <v>1346700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9817300</v>
+        <v>9929900</v>
       </c>
       <c r="E60" s="3">
-        <v>9853100</v>
+        <v>9966100</v>
       </c>
       <c r="F60" s="3">
-        <v>7517300</v>
+        <v>7603500</v>
       </c>
       <c r="G60" s="3">
-        <v>5845200</v>
+        <v>5912200</v>
       </c>
       <c r="H60" s="3">
-        <v>5603100</v>
+        <v>5667400</v>
       </c>
       <c r="I60" s="3">
-        <v>5769100</v>
+        <v>5835200</v>
       </c>
       <c r="J60" s="3">
-        <v>4077900</v>
+        <v>4124700</v>
       </c>
       <c r="K60" s="3">
         <v>4427200</v>
@@ -2278,25 +2278,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32646200</v>
+        <v>33020700</v>
       </c>
       <c r="E61" s="3">
-        <v>33500900</v>
+        <v>33885200</v>
       </c>
       <c r="F61" s="3">
-        <v>29592700</v>
+        <v>29932100</v>
       </c>
       <c r="G61" s="3">
-        <v>32150700</v>
+        <v>32519500</v>
       </c>
       <c r="H61" s="3">
-        <v>23835800</v>
+        <v>24109200</v>
       </c>
       <c r="I61" s="3">
-        <v>18357500</v>
+        <v>18568100</v>
       </c>
       <c r="J61" s="3">
-        <v>17470800</v>
+        <v>17671200</v>
       </c>
       <c r="K61" s="3">
         <v>14312800</v>
@@ -2311,25 +2311,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8439700</v>
+        <v>8536500</v>
       </c>
       <c r="E62" s="3">
-        <v>8344600</v>
+        <v>8440300</v>
       </c>
       <c r="F62" s="3">
-        <v>7954200</v>
+        <v>8045400</v>
       </c>
       <c r="G62" s="3">
-        <v>9243400</v>
+        <v>9349500</v>
       </c>
       <c r="H62" s="3">
-        <v>6715100</v>
+        <v>6792100</v>
       </c>
       <c r="I62" s="3">
-        <v>4697400</v>
+        <v>4751300</v>
       </c>
       <c r="J62" s="3">
-        <v>4147200</v>
+        <v>4194700</v>
       </c>
       <c r="K62" s="3">
         <v>3841500</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52146800</v>
+        <v>52745000</v>
       </c>
       <c r="E66" s="3">
-        <v>52958200</v>
+        <v>53565600</v>
       </c>
       <c r="F66" s="3">
-        <v>46473700</v>
+        <v>47006700</v>
       </c>
       <c r="G66" s="3">
-        <v>48553000</v>
+        <v>49109900</v>
       </c>
       <c r="H66" s="3">
-        <v>36501900</v>
+        <v>36920600</v>
       </c>
       <c r="I66" s="3">
-        <v>30028800</v>
+        <v>30373200</v>
       </c>
       <c r="J66" s="3">
-        <v>26922000</v>
+        <v>27230800</v>
       </c>
       <c r="K66" s="3">
         <v>23654200</v>
@@ -2557,25 +2557,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3029100</v>
+        <v>3063900</v>
       </c>
       <c r="E70" s="3">
-        <v>3029100</v>
+        <v>3063900</v>
       </c>
       <c r="F70" s="3">
-        <v>3029100</v>
+        <v>3063900</v>
       </c>
       <c r="G70" s="3">
-        <v>3029100</v>
+        <v>3063900</v>
       </c>
       <c r="H70" s="3">
-        <v>1902000</v>
+        <v>1923800</v>
       </c>
       <c r="I70" s="3">
-        <v>1716300</v>
+        <v>1735900</v>
       </c>
       <c r="J70" s="3">
-        <v>1379900</v>
+        <v>1395700</v>
       </c>
       <c r="K70" s="3">
         <v>921400</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3010100</v>
+        <v>3044600</v>
       </c>
       <c r="E72" s="3">
-        <v>2110500</v>
+        <v>2134700</v>
       </c>
       <c r="F72" s="3">
-        <v>1235200</v>
+        <v>1249400</v>
       </c>
       <c r="G72" s="3">
-        <v>866100</v>
+        <v>876100</v>
       </c>
       <c r="H72" s="3">
-        <v>2107500</v>
+        <v>2131600</v>
       </c>
       <c r="I72" s="3">
-        <v>4169300</v>
+        <v>4217100</v>
       </c>
       <c r="J72" s="3">
-        <v>3878500</v>
+        <v>3923000</v>
       </c>
       <c r="K72" s="3">
         <v>3528300</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20384300</v>
+        <v>20618100</v>
       </c>
       <c r="E76" s="3">
-        <v>19299800</v>
+        <v>19521100</v>
       </c>
       <c r="F76" s="3">
-        <v>16027800</v>
+        <v>16211600</v>
       </c>
       <c r="G76" s="3">
-        <v>15432700</v>
+        <v>15609600</v>
       </c>
       <c r="H76" s="3">
-        <v>10608800</v>
+        <v>10730500</v>
       </c>
       <c r="I76" s="3">
-        <v>12797700</v>
+        <v>12944600</v>
       </c>
       <c r="J76" s="3">
-        <v>12719300</v>
+        <v>12865200</v>
       </c>
       <c r="K76" s="3">
         <v>11809000</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3026100</v>
+        <v>3060800</v>
       </c>
       <c r="E81" s="3">
-        <v>2693500</v>
+        <v>2724400</v>
       </c>
       <c r="F81" s="3">
-        <v>2281000</v>
+        <v>2307200</v>
       </c>
       <c r="G81" s="3">
-        <v>94400</v>
+        <v>95500</v>
       </c>
       <c r="H81" s="3">
-        <v>-943800</v>
+        <v>-954600</v>
       </c>
       <c r="I81" s="3">
-        <v>1326600</v>
+        <v>1341800</v>
       </c>
       <c r="J81" s="3">
-        <v>1303000</v>
+        <v>1317900</v>
       </c>
       <c r="K81" s="3">
         <v>977900</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1875300</v>
+        <v>1896800</v>
       </c>
       <c r="E83" s="3">
-        <v>1788600</v>
+        <v>1809100</v>
       </c>
       <c r="F83" s="3">
-        <v>1564000</v>
+        <v>1582000</v>
       </c>
       <c r="G83" s="3">
-        <v>1475800</v>
+        <v>1492700</v>
       </c>
       <c r="H83" s="3">
-        <v>1343300</v>
+        <v>1358700</v>
       </c>
       <c r="I83" s="3">
-        <v>1226100</v>
+        <v>1240200</v>
       </c>
       <c r="J83" s="3">
-        <v>1130200</v>
+        <v>1143200</v>
       </c>
       <c r="K83" s="3">
         <v>1035100</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5390000</v>
+        <v>5451900</v>
       </c>
       <c r="E89" s="3">
-        <v>4988900</v>
+        <v>5046200</v>
       </c>
       <c r="F89" s="3">
-        <v>3980500</v>
+        <v>4026200</v>
       </c>
       <c r="G89" s="3">
-        <v>3858000</v>
+        <v>3902200</v>
       </c>
       <c r="H89" s="3">
-        <v>3131900</v>
+        <v>3167800</v>
       </c>
       <c r="I89" s="3">
-        <v>3104500</v>
+        <v>3140100</v>
       </c>
       <c r="J89" s="3">
-        <v>2796200</v>
+        <v>2828300</v>
       </c>
       <c r="K89" s="3">
         <v>2688200</v>
@@ -3153,25 +3153,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6227200</v>
+        <v>-6298700</v>
       </c>
       <c r="E91" s="3">
-        <v>-7545400</v>
+        <v>-7632000</v>
       </c>
       <c r="F91" s="3">
-        <v>-5730200</v>
+        <v>-5796000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4035300</v>
+        <v>-4081600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3370900</v>
+        <v>-3409500</v>
       </c>
       <c r="I91" s="3">
-        <v>-3316100</v>
+        <v>-3354100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3395200</v>
+        <v>-3434200</v>
       </c>
       <c r="K91" s="3">
         <v>-1953500</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5230200</v>
+        <v>-5290200</v>
       </c>
       <c r="E94" s="3">
-        <v>-7625400</v>
+        <v>-7712800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2815300</v>
+        <v>-2847600</v>
       </c>
       <c r="G94" s="3">
-        <v>-14295600</v>
+        <v>-14459500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3508600</v>
+        <v>-3548900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3154000</v>
+        <v>-3190100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3896800</v>
+        <v>-3941500</v>
       </c>
       <c r="K94" s="3">
         <v>-2451100</v>
@@ -3300,25 +3300,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1490200</v>
+        <v>-1507300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1315900</v>
+        <v>-1331000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1137100</v>
+        <v>-1150100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1169000</v>
+        <v>-1182400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1170600</v>
+        <v>-1184000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1095200</v>
+        <v>-1107800</v>
       </c>
       <c r="J96" s="3">
-        <v>-1032000</v>
+        <v>-1043900</v>
       </c>
       <c r="K96" s="3">
         <v>-964300</v>
@@ -3432,25 +3432,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>527400</v>
+        <v>533500</v>
       </c>
       <c r="E100" s="3">
-        <v>2091500</v>
+        <v>2115500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1080000</v>
+        <v>-1092400</v>
       </c>
       <c r="G100" s="3">
-        <v>10660600</v>
+        <v>10782900</v>
       </c>
       <c r="H100" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="I100" s="3">
-        <v>-283900</v>
+        <v>-287100</v>
       </c>
       <c r="J100" s="3">
-        <v>1365400</v>
+        <v>1381100</v>
       </c>
       <c r="K100" s="3">
         <v>-303400</v>
@@ -3468,22 +3468,22 @@
         <v>-4600</v>
       </c>
       <c r="E101" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F101" s="3">
-        <v>-29700</v>
+        <v>-30000</v>
       </c>
       <c r="G101" s="3">
-        <v>-96700</v>
+        <v>-97800</v>
       </c>
       <c r="H101" s="3">
-        <v>85200</v>
+        <v>86200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="K101" s="3">
         <v>-11300</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>682700</v>
+        <v>690500</v>
       </c>
       <c r="E102" s="3">
-        <v>-489400</v>
+        <v>-495000</v>
       </c>
       <c r="F102" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="G102" s="3">
-        <v>126300</v>
+        <v>127800</v>
       </c>
       <c r="H102" s="3">
-        <v>274800</v>
+        <v>277900</v>
       </c>
       <c r="I102" s="3">
-        <v>-333400</v>
+        <v>-337200</v>
       </c>
       <c r="J102" s="3">
-        <v>286200</v>
+        <v>289500</v>
       </c>
       <c r="K102" s="3">
         <v>-77500</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10204000</v>
+        <v>10308500</v>
       </c>
       <c r="E8" s="3">
-        <v>10530400</v>
+        <v>10511500</v>
       </c>
       <c r="F8" s="3">
-        <v>10353300</v>
+        <v>10847700</v>
       </c>
       <c r="G8" s="3">
-        <v>9658900</v>
+        <v>10665300</v>
       </c>
       <c r="H8" s="3">
-        <v>8739800</v>
+        <v>9950000</v>
       </c>
       <c r="I8" s="3">
-        <v>7840600</v>
+        <v>9003200</v>
       </c>
       <c r="J8" s="3">
+        <v>8076900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6772100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6027600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6022200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3009200</v>
+        <v>3075300</v>
       </c>
       <c r="E9" s="3">
-        <v>2764400</v>
+        <v>3099900</v>
       </c>
       <c r="F9" s="3">
-        <v>3006900</v>
+        <v>2847700</v>
       </c>
       <c r="G9" s="3">
-        <v>2972300</v>
+        <v>3097500</v>
       </c>
       <c r="H9" s="3">
-        <v>2542700</v>
+        <v>3061900</v>
       </c>
       <c r="I9" s="3">
-        <v>2288700</v>
+        <v>2619300</v>
       </c>
       <c r="J9" s="3">
+        <v>2357600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2058500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1939900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2572800</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7194700</v>
+        <v>7233100</v>
       </c>
       <c r="E10" s="3">
-        <v>7765900</v>
+        <v>7411600</v>
       </c>
       <c r="F10" s="3">
-        <v>7346400</v>
+        <v>8000000</v>
       </c>
       <c r="G10" s="3">
-        <v>6686700</v>
+        <v>7567800</v>
       </c>
       <c r="H10" s="3">
-        <v>6197100</v>
+        <v>6888200</v>
       </c>
       <c r="I10" s="3">
-        <v>5551900</v>
+        <v>6383800</v>
       </c>
       <c r="J10" s="3">
+        <v>5719300</v>
+      </c>
+      <c r="K10" s="3">
         <v>4713600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4087600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3449400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,9 +908,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,22 +921,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>616600</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>967700</v>
+        <v>635200</v>
       </c>
       <c r="G14" s="3">
-        <v>1152400</v>
+        <v>996800</v>
       </c>
       <c r="H14" s="3">
-        <v>2899100</v>
+        <v>1187200</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>2986500</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -925,42 +944,48 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1896800</v>
+        <v>2053900</v>
       </c>
       <c r="E15" s="3">
-        <v>1809100</v>
+        <v>1954000</v>
       </c>
       <c r="F15" s="3">
-        <v>1582000</v>
+        <v>1863600</v>
       </c>
       <c r="G15" s="3">
-        <v>1492700</v>
+        <v>1629700</v>
       </c>
       <c r="H15" s="3">
-        <v>1358700</v>
+        <v>1537700</v>
       </c>
       <c r="I15" s="3">
-        <v>1240200</v>
+        <v>1399700</v>
       </c>
       <c r="J15" s="3">
+        <v>1277600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1143200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1035100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1020200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5749800</v>
+        <v>5705800</v>
       </c>
       <c r="E17" s="3">
-        <v>6773600</v>
+        <v>5923100</v>
       </c>
       <c r="F17" s="3">
-        <v>7828300</v>
+        <v>6977800</v>
       </c>
       <c r="G17" s="3">
-        <v>7716700</v>
+        <v>8064200</v>
       </c>
       <c r="H17" s="3">
-        <v>8920700</v>
+        <v>7949200</v>
       </c>
       <c r="I17" s="3">
-        <v>5306400</v>
+        <v>9189500</v>
       </c>
       <c r="J17" s="3">
+        <v>5466300</v>
+      </c>
+      <c r="K17" s="3">
         <v>4558100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4091400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3908000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4454200</v>
+        <v>4602700</v>
       </c>
       <c r="E18" s="3">
-        <v>3756700</v>
+        <v>4588400</v>
       </c>
       <c r="F18" s="3">
-        <v>2525000</v>
+        <v>3869900</v>
       </c>
       <c r="G18" s="3">
-        <v>1942300</v>
+        <v>2601100</v>
       </c>
       <c r="H18" s="3">
-        <v>-180900</v>
+        <v>2000800</v>
       </c>
       <c r="I18" s="3">
-        <v>2534200</v>
+        <v>-186400</v>
       </c>
       <c r="J18" s="3">
+        <v>2610600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2214000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1936200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2114200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1334900</v>
+        <v>1214100</v>
       </c>
       <c r="E20" s="3">
-        <v>1026900</v>
+        <v>1375100</v>
       </c>
       <c r="F20" s="3">
-        <v>1612000</v>
+        <v>1057900</v>
       </c>
       <c r="G20" s="3">
-        <v>151700</v>
+        <v>1660600</v>
       </c>
       <c r="H20" s="3">
-        <v>473400</v>
+        <v>156200</v>
       </c>
       <c r="I20" s="3">
-        <v>562000</v>
+        <v>487700</v>
       </c>
       <c r="J20" s="3">
+        <v>578900</v>
+      </c>
+      <c r="K20" s="3">
         <v>501900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-310900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>399500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7682500</v>
+        <v>7876400</v>
       </c>
       <c r="E21" s="3">
-        <v>6589500</v>
+        <v>7923000</v>
       </c>
       <c r="F21" s="3">
-        <v>5716200</v>
+        <v>6796600</v>
       </c>
       <c r="G21" s="3">
-        <v>3584000</v>
+        <v>5895900</v>
       </c>
       <c r="H21" s="3">
-        <v>1648900</v>
+        <v>3699000</v>
       </c>
       <c r="I21" s="3">
-        <v>4334200</v>
+        <v>1704900</v>
       </c>
       <c r="J21" s="3">
+        <v>4470600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3857100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2660800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3538700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1796000</v>
+        <v>1766800</v>
       </c>
       <c r="E22" s="3">
-        <v>1743600</v>
+        <v>1850100</v>
       </c>
       <c r="F22" s="3">
-        <v>1592000</v>
+        <v>1796200</v>
       </c>
       <c r="G22" s="3">
-        <v>1449600</v>
+        <v>1640000</v>
       </c>
       <c r="H22" s="3">
-        <v>1144000</v>
+        <v>1493300</v>
       </c>
       <c r="I22" s="3">
-        <v>922200</v>
+        <v>1178400</v>
       </c>
       <c r="J22" s="3">
+        <v>950000</v>
+      </c>
+      <c r="K22" s="3">
         <v>774400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>166400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>758200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3993100</v>
+        <v>4050000</v>
       </c>
       <c r="E23" s="3">
-        <v>3040000</v>
+        <v>4113400</v>
       </c>
       <c r="F23" s="3">
-        <v>2545000</v>
+        <v>3131600</v>
       </c>
       <c r="G23" s="3">
-        <v>644300</v>
+        <v>2621700</v>
       </c>
       <c r="H23" s="3">
-        <v>-851400</v>
+        <v>663800</v>
       </c>
       <c r="I23" s="3">
-        <v>2174000</v>
+        <v>-877100</v>
       </c>
       <c r="J23" s="3">
+        <v>2239500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1941500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1458900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1755400</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>580400</v>
+        <v>153800</v>
       </c>
       <c r="E24" s="3">
-        <v>461100</v>
+        <v>597900</v>
       </c>
       <c r="F24" s="3">
-        <v>550400</v>
+        <v>475000</v>
       </c>
       <c r="G24" s="3">
-        <v>271000</v>
+        <v>567000</v>
       </c>
       <c r="H24" s="3">
-        <v>26200</v>
+        <v>279100</v>
       </c>
       <c r="I24" s="3">
-        <v>639700</v>
+        <v>27000</v>
       </c>
       <c r="J24" s="3">
+        <v>659000</v>
+      </c>
+      <c r="K24" s="3">
         <v>470400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>350800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>441700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3412600</v>
+        <v>3896100</v>
       </c>
       <c r="E26" s="3">
-        <v>2578900</v>
+        <v>3515500</v>
       </c>
       <c r="F26" s="3">
-        <v>1994600</v>
+        <v>2656600</v>
       </c>
       <c r="G26" s="3">
-        <v>373400</v>
+        <v>2054700</v>
       </c>
       <c r="H26" s="3">
-        <v>-877600</v>
+        <v>384600</v>
       </c>
       <c r="I26" s="3">
-        <v>1534300</v>
+        <v>-904000</v>
       </c>
       <c r="J26" s="3">
+        <v>1580500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1471100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1108100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1313700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3060800</v>
+        <v>3534500</v>
       </c>
       <c r="E27" s="3">
-        <v>2595800</v>
+        <v>3153000</v>
       </c>
       <c r="F27" s="3">
-        <v>1688200</v>
+        <v>2674100</v>
       </c>
       <c r="G27" s="3">
-        <v>95500</v>
+        <v>1739100</v>
       </c>
       <c r="H27" s="3">
-        <v>-954600</v>
+        <v>98300</v>
       </c>
       <c r="I27" s="3">
-        <v>1341800</v>
+        <v>-983300</v>
       </c>
       <c r="J27" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1317900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>977900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1172300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>128600</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>618900</v>
+        <v>132400</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>637600</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1334900</v>
+        <v>-1214100</v>
       </c>
       <c r="E32" s="3">
-        <v>-1026900</v>
+        <v>-1375100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1612000</v>
+        <v>-1057900</v>
       </c>
       <c r="G32" s="3">
-        <v>-151700</v>
+        <v>-1660600</v>
       </c>
       <c r="H32" s="3">
-        <v>-473400</v>
+        <v>-156200</v>
       </c>
       <c r="I32" s="3">
-        <v>-562000</v>
+        <v>-487700</v>
       </c>
       <c r="J32" s="3">
+        <v>-578900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-501900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>310900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-399500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3060800</v>
+        <v>3534500</v>
       </c>
       <c r="E33" s="3">
-        <v>2724400</v>
+        <v>3153000</v>
       </c>
       <c r="F33" s="3">
-        <v>2307200</v>
+        <v>2806500</v>
       </c>
       <c r="G33" s="3">
-        <v>95500</v>
+        <v>2376700</v>
       </c>
       <c r="H33" s="3">
-        <v>-954600</v>
+        <v>98300</v>
       </c>
       <c r="I33" s="3">
-        <v>1341800</v>
+        <v>-983300</v>
       </c>
       <c r="J33" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1317900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>977900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1172300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3060800</v>
+        <v>3534500</v>
       </c>
       <c r="E35" s="3">
-        <v>2724400</v>
+        <v>3153000</v>
       </c>
       <c r="F35" s="3">
-        <v>2307200</v>
+        <v>2806500</v>
       </c>
       <c r="G35" s="3">
-        <v>95500</v>
+        <v>2376700</v>
       </c>
       <c r="H35" s="3">
-        <v>-954600</v>
+        <v>98300</v>
       </c>
       <c r="I35" s="3">
-        <v>1341800</v>
+        <v>-983300</v>
       </c>
       <c r="J35" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1317900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>977900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1172300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,52 +1733,56 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1033900</v>
+        <v>1213300</v>
       </c>
       <c r="E41" s="3">
-        <v>343300</v>
+        <v>1065000</v>
       </c>
       <c r="F41" s="3">
-        <v>838300</v>
+        <v>353700</v>
       </c>
       <c r="G41" s="3">
-        <v>782100</v>
+        <v>863600</v>
       </c>
       <c r="H41" s="3">
-        <v>654300</v>
+        <v>805700</v>
       </c>
       <c r="I41" s="3">
-        <v>376400</v>
+        <v>674100</v>
       </c>
       <c r="J41" s="3">
+        <v>387800</v>
+      </c>
+      <c r="K41" s="3">
         <v>713600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>414800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>502400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="3">
+        <v>149100</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>552000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>568600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1710,243 +1799,267 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1982300</v>
+        <v>1819200</v>
       </c>
       <c r="E43" s="3">
-        <v>2073900</v>
+        <v>2042000</v>
       </c>
       <c r="F43" s="3">
-        <v>1941500</v>
+        <v>2136400</v>
       </c>
       <c r="G43" s="3">
-        <v>1597400</v>
+        <v>2000000</v>
       </c>
       <c r="H43" s="3">
-        <v>1067700</v>
+        <v>1645500</v>
       </c>
       <c r="I43" s="3">
-        <v>1010800</v>
+        <v>1099900</v>
       </c>
       <c r="J43" s="3">
+        <v>1041200</v>
+      </c>
+      <c r="K43" s="3">
         <v>863700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>791900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>840400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>348000</v>
+        <v>498800</v>
       </c>
       <c r="E44" s="3">
-        <v>331800</v>
+        <v>358400</v>
       </c>
       <c r="F44" s="3">
-        <v>291000</v>
+        <v>341800</v>
       </c>
       <c r="G44" s="3">
-        <v>283300</v>
+        <v>299800</v>
       </c>
       <c r="H44" s="3">
-        <v>248700</v>
+        <v>291800</v>
       </c>
       <c r="I44" s="3">
-        <v>224800</v>
+        <v>256100</v>
       </c>
       <c r="J44" s="3">
+        <v>231600</v>
+      </c>
+      <c r="K44" s="3">
         <v>193200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>168600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>190500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2525800</v>
+        <v>444100</v>
       </c>
       <c r="E45" s="3">
+        <v>2601900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>671700</v>
+      </c>
+      <c r="G45" s="3">
+        <v>548000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3667700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1624100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1954800</v>
+      </c>
+      <c r="K45" s="3">
         <v>652000</v>
       </c>
-      <c r="F45" s="3">
-        <v>531900</v>
-      </c>
-      <c r="G45" s="3">
-        <v>3560400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1576600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1897600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>652000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>750500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>855800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5889900</v>
+        <v>4124500</v>
       </c>
       <c r="E46" s="3">
-        <v>3953000</v>
+        <v>6067400</v>
       </c>
       <c r="F46" s="3">
-        <v>3602800</v>
+        <v>4072200</v>
       </c>
       <c r="G46" s="3">
-        <v>6223200</v>
+        <v>3711300</v>
       </c>
       <c r="H46" s="3">
-        <v>3016200</v>
+        <v>6410800</v>
       </c>
       <c r="I46" s="3">
-        <v>2396400</v>
+        <v>3107100</v>
       </c>
       <c r="J46" s="3">
+        <v>2468700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2422600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2125900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2389200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6112400</v>
+        <v>6523400</v>
       </c>
       <c r="E47" s="3">
-        <v>6526500</v>
+        <v>6296600</v>
       </c>
       <c r="F47" s="3">
-        <v>5661300</v>
+        <v>6723200</v>
       </c>
       <c r="G47" s="3">
-        <v>5128500</v>
+        <v>5831900</v>
       </c>
       <c r="H47" s="3">
-        <v>5003100</v>
+        <v>5283100</v>
       </c>
       <c r="I47" s="3">
-        <v>4494200</v>
+        <v>5153800</v>
       </c>
       <c r="J47" s="3">
+        <v>4629700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4660500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4327800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4236000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50414700</v>
+        <v>55333000</v>
       </c>
       <c r="E48" s="3">
-        <v>51195300</v>
+        <v>51934100</v>
       </c>
       <c r="F48" s="3">
-        <v>44093000</v>
+        <v>52738200</v>
       </c>
       <c r="G48" s="3">
-        <v>41935900</v>
+        <v>45421800</v>
       </c>
       <c r="H48" s="3">
-        <v>69002000</v>
+        <v>43199800</v>
       </c>
       <c r="I48" s="3">
-        <v>64316900</v>
+        <v>71081600</v>
       </c>
       <c r="J48" s="3">
+        <v>66255200</v>
+      </c>
+      <c r="K48" s="3">
         <v>28949900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25378800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>93656500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11240900</v>
+        <v>10237900</v>
       </c>
       <c r="E49" s="3">
-        <v>11723600</v>
+        <v>11579700</v>
       </c>
       <c r="F49" s="3">
-        <v>10531100</v>
+        <v>12076900</v>
       </c>
       <c r="G49" s="3">
-        <v>12357200</v>
+        <v>10848500</v>
       </c>
       <c r="H49" s="3">
-        <v>7528800</v>
+        <v>12729600</v>
       </c>
       <c r="I49" s="3">
-        <v>4514200</v>
+        <v>7755700</v>
       </c>
       <c r="J49" s="3">
+        <v>4650300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3534200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2886200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4594800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2769000</v>
+        <v>3321200</v>
       </c>
       <c r="E52" s="3">
-        <v>2752100</v>
+        <v>2852500</v>
       </c>
       <c r="F52" s="3">
-        <v>2394100</v>
+        <v>2835000</v>
       </c>
       <c r="G52" s="3">
-        <v>2138600</v>
+        <v>2466300</v>
       </c>
       <c r="H52" s="3">
-        <v>1853000</v>
+        <v>2203000</v>
       </c>
       <c r="I52" s="3">
-        <v>1699800</v>
+        <v>1908800</v>
       </c>
       <c r="J52" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1924500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1665900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1738500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76427000</v>
+        <v>79539900</v>
       </c>
       <c r="E54" s="3">
-        <v>76150600</v>
+        <v>78730200</v>
       </c>
       <c r="F54" s="3">
-        <v>66282300</v>
+        <v>78445500</v>
       </c>
       <c r="G54" s="3">
-        <v>67783400</v>
+        <v>68279800</v>
       </c>
       <c r="H54" s="3">
-        <v>49574900</v>
+        <v>69826200</v>
       </c>
       <c r="I54" s="3">
-        <v>45053700</v>
+        <v>51068900</v>
       </c>
       <c r="J54" s="3">
+        <v>46411500</v>
+      </c>
+      <c r="K54" s="3">
         <v>41491800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36384600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36366500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2873700</v>
+        <v>2424300</v>
       </c>
       <c r="E57" s="3">
-        <v>2998400</v>
+        <v>2960300</v>
       </c>
       <c r="F57" s="3">
-        <v>2825200</v>
+        <v>3088800</v>
       </c>
       <c r="G57" s="3">
-        <v>2124700</v>
+        <v>2910400</v>
       </c>
       <c r="H57" s="3">
-        <v>2815200</v>
+        <v>2188700</v>
       </c>
       <c r="I57" s="3">
-        <v>1250200</v>
+        <v>2900100</v>
       </c>
       <c r="J57" s="3">
+        <v>1287900</v>
+      </c>
+      <c r="K57" s="3">
         <v>666700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>694800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>534700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5392600</v>
+        <v>4875500</v>
       </c>
       <c r="E58" s="3">
-        <v>4791400</v>
+        <v>5555100</v>
       </c>
       <c r="F58" s="3">
-        <v>3563500</v>
+        <v>4935800</v>
       </c>
       <c r="G58" s="3">
-        <v>2010800</v>
+        <v>3670900</v>
       </c>
       <c r="H58" s="3">
-        <v>2898400</v>
+        <v>2071400</v>
       </c>
       <c r="I58" s="3">
-        <v>3282500</v>
+        <v>2985700</v>
       </c>
       <c r="J58" s="3">
+        <v>3381400</v>
+      </c>
+      <c r="K58" s="3">
         <v>2167000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2385600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2174900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1663600</v>
+        <v>2206200</v>
       </c>
       <c r="E59" s="3">
-        <v>2176300</v>
+        <v>1713700</v>
       </c>
       <c r="F59" s="3">
-        <v>1214800</v>
+        <v>2241900</v>
       </c>
       <c r="G59" s="3">
-        <v>1776700</v>
+        <v>1251400</v>
       </c>
       <c r="H59" s="3">
-        <v>1566600</v>
+        <v>1830300</v>
       </c>
       <c r="I59" s="3">
-        <v>1305600</v>
+        <v>1613800</v>
       </c>
       <c r="J59" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1291000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1346700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1558000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9929900</v>
+        <v>9505900</v>
       </c>
       <c r="E60" s="3">
-        <v>9966100</v>
+        <v>10229200</v>
       </c>
       <c r="F60" s="3">
-        <v>7603500</v>
+        <v>10266400</v>
       </c>
       <c r="G60" s="3">
-        <v>5912200</v>
+        <v>7832700</v>
       </c>
       <c r="H60" s="3">
-        <v>5667400</v>
+        <v>6090400</v>
       </c>
       <c r="I60" s="3">
-        <v>5835200</v>
+        <v>5838200</v>
       </c>
       <c r="J60" s="3">
+        <v>6011100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4124700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4427200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4242200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33020700</v>
+        <v>34425800</v>
       </c>
       <c r="E61" s="3">
-        <v>33885200</v>
+        <v>34015800</v>
       </c>
       <c r="F61" s="3">
-        <v>29932100</v>
+        <v>34906400</v>
       </c>
       <c r="G61" s="3">
-        <v>32519500</v>
+        <v>30834200</v>
       </c>
       <c r="H61" s="3">
-        <v>24109200</v>
+        <v>33499500</v>
       </c>
       <c r="I61" s="3">
-        <v>18568100</v>
+        <v>24835800</v>
       </c>
       <c r="J61" s="3">
+        <v>19127600</v>
+      </c>
+      <c r="K61" s="3">
         <v>17671200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14312800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14396600</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8536500</v>
+        <v>9063400</v>
       </c>
       <c r="E62" s="3">
-        <v>8440300</v>
+        <v>8793800</v>
       </c>
       <c r="F62" s="3">
-        <v>8045400</v>
+        <v>8694700</v>
       </c>
       <c r="G62" s="3">
-        <v>9349500</v>
+        <v>8287900</v>
       </c>
       <c r="H62" s="3">
-        <v>6792100</v>
+        <v>9631200</v>
       </c>
       <c r="I62" s="3">
-        <v>4751300</v>
+        <v>6996800</v>
       </c>
       <c r="J62" s="3">
+        <v>4894500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4194700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3841500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4414200</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52745000</v>
+        <v>54640700</v>
       </c>
       <c r="E66" s="3">
-        <v>53565600</v>
+        <v>54334600</v>
       </c>
       <c r="F66" s="3">
-        <v>47006700</v>
+        <v>55179900</v>
       </c>
       <c r="G66" s="3">
-        <v>49109900</v>
+        <v>48423400</v>
       </c>
       <c r="H66" s="3">
-        <v>36920600</v>
+        <v>50589900</v>
       </c>
       <c r="I66" s="3">
-        <v>30373200</v>
+        <v>38033200</v>
       </c>
       <c r="J66" s="3">
+        <v>31288600</v>
+      </c>
+      <c r="K66" s="3">
         <v>27230800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23654200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23464800</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,42 +2714,48 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3063900</v>
+        <v>3156200</v>
       </c>
       <c r="E70" s="3">
-        <v>3063900</v>
+        <v>3156200</v>
       </c>
       <c r="F70" s="3">
-        <v>3063900</v>
+        <v>3156200</v>
       </c>
       <c r="G70" s="3">
-        <v>3063900</v>
+        <v>3156200</v>
       </c>
       <c r="H70" s="3">
-        <v>1923800</v>
+        <v>3156200</v>
       </c>
       <c r="I70" s="3">
-        <v>1735900</v>
+        <v>1981800</v>
       </c>
       <c r="J70" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1395700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>921400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1880600</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3044600</v>
+        <v>4256100</v>
       </c>
       <c r="E72" s="3">
-        <v>2134700</v>
+        <v>3136400</v>
       </c>
       <c r="F72" s="3">
-        <v>1249400</v>
+        <v>2199000</v>
       </c>
       <c r="G72" s="3">
-        <v>876100</v>
+        <v>1287100</v>
       </c>
       <c r="H72" s="3">
-        <v>2131600</v>
+        <v>902500</v>
       </c>
       <c r="I72" s="3">
-        <v>4217100</v>
+        <v>2195900</v>
       </c>
       <c r="J72" s="3">
+        <v>4344200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3923000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3528300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3555400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20618100</v>
+        <v>21743000</v>
       </c>
       <c r="E76" s="3">
-        <v>19521100</v>
+        <v>21239500</v>
       </c>
       <c r="F76" s="3">
-        <v>16211600</v>
+        <v>20109400</v>
       </c>
       <c r="G76" s="3">
-        <v>15609600</v>
+        <v>16700200</v>
       </c>
       <c r="H76" s="3">
-        <v>10730500</v>
+        <v>16080100</v>
       </c>
       <c r="I76" s="3">
-        <v>12944600</v>
+        <v>11053900</v>
       </c>
       <c r="J76" s="3">
+        <v>13334600</v>
+      </c>
+      <c r="K76" s="3">
         <v>12865200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11809000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11021100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3060800</v>
+        <v>3534500</v>
       </c>
       <c r="E81" s="3">
-        <v>2724400</v>
+        <v>3153000</v>
       </c>
       <c r="F81" s="3">
-        <v>2307200</v>
+        <v>2806500</v>
       </c>
       <c r="G81" s="3">
-        <v>95500</v>
+        <v>2376700</v>
       </c>
       <c r="H81" s="3">
-        <v>-954600</v>
+        <v>98300</v>
       </c>
       <c r="I81" s="3">
-        <v>1341800</v>
+        <v>-983300</v>
       </c>
       <c r="J81" s="3">
+        <v>1382200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1317900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>977900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1172300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1896800</v>
+        <v>2053900</v>
       </c>
       <c r="E83" s="3">
-        <v>1809100</v>
+        <v>1954000</v>
       </c>
       <c r="F83" s="3">
-        <v>1582000</v>
+        <v>1863600</v>
       </c>
       <c r="G83" s="3">
-        <v>1492700</v>
+        <v>1629700</v>
       </c>
       <c r="H83" s="3">
-        <v>1358700</v>
+        <v>1537700</v>
       </c>
       <c r="I83" s="3">
-        <v>1240200</v>
+        <v>1399700</v>
       </c>
       <c r="J83" s="3">
+        <v>1277600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1143200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1035100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1020200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5451900</v>
+        <v>5597100</v>
       </c>
       <c r="E89" s="3">
-        <v>5046200</v>
+        <v>5616200</v>
       </c>
       <c r="F89" s="3">
-        <v>4026200</v>
+        <v>5198200</v>
       </c>
       <c r="G89" s="3">
-        <v>3902200</v>
+        <v>4147500</v>
       </c>
       <c r="H89" s="3">
-        <v>3167800</v>
+        <v>4019800</v>
       </c>
       <c r="I89" s="3">
-        <v>3140100</v>
+        <v>3263300</v>
       </c>
       <c r="J89" s="3">
+        <v>3234700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2828300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2688200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2831700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6298700</v>
+        <v>-6451200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7632000</v>
+        <v>-6488500</v>
       </c>
       <c r="F91" s="3">
-        <v>-5796000</v>
+        <v>-7862000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4081600</v>
+        <v>-5970600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3409500</v>
+        <v>-4204600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3354100</v>
+        <v>-3512300</v>
       </c>
       <c r="J91" s="3">
+        <v>-3455200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3434200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1953500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1930600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5290200</v>
+        <v>-4799400</v>
       </c>
       <c r="E94" s="3">
-        <v>-7712800</v>
+        <v>-5449600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2847600</v>
+        <v>-7945300</v>
       </c>
       <c r="G94" s="3">
-        <v>-14459500</v>
+        <v>-2933400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3548900</v>
+        <v>-14895300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3190100</v>
+        <v>-3655800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3286300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3941500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2451100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2346200</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1507300</v>
+        <v>-2494800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1331000</v>
+        <v>-1552700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1150100</v>
+        <v>-1371100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1182400</v>
+        <v>-1184800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1184000</v>
+        <v>-1218100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1107800</v>
+        <v>-1219700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1141200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1043900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-964300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>533500</v>
+        <v>-634400</v>
       </c>
       <c r="E100" s="3">
-        <v>2115500</v>
+        <v>549600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1092400</v>
+        <v>2179200</v>
       </c>
       <c r="G100" s="3">
-        <v>10782900</v>
+        <v>-1125300</v>
       </c>
       <c r="H100" s="3">
-        <v>572700</v>
+        <v>11107800</v>
       </c>
       <c r="I100" s="3">
-        <v>-287100</v>
+        <v>590000</v>
       </c>
       <c r="J100" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K100" s="3">
         <v>1381100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-303400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-493200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4600</v>
+        <v>-15100</v>
       </c>
       <c r="E101" s="3">
-        <v>56200</v>
+        <v>-4800</v>
       </c>
       <c r="F101" s="3">
-        <v>-30000</v>
+        <v>57900</v>
       </c>
       <c r="G101" s="3">
-        <v>-97800</v>
+        <v>-30900</v>
       </c>
       <c r="H101" s="3">
-        <v>86200</v>
+        <v>-100700</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>88800</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>21600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>690500</v>
+        <v>148300</v>
       </c>
       <c r="E102" s="3">
-        <v>-495000</v>
+        <v>711300</v>
       </c>
       <c r="F102" s="3">
-        <v>56200</v>
+        <v>-509900</v>
       </c>
       <c r="G102" s="3">
-        <v>127800</v>
+        <v>57900</v>
       </c>
       <c r="H102" s="3">
-        <v>277900</v>
+        <v>131600</v>
       </c>
       <c r="I102" s="3">
-        <v>-337200</v>
+        <v>286300</v>
       </c>
       <c r="J102" s="3">
+        <v>-347300</v>
+      </c>
+      <c r="K102" s="3">
         <v>289500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-77500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10308500</v>
+        <v>10776800</v>
       </c>
       <c r="E8" s="3">
-        <v>10511500</v>
+        <v>10989100</v>
       </c>
       <c r="F8" s="3">
-        <v>10847700</v>
+        <v>11340600</v>
       </c>
       <c r="G8" s="3">
-        <v>10665300</v>
+        <v>11149900</v>
       </c>
       <c r="H8" s="3">
-        <v>9950000</v>
+        <v>10402100</v>
       </c>
       <c r="I8" s="3">
-        <v>9003200</v>
+        <v>9412200</v>
       </c>
       <c r="J8" s="3">
-        <v>8076900</v>
+        <v>8443900</v>
       </c>
       <c r="K8" s="3">
         <v>6772100</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3075300</v>
+        <v>3215100</v>
       </c>
       <c r="E9" s="3">
-        <v>3099900</v>
+        <v>3240800</v>
       </c>
       <c r="F9" s="3">
-        <v>2847700</v>
+        <v>2977100</v>
       </c>
       <c r="G9" s="3">
-        <v>3097500</v>
+        <v>3238300</v>
       </c>
       <c r="H9" s="3">
-        <v>3061900</v>
+        <v>3201000</v>
       </c>
       <c r="I9" s="3">
-        <v>2619300</v>
+        <v>2738400</v>
       </c>
       <c r="J9" s="3">
-        <v>2357600</v>
+        <v>2464800</v>
       </c>
       <c r="K9" s="3">
         <v>2058500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7233100</v>
+        <v>7561800</v>
       </c>
       <c r="E10" s="3">
-        <v>7411600</v>
+        <v>7748300</v>
       </c>
       <c r="F10" s="3">
-        <v>8000000</v>
+        <v>8363500</v>
       </c>
       <c r="G10" s="3">
-        <v>7567800</v>
+        <v>7911600</v>
       </c>
       <c r="H10" s="3">
-        <v>6888200</v>
+        <v>7201100</v>
       </c>
       <c r="I10" s="3">
-        <v>6383800</v>
+        <v>6673900</v>
       </c>
       <c r="J10" s="3">
-        <v>5719300</v>
+        <v>5979100</v>
       </c>
       <c r="K10" s="3">
         <v>4713600</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>635200</v>
+        <v>664100</v>
       </c>
       <c r="G14" s="3">
-        <v>996800</v>
+        <v>1042100</v>
       </c>
       <c r="H14" s="3">
-        <v>1187200</v>
+        <v>1241100</v>
       </c>
       <c r="I14" s="3">
-        <v>2986500</v>
+        <v>3122200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2053900</v>
+        <v>2147200</v>
       </c>
       <c r="E15" s="3">
-        <v>1954000</v>
+        <v>2042800</v>
       </c>
       <c r="F15" s="3">
-        <v>1863600</v>
+        <v>1948300</v>
       </c>
       <c r="G15" s="3">
-        <v>1629700</v>
+        <v>1703700</v>
       </c>
       <c r="H15" s="3">
-        <v>1537700</v>
+        <v>1607500</v>
       </c>
       <c r="I15" s="3">
-        <v>1399700</v>
+        <v>1463300</v>
       </c>
       <c r="J15" s="3">
-        <v>1277600</v>
+        <v>1335600</v>
       </c>
       <c r="K15" s="3">
         <v>1143200</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5705800</v>
+        <v>5965000</v>
       </c>
       <c r="E17" s="3">
-        <v>5923100</v>
+        <v>6192200</v>
       </c>
       <c r="F17" s="3">
-        <v>6977800</v>
+        <v>7294800</v>
       </c>
       <c r="G17" s="3">
-        <v>8064200</v>
+        <v>8430600</v>
       </c>
       <c r="H17" s="3">
-        <v>7949200</v>
+        <v>8310400</v>
       </c>
       <c r="I17" s="3">
-        <v>9189500</v>
+        <v>9607000</v>
       </c>
       <c r="J17" s="3">
-        <v>5466300</v>
+        <v>5714600</v>
       </c>
       <c r="K17" s="3">
         <v>4558100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4602700</v>
+        <v>4811800</v>
       </c>
       <c r="E18" s="3">
-        <v>4588400</v>
+        <v>4796900</v>
       </c>
       <c r="F18" s="3">
-        <v>3869900</v>
+        <v>4045800</v>
       </c>
       <c r="G18" s="3">
-        <v>2601100</v>
+        <v>2719300</v>
       </c>
       <c r="H18" s="3">
-        <v>2000800</v>
+        <v>2091700</v>
       </c>
       <c r="I18" s="3">
-        <v>-186400</v>
+        <v>-194800</v>
       </c>
       <c r="J18" s="3">
-        <v>2610600</v>
+        <v>2729200</v>
       </c>
       <c r="K18" s="3">
         <v>2214000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1214100</v>
+        <v>1269300</v>
       </c>
       <c r="E20" s="3">
-        <v>1375100</v>
+        <v>1437600</v>
       </c>
       <c r="F20" s="3">
-        <v>1057900</v>
+        <v>1106000</v>
       </c>
       <c r="G20" s="3">
-        <v>1660600</v>
+        <v>1736000</v>
       </c>
       <c r="H20" s="3">
-        <v>156200</v>
+        <v>163300</v>
       </c>
       <c r="I20" s="3">
-        <v>487700</v>
+        <v>509900</v>
       </c>
       <c r="J20" s="3">
-        <v>578900</v>
+        <v>605200</v>
       </c>
       <c r="K20" s="3">
         <v>501900</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7876400</v>
+        <v>8232400</v>
       </c>
       <c r="E21" s="3">
-        <v>7923000</v>
+        <v>8281100</v>
       </c>
       <c r="F21" s="3">
-        <v>6796600</v>
+        <v>7103700</v>
       </c>
       <c r="G21" s="3">
-        <v>5895900</v>
+        <v>6162300</v>
       </c>
       <c r="H21" s="3">
-        <v>3699000</v>
+        <v>3865600</v>
       </c>
       <c r="I21" s="3">
-        <v>1704900</v>
+        <v>1781100</v>
       </c>
       <c r="J21" s="3">
-        <v>4470600</v>
+        <v>4672600</v>
       </c>
       <c r="K21" s="3">
         <v>3857100</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1766800</v>
+        <v>1847100</v>
       </c>
       <c r="E22" s="3">
-        <v>1850100</v>
+        <v>1934200</v>
       </c>
       <c r="F22" s="3">
-        <v>1796200</v>
+        <v>1877800</v>
       </c>
       <c r="G22" s="3">
-        <v>1640000</v>
+        <v>1714500</v>
       </c>
       <c r="H22" s="3">
-        <v>1493300</v>
+        <v>1561100</v>
       </c>
       <c r="I22" s="3">
-        <v>1178400</v>
+        <v>1232000</v>
       </c>
       <c r="J22" s="3">
-        <v>950000</v>
+        <v>993200</v>
       </c>
       <c r="K22" s="3">
         <v>774400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4050000</v>
+        <v>4234000</v>
       </c>
       <c r="E23" s="3">
-        <v>4113400</v>
+        <v>4300300</v>
       </c>
       <c r="F23" s="3">
-        <v>3131600</v>
+        <v>3273900</v>
       </c>
       <c r="G23" s="3">
-        <v>2621700</v>
+        <v>2740800</v>
       </c>
       <c r="H23" s="3">
-        <v>663800</v>
+        <v>693900</v>
       </c>
       <c r="I23" s="3">
-        <v>-877100</v>
+        <v>-916900</v>
       </c>
       <c r="J23" s="3">
-        <v>2239500</v>
+        <v>2341200</v>
       </c>
       <c r="K23" s="3">
         <v>1941500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153800</v>
+        <v>160800</v>
       </c>
       <c r="E24" s="3">
-        <v>597900</v>
+        <v>625100</v>
       </c>
       <c r="F24" s="3">
-        <v>475000</v>
+        <v>496600</v>
       </c>
       <c r="G24" s="3">
-        <v>567000</v>
+        <v>592800</v>
       </c>
       <c r="H24" s="3">
-        <v>279100</v>
+        <v>291800</v>
       </c>
       <c r="I24" s="3">
-        <v>27000</v>
+        <v>28200</v>
       </c>
       <c r="J24" s="3">
-        <v>659000</v>
+        <v>688900</v>
       </c>
       <c r="K24" s="3">
         <v>470400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3896100</v>
+        <v>4073100</v>
       </c>
       <c r="E26" s="3">
-        <v>3515500</v>
+        <v>3675200</v>
       </c>
       <c r="F26" s="3">
-        <v>2656600</v>
+        <v>2777300</v>
       </c>
       <c r="G26" s="3">
-        <v>2054700</v>
+        <v>2148100</v>
       </c>
       <c r="H26" s="3">
-        <v>384600</v>
+        <v>402100</v>
       </c>
       <c r="I26" s="3">
-        <v>-904000</v>
+        <v>-945100</v>
       </c>
       <c r="J26" s="3">
-        <v>1580500</v>
+        <v>1652300</v>
       </c>
       <c r="K26" s="3">
         <v>1471100</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3534500</v>
+        <v>3695100</v>
       </c>
       <c r="E27" s="3">
-        <v>3153000</v>
+        <v>3296300</v>
       </c>
       <c r="F27" s="3">
-        <v>2674100</v>
+        <v>2795600</v>
       </c>
       <c r="G27" s="3">
-        <v>1739100</v>
+        <v>1818100</v>
       </c>
       <c r="H27" s="3">
-        <v>98300</v>
+        <v>102800</v>
       </c>
       <c r="I27" s="3">
-        <v>-983300</v>
+        <v>-1028000</v>
       </c>
       <c r="J27" s="3">
-        <v>1382200</v>
+        <v>1445000</v>
       </c>
       <c r="K27" s="3">
         <v>1317900</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>132400</v>
+        <v>138500</v>
       </c>
       <c r="G29" s="3">
-        <v>637600</v>
+        <v>666600</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1214100</v>
+        <v>-1269300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1375100</v>
+        <v>-1437600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1057900</v>
+        <v>-1106000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1660600</v>
+        <v>-1736000</v>
       </c>
       <c r="H32" s="3">
-        <v>-156200</v>
+        <v>-163300</v>
       </c>
       <c r="I32" s="3">
-        <v>-487700</v>
+        <v>-509900</v>
       </c>
       <c r="J32" s="3">
-        <v>-578900</v>
+        <v>-605200</v>
       </c>
       <c r="K32" s="3">
         <v>-501900</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3534500</v>
+        <v>3695100</v>
       </c>
       <c r="E33" s="3">
-        <v>3153000</v>
+        <v>3296300</v>
       </c>
       <c r="F33" s="3">
-        <v>2806500</v>
+        <v>2934000</v>
       </c>
       <c r="G33" s="3">
-        <v>2376700</v>
+        <v>2484700</v>
       </c>
       <c r="H33" s="3">
-        <v>98300</v>
+        <v>102800</v>
       </c>
       <c r="I33" s="3">
-        <v>-983300</v>
+        <v>-1028000</v>
       </c>
       <c r="J33" s="3">
-        <v>1382200</v>
+        <v>1445000</v>
       </c>
       <c r="K33" s="3">
         <v>1317900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3534500</v>
+        <v>3695100</v>
       </c>
       <c r="E35" s="3">
-        <v>3153000</v>
+        <v>3296300</v>
       </c>
       <c r="F35" s="3">
-        <v>2806500</v>
+        <v>2934000</v>
       </c>
       <c r="G35" s="3">
-        <v>2376700</v>
+        <v>2484700</v>
       </c>
       <c r="H35" s="3">
-        <v>98300</v>
+        <v>102800</v>
       </c>
       <c r="I35" s="3">
-        <v>-983300</v>
+        <v>-1028000</v>
       </c>
       <c r="J35" s="3">
-        <v>1382200</v>
+        <v>1445000</v>
       </c>
       <c r="K35" s="3">
         <v>1317900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1213300</v>
+        <v>1268400</v>
       </c>
       <c r="E41" s="3">
-        <v>1065000</v>
+        <v>1113400</v>
       </c>
       <c r="F41" s="3">
-        <v>353700</v>
+        <v>369800</v>
       </c>
       <c r="G41" s="3">
-        <v>863600</v>
+        <v>902800</v>
       </c>
       <c r="H41" s="3">
-        <v>805700</v>
+        <v>842300</v>
       </c>
       <c r="I41" s="3">
-        <v>674100</v>
+        <v>704700</v>
       </c>
       <c r="J41" s="3">
-        <v>387800</v>
+        <v>405400</v>
       </c>
       <c r="K41" s="3">
         <v>713600</v>
@@ -1776,13 +1776,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>149100</v>
+        <v>155900</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>568600</v>
+        <v>594400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1819200</v>
+        <v>1901800</v>
       </c>
       <c r="E43" s="3">
-        <v>2042000</v>
+        <v>2134800</v>
       </c>
       <c r="F43" s="3">
-        <v>2136400</v>
+        <v>2233500</v>
       </c>
       <c r="G43" s="3">
-        <v>2000000</v>
+        <v>2090900</v>
       </c>
       <c r="H43" s="3">
-        <v>1645500</v>
+        <v>1720300</v>
       </c>
       <c r="I43" s="3">
-        <v>1099900</v>
+        <v>1149900</v>
       </c>
       <c r="J43" s="3">
-        <v>1041200</v>
+        <v>1088500</v>
       </c>
       <c r="K43" s="3">
         <v>863700</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>498800</v>
+        <v>521500</v>
       </c>
       <c r="E44" s="3">
-        <v>358400</v>
+        <v>374700</v>
       </c>
       <c r="F44" s="3">
-        <v>341800</v>
+        <v>357300</v>
       </c>
       <c r="G44" s="3">
-        <v>299800</v>
+        <v>313400</v>
       </c>
       <c r="H44" s="3">
-        <v>291800</v>
+        <v>305100</v>
       </c>
       <c r="I44" s="3">
-        <v>256100</v>
+        <v>267800</v>
       </c>
       <c r="J44" s="3">
-        <v>231600</v>
+        <v>242100</v>
       </c>
       <c r="K44" s="3">
         <v>193200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>444100</v>
+        <v>464300</v>
       </c>
       <c r="E45" s="3">
-        <v>2601900</v>
+        <v>2720100</v>
       </c>
       <c r="F45" s="3">
-        <v>671700</v>
+        <v>702200</v>
       </c>
       <c r="G45" s="3">
-        <v>548000</v>
+        <v>572900</v>
       </c>
       <c r="H45" s="3">
-        <v>3667700</v>
+        <v>3834400</v>
       </c>
       <c r="I45" s="3">
-        <v>1624100</v>
+        <v>1697900</v>
       </c>
       <c r="J45" s="3">
-        <v>1954800</v>
+        <v>2043600</v>
       </c>
       <c r="K45" s="3">
         <v>652000</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4124500</v>
+        <v>4311900</v>
       </c>
       <c r="E46" s="3">
-        <v>6067400</v>
+        <v>6343100</v>
       </c>
       <c r="F46" s="3">
-        <v>4072200</v>
+        <v>4257200</v>
       </c>
       <c r="G46" s="3">
-        <v>3711300</v>
+        <v>3880000</v>
       </c>
       <c r="H46" s="3">
-        <v>6410800</v>
+        <v>6702000</v>
       </c>
       <c r="I46" s="3">
-        <v>3107100</v>
+        <v>3248200</v>
       </c>
       <c r="J46" s="3">
-        <v>2468700</v>
+        <v>2580800</v>
       </c>
       <c r="K46" s="3">
         <v>2422600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6523400</v>
+        <v>6819800</v>
       </c>
       <c r="E47" s="3">
-        <v>6296600</v>
+        <v>6582700</v>
       </c>
       <c r="F47" s="3">
-        <v>6723200</v>
+        <v>7028700</v>
       </c>
       <c r="G47" s="3">
-        <v>5831900</v>
+        <v>6096800</v>
       </c>
       <c r="H47" s="3">
-        <v>5283100</v>
+        <v>5523100</v>
       </c>
       <c r="I47" s="3">
-        <v>5153800</v>
+        <v>5388000</v>
       </c>
       <c r="J47" s="3">
-        <v>4629700</v>
+        <v>4840000</v>
       </c>
       <c r="K47" s="3">
         <v>4660500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55333000</v>
+        <v>57847000</v>
       </c>
       <c r="E48" s="3">
-        <v>51934100</v>
+        <v>54293700</v>
       </c>
       <c r="F48" s="3">
-        <v>52738200</v>
+        <v>55134300</v>
       </c>
       <c r="G48" s="3">
-        <v>45421800</v>
+        <v>47485500</v>
       </c>
       <c r="H48" s="3">
-        <v>43199800</v>
+        <v>45162500</v>
       </c>
       <c r="I48" s="3">
-        <v>71081600</v>
+        <v>74311100</v>
       </c>
       <c r="J48" s="3">
-        <v>66255200</v>
+        <v>69265500</v>
       </c>
       <c r="K48" s="3">
         <v>28949900</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10237900</v>
+        <v>10703000</v>
       </c>
       <c r="E49" s="3">
-        <v>11579700</v>
+        <v>12105800</v>
       </c>
       <c r="F49" s="3">
-        <v>12076900</v>
+        <v>12625600</v>
       </c>
       <c r="G49" s="3">
-        <v>10848500</v>
+        <v>11341400</v>
       </c>
       <c r="H49" s="3">
-        <v>12729600</v>
+        <v>13307900</v>
       </c>
       <c r="I49" s="3">
-        <v>7755700</v>
+        <v>8108100</v>
       </c>
       <c r="J49" s="3">
-        <v>4650300</v>
+        <v>4861500</v>
       </c>
       <c r="K49" s="3">
         <v>3534200</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3321200</v>
+        <v>3472100</v>
       </c>
       <c r="E52" s="3">
-        <v>2852500</v>
+        <v>2982100</v>
       </c>
       <c r="F52" s="3">
-        <v>2835000</v>
+        <v>2963900</v>
       </c>
       <c r="G52" s="3">
-        <v>2466300</v>
+        <v>2578300</v>
       </c>
       <c r="H52" s="3">
-        <v>2203000</v>
+        <v>2303100</v>
       </c>
       <c r="I52" s="3">
-        <v>1908800</v>
+        <v>1995500</v>
       </c>
       <c r="J52" s="3">
-        <v>1751000</v>
+        <v>1830500</v>
       </c>
       <c r="K52" s="3">
         <v>1924500</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79539900</v>
+        <v>83153700</v>
       </c>
       <c r="E54" s="3">
-        <v>78730200</v>
+        <v>82307300</v>
       </c>
       <c r="F54" s="3">
-        <v>78445500</v>
+        <v>82009600</v>
       </c>
       <c r="G54" s="3">
-        <v>68279800</v>
+        <v>71382000</v>
       </c>
       <c r="H54" s="3">
-        <v>69826200</v>
+        <v>72998700</v>
       </c>
       <c r="I54" s="3">
-        <v>51068900</v>
+        <v>53389200</v>
       </c>
       <c r="J54" s="3">
-        <v>46411500</v>
+        <v>48520200</v>
       </c>
       <c r="K54" s="3">
         <v>41491800</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2424300</v>
+        <v>2534400</v>
       </c>
       <c r="E57" s="3">
-        <v>2960300</v>
+        <v>3094800</v>
       </c>
       <c r="F57" s="3">
-        <v>3088800</v>
+        <v>3229100</v>
       </c>
       <c r="G57" s="3">
-        <v>2910400</v>
+        <v>3042600</v>
       </c>
       <c r="H57" s="3">
-        <v>2188700</v>
+        <v>2288200</v>
       </c>
       <c r="I57" s="3">
-        <v>2900100</v>
+        <v>3031800</v>
       </c>
       <c r="J57" s="3">
-        <v>1287900</v>
+        <v>1346400</v>
       </c>
       <c r="K57" s="3">
         <v>666700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4875500</v>
+        <v>5097000</v>
       </c>
       <c r="E58" s="3">
-        <v>5555100</v>
+        <v>5807500</v>
       </c>
       <c r="F58" s="3">
-        <v>4935800</v>
+        <v>5160000</v>
       </c>
       <c r="G58" s="3">
-        <v>3670900</v>
+        <v>3837700</v>
       </c>
       <c r="H58" s="3">
-        <v>2071400</v>
+        <v>2165500</v>
       </c>
       <c r="I58" s="3">
-        <v>2985700</v>
+        <v>3121400</v>
       </c>
       <c r="J58" s="3">
-        <v>3381400</v>
+        <v>3535100</v>
       </c>
       <c r="K58" s="3">
         <v>2167000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2206200</v>
+        <v>2306400</v>
       </c>
       <c r="E59" s="3">
-        <v>1713700</v>
+        <v>1791600</v>
       </c>
       <c r="F59" s="3">
-        <v>2241900</v>
+        <v>2343700</v>
       </c>
       <c r="G59" s="3">
-        <v>1251400</v>
+        <v>1308200</v>
       </c>
       <c r="H59" s="3">
-        <v>1830300</v>
+        <v>1913400</v>
       </c>
       <c r="I59" s="3">
-        <v>1613800</v>
+        <v>1687100</v>
       </c>
       <c r="J59" s="3">
-        <v>1345000</v>
+        <v>1406100</v>
       </c>
       <c r="K59" s="3">
         <v>1291000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9505900</v>
+        <v>9937800</v>
       </c>
       <c r="E60" s="3">
-        <v>10229200</v>
+        <v>10693900</v>
       </c>
       <c r="F60" s="3">
-        <v>10266400</v>
+        <v>10732900</v>
       </c>
       <c r="G60" s="3">
-        <v>7832700</v>
+        <v>8188500</v>
       </c>
       <c r="H60" s="3">
-        <v>6090400</v>
+        <v>6367100</v>
       </c>
       <c r="I60" s="3">
-        <v>5838200</v>
+        <v>6103500</v>
       </c>
       <c r="J60" s="3">
-        <v>6011100</v>
+        <v>6284200</v>
       </c>
       <c r="K60" s="3">
         <v>4124700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34425800</v>
+        <v>35989900</v>
       </c>
       <c r="E61" s="3">
-        <v>34015800</v>
+        <v>35561300</v>
       </c>
       <c r="F61" s="3">
-        <v>34906400</v>
+        <v>36492300</v>
       </c>
       <c r="G61" s="3">
-        <v>30834200</v>
+        <v>32235100</v>
       </c>
       <c r="H61" s="3">
-        <v>33499500</v>
+        <v>35021600</v>
       </c>
       <c r="I61" s="3">
-        <v>24835800</v>
+        <v>25964200</v>
       </c>
       <c r="J61" s="3">
-        <v>19127600</v>
+        <v>19996700</v>
       </c>
       <c r="K61" s="3">
         <v>17671200</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9063400</v>
+        <v>9475200</v>
       </c>
       <c r="E62" s="3">
-        <v>8793800</v>
+        <v>9193300</v>
       </c>
       <c r="F62" s="3">
-        <v>8694700</v>
+        <v>9089700</v>
       </c>
       <c r="G62" s="3">
-        <v>8287900</v>
+        <v>8664400</v>
       </c>
       <c r="H62" s="3">
-        <v>9631200</v>
+        <v>10068800</v>
       </c>
       <c r="I62" s="3">
-        <v>6996800</v>
+        <v>7314700</v>
       </c>
       <c r="J62" s="3">
-        <v>4894500</v>
+        <v>5116900</v>
       </c>
       <c r="K62" s="3">
         <v>4194700</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54640700</v>
+        <v>57123200</v>
       </c>
       <c r="E66" s="3">
-        <v>54334600</v>
+        <v>56803200</v>
       </c>
       <c r="F66" s="3">
-        <v>55179900</v>
+        <v>57687000</v>
       </c>
       <c r="G66" s="3">
-        <v>48423400</v>
+        <v>50623500</v>
       </c>
       <c r="H66" s="3">
-        <v>50589900</v>
+        <v>52888400</v>
       </c>
       <c r="I66" s="3">
-        <v>38033200</v>
+        <v>39761200</v>
       </c>
       <c r="J66" s="3">
-        <v>31288600</v>
+        <v>32710200</v>
       </c>
       <c r="K66" s="3">
         <v>27230800</v>
@@ -2724,25 +2724,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3156200</v>
+        <v>3299600</v>
       </c>
       <c r="E70" s="3">
-        <v>3156200</v>
+        <v>3299600</v>
       </c>
       <c r="F70" s="3">
-        <v>3156200</v>
+        <v>3299600</v>
       </c>
       <c r="G70" s="3">
-        <v>3156200</v>
+        <v>3299600</v>
       </c>
       <c r="H70" s="3">
-        <v>3156200</v>
+        <v>3299600</v>
       </c>
       <c r="I70" s="3">
-        <v>1981800</v>
+        <v>2071800</v>
       </c>
       <c r="J70" s="3">
-        <v>1788300</v>
+        <v>1869500</v>
       </c>
       <c r="K70" s="3">
         <v>1395700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4256100</v>
+        <v>4449500</v>
       </c>
       <c r="E72" s="3">
-        <v>3136400</v>
+        <v>3278900</v>
       </c>
       <c r="F72" s="3">
-        <v>2199000</v>
+        <v>2299000</v>
       </c>
       <c r="G72" s="3">
-        <v>1287100</v>
+        <v>1345500</v>
       </c>
       <c r="H72" s="3">
-        <v>902500</v>
+        <v>943500</v>
       </c>
       <c r="I72" s="3">
-        <v>2195900</v>
+        <v>2295600</v>
       </c>
       <c r="J72" s="3">
-        <v>4344200</v>
+        <v>4541500</v>
       </c>
       <c r="K72" s="3">
         <v>3923000</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21743000</v>
+        <v>22730900</v>
       </c>
       <c r="E76" s="3">
-        <v>21239500</v>
+        <v>22204500</v>
       </c>
       <c r="F76" s="3">
-        <v>20109400</v>
+        <v>21023100</v>
       </c>
       <c r="G76" s="3">
-        <v>16700200</v>
+        <v>17459000</v>
       </c>
       <c r="H76" s="3">
-        <v>16080100</v>
+        <v>16810700</v>
       </c>
       <c r="I76" s="3">
-        <v>11053900</v>
+        <v>11556100</v>
       </c>
       <c r="J76" s="3">
-        <v>13334600</v>
+        <v>13940500</v>
       </c>
       <c r="K76" s="3">
         <v>12865200</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3534500</v>
+        <v>3695100</v>
       </c>
       <c r="E81" s="3">
-        <v>3153000</v>
+        <v>3296300</v>
       </c>
       <c r="F81" s="3">
-        <v>2806500</v>
+        <v>2934000</v>
       </c>
       <c r="G81" s="3">
-        <v>2376700</v>
+        <v>2484700</v>
       </c>
       <c r="H81" s="3">
-        <v>98300</v>
+        <v>102800</v>
       </c>
       <c r="I81" s="3">
-        <v>-983300</v>
+        <v>-1028000</v>
       </c>
       <c r="J81" s="3">
-        <v>1382200</v>
+        <v>1445000</v>
       </c>
       <c r="K81" s="3">
         <v>1317900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2053900</v>
+        <v>2147200</v>
       </c>
       <c r="E83" s="3">
-        <v>1954000</v>
+        <v>2042800</v>
       </c>
       <c r="F83" s="3">
-        <v>1863600</v>
+        <v>1948300</v>
       </c>
       <c r="G83" s="3">
-        <v>1629700</v>
+        <v>1703700</v>
       </c>
       <c r="H83" s="3">
-        <v>1537700</v>
+        <v>1607500</v>
       </c>
       <c r="I83" s="3">
-        <v>1399700</v>
+        <v>1463300</v>
       </c>
       <c r="J83" s="3">
-        <v>1277600</v>
+        <v>1335600</v>
       </c>
       <c r="K83" s="3">
         <v>1143200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5597100</v>
+        <v>5851400</v>
       </c>
       <c r="E89" s="3">
-        <v>5616200</v>
+        <v>5871300</v>
       </c>
       <c r="F89" s="3">
-        <v>5198200</v>
+        <v>5434400</v>
       </c>
       <c r="G89" s="3">
-        <v>4147500</v>
+        <v>4335900</v>
       </c>
       <c r="H89" s="3">
-        <v>4019800</v>
+        <v>4202500</v>
       </c>
       <c r="I89" s="3">
-        <v>3263300</v>
+        <v>3411500</v>
       </c>
       <c r="J89" s="3">
-        <v>3234700</v>
+        <v>3381700</v>
       </c>
       <c r="K89" s="3">
         <v>2828300</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6451200</v>
+        <v>-6744300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6488500</v>
+        <v>-6783300</v>
       </c>
       <c r="F91" s="3">
-        <v>-7862000</v>
+        <v>-8219200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5970600</v>
+        <v>-6241900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4204600</v>
+        <v>-4395600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3512300</v>
+        <v>-3671900</v>
       </c>
       <c r="J91" s="3">
-        <v>-3455200</v>
+        <v>-3612200</v>
       </c>
       <c r="K91" s="3">
         <v>-3434200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4799400</v>
+        <v>-5017400</v>
       </c>
       <c r="E94" s="3">
-        <v>-5449600</v>
+        <v>-5697200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7945300</v>
+        <v>-8306300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2933400</v>
+        <v>-3066700</v>
       </c>
       <c r="H94" s="3">
-        <v>-14895300</v>
+        <v>-15572000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3655800</v>
+        <v>-3821900</v>
       </c>
       <c r="J94" s="3">
-        <v>-3286300</v>
+        <v>-3435600</v>
       </c>
       <c r="K94" s="3">
         <v>-3941500</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2494800</v>
+        <v>-2608200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1552700</v>
+        <v>-1623300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1371100</v>
+        <v>-1433400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1184800</v>
+        <v>-1238600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1218100</v>
+        <v>-1273400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1219700</v>
+        <v>-1275100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1141200</v>
+        <v>-1193000</v>
       </c>
       <c r="K96" s="3">
         <v>-1043900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-634400</v>
+        <v>-663200</v>
       </c>
       <c r="E100" s="3">
-        <v>549600</v>
+        <v>574500</v>
       </c>
       <c r="F100" s="3">
-        <v>2179200</v>
+        <v>2278200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1125300</v>
+        <v>-1176400</v>
       </c>
       <c r="H100" s="3">
-        <v>11107800</v>
+        <v>11612500</v>
       </c>
       <c r="I100" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="J100" s="3">
-        <v>-295800</v>
+        <v>-309200</v>
       </c>
       <c r="K100" s="3">
         <v>1381100</v>
@@ -3713,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15100</v>
+        <v>-15800</v>
       </c>
       <c r="E101" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="F101" s="3">
-        <v>57900</v>
+        <v>60500</v>
       </c>
       <c r="G101" s="3">
-        <v>-30900</v>
+        <v>-32300</v>
       </c>
       <c r="H101" s="3">
-        <v>-100700</v>
+        <v>-105300</v>
       </c>
       <c r="I101" s="3">
-        <v>88800</v>
+        <v>92900</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>148300</v>
+        <v>155000</v>
       </c>
       <c r="E102" s="3">
-        <v>711300</v>
+        <v>743700</v>
       </c>
       <c r="F102" s="3">
-        <v>-509900</v>
+        <v>-533100</v>
       </c>
       <c r="G102" s="3">
-        <v>57900</v>
+        <v>60500</v>
       </c>
       <c r="H102" s="3">
-        <v>131600</v>
+        <v>137600</v>
       </c>
       <c r="I102" s="3">
-        <v>286300</v>
+        <v>299300</v>
       </c>
       <c r="J102" s="3">
-        <v>-347300</v>
+        <v>-363100</v>
       </c>
       <c r="K102" s="3">
         <v>289500</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10776800</v>
+        <v>10134900</v>
       </c>
       <c r="E8" s="3">
-        <v>10989100</v>
+        <v>10334500</v>
       </c>
       <c r="F8" s="3">
-        <v>11340600</v>
+        <v>10665100</v>
       </c>
       <c r="G8" s="3">
-        <v>11149900</v>
+        <v>10485800</v>
       </c>
       <c r="H8" s="3">
-        <v>10402100</v>
+        <v>9782500</v>
       </c>
       <c r="I8" s="3">
-        <v>9412200</v>
+        <v>8851600</v>
       </c>
       <c r="J8" s="3">
-        <v>8443900</v>
+        <v>7940900</v>
       </c>
       <c r="K8" s="3">
         <v>6772100</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3215100</v>
+        <v>3023600</v>
       </c>
       <c r="E9" s="3">
-        <v>3240800</v>
+        <v>3047700</v>
       </c>
       <c r="F9" s="3">
-        <v>2977100</v>
+        <v>2799800</v>
       </c>
       <c r="G9" s="3">
-        <v>3238300</v>
+        <v>3045400</v>
       </c>
       <c r="H9" s="3">
-        <v>3201000</v>
+        <v>3010300</v>
       </c>
       <c r="I9" s="3">
-        <v>2738400</v>
+        <v>2575300</v>
       </c>
       <c r="J9" s="3">
-        <v>2464800</v>
+        <v>2318000</v>
       </c>
       <c r="K9" s="3">
         <v>2058500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7561800</v>
+        <v>7111400</v>
       </c>
       <c r="E10" s="3">
-        <v>7748300</v>
+        <v>7286800</v>
       </c>
       <c r="F10" s="3">
-        <v>8363500</v>
+        <v>7865300</v>
       </c>
       <c r="G10" s="3">
-        <v>7911600</v>
+        <v>7440400</v>
       </c>
       <c r="H10" s="3">
-        <v>7201100</v>
+        <v>6772200</v>
       </c>
       <c r="I10" s="3">
-        <v>6673900</v>
+        <v>6276300</v>
       </c>
       <c r="J10" s="3">
-        <v>5979100</v>
+        <v>5623000</v>
       </c>
       <c r="K10" s="3">
         <v>4713600</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>664100</v>
+        <v>624500</v>
       </c>
       <c r="G14" s="3">
-        <v>1042100</v>
+        <v>980000</v>
       </c>
       <c r="H14" s="3">
-        <v>1241100</v>
+        <v>1167200</v>
       </c>
       <c r="I14" s="3">
-        <v>3122200</v>
+        <v>2936200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2147200</v>
+        <v>2019300</v>
       </c>
       <c r="E15" s="3">
-        <v>2042800</v>
+        <v>1921100</v>
       </c>
       <c r="F15" s="3">
-        <v>1948300</v>
+        <v>1832200</v>
       </c>
       <c r="G15" s="3">
-        <v>1703700</v>
+        <v>1602200</v>
       </c>
       <c r="H15" s="3">
-        <v>1607500</v>
+        <v>1511800</v>
       </c>
       <c r="I15" s="3">
-        <v>1463300</v>
+        <v>1376100</v>
       </c>
       <c r="J15" s="3">
-        <v>1335600</v>
+        <v>1256000</v>
       </c>
       <c r="K15" s="3">
         <v>1143200</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5965000</v>
+        <v>5609700</v>
       </c>
       <c r="E17" s="3">
-        <v>6192200</v>
+        <v>5823400</v>
       </c>
       <c r="F17" s="3">
-        <v>7294800</v>
+        <v>6860300</v>
       </c>
       <c r="G17" s="3">
-        <v>8430600</v>
+        <v>7928500</v>
       </c>
       <c r="H17" s="3">
-        <v>8310400</v>
+        <v>7815400</v>
       </c>
       <c r="I17" s="3">
-        <v>9607000</v>
+        <v>9034800</v>
       </c>
       <c r="J17" s="3">
-        <v>5714600</v>
+        <v>5374300</v>
       </c>
       <c r="K17" s="3">
         <v>4558100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4811800</v>
+        <v>4525200</v>
       </c>
       <c r="E18" s="3">
-        <v>4796900</v>
+        <v>4511200</v>
       </c>
       <c r="F18" s="3">
-        <v>4045800</v>
+        <v>3804800</v>
       </c>
       <c r="G18" s="3">
-        <v>2719300</v>
+        <v>2557300</v>
       </c>
       <c r="H18" s="3">
-        <v>2091700</v>
+        <v>1967100</v>
       </c>
       <c r="I18" s="3">
-        <v>-194800</v>
+        <v>-183200</v>
       </c>
       <c r="J18" s="3">
-        <v>2729200</v>
+        <v>2566700</v>
       </c>
       <c r="K18" s="3">
         <v>2214000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1269300</v>
+        <v>1193700</v>
       </c>
       <c r="E20" s="3">
-        <v>1437600</v>
+        <v>1351900</v>
       </c>
       <c r="F20" s="3">
-        <v>1106000</v>
+        <v>1040100</v>
       </c>
       <c r="G20" s="3">
-        <v>1736000</v>
+        <v>1632600</v>
       </c>
       <c r="H20" s="3">
-        <v>163300</v>
+        <v>153600</v>
       </c>
       <c r="I20" s="3">
-        <v>509900</v>
+        <v>479500</v>
       </c>
       <c r="J20" s="3">
-        <v>605200</v>
+        <v>569200</v>
       </c>
       <c r="K20" s="3">
         <v>501900</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8232400</v>
+        <v>7765500</v>
       </c>
       <c r="E21" s="3">
-        <v>8281100</v>
+        <v>7810200</v>
       </c>
       <c r="F21" s="3">
-        <v>7103700</v>
+        <v>6701800</v>
       </c>
       <c r="G21" s="3">
-        <v>6162300</v>
+        <v>5813800</v>
       </c>
       <c r="H21" s="3">
-        <v>3865600</v>
+        <v>3652900</v>
       </c>
       <c r="I21" s="3">
-        <v>1781100</v>
+        <v>1691000</v>
       </c>
       <c r="J21" s="3">
-        <v>4672600</v>
+        <v>4408800</v>
       </c>
       <c r="K21" s="3">
         <v>3857100</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1847100</v>
+        <v>1737100</v>
       </c>
       <c r="E22" s="3">
-        <v>1934200</v>
+        <v>1819000</v>
       </c>
       <c r="F22" s="3">
-        <v>1877800</v>
+        <v>1766000</v>
       </c>
       <c r="G22" s="3">
-        <v>1714500</v>
+        <v>1612400</v>
       </c>
       <c r="H22" s="3">
-        <v>1561100</v>
+        <v>1468100</v>
       </c>
       <c r="I22" s="3">
-        <v>1232000</v>
+        <v>1158600</v>
       </c>
       <c r="J22" s="3">
-        <v>993200</v>
+        <v>934000</v>
       </c>
       <c r="K22" s="3">
         <v>774400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4234000</v>
+        <v>3981800</v>
       </c>
       <c r="E23" s="3">
-        <v>4300300</v>
+        <v>4044100</v>
       </c>
       <c r="F23" s="3">
-        <v>3273900</v>
+        <v>3078900</v>
       </c>
       <c r="G23" s="3">
-        <v>2740800</v>
+        <v>2577600</v>
       </c>
       <c r="H23" s="3">
-        <v>693900</v>
+        <v>652600</v>
       </c>
       <c r="I23" s="3">
-        <v>-916900</v>
+        <v>-862300</v>
       </c>
       <c r="J23" s="3">
-        <v>2341200</v>
+        <v>2201800</v>
       </c>
       <c r="K23" s="3">
         <v>1941500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160800</v>
+        <v>151300</v>
       </c>
       <c r="E24" s="3">
-        <v>625100</v>
+        <v>587900</v>
       </c>
       <c r="F24" s="3">
-        <v>496600</v>
+        <v>467000</v>
       </c>
       <c r="G24" s="3">
-        <v>592800</v>
+        <v>557500</v>
       </c>
       <c r="H24" s="3">
-        <v>291800</v>
+        <v>274400</v>
       </c>
       <c r="I24" s="3">
-        <v>28200</v>
+        <v>26500</v>
       </c>
       <c r="J24" s="3">
-        <v>688900</v>
+        <v>647900</v>
       </c>
       <c r="K24" s="3">
         <v>470400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4073100</v>
+        <v>3830500</v>
       </c>
       <c r="E26" s="3">
-        <v>3675200</v>
+        <v>3456300</v>
       </c>
       <c r="F26" s="3">
-        <v>2777300</v>
+        <v>2611900</v>
       </c>
       <c r="G26" s="3">
-        <v>2148100</v>
+        <v>2020100</v>
       </c>
       <c r="H26" s="3">
-        <v>402100</v>
+        <v>378100</v>
       </c>
       <c r="I26" s="3">
-        <v>-945100</v>
+        <v>-888800</v>
       </c>
       <c r="J26" s="3">
-        <v>1652300</v>
+        <v>1553900</v>
       </c>
       <c r="K26" s="3">
         <v>1471100</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3695100</v>
+        <v>3475000</v>
       </c>
       <c r="E27" s="3">
-        <v>3296300</v>
+        <v>3100000</v>
       </c>
       <c r="F27" s="3">
-        <v>2795600</v>
+        <v>2629000</v>
       </c>
       <c r="G27" s="3">
-        <v>1818100</v>
+        <v>1709800</v>
       </c>
       <c r="H27" s="3">
-        <v>102800</v>
+        <v>96700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1028000</v>
+        <v>-966800</v>
       </c>
       <c r="J27" s="3">
-        <v>1445000</v>
+        <v>1359000</v>
       </c>
       <c r="K27" s="3">
         <v>1317900</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>138500</v>
+        <v>130200</v>
       </c>
       <c r="G29" s="3">
-        <v>666600</v>
+        <v>626900</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1269300</v>
+        <v>-1193700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1437600</v>
+        <v>-1351900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1106000</v>
+        <v>-1040100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1736000</v>
+        <v>-1632600</v>
       </c>
       <c r="H32" s="3">
-        <v>-163300</v>
+        <v>-153600</v>
       </c>
       <c r="I32" s="3">
-        <v>-509900</v>
+        <v>-479500</v>
       </c>
       <c r="J32" s="3">
-        <v>-605200</v>
+        <v>-569200</v>
       </c>
       <c r="K32" s="3">
         <v>-501900</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3695100</v>
+        <v>3475000</v>
       </c>
       <c r="E33" s="3">
-        <v>3296300</v>
+        <v>3100000</v>
       </c>
       <c r="F33" s="3">
-        <v>2934000</v>
+        <v>2759300</v>
       </c>
       <c r="G33" s="3">
-        <v>2484700</v>
+        <v>2336700</v>
       </c>
       <c r="H33" s="3">
-        <v>102800</v>
+        <v>96700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1028000</v>
+        <v>-966800</v>
       </c>
       <c r="J33" s="3">
-        <v>1445000</v>
+        <v>1359000</v>
       </c>
       <c r="K33" s="3">
         <v>1317900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3695100</v>
+        <v>3475000</v>
       </c>
       <c r="E35" s="3">
-        <v>3296300</v>
+        <v>3100000</v>
       </c>
       <c r="F35" s="3">
-        <v>2934000</v>
+        <v>2759300</v>
       </c>
       <c r="G35" s="3">
-        <v>2484700</v>
+        <v>2336700</v>
       </c>
       <c r="H35" s="3">
-        <v>102800</v>
+        <v>96700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1028000</v>
+        <v>-966800</v>
       </c>
       <c r="J35" s="3">
-        <v>1445000</v>
+        <v>1359000</v>
       </c>
       <c r="K35" s="3">
         <v>1317900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1268400</v>
+        <v>1192900</v>
       </c>
       <c r="E41" s="3">
-        <v>1113400</v>
+        <v>1047100</v>
       </c>
       <c r="F41" s="3">
-        <v>369800</v>
+        <v>347700</v>
       </c>
       <c r="G41" s="3">
-        <v>902800</v>
+        <v>849100</v>
       </c>
       <c r="H41" s="3">
-        <v>842300</v>
+        <v>792100</v>
       </c>
       <c r="I41" s="3">
-        <v>704700</v>
+        <v>662700</v>
       </c>
       <c r="J41" s="3">
-        <v>405400</v>
+        <v>381300</v>
       </c>
       <c r="K41" s="3">
         <v>713600</v>
@@ -1776,13 +1776,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>155900</v>
+        <v>146600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>594400</v>
+        <v>559000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1901800</v>
+        <v>1788600</v>
       </c>
       <c r="E43" s="3">
-        <v>2134800</v>
+        <v>2007700</v>
       </c>
       <c r="F43" s="3">
-        <v>2233500</v>
+        <v>2100400</v>
       </c>
       <c r="G43" s="3">
-        <v>2090900</v>
+        <v>1966300</v>
       </c>
       <c r="H43" s="3">
-        <v>1720300</v>
+        <v>1617800</v>
       </c>
       <c r="I43" s="3">
-        <v>1149900</v>
+        <v>1081400</v>
       </c>
       <c r="J43" s="3">
-        <v>1088500</v>
+        <v>1023700</v>
       </c>
       <c r="K43" s="3">
         <v>863700</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>521500</v>
+        <v>490400</v>
       </c>
       <c r="E44" s="3">
-        <v>374700</v>
+        <v>352400</v>
       </c>
       <c r="F44" s="3">
-        <v>357300</v>
+        <v>336000</v>
       </c>
       <c r="G44" s="3">
-        <v>313400</v>
+        <v>294700</v>
       </c>
       <c r="H44" s="3">
-        <v>305100</v>
+        <v>286900</v>
       </c>
       <c r="I44" s="3">
-        <v>267800</v>
+        <v>251800</v>
       </c>
       <c r="J44" s="3">
-        <v>242100</v>
+        <v>227700</v>
       </c>
       <c r="K44" s="3">
         <v>193200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>464300</v>
+        <v>436600</v>
       </c>
       <c r="E45" s="3">
-        <v>2720100</v>
+        <v>2558100</v>
       </c>
       <c r="F45" s="3">
-        <v>702200</v>
+        <v>660400</v>
       </c>
       <c r="G45" s="3">
-        <v>572900</v>
+        <v>538800</v>
       </c>
       <c r="H45" s="3">
-        <v>3834400</v>
+        <v>3606000</v>
       </c>
       <c r="I45" s="3">
-        <v>1697900</v>
+        <v>1596800</v>
       </c>
       <c r="J45" s="3">
-        <v>2043600</v>
+        <v>1921900</v>
       </c>
       <c r="K45" s="3">
         <v>652000</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4311900</v>
+        <v>4055100</v>
       </c>
       <c r="E46" s="3">
-        <v>6343100</v>
+        <v>5965300</v>
       </c>
       <c r="F46" s="3">
-        <v>4257200</v>
+        <v>4003600</v>
       </c>
       <c r="G46" s="3">
-        <v>3880000</v>
+        <v>3648900</v>
       </c>
       <c r="H46" s="3">
-        <v>6702000</v>
+        <v>6302900</v>
       </c>
       <c r="I46" s="3">
-        <v>3248200</v>
+        <v>3054700</v>
       </c>
       <c r="J46" s="3">
-        <v>2580800</v>
+        <v>2427100</v>
       </c>
       <c r="K46" s="3">
         <v>2422600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6819800</v>
+        <v>6413600</v>
       </c>
       <c r="E47" s="3">
-        <v>6582700</v>
+        <v>6190600</v>
       </c>
       <c r="F47" s="3">
-        <v>7028700</v>
+        <v>6610000</v>
       </c>
       <c r="G47" s="3">
-        <v>6096800</v>
+        <v>5733700</v>
       </c>
       <c r="H47" s="3">
-        <v>5523100</v>
+        <v>5194200</v>
       </c>
       <c r="I47" s="3">
-        <v>5388000</v>
+        <v>5067100</v>
       </c>
       <c r="J47" s="3">
-        <v>4840000</v>
+        <v>4551700</v>
       </c>
       <c r="K47" s="3">
         <v>4660500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57847000</v>
+        <v>54401500</v>
       </c>
       <c r="E48" s="3">
-        <v>54293700</v>
+        <v>51059800</v>
       </c>
       <c r="F48" s="3">
-        <v>55134300</v>
+        <v>51850400</v>
       </c>
       <c r="G48" s="3">
-        <v>47485500</v>
+        <v>44657200</v>
       </c>
       <c r="H48" s="3">
-        <v>45162500</v>
+        <v>42472500</v>
       </c>
       <c r="I48" s="3">
-        <v>74311100</v>
+        <v>69884900</v>
       </c>
       <c r="J48" s="3">
-        <v>69265500</v>
+        <v>65139900</v>
       </c>
       <c r="K48" s="3">
         <v>28949900</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10703000</v>
+        <v>10065500</v>
       </c>
       <c r="E49" s="3">
-        <v>12105800</v>
+        <v>11384700</v>
       </c>
       <c r="F49" s="3">
-        <v>12625600</v>
+        <v>11873600</v>
       </c>
       <c r="G49" s="3">
-        <v>11341400</v>
+        <v>10665900</v>
       </c>
       <c r="H49" s="3">
-        <v>13307900</v>
+        <v>12515300</v>
       </c>
       <c r="I49" s="3">
-        <v>8108100</v>
+        <v>7625200</v>
       </c>
       <c r="J49" s="3">
-        <v>4861500</v>
+        <v>4572000</v>
       </c>
       <c r="K49" s="3">
         <v>3534200</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3472100</v>
+        <v>3265300</v>
       </c>
       <c r="E52" s="3">
-        <v>2982100</v>
+        <v>2804500</v>
       </c>
       <c r="F52" s="3">
-        <v>2963900</v>
+        <v>2787300</v>
       </c>
       <c r="G52" s="3">
-        <v>2578300</v>
+        <v>2424800</v>
       </c>
       <c r="H52" s="3">
-        <v>2303100</v>
+        <v>2165900</v>
       </c>
       <c r="I52" s="3">
-        <v>1995500</v>
+        <v>1876700</v>
       </c>
       <c r="J52" s="3">
-        <v>1830500</v>
+        <v>1721500</v>
       </c>
       <c r="K52" s="3">
         <v>1924500</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>83153700</v>
+        <v>78200900</v>
       </c>
       <c r="E54" s="3">
-        <v>82307300</v>
+        <v>77404900</v>
       </c>
       <c r="F54" s="3">
-        <v>82009600</v>
+        <v>77125000</v>
       </c>
       <c r="G54" s="3">
-        <v>71382000</v>
+        <v>67130400</v>
       </c>
       <c r="H54" s="3">
-        <v>72998700</v>
+        <v>68650700</v>
       </c>
       <c r="I54" s="3">
-        <v>53389200</v>
+        <v>50209200</v>
       </c>
       <c r="J54" s="3">
-        <v>48520200</v>
+        <v>45630200</v>
       </c>
       <c r="K54" s="3">
         <v>41491800</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2534400</v>
+        <v>2383500</v>
       </c>
       <c r="E57" s="3">
-        <v>3094800</v>
+        <v>2910500</v>
       </c>
       <c r="F57" s="3">
-        <v>3229100</v>
+        <v>3036800</v>
       </c>
       <c r="G57" s="3">
-        <v>3042600</v>
+        <v>2861400</v>
       </c>
       <c r="H57" s="3">
-        <v>2288200</v>
+        <v>2151900</v>
       </c>
       <c r="I57" s="3">
-        <v>3031800</v>
+        <v>2851300</v>
       </c>
       <c r="J57" s="3">
-        <v>1346400</v>
+        <v>1266200</v>
       </c>
       <c r="K57" s="3">
         <v>666700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5097000</v>
+        <v>4793400</v>
       </c>
       <c r="E58" s="3">
-        <v>5807500</v>
+        <v>5461600</v>
       </c>
       <c r="F58" s="3">
-        <v>5160000</v>
+        <v>4852700</v>
       </c>
       <c r="G58" s="3">
-        <v>3837700</v>
+        <v>3609100</v>
       </c>
       <c r="H58" s="3">
-        <v>2165500</v>
+        <v>2036500</v>
       </c>
       <c r="I58" s="3">
-        <v>3121400</v>
+        <v>2935500</v>
       </c>
       <c r="J58" s="3">
-        <v>3535100</v>
+        <v>3324500</v>
       </c>
       <c r="K58" s="3">
         <v>2167000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2306400</v>
+        <v>2169000</v>
       </c>
       <c r="E59" s="3">
-        <v>1791600</v>
+        <v>1684900</v>
       </c>
       <c r="F59" s="3">
-        <v>2343700</v>
+        <v>2204100</v>
       </c>
       <c r="G59" s="3">
-        <v>1308200</v>
+        <v>1230300</v>
       </c>
       <c r="H59" s="3">
-        <v>1913400</v>
+        <v>1799500</v>
       </c>
       <c r="I59" s="3">
-        <v>1687100</v>
+        <v>1586600</v>
       </c>
       <c r="J59" s="3">
-        <v>1406100</v>
+        <v>1322300</v>
       </c>
       <c r="K59" s="3">
         <v>1291000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9937800</v>
+        <v>9345900</v>
       </c>
       <c r="E60" s="3">
-        <v>10693900</v>
+        <v>10057000</v>
       </c>
       <c r="F60" s="3">
-        <v>10732900</v>
+        <v>10093600</v>
       </c>
       <c r="G60" s="3">
-        <v>8188500</v>
+        <v>7700800</v>
       </c>
       <c r="H60" s="3">
-        <v>6367100</v>
+        <v>5987900</v>
       </c>
       <c r="I60" s="3">
-        <v>6103500</v>
+        <v>5739900</v>
       </c>
       <c r="J60" s="3">
-        <v>6284200</v>
+        <v>5909900</v>
       </c>
       <c r="K60" s="3">
         <v>4124700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35989900</v>
+        <v>33846300</v>
       </c>
       <c r="E61" s="3">
-        <v>35561300</v>
+        <v>33443200</v>
       </c>
       <c r="F61" s="3">
-        <v>36492300</v>
+        <v>34318700</v>
       </c>
       <c r="G61" s="3">
-        <v>32235100</v>
+        <v>30315100</v>
       </c>
       <c r="H61" s="3">
-        <v>35021600</v>
+        <v>32935600</v>
       </c>
       <c r="I61" s="3">
-        <v>25964200</v>
+        <v>24417700</v>
       </c>
       <c r="J61" s="3">
-        <v>19996700</v>
+        <v>18805600</v>
       </c>
       <c r="K61" s="3">
         <v>17671200</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9475200</v>
+        <v>8910800</v>
       </c>
       <c r="E62" s="3">
-        <v>9193300</v>
+        <v>8645800</v>
       </c>
       <c r="F62" s="3">
-        <v>9089700</v>
+        <v>8548300</v>
       </c>
       <c r="G62" s="3">
-        <v>8664400</v>
+        <v>8148300</v>
       </c>
       <c r="H62" s="3">
-        <v>10068800</v>
+        <v>9469100</v>
       </c>
       <c r="I62" s="3">
-        <v>7314700</v>
+        <v>6879000</v>
       </c>
       <c r="J62" s="3">
-        <v>5116900</v>
+        <v>4812100</v>
       </c>
       <c r="K62" s="3">
         <v>4194700</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57123200</v>
+        <v>53720800</v>
       </c>
       <c r="E66" s="3">
-        <v>56803200</v>
+        <v>53419900</v>
       </c>
       <c r="F66" s="3">
-        <v>57687000</v>
+        <v>54251000</v>
       </c>
       <c r="G66" s="3">
-        <v>50623500</v>
+        <v>47608200</v>
       </c>
       <c r="H66" s="3">
-        <v>52888400</v>
+        <v>49738300</v>
       </c>
       <c r="I66" s="3">
-        <v>39761200</v>
+        <v>37393000</v>
       </c>
       <c r="J66" s="3">
-        <v>32710200</v>
+        <v>30761900</v>
       </c>
       <c r="K66" s="3">
         <v>27230800</v>
@@ -2724,25 +2724,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3299600</v>
+        <v>3103100</v>
       </c>
       <c r="E70" s="3">
-        <v>3299600</v>
+        <v>3103100</v>
       </c>
       <c r="F70" s="3">
-        <v>3299600</v>
+        <v>3103100</v>
       </c>
       <c r="G70" s="3">
-        <v>3299600</v>
+        <v>3103100</v>
       </c>
       <c r="H70" s="3">
-        <v>3299600</v>
+        <v>3103100</v>
       </c>
       <c r="I70" s="3">
-        <v>2071800</v>
+        <v>1948400</v>
       </c>
       <c r="J70" s="3">
-        <v>1869500</v>
+        <v>1758200</v>
       </c>
       <c r="K70" s="3">
         <v>1395700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4449500</v>
+        <v>4184500</v>
       </c>
       <c r="E72" s="3">
-        <v>3278900</v>
+        <v>3083600</v>
       </c>
       <c r="F72" s="3">
-        <v>2299000</v>
+        <v>2162000</v>
       </c>
       <c r="G72" s="3">
-        <v>1345500</v>
+        <v>1265400</v>
       </c>
       <c r="H72" s="3">
-        <v>943500</v>
+        <v>887300</v>
       </c>
       <c r="I72" s="3">
-        <v>2295600</v>
+        <v>2158900</v>
       </c>
       <c r="J72" s="3">
-        <v>4541500</v>
+        <v>4271000</v>
       </c>
       <c r="K72" s="3">
         <v>3923000</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22730900</v>
+        <v>21377000</v>
       </c>
       <c r="E76" s="3">
-        <v>22204500</v>
+        <v>20881900</v>
       </c>
       <c r="F76" s="3">
-        <v>21023100</v>
+        <v>19770900</v>
       </c>
       <c r="G76" s="3">
-        <v>17459000</v>
+        <v>16419100</v>
       </c>
       <c r="H76" s="3">
-        <v>16810700</v>
+        <v>15809400</v>
       </c>
       <c r="I76" s="3">
-        <v>11556100</v>
+        <v>10867800</v>
       </c>
       <c r="J76" s="3">
-        <v>13940500</v>
+        <v>13110100</v>
       </c>
       <c r="K76" s="3">
         <v>12865200</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3695100</v>
+        <v>3475000</v>
       </c>
       <c r="E81" s="3">
-        <v>3296300</v>
+        <v>3100000</v>
       </c>
       <c r="F81" s="3">
-        <v>2934000</v>
+        <v>2759300</v>
       </c>
       <c r="G81" s="3">
-        <v>2484700</v>
+        <v>2336700</v>
       </c>
       <c r="H81" s="3">
-        <v>102800</v>
+        <v>96700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1028000</v>
+        <v>-966800</v>
       </c>
       <c r="J81" s="3">
-        <v>1445000</v>
+        <v>1359000</v>
       </c>
       <c r="K81" s="3">
         <v>1317900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2147200</v>
+        <v>2019300</v>
       </c>
       <c r="E83" s="3">
-        <v>2042800</v>
+        <v>1921100</v>
       </c>
       <c r="F83" s="3">
-        <v>1948300</v>
+        <v>1832200</v>
       </c>
       <c r="G83" s="3">
-        <v>1703700</v>
+        <v>1602200</v>
       </c>
       <c r="H83" s="3">
-        <v>1607500</v>
+        <v>1511800</v>
       </c>
       <c r="I83" s="3">
-        <v>1463300</v>
+        <v>1376100</v>
       </c>
       <c r="J83" s="3">
-        <v>1335600</v>
+        <v>1256000</v>
       </c>
       <c r="K83" s="3">
         <v>1143200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5851400</v>
+        <v>5502900</v>
       </c>
       <c r="E89" s="3">
-        <v>5871300</v>
+        <v>5521600</v>
       </c>
       <c r="F89" s="3">
-        <v>5434400</v>
+        <v>5110700</v>
       </c>
       <c r="G89" s="3">
-        <v>4335900</v>
+        <v>4077700</v>
       </c>
       <c r="H89" s="3">
-        <v>4202500</v>
+        <v>3952100</v>
       </c>
       <c r="I89" s="3">
-        <v>3411500</v>
+        <v>3208300</v>
       </c>
       <c r="J89" s="3">
-        <v>3381700</v>
+        <v>3180300</v>
       </c>
       <c r="K89" s="3">
         <v>2828300</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6744300</v>
+        <v>-6342600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6783300</v>
+        <v>-6379300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8219200</v>
+        <v>-7729600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6241900</v>
+        <v>-5870100</v>
       </c>
       <c r="H91" s="3">
-        <v>-4395600</v>
+        <v>-4133800</v>
       </c>
       <c r="I91" s="3">
-        <v>-3671900</v>
+        <v>-3453200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3612200</v>
+        <v>-3397000</v>
       </c>
       <c r="K91" s="3">
         <v>-3434200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5017400</v>
+        <v>-4718600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5697200</v>
+        <v>-5357900</v>
       </c>
       <c r="F94" s="3">
-        <v>-8306300</v>
+        <v>-7811500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3066700</v>
+        <v>-2884000</v>
       </c>
       <c r="H94" s="3">
-        <v>-15572000</v>
+        <v>-14644500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3821900</v>
+        <v>-3594300</v>
       </c>
       <c r="J94" s="3">
-        <v>-3435600</v>
+        <v>-3231000</v>
       </c>
       <c r="K94" s="3">
         <v>-3941500</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2608200</v>
+        <v>-2452800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1623300</v>
+        <v>-1526600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1433400</v>
+        <v>-1348000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1238600</v>
+        <v>-1164800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1273400</v>
+        <v>-1197600</v>
       </c>
       <c r="I96" s="3">
-        <v>-1275100</v>
+        <v>-1199100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1193000</v>
+        <v>-1121900</v>
       </c>
       <c r="K96" s="3">
         <v>-1043900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-663200</v>
+        <v>-623700</v>
       </c>
       <c r="E100" s="3">
-        <v>574500</v>
+        <v>540300</v>
       </c>
       <c r="F100" s="3">
-        <v>2278200</v>
+        <v>2142500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1176400</v>
+        <v>-1106400</v>
       </c>
       <c r="H100" s="3">
-        <v>11612500</v>
+        <v>10920800</v>
       </c>
       <c r="I100" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="J100" s="3">
-        <v>-309200</v>
+        <v>-290800</v>
       </c>
       <c r="K100" s="3">
         <v>1381100</v>
@@ -3713,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15800</v>
+        <v>-14800</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>60500</v>
+        <v>56900</v>
       </c>
       <c r="G101" s="3">
-        <v>-32300</v>
+        <v>-30400</v>
       </c>
       <c r="H101" s="3">
-        <v>-105300</v>
+        <v>-99000</v>
       </c>
       <c r="I101" s="3">
-        <v>92900</v>
+        <v>87300</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>155000</v>
+        <v>145800</v>
       </c>
       <c r="E102" s="3">
-        <v>743700</v>
+        <v>699400</v>
       </c>
       <c r="F102" s="3">
-        <v>-533100</v>
+        <v>-501300</v>
       </c>
       <c r="G102" s="3">
-        <v>60500</v>
+        <v>56900</v>
       </c>
       <c r="H102" s="3">
-        <v>137600</v>
+        <v>129400</v>
       </c>
       <c r="I102" s="3">
-        <v>299300</v>
+        <v>281500</v>
       </c>
       <c r="J102" s="3">
-        <v>-363100</v>
+        <v>-341500</v>
       </c>
       <c r="K102" s="3">
         <v>289500</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10134900</v>
+        <v>10204900</v>
       </c>
       <c r="E8" s="3">
-        <v>10334500</v>
+        <v>10405800</v>
       </c>
       <c r="F8" s="3">
-        <v>10665100</v>
+        <v>10738700</v>
       </c>
       <c r="G8" s="3">
-        <v>10485800</v>
+        <v>10558100</v>
       </c>
       <c r="H8" s="3">
-        <v>9782500</v>
+        <v>9850000</v>
       </c>
       <c r="I8" s="3">
-        <v>8851600</v>
+        <v>8912700</v>
       </c>
       <c r="J8" s="3">
-        <v>7940900</v>
+        <v>7995700</v>
       </c>
       <c r="K8" s="3">
         <v>6772100</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3023600</v>
+        <v>3044400</v>
       </c>
       <c r="E9" s="3">
-        <v>3047700</v>
+        <v>3068800</v>
       </c>
       <c r="F9" s="3">
-        <v>2799800</v>
+        <v>2819100</v>
       </c>
       <c r="G9" s="3">
-        <v>3045400</v>
+        <v>3066400</v>
       </c>
       <c r="H9" s="3">
-        <v>3010300</v>
+        <v>3031100</v>
       </c>
       <c r="I9" s="3">
-        <v>2575300</v>
+        <v>2593000</v>
       </c>
       <c r="J9" s="3">
-        <v>2318000</v>
+        <v>2334000</v>
       </c>
       <c r="K9" s="3">
         <v>2058500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7111400</v>
+        <v>7160400</v>
       </c>
       <c r="E10" s="3">
-        <v>7286800</v>
+        <v>7337100</v>
       </c>
       <c r="F10" s="3">
-        <v>7865300</v>
+        <v>7919600</v>
       </c>
       <c r="G10" s="3">
-        <v>7440400</v>
+        <v>7491700</v>
       </c>
       <c r="H10" s="3">
-        <v>6772200</v>
+        <v>6818900</v>
       </c>
       <c r="I10" s="3">
-        <v>6276300</v>
+        <v>6319700</v>
       </c>
       <c r="J10" s="3">
-        <v>5623000</v>
+        <v>5661800</v>
       </c>
       <c r="K10" s="3">
         <v>4713600</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>624500</v>
+        <v>628800</v>
       </c>
       <c r="G14" s="3">
-        <v>980000</v>
+        <v>986800</v>
       </c>
       <c r="H14" s="3">
-        <v>1167200</v>
+        <v>1175200</v>
       </c>
       <c r="I14" s="3">
-        <v>2936200</v>
+        <v>2956500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2019300</v>
+        <v>2033300</v>
       </c>
       <c r="E15" s="3">
-        <v>1921100</v>
+        <v>1934400</v>
       </c>
       <c r="F15" s="3">
-        <v>1832200</v>
+        <v>1844900</v>
       </c>
       <c r="G15" s="3">
-        <v>1602200</v>
+        <v>1613300</v>
       </c>
       <c r="H15" s="3">
-        <v>1511800</v>
+        <v>1522200</v>
       </c>
       <c r="I15" s="3">
-        <v>1376100</v>
+        <v>1385600</v>
       </c>
       <c r="J15" s="3">
-        <v>1256000</v>
+        <v>1264700</v>
       </c>
       <c r="K15" s="3">
         <v>1143200</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5609700</v>
+        <v>5648400</v>
       </c>
       <c r="E17" s="3">
-        <v>5823400</v>
+        <v>5863500</v>
       </c>
       <c r="F17" s="3">
-        <v>6860300</v>
+        <v>6907700</v>
       </c>
       <c r="G17" s="3">
-        <v>7928500</v>
+        <v>7983200</v>
       </c>
       <c r="H17" s="3">
-        <v>7815400</v>
+        <v>7869300</v>
       </c>
       <c r="I17" s="3">
-        <v>9034800</v>
+        <v>9097200</v>
       </c>
       <c r="J17" s="3">
-        <v>5374300</v>
+        <v>5411300</v>
       </c>
       <c r="K17" s="3">
         <v>4558100</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4525200</v>
+        <v>4556400</v>
       </c>
       <c r="E18" s="3">
-        <v>4511200</v>
+        <v>4542300</v>
       </c>
       <c r="F18" s="3">
-        <v>3804800</v>
+        <v>3831000</v>
       </c>
       <c r="G18" s="3">
-        <v>2557300</v>
+        <v>2575000</v>
       </c>
       <c r="H18" s="3">
-        <v>1967100</v>
+        <v>1980700</v>
       </c>
       <c r="I18" s="3">
-        <v>-183200</v>
+        <v>-184500</v>
       </c>
       <c r="J18" s="3">
-        <v>2566700</v>
+        <v>2584400</v>
       </c>
       <c r="K18" s="3">
         <v>2214000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1193700</v>
+        <v>1201900</v>
       </c>
       <c r="E20" s="3">
-        <v>1351900</v>
+        <v>1361300</v>
       </c>
       <c r="F20" s="3">
-        <v>1040100</v>
+        <v>1047300</v>
       </c>
       <c r="G20" s="3">
-        <v>1632600</v>
+        <v>1643900</v>
       </c>
       <c r="H20" s="3">
-        <v>153600</v>
+        <v>154700</v>
       </c>
       <c r="I20" s="3">
-        <v>479500</v>
+        <v>482800</v>
       </c>
       <c r="J20" s="3">
-        <v>569200</v>
+        <v>573100</v>
       </c>
       <c r="K20" s="3">
         <v>501900</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7765500</v>
+        <v>7784000</v>
       </c>
       <c r="E21" s="3">
-        <v>7810200</v>
+        <v>7830700</v>
       </c>
       <c r="F21" s="3">
-        <v>6701800</v>
+        <v>6716300</v>
       </c>
       <c r="G21" s="3">
-        <v>5813800</v>
+        <v>5826100</v>
       </c>
       <c r="H21" s="3">
-        <v>3652900</v>
+        <v>3651800</v>
       </c>
       <c r="I21" s="3">
-        <v>1691000</v>
+        <v>1678700</v>
       </c>
       <c r="J21" s="3">
-        <v>4408800</v>
+        <v>4417500</v>
       </c>
       <c r="K21" s="3">
         <v>3857100</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1737100</v>
+        <v>1749100</v>
       </c>
       <c r="E22" s="3">
-        <v>1819000</v>
+        <v>1831500</v>
       </c>
       <c r="F22" s="3">
-        <v>1766000</v>
+        <v>1778100</v>
       </c>
       <c r="G22" s="3">
-        <v>1612400</v>
+        <v>1623500</v>
       </c>
       <c r="H22" s="3">
-        <v>1468100</v>
+        <v>1478200</v>
       </c>
       <c r="I22" s="3">
-        <v>1158600</v>
+        <v>1166600</v>
       </c>
       <c r="J22" s="3">
-        <v>934000</v>
+        <v>940500</v>
       </c>
       <c r="K22" s="3">
         <v>774400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3981800</v>
+        <v>4009300</v>
       </c>
       <c r="E23" s="3">
-        <v>4044100</v>
+        <v>4072100</v>
       </c>
       <c r="F23" s="3">
-        <v>3078900</v>
+        <v>3100200</v>
       </c>
       <c r="G23" s="3">
-        <v>2577600</v>
+        <v>2595400</v>
       </c>
       <c r="H23" s="3">
-        <v>652600</v>
+        <v>657100</v>
       </c>
       <c r="I23" s="3">
-        <v>-862300</v>
+        <v>-868300</v>
       </c>
       <c r="J23" s="3">
-        <v>2201800</v>
+        <v>2217000</v>
       </c>
       <c r="K23" s="3">
         <v>1941500</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>151300</v>
+        <v>152300</v>
       </c>
       <c r="E24" s="3">
-        <v>587900</v>
+        <v>591900</v>
       </c>
       <c r="F24" s="3">
-        <v>467000</v>
+        <v>470200</v>
       </c>
       <c r="G24" s="3">
-        <v>557500</v>
+        <v>561300</v>
       </c>
       <c r="H24" s="3">
-        <v>274400</v>
+        <v>276300</v>
       </c>
       <c r="I24" s="3">
-        <v>26500</v>
+        <v>26700</v>
       </c>
       <c r="J24" s="3">
-        <v>647900</v>
+        <v>652400</v>
       </c>
       <c r="K24" s="3">
         <v>470400</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3830500</v>
+        <v>3857000</v>
       </c>
       <c r="E26" s="3">
-        <v>3456300</v>
+        <v>3480100</v>
       </c>
       <c r="F26" s="3">
-        <v>2611900</v>
+        <v>2629900</v>
       </c>
       <c r="G26" s="3">
-        <v>2020100</v>
+        <v>2034100</v>
       </c>
       <c r="H26" s="3">
-        <v>378100</v>
+        <v>380700</v>
       </c>
       <c r="I26" s="3">
-        <v>-888800</v>
+        <v>-895000</v>
       </c>
       <c r="J26" s="3">
-        <v>1553900</v>
+        <v>1564600</v>
       </c>
       <c r="K26" s="3">
         <v>1471100</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3475000</v>
+        <v>3499000</v>
       </c>
       <c r="E27" s="3">
-        <v>3100000</v>
+        <v>3121400</v>
       </c>
       <c r="F27" s="3">
-        <v>2629000</v>
+        <v>2647200</v>
       </c>
       <c r="G27" s="3">
-        <v>1709800</v>
+        <v>1721600</v>
       </c>
       <c r="H27" s="3">
-        <v>96700</v>
+        <v>97300</v>
       </c>
       <c r="I27" s="3">
-        <v>-966800</v>
+        <v>-973500</v>
       </c>
       <c r="J27" s="3">
-        <v>1359000</v>
+        <v>1368300</v>
       </c>
       <c r="K27" s="3">
         <v>1317900</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>130200</v>
+        <v>131100</v>
       </c>
       <c r="G29" s="3">
-        <v>626900</v>
+        <v>631200</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1193700</v>
+        <v>-1201900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1351900</v>
+        <v>-1361300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1040100</v>
+        <v>-1047300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1632600</v>
+        <v>-1643900</v>
       </c>
       <c r="H32" s="3">
-        <v>-153600</v>
+        <v>-154700</v>
       </c>
       <c r="I32" s="3">
-        <v>-479500</v>
+        <v>-482800</v>
       </c>
       <c r="J32" s="3">
-        <v>-569200</v>
+        <v>-573100</v>
       </c>
       <c r="K32" s="3">
         <v>-501900</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3475000</v>
+        <v>3499000</v>
       </c>
       <c r="E33" s="3">
-        <v>3100000</v>
+        <v>3121400</v>
       </c>
       <c r="F33" s="3">
-        <v>2759300</v>
+        <v>2778300</v>
       </c>
       <c r="G33" s="3">
-        <v>2336700</v>
+        <v>2352800</v>
       </c>
       <c r="H33" s="3">
-        <v>96700</v>
+        <v>97300</v>
       </c>
       <c r="I33" s="3">
-        <v>-966800</v>
+        <v>-973500</v>
       </c>
       <c r="J33" s="3">
-        <v>1359000</v>
+        <v>1368300</v>
       </c>
       <c r="K33" s="3">
         <v>1317900</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3475000</v>
+        <v>3499000</v>
       </c>
       <c r="E35" s="3">
-        <v>3100000</v>
+        <v>3121400</v>
       </c>
       <c r="F35" s="3">
-        <v>2759300</v>
+        <v>2778300</v>
       </c>
       <c r="G35" s="3">
-        <v>2336700</v>
+        <v>2352800</v>
       </c>
       <c r="H35" s="3">
-        <v>96700</v>
+        <v>97300</v>
       </c>
       <c r="I35" s="3">
-        <v>-966800</v>
+        <v>-973500</v>
       </c>
       <c r="J35" s="3">
-        <v>1359000</v>
+        <v>1368300</v>
       </c>
       <c r="K35" s="3">
         <v>1317900</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1192900</v>
+        <v>1201100</v>
       </c>
       <c r="E41" s="3">
-        <v>1047100</v>
+        <v>1054300</v>
       </c>
       <c r="F41" s="3">
-        <v>347700</v>
+        <v>350100</v>
       </c>
       <c r="G41" s="3">
-        <v>849100</v>
+        <v>854900</v>
       </c>
       <c r="H41" s="3">
-        <v>792100</v>
+        <v>797600</v>
       </c>
       <c r="I41" s="3">
-        <v>662700</v>
+        <v>667300</v>
       </c>
       <c r="J41" s="3">
-        <v>381300</v>
+        <v>383900</v>
       </c>
       <c r="K41" s="3">
         <v>713600</v>
@@ -1776,13 +1776,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>146600</v>
+        <v>147600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>559000</v>
+        <v>562900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1788600</v>
+        <v>1800900</v>
       </c>
       <c r="E43" s="3">
-        <v>2007700</v>
+        <v>2021500</v>
       </c>
       <c r="F43" s="3">
-        <v>2100400</v>
+        <v>2114900</v>
       </c>
       <c r="G43" s="3">
-        <v>1966300</v>
+        <v>1979900</v>
       </c>
       <c r="H43" s="3">
-        <v>1617800</v>
+        <v>1629000</v>
       </c>
       <c r="I43" s="3">
-        <v>1081400</v>
+        <v>1088900</v>
       </c>
       <c r="J43" s="3">
-        <v>1023700</v>
+        <v>1030800</v>
       </c>
       <c r="K43" s="3">
         <v>863700</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>490400</v>
+        <v>493800</v>
       </c>
       <c r="E44" s="3">
-        <v>352400</v>
+        <v>354800</v>
       </c>
       <c r="F44" s="3">
-        <v>336000</v>
+        <v>338400</v>
       </c>
       <c r="G44" s="3">
-        <v>294700</v>
+        <v>296700</v>
       </c>
       <c r="H44" s="3">
-        <v>286900</v>
+        <v>288900</v>
       </c>
       <c r="I44" s="3">
-        <v>251800</v>
+        <v>253600</v>
       </c>
       <c r="J44" s="3">
-        <v>227700</v>
+        <v>229200</v>
       </c>
       <c r="K44" s="3">
         <v>193200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>436600</v>
+        <v>439600</v>
       </c>
       <c r="E45" s="3">
-        <v>2558100</v>
+        <v>2575700</v>
       </c>
       <c r="F45" s="3">
-        <v>660400</v>
+        <v>664900</v>
       </c>
       <c r="G45" s="3">
-        <v>538800</v>
+        <v>542500</v>
       </c>
       <c r="H45" s="3">
-        <v>3606000</v>
+        <v>3630900</v>
       </c>
       <c r="I45" s="3">
-        <v>1596800</v>
+        <v>1607800</v>
       </c>
       <c r="J45" s="3">
-        <v>1921900</v>
+        <v>1935100</v>
       </c>
       <c r="K45" s="3">
         <v>652000</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4055100</v>
+        <v>4083000</v>
       </c>
       <c r="E46" s="3">
-        <v>5965300</v>
+        <v>6006400</v>
       </c>
       <c r="F46" s="3">
-        <v>4003600</v>
+        <v>4031200</v>
       </c>
       <c r="G46" s="3">
-        <v>3648900</v>
+        <v>3674000</v>
       </c>
       <c r="H46" s="3">
-        <v>6302900</v>
+        <v>6346300</v>
       </c>
       <c r="I46" s="3">
-        <v>3054700</v>
+        <v>3075800</v>
       </c>
       <c r="J46" s="3">
-        <v>2427100</v>
+        <v>2443900</v>
       </c>
       <c r="K46" s="3">
         <v>2422600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6413600</v>
+        <v>6457800</v>
       </c>
       <c r="E47" s="3">
-        <v>6190600</v>
+        <v>6233300</v>
       </c>
       <c r="F47" s="3">
-        <v>6610000</v>
+        <v>6655700</v>
       </c>
       <c r="G47" s="3">
-        <v>5733700</v>
+        <v>5773300</v>
       </c>
       <c r="H47" s="3">
-        <v>5194200</v>
+        <v>5230000</v>
       </c>
       <c r="I47" s="3">
-        <v>5067100</v>
+        <v>5102000</v>
       </c>
       <c r="J47" s="3">
-        <v>4551700</v>
+        <v>4583100</v>
       </c>
       <c r="K47" s="3">
         <v>4660500</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54401500</v>
+        <v>54776900</v>
       </c>
       <c r="E48" s="3">
-        <v>51059800</v>
+        <v>51412100</v>
       </c>
       <c r="F48" s="3">
-        <v>51850400</v>
+        <v>52208200</v>
       </c>
       <c r="G48" s="3">
-        <v>44657200</v>
+        <v>44965300</v>
       </c>
       <c r="H48" s="3">
-        <v>42472500</v>
+        <v>42765600</v>
       </c>
       <c r="I48" s="3">
-        <v>69884900</v>
+        <v>70367200</v>
       </c>
       <c r="J48" s="3">
-        <v>65139900</v>
+        <v>65589400</v>
       </c>
       <c r="K48" s="3">
         <v>28949900</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10065500</v>
+        <v>10135000</v>
       </c>
       <c r="E49" s="3">
-        <v>11384700</v>
+        <v>11463300</v>
       </c>
       <c r="F49" s="3">
-        <v>11873600</v>
+        <v>11955500</v>
       </c>
       <c r="G49" s="3">
-        <v>10665900</v>
+        <v>10739500</v>
       </c>
       <c r="H49" s="3">
-        <v>12515300</v>
+        <v>12601600</v>
       </c>
       <c r="I49" s="3">
-        <v>7625200</v>
+        <v>7677800</v>
       </c>
       <c r="J49" s="3">
-        <v>4572000</v>
+        <v>4603500</v>
       </c>
       <c r="K49" s="3">
         <v>3534200</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3265300</v>
+        <v>3287800</v>
       </c>
       <c r="E52" s="3">
-        <v>2804500</v>
+        <v>2823800</v>
       </c>
       <c r="F52" s="3">
-        <v>2787300</v>
+        <v>2806600</v>
       </c>
       <c r="G52" s="3">
-        <v>2424800</v>
+        <v>2441500</v>
       </c>
       <c r="H52" s="3">
-        <v>2165900</v>
+        <v>2180900</v>
       </c>
       <c r="I52" s="3">
-        <v>1876700</v>
+        <v>1889600</v>
       </c>
       <c r="J52" s="3">
-        <v>1721500</v>
+        <v>1733400</v>
       </c>
       <c r="K52" s="3">
         <v>1924500</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78200900</v>
+        <v>78740500</v>
       </c>
       <c r="E54" s="3">
-        <v>77404900</v>
+        <v>77939000</v>
       </c>
       <c r="F54" s="3">
-        <v>77125000</v>
+        <v>77657100</v>
       </c>
       <c r="G54" s="3">
-        <v>67130400</v>
+        <v>67593600</v>
       </c>
       <c r="H54" s="3">
-        <v>68650700</v>
+        <v>69124400</v>
       </c>
       <c r="I54" s="3">
-        <v>50209200</v>
+        <v>50555600</v>
       </c>
       <c r="J54" s="3">
-        <v>45630200</v>
+        <v>45945100</v>
       </c>
       <c r="K54" s="3">
         <v>41491800</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2383500</v>
+        <v>2399900</v>
       </c>
       <c r="E57" s="3">
-        <v>2910500</v>
+        <v>2930600</v>
       </c>
       <c r="F57" s="3">
-        <v>3036800</v>
+        <v>3057800</v>
       </c>
       <c r="G57" s="3">
-        <v>2861400</v>
+        <v>2881100</v>
       </c>
       <c r="H57" s="3">
-        <v>2151900</v>
+        <v>2166700</v>
       </c>
       <c r="I57" s="3">
-        <v>2851300</v>
+        <v>2870900</v>
       </c>
       <c r="J57" s="3">
-        <v>1266200</v>
+        <v>1274900</v>
       </c>
       <c r="K57" s="3">
         <v>666700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4793400</v>
+        <v>4826500</v>
       </c>
       <c r="E58" s="3">
-        <v>5461600</v>
+        <v>5499300</v>
       </c>
       <c r="F58" s="3">
-        <v>4852700</v>
+        <v>4886200</v>
       </c>
       <c r="G58" s="3">
-        <v>3609100</v>
+        <v>3634000</v>
       </c>
       <c r="H58" s="3">
-        <v>2036500</v>
+        <v>2050600</v>
       </c>
       <c r="I58" s="3">
-        <v>2935500</v>
+        <v>2955700</v>
       </c>
       <c r="J58" s="3">
-        <v>3324500</v>
+        <v>3347500</v>
       </c>
       <c r="K58" s="3">
         <v>2167000</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2169000</v>
+        <v>2184000</v>
       </c>
       <c r="E59" s="3">
-        <v>1684900</v>
+        <v>1696500</v>
       </c>
       <c r="F59" s="3">
-        <v>2204100</v>
+        <v>2219300</v>
       </c>
       <c r="G59" s="3">
-        <v>1230300</v>
+        <v>1238800</v>
       </c>
       <c r="H59" s="3">
-        <v>1799500</v>
+        <v>1811900</v>
       </c>
       <c r="I59" s="3">
-        <v>1586600</v>
+        <v>1597600</v>
       </c>
       <c r="J59" s="3">
-        <v>1322300</v>
+        <v>1331400</v>
       </c>
       <c r="K59" s="3">
         <v>1291000</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9345900</v>
+        <v>9410400</v>
       </c>
       <c r="E60" s="3">
-        <v>10057000</v>
+        <v>10126400</v>
       </c>
       <c r="F60" s="3">
-        <v>10093600</v>
+        <v>10163300</v>
       </c>
       <c r="G60" s="3">
-        <v>7700800</v>
+        <v>7753900</v>
       </c>
       <c r="H60" s="3">
-        <v>5987900</v>
+        <v>6029200</v>
       </c>
       <c r="I60" s="3">
-        <v>5739900</v>
+        <v>5779500</v>
       </c>
       <c r="J60" s="3">
-        <v>5909900</v>
+        <v>5950700</v>
       </c>
       <c r="K60" s="3">
         <v>4124700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33846300</v>
+        <v>34079800</v>
       </c>
       <c r="E61" s="3">
-        <v>33443200</v>
+        <v>33673900</v>
       </c>
       <c r="F61" s="3">
-        <v>34318700</v>
+        <v>34555500</v>
       </c>
       <c r="G61" s="3">
-        <v>30315100</v>
+        <v>30524300</v>
       </c>
       <c r="H61" s="3">
-        <v>32935600</v>
+        <v>33162900</v>
       </c>
       <c r="I61" s="3">
-        <v>24417700</v>
+        <v>24586200</v>
       </c>
       <c r="J61" s="3">
-        <v>18805600</v>
+        <v>18935400</v>
       </c>
       <c r="K61" s="3">
         <v>17671200</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8910800</v>
+        <v>8972300</v>
       </c>
       <c r="E62" s="3">
-        <v>8645800</v>
+        <v>8705400</v>
       </c>
       <c r="F62" s="3">
-        <v>8548300</v>
+        <v>8607300</v>
       </c>
       <c r="G62" s="3">
-        <v>8148300</v>
+        <v>8204600</v>
       </c>
       <c r="H62" s="3">
-        <v>9469100</v>
+        <v>9534400</v>
       </c>
       <c r="I62" s="3">
-        <v>6879000</v>
+        <v>6926500</v>
       </c>
       <c r="J62" s="3">
-        <v>4812100</v>
+        <v>4845300</v>
       </c>
       <c r="K62" s="3">
         <v>4194700</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53720800</v>
+        <v>54091500</v>
       </c>
       <c r="E66" s="3">
-        <v>53419900</v>
+        <v>53788500</v>
       </c>
       <c r="F66" s="3">
-        <v>54251000</v>
+        <v>54625300</v>
       </c>
       <c r="G66" s="3">
-        <v>47608200</v>
+        <v>47936700</v>
       </c>
       <c r="H66" s="3">
-        <v>49738300</v>
+        <v>50081500</v>
       </c>
       <c r="I66" s="3">
-        <v>37393000</v>
+        <v>37651000</v>
       </c>
       <c r="J66" s="3">
-        <v>30761900</v>
+        <v>30974100</v>
       </c>
       <c r="K66" s="3">
         <v>27230800</v>
@@ -2724,25 +2724,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3103100</v>
+        <v>3124500</v>
       </c>
       <c r="E70" s="3">
-        <v>3103100</v>
+        <v>3124500</v>
       </c>
       <c r="F70" s="3">
-        <v>3103100</v>
+        <v>3124500</v>
       </c>
       <c r="G70" s="3">
-        <v>3103100</v>
+        <v>3124500</v>
       </c>
       <c r="H70" s="3">
-        <v>3103100</v>
+        <v>3124500</v>
       </c>
       <c r="I70" s="3">
-        <v>1948400</v>
+        <v>1961800</v>
       </c>
       <c r="J70" s="3">
-        <v>1758200</v>
+        <v>1770300</v>
       </c>
       <c r="K70" s="3">
         <v>1395700</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4184500</v>
+        <v>4213400</v>
       </c>
       <c r="E72" s="3">
-        <v>3083600</v>
+        <v>3104900</v>
       </c>
       <c r="F72" s="3">
-        <v>2162000</v>
+        <v>2176900</v>
       </c>
       <c r="G72" s="3">
-        <v>1265400</v>
+        <v>1274100</v>
       </c>
       <c r="H72" s="3">
-        <v>887300</v>
+        <v>893400</v>
       </c>
       <c r="I72" s="3">
-        <v>2158900</v>
+        <v>2173800</v>
       </c>
       <c r="J72" s="3">
-        <v>4271000</v>
+        <v>4300500</v>
       </c>
       <c r="K72" s="3">
         <v>3923000</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21377000</v>
+        <v>21524500</v>
       </c>
       <c r="E76" s="3">
-        <v>20881900</v>
+        <v>21026000</v>
       </c>
       <c r="F76" s="3">
-        <v>19770900</v>
+        <v>19907300</v>
       </c>
       <c r="G76" s="3">
-        <v>16419100</v>
+        <v>16532400</v>
       </c>
       <c r="H76" s="3">
-        <v>15809400</v>
+        <v>15918500</v>
       </c>
       <c r="I76" s="3">
-        <v>10867800</v>
+        <v>10942900</v>
       </c>
       <c r="J76" s="3">
-        <v>13110100</v>
+        <v>13200600</v>
       </c>
       <c r="K76" s="3">
         <v>12865200</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3475000</v>
+        <v>3499000</v>
       </c>
       <c r="E81" s="3">
-        <v>3100000</v>
+        <v>3121400</v>
       </c>
       <c r="F81" s="3">
-        <v>2759300</v>
+        <v>2778300</v>
       </c>
       <c r="G81" s="3">
-        <v>2336700</v>
+        <v>2352800</v>
       </c>
       <c r="H81" s="3">
-        <v>96700</v>
+        <v>97300</v>
       </c>
       <c r="I81" s="3">
-        <v>-966800</v>
+        <v>-973500</v>
       </c>
       <c r="J81" s="3">
-        <v>1359000</v>
+        <v>1368300</v>
       </c>
       <c r="K81" s="3">
         <v>1317900</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2019300</v>
+        <v>2033300</v>
       </c>
       <c r="E83" s="3">
-        <v>1921100</v>
+        <v>1934400</v>
       </c>
       <c r="F83" s="3">
-        <v>1832200</v>
+        <v>1844900</v>
       </c>
       <c r="G83" s="3">
-        <v>1602200</v>
+        <v>1613300</v>
       </c>
       <c r="H83" s="3">
-        <v>1511800</v>
+        <v>1522200</v>
       </c>
       <c r="I83" s="3">
-        <v>1376100</v>
+        <v>1385600</v>
       </c>
       <c r="J83" s="3">
-        <v>1256000</v>
+        <v>1264700</v>
       </c>
       <c r="K83" s="3">
         <v>1143200</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5502900</v>
+        <v>5540900</v>
       </c>
       <c r="E89" s="3">
-        <v>5521600</v>
+        <v>5559700</v>
       </c>
       <c r="F89" s="3">
-        <v>5110700</v>
+        <v>5146000</v>
       </c>
       <c r="G89" s="3">
-        <v>4077700</v>
+        <v>4105800</v>
       </c>
       <c r="H89" s="3">
-        <v>3952100</v>
+        <v>3979400</v>
       </c>
       <c r="I89" s="3">
-        <v>3208300</v>
+        <v>3230500</v>
       </c>
       <c r="J89" s="3">
-        <v>3180300</v>
+        <v>3202200</v>
       </c>
       <c r="K89" s="3">
         <v>2828300</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6342600</v>
+        <v>-6386400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6379300</v>
+        <v>-6423300</v>
       </c>
       <c r="F91" s="3">
-        <v>-7729600</v>
+        <v>-7783000</v>
       </c>
       <c r="G91" s="3">
-        <v>-5870100</v>
+        <v>-5910600</v>
       </c>
       <c r="H91" s="3">
-        <v>-4133800</v>
+        <v>-4162300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3453200</v>
+        <v>-3477000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3397000</v>
+        <v>-3420500</v>
       </c>
       <c r="K91" s="3">
         <v>-3434200</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4718600</v>
+        <v>-4751100</v>
       </c>
       <c r="E94" s="3">
-        <v>-5357900</v>
+        <v>-5394900</v>
       </c>
       <c r="F94" s="3">
-        <v>-7811500</v>
+        <v>-7865400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2884000</v>
+        <v>-2903900</v>
       </c>
       <c r="H94" s="3">
-        <v>-14644500</v>
+        <v>-14745600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3594300</v>
+        <v>-3619100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3231000</v>
+        <v>-3253200</v>
       </c>
       <c r="K94" s="3">
         <v>-3941500</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2452800</v>
+        <v>-2469800</v>
       </c>
       <c r="E96" s="3">
-        <v>-1526600</v>
+        <v>-1537100</v>
       </c>
       <c r="F96" s="3">
-        <v>-1348000</v>
+        <v>-1357400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1164800</v>
+        <v>-1172900</v>
       </c>
       <c r="H96" s="3">
-        <v>-1197600</v>
+        <v>-1205800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1199100</v>
+        <v>-1207400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1121900</v>
+        <v>-1129700</v>
       </c>
       <c r="K96" s="3">
         <v>-1043900</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-623700</v>
+        <v>-628000</v>
       </c>
       <c r="E100" s="3">
-        <v>540300</v>
+        <v>544000</v>
       </c>
       <c r="F100" s="3">
-        <v>2142500</v>
+        <v>2157300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1106400</v>
+        <v>-1114000</v>
       </c>
       <c r="H100" s="3">
-        <v>10920800</v>
+        <v>10996200</v>
       </c>
       <c r="I100" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="J100" s="3">
-        <v>-290800</v>
+        <v>-292800</v>
       </c>
       <c r="K100" s="3">
         <v>1381100</v>
@@ -3713,22 +3713,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14800</v>
+        <v>-14900</v>
       </c>
       <c r="E101" s="3">
         <v>-4700</v>
       </c>
       <c r="F101" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="G101" s="3">
-        <v>-30400</v>
+        <v>-30600</v>
       </c>
       <c r="H101" s="3">
-        <v>-99000</v>
+        <v>-99700</v>
       </c>
       <c r="I101" s="3">
-        <v>87300</v>
+        <v>87900</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145800</v>
+        <v>146800</v>
       </c>
       <c r="E102" s="3">
-        <v>699400</v>
+        <v>704200</v>
       </c>
       <c r="F102" s="3">
-        <v>-501300</v>
+        <v>-504800</v>
       </c>
       <c r="G102" s="3">
-        <v>56900</v>
+        <v>57300</v>
       </c>
       <c r="H102" s="3">
-        <v>129400</v>
+        <v>130300</v>
       </c>
       <c r="I102" s="3">
-        <v>281500</v>
+        <v>283400</v>
       </c>
       <c r="J102" s="3">
-        <v>-341500</v>
+        <v>-343900</v>
       </c>
       <c r="K102" s="3">
         <v>289500</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>TRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10204900</v>
+        <v>10505300</v>
       </c>
       <c r="E8" s="3">
-        <v>10405800</v>
+        <v>10200800</v>
       </c>
       <c r="F8" s="3">
-        <v>10738700</v>
+        <v>10401700</v>
       </c>
       <c r="G8" s="3">
-        <v>10558100</v>
+        <v>10734500</v>
       </c>
       <c r="H8" s="3">
-        <v>9850000</v>
+        <v>10554000</v>
       </c>
       <c r="I8" s="3">
-        <v>8912700</v>
+        <v>9846100</v>
       </c>
       <c r="J8" s="3">
+        <v>8909200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7995700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6772100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6027600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6022200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3044400</v>
+        <v>3215900</v>
       </c>
       <c r="E9" s="3">
-        <v>3068800</v>
+        <v>3043200</v>
       </c>
       <c r="F9" s="3">
-        <v>2819100</v>
+        <v>3067500</v>
       </c>
       <c r="G9" s="3">
-        <v>3066400</v>
+        <v>2818000</v>
       </c>
       <c r="H9" s="3">
-        <v>3031100</v>
+        <v>3065200</v>
       </c>
       <c r="I9" s="3">
-        <v>2593000</v>
+        <v>3029900</v>
       </c>
       <c r="J9" s="3">
+        <v>2592000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2334000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2058500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1939900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2572800</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7160400</v>
+        <v>7289400</v>
       </c>
       <c r="E10" s="3">
-        <v>7337100</v>
+        <v>7157600</v>
       </c>
       <c r="F10" s="3">
-        <v>7919600</v>
+        <v>7334200</v>
       </c>
       <c r="G10" s="3">
-        <v>7491700</v>
+        <v>7916500</v>
       </c>
       <c r="H10" s="3">
-        <v>6818900</v>
+        <v>7488800</v>
       </c>
       <c r="I10" s="3">
-        <v>6319700</v>
+        <v>6816300</v>
       </c>
       <c r="J10" s="3">
+        <v>6317200</v>
+      </c>
+      <c r="K10" s="3">
         <v>5661800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4713600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4087600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3449400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,35 +927,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2177700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>628800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>986800</v>
+        <v>628600</v>
       </c>
       <c r="H14" s="3">
-        <v>1175200</v>
+        <v>986400</v>
       </c>
       <c r="I14" s="3">
-        <v>2956500</v>
+        <v>1174800</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>2955300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -947,45 +966,51 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2033300</v>
+        <v>1979100</v>
       </c>
       <c r="E15" s="3">
-        <v>1934400</v>
+        <v>2032500</v>
       </c>
       <c r="F15" s="3">
-        <v>1844900</v>
+        <v>1933600</v>
       </c>
       <c r="G15" s="3">
-        <v>1613300</v>
+        <v>1844100</v>
       </c>
       <c r="H15" s="3">
-        <v>1522200</v>
+        <v>1612600</v>
       </c>
       <c r="I15" s="3">
-        <v>1385600</v>
+        <v>1521600</v>
       </c>
       <c r="J15" s="3">
+        <v>1385100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1264700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1143200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1035100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1020200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5648400</v>
+        <v>8048300</v>
       </c>
       <c r="E17" s="3">
-        <v>5863500</v>
+        <v>5646200</v>
       </c>
       <c r="F17" s="3">
-        <v>6907700</v>
+        <v>5861200</v>
       </c>
       <c r="G17" s="3">
-        <v>7983200</v>
+        <v>6904900</v>
       </c>
       <c r="H17" s="3">
-        <v>7869300</v>
+        <v>7980000</v>
       </c>
       <c r="I17" s="3">
-        <v>9097200</v>
+        <v>7866200</v>
       </c>
       <c r="J17" s="3">
+        <v>9093600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5411300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4558100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4091400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3908000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4556400</v>
+        <v>2457000</v>
       </c>
       <c r="E18" s="3">
-        <v>4542300</v>
+        <v>4554600</v>
       </c>
       <c r="F18" s="3">
-        <v>3831000</v>
+        <v>4540500</v>
       </c>
       <c r="G18" s="3">
-        <v>2575000</v>
+        <v>3829500</v>
       </c>
       <c r="H18" s="3">
-        <v>1980700</v>
+        <v>2573900</v>
       </c>
       <c r="I18" s="3">
-        <v>-184500</v>
+        <v>1979900</v>
       </c>
       <c r="J18" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2584400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2214000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1936200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2114200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1201900</v>
+        <v>1094700</v>
       </c>
       <c r="E20" s="3">
-        <v>1361300</v>
+        <v>1201400</v>
       </c>
       <c r="F20" s="3">
-        <v>1047300</v>
+        <v>1360700</v>
       </c>
       <c r="G20" s="3">
-        <v>1643900</v>
+        <v>1046800</v>
       </c>
       <c r="H20" s="3">
-        <v>154700</v>
+        <v>1643200</v>
       </c>
       <c r="I20" s="3">
-        <v>482800</v>
+        <v>154600</v>
       </c>
       <c r="J20" s="3">
+        <v>482600</v>
+      </c>
+      <c r="K20" s="3">
         <v>573100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>501900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-310900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>399500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7784000</v>
+        <v>5521400</v>
       </c>
       <c r="E21" s="3">
-        <v>7830700</v>
+        <v>7778900</v>
       </c>
       <c r="F21" s="3">
-        <v>6716300</v>
+        <v>7825700</v>
       </c>
       <c r="G21" s="3">
-        <v>5826100</v>
+        <v>6711700</v>
       </c>
       <c r="H21" s="3">
-        <v>3651800</v>
+        <v>5822200</v>
       </c>
       <c r="I21" s="3">
-        <v>1678700</v>
+        <v>3648900</v>
       </c>
       <c r="J21" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="K21" s="3">
         <v>4417500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3857100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2660800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3538700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1749100</v>
+        <v>1852000</v>
       </c>
       <c r="E22" s="3">
-        <v>1831500</v>
+        <v>1748400</v>
       </c>
       <c r="F22" s="3">
-        <v>1778100</v>
+        <v>1830800</v>
       </c>
       <c r="G22" s="3">
-        <v>1623500</v>
+        <v>1777400</v>
       </c>
       <c r="H22" s="3">
-        <v>1478200</v>
+        <v>1622800</v>
       </c>
       <c r="I22" s="3">
-        <v>1166600</v>
+        <v>1477700</v>
       </c>
       <c r="J22" s="3">
+        <v>1166100</v>
+      </c>
+      <c r="K22" s="3">
         <v>940500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>774400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>166400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>758200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4009300</v>
+        <v>1699700</v>
       </c>
       <c r="E23" s="3">
-        <v>4072100</v>
+        <v>4007700</v>
       </c>
       <c r="F23" s="3">
-        <v>3100200</v>
+        <v>4070400</v>
       </c>
       <c r="G23" s="3">
-        <v>2595400</v>
+        <v>3098900</v>
       </c>
       <c r="H23" s="3">
-        <v>657100</v>
+        <v>2594400</v>
       </c>
       <c r="I23" s="3">
-        <v>-868300</v>
+        <v>656800</v>
       </c>
       <c r="J23" s="3">
+        <v>-867900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2217000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1941500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1458900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1755400</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>152300</v>
+        <v>94200</v>
       </c>
       <c r="E24" s="3">
-        <v>591900</v>
+        <v>152200</v>
       </c>
       <c r="F24" s="3">
-        <v>470200</v>
+        <v>591700</v>
       </c>
       <c r="G24" s="3">
-        <v>561300</v>
+        <v>470100</v>
       </c>
       <c r="H24" s="3">
-        <v>276300</v>
+        <v>561100</v>
       </c>
       <c r="I24" s="3">
+        <v>276200</v>
+      </c>
+      <c r="J24" s="3">
         <v>26700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>652400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>470400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>350800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>441700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3857000</v>
+        <v>1605600</v>
       </c>
       <c r="E26" s="3">
-        <v>3480100</v>
+        <v>3855400</v>
       </c>
       <c r="F26" s="3">
-        <v>2629900</v>
+        <v>3478800</v>
       </c>
       <c r="G26" s="3">
-        <v>2034100</v>
+        <v>2628900</v>
       </c>
       <c r="H26" s="3">
-        <v>380700</v>
+        <v>2033300</v>
       </c>
       <c r="I26" s="3">
-        <v>-895000</v>
+        <v>380600</v>
       </c>
       <c r="J26" s="3">
+        <v>-894600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1564600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1471100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1108100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1313700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3499000</v>
+        <v>1424300</v>
       </c>
       <c r="E27" s="3">
-        <v>3121400</v>
+        <v>3497600</v>
       </c>
       <c r="F27" s="3">
-        <v>2647200</v>
+        <v>3120100</v>
       </c>
       <c r="G27" s="3">
-        <v>1721600</v>
+        <v>2646100</v>
       </c>
       <c r="H27" s="3">
+        <v>1720900</v>
+      </c>
+      <c r="I27" s="3">
         <v>97300</v>
       </c>
-      <c r="I27" s="3">
-        <v>-973500</v>
-      </c>
       <c r="J27" s="3">
+        <v>-973100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1368300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1317900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>977900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1172300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,32 +1465,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>131100</v>
       </c>
-      <c r="G29" s="3">
-        <v>631200</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>630900</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1201900</v>
+        <v>-1094700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1361300</v>
+        <v>-1201400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1047300</v>
+        <v>-1360700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1643900</v>
+        <v>-1046800</v>
       </c>
       <c r="H32" s="3">
-        <v>-154700</v>
+        <v>-1643200</v>
       </c>
       <c r="I32" s="3">
-        <v>-482800</v>
+        <v>-154600</v>
       </c>
       <c r="J32" s="3">
+        <v>-482600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-573100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-501900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>310900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-399500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3499000</v>
+        <v>1424300</v>
       </c>
       <c r="E33" s="3">
-        <v>3121400</v>
+        <v>3497600</v>
       </c>
       <c r="F33" s="3">
-        <v>2778300</v>
+        <v>3120100</v>
       </c>
       <c r="G33" s="3">
-        <v>2352800</v>
+        <v>2777200</v>
       </c>
       <c r="H33" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="I33" s="3">
         <v>97300</v>
       </c>
-      <c r="I33" s="3">
-        <v>-973500</v>
-      </c>
       <c r="J33" s="3">
+        <v>-973100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1368300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1317900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>977900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1172300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3499000</v>
+        <v>1424300</v>
       </c>
       <c r="E35" s="3">
-        <v>3121400</v>
+        <v>3497600</v>
       </c>
       <c r="F35" s="3">
-        <v>2778300</v>
+        <v>3120100</v>
       </c>
       <c r="G35" s="3">
-        <v>2352800</v>
+        <v>2777200</v>
       </c>
       <c r="H35" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="I35" s="3">
         <v>97300</v>
       </c>
-      <c r="I35" s="3">
-        <v>-973500</v>
-      </c>
       <c r="J35" s="3">
+        <v>-973100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1368300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1317900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>977900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1172300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,58 +1819,62 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1201100</v>
+        <v>528100</v>
       </c>
       <c r="E41" s="3">
-        <v>1054300</v>
+        <v>1200700</v>
       </c>
       <c r="F41" s="3">
-        <v>350100</v>
+        <v>1053900</v>
       </c>
       <c r="G41" s="3">
-        <v>854900</v>
+        <v>350000</v>
       </c>
       <c r="H41" s="3">
-        <v>797600</v>
+        <v>854600</v>
       </c>
       <c r="I41" s="3">
-        <v>667300</v>
+        <v>797300</v>
       </c>
       <c r="J41" s="3">
+        <v>667000</v>
+      </c>
+      <c r="K41" s="3">
         <v>383900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>713600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>414800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>502400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>147600</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>562900</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="E42" s="3">
+        <v>147500</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G42" s="3">
+        <v>562700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1802,264 +1891,288 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1800900</v>
+        <v>3540000</v>
       </c>
       <c r="E43" s="3">
-        <v>2021500</v>
+        <v>1800200</v>
       </c>
       <c r="F43" s="3">
-        <v>2114900</v>
+        <v>2020700</v>
       </c>
       <c r="G43" s="3">
-        <v>1979900</v>
+        <v>2114100</v>
       </c>
       <c r="H43" s="3">
-        <v>1629000</v>
+        <v>1979100</v>
       </c>
       <c r="I43" s="3">
-        <v>1088900</v>
+        <v>1628300</v>
       </c>
       <c r="J43" s="3">
+        <v>1088400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1030800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>863700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>791900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>840400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>493800</v>
+        <v>568200</v>
       </c>
       <c r="E44" s="3">
-        <v>354800</v>
+        <v>493600</v>
       </c>
       <c r="F44" s="3">
-        <v>338400</v>
+        <v>354700</v>
       </c>
       <c r="G44" s="3">
-        <v>296700</v>
+        <v>338200</v>
       </c>
       <c r="H44" s="3">
-        <v>288900</v>
+        <v>296600</v>
       </c>
       <c r="I44" s="3">
-        <v>253600</v>
+        <v>288800</v>
       </c>
       <c r="J44" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K44" s="3">
         <v>229200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>193200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>190500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>439600</v>
+        <v>1188900</v>
       </c>
       <c r="E45" s="3">
-        <v>2575700</v>
+        <v>439500</v>
       </c>
       <c r="F45" s="3">
-        <v>664900</v>
+        <v>2574700</v>
       </c>
       <c r="G45" s="3">
-        <v>542500</v>
+        <v>664700</v>
       </c>
       <c r="H45" s="3">
-        <v>3630900</v>
+        <v>542300</v>
       </c>
       <c r="I45" s="3">
-        <v>1607800</v>
+        <v>3629400</v>
       </c>
       <c r="J45" s="3">
+        <v>1607100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1935100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>652000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>750500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>855800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4083000</v>
+        <v>5825100</v>
       </c>
       <c r="E46" s="3">
-        <v>6006400</v>
+        <v>4081400</v>
       </c>
       <c r="F46" s="3">
-        <v>4031200</v>
+        <v>6004000</v>
       </c>
       <c r="G46" s="3">
-        <v>3674000</v>
+        <v>4029600</v>
       </c>
       <c r="H46" s="3">
-        <v>6346300</v>
+        <v>3672600</v>
       </c>
       <c r="I46" s="3">
-        <v>3075800</v>
+        <v>6343800</v>
       </c>
       <c r="J46" s="3">
+        <v>3074600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2443900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2422600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2125900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2389200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6457800</v>
+        <v>7006200</v>
       </c>
       <c r="E47" s="3">
-        <v>6233300</v>
+        <v>6455300</v>
       </c>
       <c r="F47" s="3">
-        <v>6655700</v>
+        <v>6230800</v>
       </c>
       <c r="G47" s="3">
-        <v>5773300</v>
+        <v>6653000</v>
       </c>
       <c r="H47" s="3">
-        <v>5230000</v>
+        <v>5771000</v>
       </c>
       <c r="I47" s="3">
-        <v>5102000</v>
+        <v>5227900</v>
       </c>
       <c r="J47" s="3">
+        <v>5100000</v>
+      </c>
+      <c r="K47" s="3">
         <v>4583100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4660500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4327800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4236000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54776900</v>
+        <v>55074600</v>
       </c>
       <c r="E48" s="3">
-        <v>51412100</v>
+        <v>54755200</v>
       </c>
       <c r="F48" s="3">
-        <v>52208200</v>
+        <v>51391800</v>
       </c>
       <c r="G48" s="3">
-        <v>44965300</v>
+        <v>52187600</v>
       </c>
       <c r="H48" s="3">
-        <v>42765600</v>
+        <v>44947600</v>
       </c>
       <c r="I48" s="3">
-        <v>70367200</v>
+        <v>42748700</v>
       </c>
       <c r="J48" s="3">
+        <v>70339400</v>
+      </c>
+      <c r="K48" s="3">
         <v>65589400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28949900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25378800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>93656500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10135000</v>
+        <v>9884600</v>
       </c>
       <c r="E49" s="3">
-        <v>11463300</v>
+        <v>10131000</v>
       </c>
       <c r="F49" s="3">
-        <v>11955500</v>
+        <v>11458800</v>
       </c>
       <c r="G49" s="3">
-        <v>10739500</v>
+        <v>11950800</v>
       </c>
       <c r="H49" s="3">
-        <v>12601600</v>
+        <v>10735200</v>
       </c>
       <c r="I49" s="3">
-        <v>7677800</v>
+        <v>12596600</v>
       </c>
       <c r="J49" s="3">
+        <v>7674800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4603500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3534200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2886200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4594800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3287800</v>
+        <v>3993500</v>
       </c>
       <c r="E52" s="3">
-        <v>2823800</v>
+        <v>3286500</v>
       </c>
       <c r="F52" s="3">
-        <v>2806600</v>
+        <v>2822700</v>
       </c>
       <c r="G52" s="3">
-        <v>2441500</v>
+        <v>2805400</v>
       </c>
       <c r="H52" s="3">
-        <v>2180900</v>
+        <v>2440500</v>
       </c>
       <c r="I52" s="3">
-        <v>1889600</v>
+        <v>2180000</v>
       </c>
       <c r="J52" s="3">
+        <v>1888900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1733400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1924500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1665900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1738500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78740500</v>
+        <v>81784000</v>
       </c>
       <c r="E54" s="3">
-        <v>77939000</v>
+        <v>78709400</v>
       </c>
       <c r="F54" s="3">
-        <v>77657100</v>
+        <v>77908200</v>
       </c>
       <c r="G54" s="3">
-        <v>67593600</v>
+        <v>77626500</v>
       </c>
       <c r="H54" s="3">
-        <v>69124400</v>
+        <v>67566900</v>
       </c>
       <c r="I54" s="3">
-        <v>50555600</v>
+        <v>69097100</v>
       </c>
       <c r="J54" s="3">
+        <v>50535700</v>
+      </c>
+      <c r="K54" s="3">
         <v>45945100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41491800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36384600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36366500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2399900</v>
+        <v>3282600</v>
       </c>
       <c r="E57" s="3">
-        <v>2930600</v>
+        <v>2399000</v>
       </c>
       <c r="F57" s="3">
-        <v>3057800</v>
+        <v>2929400</v>
       </c>
       <c r="G57" s="3">
-        <v>2881100</v>
+        <v>3056600</v>
       </c>
       <c r="H57" s="3">
-        <v>2166700</v>
+        <v>2880000</v>
       </c>
       <c r="I57" s="3">
-        <v>2870900</v>
+        <v>2165900</v>
       </c>
       <c r="J57" s="3">
+        <v>2869800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1274900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>666700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>694800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>534700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4826500</v>
+        <v>5089800</v>
       </c>
       <c r="E58" s="3">
-        <v>5499300</v>
+        <v>4824600</v>
       </c>
       <c r="F58" s="3">
-        <v>4886200</v>
+        <v>5497100</v>
       </c>
       <c r="G58" s="3">
-        <v>3634000</v>
+        <v>4884200</v>
       </c>
       <c r="H58" s="3">
-        <v>2050600</v>
+        <v>3632600</v>
       </c>
       <c r="I58" s="3">
-        <v>2955700</v>
+        <v>2049700</v>
       </c>
       <c r="J58" s="3">
+        <v>2954500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3347500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2167000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2385600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2174900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2184000</v>
+        <v>1861400</v>
       </c>
       <c r="E59" s="3">
-        <v>1696500</v>
+        <v>2183100</v>
       </c>
       <c r="F59" s="3">
-        <v>2219300</v>
+        <v>1695800</v>
       </c>
       <c r="G59" s="3">
-        <v>1238800</v>
+        <v>2218500</v>
       </c>
       <c r="H59" s="3">
-        <v>1811900</v>
+        <v>1238300</v>
       </c>
       <c r="I59" s="3">
-        <v>1597600</v>
+        <v>1811200</v>
       </c>
       <c r="J59" s="3">
+        <v>1596900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1331400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1291000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1346700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1558000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9410400</v>
+        <v>10233800</v>
       </c>
       <c r="E60" s="3">
-        <v>10126400</v>
+        <v>9406700</v>
       </c>
       <c r="F60" s="3">
-        <v>10163300</v>
+        <v>10122400</v>
       </c>
       <c r="G60" s="3">
-        <v>7753900</v>
+        <v>10159200</v>
       </c>
       <c r="H60" s="3">
-        <v>6029200</v>
+        <v>7750900</v>
       </c>
       <c r="I60" s="3">
-        <v>5779500</v>
+        <v>6026800</v>
       </c>
       <c r="J60" s="3">
+        <v>5777300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5950700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4124700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4427200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4242200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34079800</v>
+        <v>36317800</v>
       </c>
       <c r="E61" s="3">
-        <v>33673900</v>
+        <v>34066300</v>
       </c>
       <c r="F61" s="3">
-        <v>34555500</v>
+        <v>33660600</v>
       </c>
       <c r="G61" s="3">
-        <v>30524300</v>
+        <v>34541900</v>
       </c>
       <c r="H61" s="3">
-        <v>33162900</v>
+        <v>30512300</v>
       </c>
       <c r="I61" s="3">
-        <v>24586200</v>
+        <v>33149800</v>
       </c>
       <c r="J61" s="3">
+        <v>24576500</v>
+      </c>
+      <c r="K61" s="3">
         <v>18935400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17671200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14312800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14396600</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8972300</v>
+        <v>9025300</v>
       </c>
       <c r="E62" s="3">
-        <v>8705400</v>
+        <v>8968800</v>
       </c>
       <c r="F62" s="3">
-        <v>8607300</v>
+        <v>8702000</v>
       </c>
       <c r="G62" s="3">
-        <v>8204600</v>
+        <v>8603900</v>
       </c>
       <c r="H62" s="3">
-        <v>9534400</v>
+        <v>8201300</v>
       </c>
       <c r="I62" s="3">
-        <v>6926500</v>
+        <v>9530700</v>
       </c>
       <c r="J62" s="3">
+        <v>6923800</v>
+      </c>
+      <c r="K62" s="3">
         <v>4845300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4194700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3841500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4414200</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54091500</v>
+        <v>55674900</v>
       </c>
       <c r="E66" s="3">
-        <v>53788500</v>
+        <v>54070200</v>
       </c>
       <c r="F66" s="3">
-        <v>54625300</v>
+        <v>53767200</v>
       </c>
       <c r="G66" s="3">
-        <v>47936700</v>
+        <v>54603800</v>
       </c>
       <c r="H66" s="3">
-        <v>50081500</v>
+        <v>47917800</v>
       </c>
       <c r="I66" s="3">
-        <v>37651000</v>
+        <v>50061700</v>
       </c>
       <c r="J66" s="3">
+        <v>37636100</v>
+      </c>
+      <c r="K66" s="3">
         <v>30974100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27230800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23654200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23464800</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,45 +2881,51 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3124500</v>
+        <v>2736400</v>
       </c>
       <c r="E70" s="3">
-        <v>3124500</v>
+        <v>3123300</v>
       </c>
       <c r="F70" s="3">
-        <v>3124500</v>
+        <v>3123300</v>
       </c>
       <c r="G70" s="3">
-        <v>3124500</v>
+        <v>3123300</v>
       </c>
       <c r="H70" s="3">
-        <v>3124500</v>
+        <v>3123300</v>
       </c>
       <c r="I70" s="3">
-        <v>1961800</v>
+        <v>3123300</v>
       </c>
       <c r="J70" s="3">
+        <v>1961100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1770300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1395700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>921400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1880600</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4213400</v>
+        <v>2960800</v>
       </c>
       <c r="E72" s="3">
-        <v>3104900</v>
+        <v>4211700</v>
       </c>
       <c r="F72" s="3">
-        <v>2176900</v>
+        <v>3103600</v>
       </c>
       <c r="G72" s="3">
-        <v>1274100</v>
+        <v>2176100</v>
       </c>
       <c r="H72" s="3">
-        <v>893400</v>
+        <v>1273600</v>
       </c>
       <c r="I72" s="3">
-        <v>2173800</v>
+        <v>893000</v>
       </c>
       <c r="J72" s="3">
+        <v>2172900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4300500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3923000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3528300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3555400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21524500</v>
+        <v>23372700</v>
       </c>
       <c r="E76" s="3">
-        <v>21026000</v>
+        <v>21516000</v>
       </c>
       <c r="F76" s="3">
-        <v>19907300</v>
+        <v>21017700</v>
       </c>
       <c r="G76" s="3">
-        <v>16532400</v>
+        <v>19899400</v>
       </c>
       <c r="H76" s="3">
-        <v>15918500</v>
+        <v>16525800</v>
       </c>
       <c r="I76" s="3">
-        <v>10942900</v>
+        <v>15912100</v>
       </c>
       <c r="J76" s="3">
+        <v>10938500</v>
+      </c>
+      <c r="K76" s="3">
         <v>13200600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12865200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11809000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11021100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3499000</v>
+        <v>1424300</v>
       </c>
       <c r="E81" s="3">
-        <v>3121400</v>
+        <v>3497600</v>
       </c>
       <c r="F81" s="3">
-        <v>2778300</v>
+        <v>3120100</v>
       </c>
       <c r="G81" s="3">
-        <v>2352800</v>
+        <v>2777200</v>
       </c>
       <c r="H81" s="3">
+        <v>2351900</v>
+      </c>
+      <c r="I81" s="3">
         <v>97300</v>
       </c>
-      <c r="I81" s="3">
-        <v>-973500</v>
-      </c>
       <c r="J81" s="3">
+        <v>-973100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1368300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1317900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>977900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1172300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2033300</v>
+        <v>1979100</v>
       </c>
       <c r="E83" s="3">
-        <v>1934400</v>
+        <v>2032500</v>
       </c>
       <c r="F83" s="3">
-        <v>1844900</v>
+        <v>1933600</v>
       </c>
       <c r="G83" s="3">
-        <v>1613300</v>
+        <v>1844100</v>
       </c>
       <c r="H83" s="3">
-        <v>1522200</v>
+        <v>1612600</v>
       </c>
       <c r="I83" s="3">
-        <v>1385600</v>
+        <v>1521600</v>
       </c>
       <c r="J83" s="3">
+        <v>1385100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1264700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1143200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1035100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1020200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5540900</v>
+        <v>5406900</v>
       </c>
       <c r="E89" s="3">
-        <v>5559700</v>
+        <v>5538700</v>
       </c>
       <c r="F89" s="3">
-        <v>5146000</v>
+        <v>5557500</v>
       </c>
       <c r="G89" s="3">
-        <v>4105800</v>
+        <v>5144000</v>
       </c>
       <c r="H89" s="3">
-        <v>3979400</v>
+        <v>4104200</v>
       </c>
       <c r="I89" s="3">
-        <v>3230500</v>
+        <v>3977800</v>
       </c>
       <c r="J89" s="3">
+        <v>3229200</v>
+      </c>
+      <c r="K89" s="3">
         <v>3202200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2828300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2688200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2831700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6386400</v>
+        <v>-4648800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6423300</v>
+        <v>-6383900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7783000</v>
+        <v>-6420700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5910600</v>
+        <v>-7779900</v>
       </c>
       <c r="H91" s="3">
-        <v>-4162300</v>
+        <v>-5908300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3477000</v>
+        <v>-4160700</v>
       </c>
       <c r="J91" s="3">
+        <v>-3475600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3420500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3434200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1953500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1930600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4751100</v>
+        <v>-6051900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5394900</v>
+        <v>-4749200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7865400</v>
+        <v>-5392700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2903900</v>
+        <v>-7862300</v>
       </c>
       <c r="H94" s="3">
-        <v>-14745600</v>
+        <v>-2902800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3619100</v>
+        <v>-14739800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3617700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3253200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3941500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2451100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2346200</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2469800</v>
+        <v>-2713600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1537100</v>
+        <v>-2468800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1357400</v>
+        <v>-1536500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1172900</v>
+        <v>-1356800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1205800</v>
+        <v>-1172400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1207400</v>
+        <v>-1205400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1206900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1129700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1043900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-964300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-628000</v>
+        <v>-69100</v>
       </c>
       <c r="E100" s="3">
-        <v>544000</v>
+        <v>-627800</v>
       </c>
       <c r="F100" s="3">
-        <v>2157300</v>
+        <v>543800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1114000</v>
+        <v>2156500</v>
       </c>
       <c r="H100" s="3">
-        <v>10996200</v>
+        <v>-1113500</v>
       </c>
       <c r="I100" s="3">
-        <v>584100</v>
+        <v>10991900</v>
       </c>
       <c r="J100" s="3">
+        <v>583800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-292800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1381100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-303400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-493200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>57300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-30600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-99700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>87900</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>21600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>146800</v>
+        <v>-672500</v>
       </c>
       <c r="E102" s="3">
-        <v>704200</v>
+        <v>146700</v>
       </c>
       <c r="F102" s="3">
-        <v>-504800</v>
+        <v>703900</v>
       </c>
       <c r="G102" s="3">
+        <v>-504600</v>
+      </c>
+      <c r="H102" s="3">
         <v>57300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>130300</v>
       </c>
-      <c r="I102" s="3">
-        <v>283400</v>
-      </c>
       <c r="J102" s="3">
+        <v>283300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-343900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>289500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-77500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10505300</v>
+        <v>10263000</v>
       </c>
       <c r="E8" s="3">
-        <v>10200800</v>
+        <v>9965600</v>
       </c>
       <c r="F8" s="3">
-        <v>10401700</v>
+        <v>10161800</v>
       </c>
       <c r="G8" s="3">
-        <v>10734500</v>
+        <v>10486900</v>
       </c>
       <c r="H8" s="3">
-        <v>10554000</v>
+        <v>10310500</v>
       </c>
       <c r="I8" s="3">
-        <v>9846100</v>
+        <v>9619000</v>
       </c>
       <c r="J8" s="3">
-        <v>8909200</v>
+        <v>8703700</v>
       </c>
       <c r="K8" s="3">
         <v>7995700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3215900</v>
+        <v>3141700</v>
       </c>
       <c r="E9" s="3">
-        <v>3043200</v>
+        <v>2973000</v>
       </c>
       <c r="F9" s="3">
-        <v>3067500</v>
+        <v>2996800</v>
       </c>
       <c r="G9" s="3">
-        <v>2818000</v>
+        <v>2753000</v>
       </c>
       <c r="H9" s="3">
-        <v>3065200</v>
+        <v>2994500</v>
       </c>
       <c r="I9" s="3">
-        <v>3029900</v>
+        <v>2960000</v>
       </c>
       <c r="J9" s="3">
-        <v>2592000</v>
+        <v>2532200</v>
       </c>
       <c r="K9" s="3">
         <v>2334000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7289400</v>
+        <v>7121300</v>
       </c>
       <c r="E10" s="3">
-        <v>7157600</v>
+        <v>6992500</v>
       </c>
       <c r="F10" s="3">
-        <v>7334200</v>
+        <v>7165000</v>
       </c>
       <c r="G10" s="3">
-        <v>7916500</v>
+        <v>7733900</v>
       </c>
       <c r="H10" s="3">
-        <v>7488800</v>
+        <v>7316000</v>
       </c>
       <c r="I10" s="3">
-        <v>6816300</v>
+        <v>6659000</v>
       </c>
       <c r="J10" s="3">
-        <v>6317200</v>
+        <v>6171500</v>
       </c>
       <c r="K10" s="3">
         <v>5661800</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2177700</v>
+        <v>2127400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>628600</v>
+        <v>614100</v>
       </c>
       <c r="H14" s="3">
-        <v>986400</v>
+        <v>963700</v>
       </c>
       <c r="I14" s="3">
-        <v>1174800</v>
+        <v>1147700</v>
       </c>
       <c r="J14" s="3">
-        <v>2955300</v>
+        <v>2887200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1979100</v>
+        <v>1933500</v>
       </c>
       <c r="E15" s="3">
-        <v>2032500</v>
+        <v>1985600</v>
       </c>
       <c r="F15" s="3">
-        <v>1933600</v>
+        <v>1889000</v>
       </c>
       <c r="G15" s="3">
-        <v>1844100</v>
+        <v>1801600</v>
       </c>
       <c r="H15" s="3">
-        <v>1612600</v>
+        <v>1575400</v>
       </c>
       <c r="I15" s="3">
-        <v>1521600</v>
+        <v>1486500</v>
       </c>
       <c r="J15" s="3">
-        <v>1385100</v>
+        <v>1353100</v>
       </c>
       <c r="K15" s="3">
         <v>1264700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8048300</v>
+        <v>7862700</v>
       </c>
       <c r="E17" s="3">
-        <v>5646200</v>
+        <v>5516000</v>
       </c>
       <c r="F17" s="3">
-        <v>5861200</v>
+        <v>5726000</v>
       </c>
       <c r="G17" s="3">
-        <v>6904900</v>
+        <v>6745700</v>
       </c>
       <c r="H17" s="3">
-        <v>7980000</v>
+        <v>7796000</v>
       </c>
       <c r="I17" s="3">
-        <v>7866200</v>
+        <v>7684800</v>
       </c>
       <c r="J17" s="3">
-        <v>9093600</v>
+        <v>8883800</v>
       </c>
       <c r="K17" s="3">
         <v>5411300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2457000</v>
+        <v>2400300</v>
       </c>
       <c r="E18" s="3">
-        <v>4554600</v>
+        <v>4449600</v>
       </c>
       <c r="F18" s="3">
-        <v>4540500</v>
+        <v>4435800</v>
       </c>
       <c r="G18" s="3">
-        <v>3829500</v>
+        <v>3741200</v>
       </c>
       <c r="H18" s="3">
-        <v>2573900</v>
+        <v>2514600</v>
       </c>
       <c r="I18" s="3">
-        <v>1979900</v>
+        <v>1934200</v>
       </c>
       <c r="J18" s="3">
-        <v>-184400</v>
+        <v>-180200</v>
       </c>
       <c r="K18" s="3">
         <v>2584400</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1094700</v>
+        <v>1069500</v>
       </c>
       <c r="E20" s="3">
-        <v>1201400</v>
+        <v>1173700</v>
       </c>
       <c r="F20" s="3">
-        <v>1360700</v>
+        <v>1329400</v>
       </c>
       <c r="G20" s="3">
-        <v>1046800</v>
+        <v>1022700</v>
       </c>
       <c r="H20" s="3">
-        <v>1643200</v>
+        <v>1605300</v>
       </c>
       <c r="I20" s="3">
-        <v>154600</v>
+        <v>151000</v>
       </c>
       <c r="J20" s="3">
-        <v>482600</v>
+        <v>471500</v>
       </c>
       <c r="K20" s="3">
         <v>573100</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5521400</v>
+        <v>5410900</v>
       </c>
       <c r="E21" s="3">
-        <v>7778900</v>
+        <v>7616700</v>
       </c>
       <c r="F21" s="3">
-        <v>7825700</v>
+        <v>7661600</v>
       </c>
       <c r="G21" s="3">
-        <v>6711700</v>
+        <v>6572600</v>
       </c>
       <c r="H21" s="3">
-        <v>5822200</v>
+        <v>5701600</v>
       </c>
       <c r="I21" s="3">
-        <v>3648900</v>
+        <v>3577600</v>
       </c>
       <c r="J21" s="3">
-        <v>1676700</v>
+        <v>1649800</v>
       </c>
       <c r="K21" s="3">
         <v>4417500</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1852000</v>
+        <v>1809300</v>
       </c>
       <c r="E22" s="3">
-        <v>1748400</v>
+        <v>1708100</v>
       </c>
       <c r="F22" s="3">
-        <v>1830800</v>
+        <v>1788600</v>
       </c>
       <c r="G22" s="3">
-        <v>1777400</v>
+        <v>1736400</v>
       </c>
       <c r="H22" s="3">
-        <v>1622800</v>
+        <v>1585400</v>
       </c>
       <c r="I22" s="3">
-        <v>1477700</v>
+        <v>1443600</v>
       </c>
       <c r="J22" s="3">
-        <v>1166100</v>
+        <v>1139200</v>
       </c>
       <c r="K22" s="3">
         <v>940500</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1699700</v>
+        <v>1660500</v>
       </c>
       <c r="E23" s="3">
-        <v>4007700</v>
+        <v>3915200</v>
       </c>
       <c r="F23" s="3">
-        <v>4070400</v>
+        <v>3976600</v>
       </c>
       <c r="G23" s="3">
-        <v>3098900</v>
+        <v>3027500</v>
       </c>
       <c r="H23" s="3">
-        <v>2594400</v>
+        <v>2534500</v>
       </c>
       <c r="I23" s="3">
-        <v>656800</v>
+        <v>641700</v>
       </c>
       <c r="J23" s="3">
-        <v>-867900</v>
+        <v>-847900</v>
       </c>
       <c r="K23" s="3">
         <v>2217000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94200</v>
+        <v>92000</v>
       </c>
       <c r="E24" s="3">
-        <v>152200</v>
+        <v>148700</v>
       </c>
       <c r="F24" s="3">
-        <v>591700</v>
+        <v>578000</v>
       </c>
       <c r="G24" s="3">
-        <v>470100</v>
+        <v>459200</v>
       </c>
       <c r="H24" s="3">
-        <v>561100</v>
+        <v>548100</v>
       </c>
       <c r="I24" s="3">
-        <v>276200</v>
+        <v>269900</v>
       </c>
       <c r="J24" s="3">
-        <v>26700</v>
+        <v>26100</v>
       </c>
       <c r="K24" s="3">
         <v>652400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1605600</v>
+        <v>1568500</v>
       </c>
       <c r="E26" s="3">
-        <v>3855400</v>
+        <v>3766500</v>
       </c>
       <c r="F26" s="3">
-        <v>3478800</v>
+        <v>3398500</v>
       </c>
       <c r="G26" s="3">
-        <v>2628900</v>
+        <v>2568200</v>
       </c>
       <c r="H26" s="3">
-        <v>2033300</v>
+        <v>1986400</v>
       </c>
       <c r="I26" s="3">
-        <v>380600</v>
+        <v>371800</v>
       </c>
       <c r="J26" s="3">
-        <v>-894600</v>
+        <v>-874000</v>
       </c>
       <c r="K26" s="3">
         <v>1564600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1424300</v>
+        <v>1391500</v>
       </c>
       <c r="E27" s="3">
-        <v>3497600</v>
+        <v>3416900</v>
       </c>
       <c r="F27" s="3">
-        <v>3120100</v>
+        <v>3048200</v>
       </c>
       <c r="G27" s="3">
-        <v>2646100</v>
+        <v>2585100</v>
       </c>
       <c r="H27" s="3">
-        <v>1720900</v>
+        <v>1681200</v>
       </c>
       <c r="I27" s="3">
-        <v>97300</v>
+        <v>95100</v>
       </c>
       <c r="J27" s="3">
-        <v>-973100</v>
+        <v>-950600</v>
       </c>
       <c r="K27" s="3">
         <v>1368300</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>131100</v>
+        <v>128000</v>
       </c>
       <c r="H29" s="3">
-        <v>630900</v>
+        <v>616400</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1094700</v>
+        <v>-1069500</v>
       </c>
       <c r="E32" s="3">
-        <v>-1201400</v>
+        <v>-1173700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1360700</v>
+        <v>-1329400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1046800</v>
+        <v>-1022700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1643200</v>
+        <v>-1605300</v>
       </c>
       <c r="I32" s="3">
-        <v>-154600</v>
+        <v>-151000</v>
       </c>
       <c r="J32" s="3">
-        <v>-482600</v>
+        <v>-471500</v>
       </c>
       <c r="K32" s="3">
         <v>-573100</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1424300</v>
+        <v>1391500</v>
       </c>
       <c r="E33" s="3">
-        <v>3497600</v>
+        <v>3416900</v>
       </c>
       <c r="F33" s="3">
-        <v>3120100</v>
+        <v>3048200</v>
       </c>
       <c r="G33" s="3">
-        <v>2777200</v>
+        <v>2713100</v>
       </c>
       <c r="H33" s="3">
-        <v>2351900</v>
+        <v>2297600</v>
       </c>
       <c r="I33" s="3">
-        <v>97300</v>
+        <v>95100</v>
       </c>
       <c r="J33" s="3">
-        <v>-973100</v>
+        <v>-950600</v>
       </c>
       <c r="K33" s="3">
         <v>1368300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1424300</v>
+        <v>1391500</v>
       </c>
       <c r="E35" s="3">
-        <v>3497600</v>
+        <v>3416900</v>
       </c>
       <c r="F35" s="3">
-        <v>3120100</v>
+        <v>3048200</v>
       </c>
       <c r="G35" s="3">
-        <v>2777200</v>
+        <v>2713100</v>
       </c>
       <c r="H35" s="3">
-        <v>2351900</v>
+        <v>2297600</v>
       </c>
       <c r="I35" s="3">
-        <v>97300</v>
+        <v>95100</v>
       </c>
       <c r="J35" s="3">
-        <v>-973100</v>
+        <v>-950600</v>
       </c>
       <c r="K35" s="3">
         <v>1368300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>528100</v>
+        <v>515900</v>
       </c>
       <c r="E41" s="3">
-        <v>1200700</v>
+        <v>1173000</v>
       </c>
       <c r="F41" s="3">
-        <v>1053900</v>
+        <v>1029600</v>
       </c>
       <c r="G41" s="3">
-        <v>350000</v>
+        <v>341900</v>
       </c>
       <c r="H41" s="3">
-        <v>854600</v>
+        <v>834900</v>
       </c>
       <c r="I41" s="3">
-        <v>797300</v>
+        <v>778900</v>
       </c>
       <c r="J41" s="3">
-        <v>667000</v>
+        <v>651600</v>
       </c>
       <c r="K41" s="3">
         <v>383900</v>
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>147500</v>
+        <v>144100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>562700</v>
+        <v>549700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3540000</v>
+        <v>3458300</v>
       </c>
       <c r="E43" s="3">
-        <v>1800200</v>
+        <v>1758700</v>
       </c>
       <c r="F43" s="3">
-        <v>2020700</v>
+        <v>1974100</v>
       </c>
       <c r="G43" s="3">
-        <v>2114100</v>
+        <v>2065300</v>
       </c>
       <c r="H43" s="3">
-        <v>1979100</v>
+        <v>1933500</v>
       </c>
       <c r="I43" s="3">
-        <v>1628300</v>
+        <v>1590800</v>
       </c>
       <c r="J43" s="3">
-        <v>1088400</v>
+        <v>1063300</v>
       </c>
       <c r="K43" s="3">
         <v>1030800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>568200</v>
+        <v>555000</v>
       </c>
       <c r="E44" s="3">
-        <v>493600</v>
+        <v>482200</v>
       </c>
       <c r="F44" s="3">
-        <v>354700</v>
+        <v>346500</v>
       </c>
       <c r="G44" s="3">
-        <v>338200</v>
+        <v>330400</v>
       </c>
       <c r="H44" s="3">
-        <v>296600</v>
+        <v>289800</v>
       </c>
       <c r="I44" s="3">
-        <v>288800</v>
+        <v>282100</v>
       </c>
       <c r="J44" s="3">
-        <v>253500</v>
+        <v>247600</v>
       </c>
       <c r="K44" s="3">
         <v>229200</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1188900</v>
+        <v>1161500</v>
       </c>
       <c r="E45" s="3">
-        <v>439500</v>
+        <v>429300</v>
       </c>
       <c r="F45" s="3">
-        <v>2574700</v>
+        <v>2515300</v>
       </c>
       <c r="G45" s="3">
-        <v>664700</v>
+        <v>649300</v>
       </c>
       <c r="H45" s="3">
-        <v>542300</v>
+        <v>529700</v>
       </c>
       <c r="I45" s="3">
-        <v>3629400</v>
+        <v>3545700</v>
       </c>
       <c r="J45" s="3">
-        <v>1607100</v>
+        <v>1570100</v>
       </c>
       <c r="K45" s="3">
         <v>1935100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5825100</v>
+        <v>5690800</v>
       </c>
       <c r="E46" s="3">
-        <v>4081400</v>
+        <v>3987300</v>
       </c>
       <c r="F46" s="3">
-        <v>6004000</v>
+        <v>5865600</v>
       </c>
       <c r="G46" s="3">
-        <v>4029600</v>
+        <v>3936700</v>
       </c>
       <c r="H46" s="3">
-        <v>3672600</v>
+        <v>3587900</v>
       </c>
       <c r="I46" s="3">
-        <v>6343800</v>
+        <v>6197500</v>
       </c>
       <c r="J46" s="3">
-        <v>3074600</v>
+        <v>3003700</v>
       </c>
       <c r="K46" s="3">
         <v>2443900</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7006200</v>
+        <v>6844600</v>
       </c>
       <c r="E47" s="3">
-        <v>6455300</v>
+        <v>6306400</v>
       </c>
       <c r="F47" s="3">
-        <v>6230800</v>
+        <v>6087100</v>
       </c>
       <c r="G47" s="3">
-        <v>6653000</v>
+        <v>6499600</v>
       </c>
       <c r="H47" s="3">
-        <v>5771000</v>
+        <v>5637900</v>
       </c>
       <c r="I47" s="3">
-        <v>5227900</v>
+        <v>5107400</v>
       </c>
       <c r="J47" s="3">
-        <v>5100000</v>
+        <v>4982400</v>
       </c>
       <c r="K47" s="3">
         <v>4583100</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55074600</v>
+        <v>53804300</v>
       </c>
       <c r="E48" s="3">
-        <v>54755200</v>
+        <v>53492300</v>
       </c>
       <c r="F48" s="3">
-        <v>51391800</v>
+        <v>50206500</v>
       </c>
       <c r="G48" s="3">
-        <v>52187600</v>
+        <v>50983900</v>
       </c>
       <c r="H48" s="3">
-        <v>44947600</v>
+        <v>43910800</v>
       </c>
       <c r="I48" s="3">
-        <v>42748700</v>
+        <v>41762700</v>
       </c>
       <c r="J48" s="3">
-        <v>70339400</v>
+        <v>68717000</v>
       </c>
       <c r="K48" s="3">
         <v>65589400</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9884600</v>
+        <v>9645900</v>
       </c>
       <c r="E49" s="3">
-        <v>10131000</v>
+        <v>9720200</v>
       </c>
       <c r="F49" s="3">
-        <v>11458800</v>
+        <v>9879700</v>
       </c>
       <c r="G49" s="3">
-        <v>11950800</v>
+        <v>10869400</v>
       </c>
       <c r="H49" s="3">
-        <v>10735200</v>
+        <v>10030700</v>
       </c>
       <c r="I49" s="3">
-        <v>12596600</v>
+        <v>10700800</v>
       </c>
       <c r="J49" s="3">
-        <v>7674800</v>
+        <v>6107100</v>
       </c>
       <c r="K49" s="3">
         <v>4603500</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3993500</v>
+        <v>3912200</v>
       </c>
       <c r="E52" s="3">
-        <v>3286500</v>
+        <v>3387800</v>
       </c>
       <c r="F52" s="3">
-        <v>2822700</v>
+        <v>4072400</v>
       </c>
       <c r="G52" s="3">
-        <v>2805400</v>
+        <v>3546500</v>
       </c>
       <c r="H52" s="3">
-        <v>2440500</v>
+        <v>2841200</v>
       </c>
       <c r="I52" s="3">
-        <v>2180000</v>
+        <v>3735100</v>
       </c>
       <c r="J52" s="3">
-        <v>1888900</v>
+        <v>3236000</v>
       </c>
       <c r="K52" s="3">
         <v>1733400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81784000</v>
+        <v>79897700</v>
       </c>
       <c r="E54" s="3">
-        <v>78709400</v>
+        <v>76894000</v>
       </c>
       <c r="F54" s="3">
-        <v>77908200</v>
+        <v>76111300</v>
       </c>
       <c r="G54" s="3">
-        <v>77626500</v>
+        <v>75836000</v>
       </c>
       <c r="H54" s="3">
-        <v>67566900</v>
+        <v>66008500</v>
       </c>
       <c r="I54" s="3">
-        <v>69097100</v>
+        <v>67503400</v>
       </c>
       <c r="J54" s="3">
-        <v>50535700</v>
+        <v>49370100</v>
       </c>
       <c r="K54" s="3">
         <v>45945100</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3282600</v>
+        <v>3206900</v>
       </c>
       <c r="E57" s="3">
-        <v>2399000</v>
+        <v>2343600</v>
       </c>
       <c r="F57" s="3">
-        <v>2929400</v>
+        <v>2861900</v>
       </c>
       <c r="G57" s="3">
-        <v>3056600</v>
+        <v>2986100</v>
       </c>
       <c r="H57" s="3">
-        <v>2880000</v>
+        <v>2813600</v>
       </c>
       <c r="I57" s="3">
-        <v>2165900</v>
+        <v>2115900</v>
       </c>
       <c r="J57" s="3">
-        <v>2869800</v>
+        <v>2803600</v>
       </c>
       <c r="K57" s="3">
         <v>1274900</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5089800</v>
+        <v>4972400</v>
       </c>
       <c r="E58" s="3">
-        <v>4824600</v>
+        <v>4713300</v>
       </c>
       <c r="F58" s="3">
-        <v>5497100</v>
+        <v>5370300</v>
       </c>
       <c r="G58" s="3">
-        <v>4884200</v>
+        <v>4771600</v>
       </c>
       <c r="H58" s="3">
-        <v>3632600</v>
+        <v>3548800</v>
       </c>
       <c r="I58" s="3">
-        <v>2049700</v>
+        <v>2002500</v>
       </c>
       <c r="J58" s="3">
-        <v>2954500</v>
+        <v>2886400</v>
       </c>
       <c r="K58" s="3">
         <v>3347500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1861400</v>
+        <v>1818500</v>
       </c>
       <c r="E59" s="3">
-        <v>2183100</v>
+        <v>2132800</v>
       </c>
       <c r="F59" s="3">
-        <v>1695800</v>
+        <v>1656700</v>
       </c>
       <c r="G59" s="3">
-        <v>2218500</v>
+        <v>2167300</v>
       </c>
       <c r="H59" s="3">
-        <v>1238300</v>
+        <v>1209800</v>
       </c>
       <c r="I59" s="3">
-        <v>1811200</v>
+        <v>1769400</v>
       </c>
       <c r="J59" s="3">
-        <v>1596900</v>
+        <v>1560100</v>
       </c>
       <c r="K59" s="3">
         <v>1331400</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10233800</v>
+        <v>9997800</v>
       </c>
       <c r="E60" s="3">
-        <v>9406700</v>
+        <v>9189700</v>
       </c>
       <c r="F60" s="3">
-        <v>10122400</v>
+        <v>9888900</v>
       </c>
       <c r="G60" s="3">
-        <v>10159200</v>
+        <v>9924900</v>
       </c>
       <c r="H60" s="3">
-        <v>7750900</v>
+        <v>7572100</v>
       </c>
       <c r="I60" s="3">
-        <v>6026800</v>
+        <v>5887800</v>
       </c>
       <c r="J60" s="3">
-        <v>5777300</v>
+        <v>5644000</v>
       </c>
       <c r="K60" s="3">
         <v>5950700</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36317800</v>
+        <v>35480100</v>
       </c>
       <c r="E61" s="3">
-        <v>34066300</v>
+        <v>33280600</v>
       </c>
       <c r="F61" s="3">
-        <v>33660600</v>
+        <v>32884300</v>
       </c>
       <c r="G61" s="3">
-        <v>34541900</v>
+        <v>33745200</v>
       </c>
       <c r="H61" s="3">
-        <v>30512300</v>
+        <v>29808500</v>
       </c>
       <c r="I61" s="3">
-        <v>33149800</v>
+        <v>32385200</v>
       </c>
       <c r="J61" s="3">
-        <v>24576500</v>
+        <v>24009600</v>
       </c>
       <c r="K61" s="3">
         <v>18935400</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9025300</v>
+        <v>8817100</v>
       </c>
       <c r="E62" s="3">
-        <v>8968800</v>
+        <v>8761900</v>
       </c>
       <c r="F62" s="3">
-        <v>8702000</v>
+        <v>8501300</v>
       </c>
       <c r="G62" s="3">
-        <v>8603900</v>
+        <v>8405400</v>
       </c>
       <c r="H62" s="3">
-        <v>8201300</v>
+        <v>8012200</v>
       </c>
       <c r="I62" s="3">
-        <v>9530700</v>
+        <v>9310800</v>
       </c>
       <c r="J62" s="3">
-        <v>6923800</v>
+        <v>6764100</v>
       </c>
       <c r="K62" s="3">
         <v>4845300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55674900</v>
+        <v>54390800</v>
       </c>
       <c r="E66" s="3">
-        <v>54070200</v>
+        <v>52823000</v>
       </c>
       <c r="F66" s="3">
-        <v>53767200</v>
+        <v>52527100</v>
       </c>
       <c r="G66" s="3">
-        <v>54603800</v>
+        <v>53344300</v>
       </c>
       <c r="H66" s="3">
-        <v>47917800</v>
+        <v>46812600</v>
       </c>
       <c r="I66" s="3">
-        <v>50061700</v>
+        <v>48907000</v>
       </c>
       <c r="J66" s="3">
-        <v>37636100</v>
+        <v>36768100</v>
       </c>
       <c r="K66" s="3">
         <v>30974100</v>
@@ -2891,25 +2891,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2736400</v>
+        <v>2673300</v>
       </c>
       <c r="E70" s="3">
-        <v>3123300</v>
+        <v>3051200</v>
       </c>
       <c r="F70" s="3">
-        <v>3123300</v>
+        <v>3051200</v>
       </c>
       <c r="G70" s="3">
-        <v>3123300</v>
+        <v>3051200</v>
       </c>
       <c r="H70" s="3">
-        <v>3123300</v>
+        <v>3051200</v>
       </c>
       <c r="I70" s="3">
-        <v>3123300</v>
+        <v>3051200</v>
       </c>
       <c r="J70" s="3">
-        <v>1961100</v>
+        <v>1915800</v>
       </c>
       <c r="K70" s="3">
         <v>1770300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2960800</v>
+        <v>2892500</v>
       </c>
       <c r="E72" s="3">
-        <v>4211700</v>
+        <v>4114600</v>
       </c>
       <c r="F72" s="3">
-        <v>3103600</v>
+        <v>3032100</v>
       </c>
       <c r="G72" s="3">
-        <v>2176100</v>
+        <v>2125900</v>
       </c>
       <c r="H72" s="3">
-        <v>1273600</v>
+        <v>1244300</v>
       </c>
       <c r="I72" s="3">
-        <v>893000</v>
+        <v>872400</v>
       </c>
       <c r="J72" s="3">
-        <v>2172900</v>
+        <v>2122800</v>
       </c>
       <c r="K72" s="3">
         <v>4300500</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23372700</v>
+        <v>22833600</v>
       </c>
       <c r="E76" s="3">
-        <v>21516000</v>
+        <v>21019800</v>
       </c>
       <c r="F76" s="3">
-        <v>21017700</v>
+        <v>20532900</v>
       </c>
       <c r="G76" s="3">
-        <v>19899400</v>
+        <v>19440500</v>
       </c>
       <c r="H76" s="3">
-        <v>16525800</v>
+        <v>16144700</v>
       </c>
       <c r="I76" s="3">
-        <v>15912100</v>
+        <v>15545200</v>
       </c>
       <c r="J76" s="3">
-        <v>10938500</v>
+        <v>10686200</v>
       </c>
       <c r="K76" s="3">
         <v>13200600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1424300</v>
+        <v>1391500</v>
       </c>
       <c r="E81" s="3">
-        <v>3497600</v>
+        <v>3416900</v>
       </c>
       <c r="F81" s="3">
-        <v>3120100</v>
+        <v>3048200</v>
       </c>
       <c r="G81" s="3">
-        <v>2777200</v>
+        <v>2713100</v>
       </c>
       <c r="H81" s="3">
-        <v>2351900</v>
+        <v>2297600</v>
       </c>
       <c r="I81" s="3">
-        <v>97300</v>
+        <v>95100</v>
       </c>
       <c r="J81" s="3">
-        <v>-973100</v>
+        <v>-950600</v>
       </c>
       <c r="K81" s="3">
         <v>1368300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1979100</v>
+        <v>1933500</v>
       </c>
       <c r="E83" s="3">
-        <v>2032500</v>
+        <v>1985600</v>
       </c>
       <c r="F83" s="3">
-        <v>1933600</v>
+        <v>1889000</v>
       </c>
       <c r="G83" s="3">
-        <v>1844100</v>
+        <v>1801600</v>
       </c>
       <c r="H83" s="3">
-        <v>1612600</v>
+        <v>1575400</v>
       </c>
       <c r="I83" s="3">
-        <v>1521600</v>
+        <v>1486500</v>
       </c>
       <c r="J83" s="3">
-        <v>1385100</v>
+        <v>1353100</v>
       </c>
       <c r="K83" s="3">
         <v>1264700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5406900</v>
+        <v>5282100</v>
       </c>
       <c r="E89" s="3">
-        <v>5538700</v>
+        <v>5410900</v>
       </c>
       <c r="F89" s="3">
-        <v>5557500</v>
+        <v>5429300</v>
       </c>
       <c r="G89" s="3">
-        <v>5144000</v>
+        <v>5025300</v>
       </c>
       <c r="H89" s="3">
-        <v>4104200</v>
+        <v>4009500</v>
       </c>
       <c r="I89" s="3">
-        <v>3977800</v>
+        <v>3886100</v>
       </c>
       <c r="J89" s="3">
-        <v>3229200</v>
+        <v>3154700</v>
       </c>
       <c r="K89" s="3">
         <v>3202200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4648800</v>
+        <v>-4541600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6383900</v>
+        <v>-6236600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6420700</v>
+        <v>-6272600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7779900</v>
+        <v>-7600500</v>
       </c>
       <c r="H91" s="3">
-        <v>-5908300</v>
+        <v>-5772000</v>
       </c>
       <c r="I91" s="3">
-        <v>-4160700</v>
+        <v>-4064700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3475600</v>
+        <v>-3395400</v>
       </c>
       <c r="K91" s="3">
         <v>-3420500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6051900</v>
+        <v>-5912300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4749200</v>
+        <v>-4639700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5392700</v>
+        <v>-5268400</v>
       </c>
       <c r="G94" s="3">
-        <v>-7862300</v>
+        <v>-7681000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2902800</v>
+        <v>-2835800</v>
       </c>
       <c r="I94" s="3">
-        <v>-14739800</v>
+        <v>-14399800</v>
       </c>
       <c r="J94" s="3">
-        <v>-3617700</v>
+        <v>-3534200</v>
       </c>
       <c r="K94" s="3">
         <v>-3253200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2713600</v>
+        <v>-2651000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2468800</v>
+        <v>-2411800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1536500</v>
+        <v>-1501100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1356800</v>
+        <v>-1325500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1172400</v>
+        <v>-1145400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1205400</v>
+        <v>-1177600</v>
       </c>
       <c r="J96" s="3">
-        <v>-1206900</v>
+        <v>-1179100</v>
       </c>
       <c r="K96" s="3">
         <v>-1129700</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-69100</v>
+        <v>-67500</v>
       </c>
       <c r="E100" s="3">
-        <v>-627800</v>
+        <v>-613300</v>
       </c>
       <c r="F100" s="3">
-        <v>543800</v>
+        <v>531300</v>
       </c>
       <c r="G100" s="3">
-        <v>2156500</v>
+        <v>2106700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1113500</v>
+        <v>-1087900</v>
       </c>
       <c r="I100" s="3">
-        <v>10991900</v>
+        <v>10738300</v>
       </c>
       <c r="J100" s="3">
-        <v>583800</v>
+        <v>570400</v>
       </c>
       <c r="K100" s="3">
         <v>-292800</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>41600</v>
+        <v>40600</v>
       </c>
       <c r="E101" s="3">
-        <v>-14900</v>
+        <v>-14600</v>
       </c>
       <c r="F101" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G101" s="3">
-        <v>57300</v>
+        <v>56000</v>
       </c>
       <c r="H101" s="3">
-        <v>-30600</v>
+        <v>-29900</v>
       </c>
       <c r="I101" s="3">
-        <v>-99700</v>
+        <v>-97400</v>
       </c>
       <c r="J101" s="3">
-        <v>87900</v>
+        <v>85900</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-672500</v>
+        <v>-657000</v>
       </c>
       <c r="E102" s="3">
-        <v>146700</v>
+        <v>143400</v>
       </c>
       <c r="F102" s="3">
-        <v>703900</v>
+        <v>687700</v>
       </c>
       <c r="G102" s="3">
-        <v>-504600</v>
+        <v>-492900</v>
       </c>
       <c r="H102" s="3">
-        <v>57300</v>
+        <v>56000</v>
       </c>
       <c r="I102" s="3">
-        <v>130300</v>
+        <v>127300</v>
       </c>
       <c r="J102" s="3">
-        <v>283300</v>
+        <v>276800</v>
       </c>
       <c r="K102" s="3">
         <v>-343900</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10263000</v>
+        <v>10358200</v>
       </c>
       <c r="E8" s="3">
-        <v>9965600</v>
+        <v>10058000</v>
       </c>
       <c r="F8" s="3">
-        <v>10161800</v>
+        <v>10256100</v>
       </c>
       <c r="G8" s="3">
-        <v>10486900</v>
+        <v>10584100</v>
       </c>
       <c r="H8" s="3">
-        <v>10310500</v>
+        <v>10406200</v>
       </c>
       <c r="I8" s="3">
-        <v>9619000</v>
+        <v>9708200</v>
       </c>
       <c r="J8" s="3">
-        <v>8703700</v>
+        <v>8784400</v>
       </c>
       <c r="K8" s="3">
         <v>7995700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3141700</v>
+        <v>3170800</v>
       </c>
       <c r="E9" s="3">
-        <v>2973000</v>
+        <v>3000600</v>
       </c>
       <c r="F9" s="3">
-        <v>2996800</v>
+        <v>3024600</v>
       </c>
       <c r="G9" s="3">
-        <v>2753000</v>
+        <v>2778500</v>
       </c>
       <c r="H9" s="3">
-        <v>2994500</v>
+        <v>3022300</v>
       </c>
       <c r="I9" s="3">
-        <v>2960000</v>
+        <v>2987400</v>
       </c>
       <c r="J9" s="3">
-        <v>2532200</v>
+        <v>2555700</v>
       </c>
       <c r="K9" s="3">
         <v>2334000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7121300</v>
+        <v>7187400</v>
       </c>
       <c r="E10" s="3">
-        <v>6992500</v>
+        <v>7057400</v>
       </c>
       <c r="F10" s="3">
-        <v>7165000</v>
+        <v>7231500</v>
       </c>
       <c r="G10" s="3">
-        <v>7733900</v>
+        <v>7805600</v>
       </c>
       <c r="H10" s="3">
-        <v>7316000</v>
+        <v>7383900</v>
       </c>
       <c r="I10" s="3">
-        <v>6659000</v>
+        <v>6720800</v>
       </c>
       <c r="J10" s="3">
-        <v>6171500</v>
+        <v>6228700</v>
       </c>
       <c r="K10" s="3">
         <v>5661800</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2127400</v>
+        <v>2147200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>614100</v>
+        <v>619800</v>
       </c>
       <c r="H14" s="3">
-        <v>963700</v>
+        <v>972600</v>
       </c>
       <c r="I14" s="3">
-        <v>1147700</v>
+        <v>1158300</v>
       </c>
       <c r="J14" s="3">
-        <v>2887200</v>
+        <v>2913900</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1933500</v>
+        <v>1951400</v>
       </c>
       <c r="E15" s="3">
-        <v>1985600</v>
+        <v>2004000</v>
       </c>
       <c r="F15" s="3">
-        <v>1889000</v>
+        <v>1906500</v>
       </c>
       <c r="G15" s="3">
-        <v>1801600</v>
+        <v>1818300</v>
       </c>
       <c r="H15" s="3">
-        <v>1575400</v>
+        <v>1590100</v>
       </c>
       <c r="I15" s="3">
-        <v>1486500</v>
+        <v>1500300</v>
       </c>
       <c r="J15" s="3">
-        <v>1353100</v>
+        <v>1365700</v>
       </c>
       <c r="K15" s="3">
         <v>1264700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7862700</v>
+        <v>7935600</v>
       </c>
       <c r="E17" s="3">
-        <v>5516000</v>
+        <v>5567100</v>
       </c>
       <c r="F17" s="3">
-        <v>5726000</v>
+        <v>5779100</v>
       </c>
       <c r="G17" s="3">
-        <v>6745700</v>
+        <v>6808200</v>
       </c>
       <c r="H17" s="3">
-        <v>7796000</v>
+        <v>7868300</v>
       </c>
       <c r="I17" s="3">
-        <v>7684800</v>
+        <v>7756100</v>
       </c>
       <c r="J17" s="3">
-        <v>8883800</v>
+        <v>8966200</v>
       </c>
       <c r="K17" s="3">
         <v>5411300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2400300</v>
+        <v>2422600</v>
       </c>
       <c r="E18" s="3">
-        <v>4449600</v>
+        <v>4490800</v>
       </c>
       <c r="F18" s="3">
-        <v>4435800</v>
+        <v>4476900</v>
       </c>
       <c r="G18" s="3">
-        <v>3741200</v>
+        <v>3775900</v>
       </c>
       <c r="H18" s="3">
-        <v>2514600</v>
+        <v>2537900</v>
       </c>
       <c r="I18" s="3">
-        <v>1934200</v>
+        <v>1952200</v>
       </c>
       <c r="J18" s="3">
-        <v>-180200</v>
+        <v>-181800</v>
       </c>
       <c r="K18" s="3">
         <v>2584400</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1069500</v>
+        <v>1079400</v>
       </c>
       <c r="E20" s="3">
-        <v>1173700</v>
+        <v>1184600</v>
       </c>
       <c r="F20" s="3">
-        <v>1329400</v>
+        <v>1341700</v>
       </c>
       <c r="G20" s="3">
-        <v>1022700</v>
+        <v>1032200</v>
       </c>
       <c r="H20" s="3">
-        <v>1605300</v>
+        <v>1620200</v>
       </c>
       <c r="I20" s="3">
-        <v>151000</v>
+        <v>152400</v>
       </c>
       <c r="J20" s="3">
-        <v>471500</v>
+        <v>475900</v>
       </c>
       <c r="K20" s="3">
         <v>573100</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5410900</v>
+        <v>5447200</v>
       </c>
       <c r="E21" s="3">
-        <v>7616700</v>
+        <v>7673100</v>
       </c>
       <c r="F21" s="3">
-        <v>7661600</v>
+        <v>7719100</v>
       </c>
       <c r="G21" s="3">
-        <v>6572600</v>
+        <v>6620700</v>
       </c>
       <c r="H21" s="3">
-        <v>5701600</v>
+        <v>5743200</v>
       </c>
       <c r="I21" s="3">
-        <v>3577600</v>
+        <v>3600200</v>
       </c>
       <c r="J21" s="3">
-        <v>1649800</v>
+        <v>1655400</v>
       </c>
       <c r="K21" s="3">
         <v>4417500</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1809300</v>
+        <v>1826100</v>
       </c>
       <c r="E22" s="3">
-        <v>1708100</v>
+        <v>1723900</v>
       </c>
       <c r="F22" s="3">
-        <v>1788600</v>
+        <v>1805200</v>
       </c>
       <c r="G22" s="3">
-        <v>1736400</v>
+        <v>1752500</v>
       </c>
       <c r="H22" s="3">
-        <v>1585400</v>
+        <v>1600100</v>
       </c>
       <c r="I22" s="3">
-        <v>1443600</v>
+        <v>1457000</v>
       </c>
       <c r="J22" s="3">
-        <v>1139200</v>
+        <v>1149800</v>
       </c>
       <c r="K22" s="3">
         <v>940500</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1660500</v>
+        <v>1675900</v>
       </c>
       <c r="E23" s="3">
-        <v>3915200</v>
+        <v>3951500</v>
       </c>
       <c r="F23" s="3">
-        <v>3976600</v>
+        <v>4013400</v>
       </c>
       <c r="G23" s="3">
-        <v>3027500</v>
+        <v>3055500</v>
       </c>
       <c r="H23" s="3">
-        <v>2534500</v>
+        <v>2558000</v>
       </c>
       <c r="I23" s="3">
-        <v>641700</v>
+        <v>647600</v>
       </c>
       <c r="J23" s="3">
-        <v>-847900</v>
+        <v>-855800</v>
       </c>
       <c r="K23" s="3">
         <v>2217000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92000</v>
+        <v>92900</v>
       </c>
       <c r="E24" s="3">
-        <v>148700</v>
+        <v>150100</v>
       </c>
       <c r="F24" s="3">
-        <v>578000</v>
+        <v>583400</v>
       </c>
       <c r="G24" s="3">
-        <v>459200</v>
+        <v>463500</v>
       </c>
       <c r="H24" s="3">
-        <v>548100</v>
+        <v>553200</v>
       </c>
       <c r="I24" s="3">
-        <v>269900</v>
+        <v>272400</v>
       </c>
       <c r="J24" s="3">
-        <v>26100</v>
+        <v>26300</v>
       </c>
       <c r="K24" s="3">
         <v>652400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1568500</v>
+        <v>1583100</v>
       </c>
       <c r="E26" s="3">
-        <v>3766500</v>
+        <v>3801400</v>
       </c>
       <c r="F26" s="3">
-        <v>3398500</v>
+        <v>3430000</v>
       </c>
       <c r="G26" s="3">
-        <v>2568200</v>
+        <v>2592100</v>
       </c>
       <c r="H26" s="3">
-        <v>1986400</v>
+        <v>2004800</v>
       </c>
       <c r="I26" s="3">
-        <v>371800</v>
+        <v>375300</v>
       </c>
       <c r="J26" s="3">
-        <v>-874000</v>
+        <v>-882100</v>
       </c>
       <c r="K26" s="3">
         <v>1564600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1391500</v>
+        <v>1404400</v>
       </c>
       <c r="E27" s="3">
-        <v>3416900</v>
+        <v>3448600</v>
       </c>
       <c r="F27" s="3">
-        <v>3048200</v>
+        <v>3076400</v>
       </c>
       <c r="G27" s="3">
-        <v>2585100</v>
+        <v>2609100</v>
       </c>
       <c r="H27" s="3">
-        <v>1681200</v>
+        <v>1696800</v>
       </c>
       <c r="I27" s="3">
-        <v>95100</v>
+        <v>95900</v>
       </c>
       <c r="J27" s="3">
-        <v>-950600</v>
+        <v>-959500</v>
       </c>
       <c r="K27" s="3">
         <v>1368300</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>128000</v>
+        <v>129200</v>
       </c>
       <c r="H29" s="3">
-        <v>616400</v>
+        <v>622100</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1069500</v>
+        <v>-1079400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1173700</v>
+        <v>-1184600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1329400</v>
+        <v>-1341700</v>
       </c>
       <c r="G32" s="3">
-        <v>-1022700</v>
+        <v>-1032200</v>
       </c>
       <c r="H32" s="3">
-        <v>-1605300</v>
+        <v>-1620200</v>
       </c>
       <c r="I32" s="3">
-        <v>-151000</v>
+        <v>-152400</v>
       </c>
       <c r="J32" s="3">
-        <v>-471500</v>
+        <v>-475900</v>
       </c>
       <c r="K32" s="3">
         <v>-573100</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1391500</v>
+        <v>1404400</v>
       </c>
       <c r="E33" s="3">
-        <v>3416900</v>
+        <v>3448600</v>
       </c>
       <c r="F33" s="3">
-        <v>3048200</v>
+        <v>3076400</v>
       </c>
       <c r="G33" s="3">
-        <v>2713100</v>
+        <v>2738300</v>
       </c>
       <c r="H33" s="3">
-        <v>2297600</v>
+        <v>2318900</v>
       </c>
       <c r="I33" s="3">
-        <v>95100</v>
+        <v>95900</v>
       </c>
       <c r="J33" s="3">
-        <v>-950600</v>
+        <v>-959500</v>
       </c>
       <c r="K33" s="3">
         <v>1368300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1391500</v>
+        <v>1404400</v>
       </c>
       <c r="E35" s="3">
-        <v>3416900</v>
+        <v>3448600</v>
       </c>
       <c r="F35" s="3">
-        <v>3048200</v>
+        <v>3076400</v>
       </c>
       <c r="G35" s="3">
-        <v>2713100</v>
+        <v>2738300</v>
       </c>
       <c r="H35" s="3">
-        <v>2297600</v>
+        <v>2318900</v>
       </c>
       <c r="I35" s="3">
-        <v>95100</v>
+        <v>95900</v>
       </c>
       <c r="J35" s="3">
-        <v>-950600</v>
+        <v>-959500</v>
       </c>
       <c r="K35" s="3">
         <v>1368300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>515900</v>
+        <v>520700</v>
       </c>
       <c r="E41" s="3">
-        <v>1173000</v>
+        <v>1183800</v>
       </c>
       <c r="F41" s="3">
-        <v>1029600</v>
+        <v>1039100</v>
       </c>
       <c r="G41" s="3">
-        <v>341900</v>
+        <v>345100</v>
       </c>
       <c r="H41" s="3">
-        <v>834900</v>
+        <v>842600</v>
       </c>
       <c r="I41" s="3">
-        <v>778900</v>
+        <v>786100</v>
       </c>
       <c r="J41" s="3">
-        <v>651600</v>
+        <v>657700</v>
       </c>
       <c r="K41" s="3">
         <v>383900</v>
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>144100</v>
+        <v>145500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>549700</v>
+        <v>554800</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3458300</v>
+        <v>3490400</v>
       </c>
       <c r="E43" s="3">
-        <v>1758700</v>
+        <v>1775000</v>
       </c>
       <c r="F43" s="3">
-        <v>1974100</v>
+        <v>1992400</v>
       </c>
       <c r="G43" s="3">
-        <v>2065300</v>
+        <v>2084500</v>
       </c>
       <c r="H43" s="3">
-        <v>1933500</v>
+        <v>1951400</v>
       </c>
       <c r="I43" s="3">
-        <v>1590800</v>
+        <v>1605500</v>
       </c>
       <c r="J43" s="3">
-        <v>1063300</v>
+        <v>1073200</v>
       </c>
       <c r="K43" s="3">
         <v>1030800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>555000</v>
+        <v>560200</v>
       </c>
       <c r="E44" s="3">
-        <v>482200</v>
+        <v>486700</v>
       </c>
       <c r="F44" s="3">
-        <v>346500</v>
+        <v>349700</v>
       </c>
       <c r="G44" s="3">
-        <v>330400</v>
+        <v>333500</v>
       </c>
       <c r="H44" s="3">
-        <v>289800</v>
+        <v>292500</v>
       </c>
       <c r="I44" s="3">
-        <v>282100</v>
+        <v>284700</v>
       </c>
       <c r="J44" s="3">
-        <v>247600</v>
+        <v>249900</v>
       </c>
       <c r="K44" s="3">
         <v>229200</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1161500</v>
+        <v>1172200</v>
       </c>
       <c r="E45" s="3">
-        <v>429300</v>
+        <v>433300</v>
       </c>
       <c r="F45" s="3">
-        <v>2515300</v>
+        <v>2538700</v>
       </c>
       <c r="G45" s="3">
-        <v>649300</v>
+        <v>655400</v>
       </c>
       <c r="H45" s="3">
-        <v>529700</v>
+        <v>534700</v>
       </c>
       <c r="I45" s="3">
-        <v>3545700</v>
+        <v>3578600</v>
       </c>
       <c r="J45" s="3">
-        <v>1570100</v>
+        <v>1584600</v>
       </c>
       <c r="K45" s="3">
         <v>1935100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5690800</v>
+        <v>5743500</v>
       </c>
       <c r="E46" s="3">
-        <v>3987300</v>
+        <v>4024300</v>
       </c>
       <c r="F46" s="3">
-        <v>5865600</v>
+        <v>5920000</v>
       </c>
       <c r="G46" s="3">
-        <v>3936700</v>
+        <v>3973200</v>
       </c>
       <c r="H46" s="3">
-        <v>3587900</v>
+        <v>3621200</v>
       </c>
       <c r="I46" s="3">
-        <v>6197500</v>
+        <v>6255000</v>
       </c>
       <c r="J46" s="3">
-        <v>3003700</v>
+        <v>3031600</v>
       </c>
       <c r="K46" s="3">
         <v>2443900</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6844600</v>
+        <v>6908000</v>
       </c>
       <c r="E47" s="3">
-        <v>6306400</v>
+        <v>6364900</v>
       </c>
       <c r="F47" s="3">
-        <v>6087100</v>
+        <v>6143600</v>
       </c>
       <c r="G47" s="3">
-        <v>6499600</v>
+        <v>6559900</v>
       </c>
       <c r="H47" s="3">
-        <v>5637900</v>
+        <v>5690200</v>
       </c>
       <c r="I47" s="3">
-        <v>5107400</v>
+        <v>5154700</v>
       </c>
       <c r="J47" s="3">
-        <v>4982400</v>
+        <v>5028600</v>
       </c>
       <c r="K47" s="3">
         <v>4583100</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53804300</v>
+        <v>54303300</v>
       </c>
       <c r="E48" s="3">
-        <v>53492300</v>
+        <v>53988400</v>
       </c>
       <c r="F48" s="3">
-        <v>50206500</v>
+        <v>50672100</v>
       </c>
       <c r="G48" s="3">
-        <v>50983900</v>
+        <v>51456700</v>
       </c>
       <c r="H48" s="3">
-        <v>43910800</v>
+        <v>44318100</v>
       </c>
       <c r="I48" s="3">
-        <v>41762700</v>
+        <v>42150000</v>
       </c>
       <c r="J48" s="3">
-        <v>68717000</v>
+        <v>69354300</v>
       </c>
       <c r="K48" s="3">
         <v>65589400</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9645900</v>
+        <v>9735300</v>
       </c>
       <c r="E49" s="3">
-        <v>9720200</v>
+        <v>9810400</v>
       </c>
       <c r="F49" s="3">
-        <v>9879700</v>
+        <v>9971300</v>
       </c>
       <c r="G49" s="3">
-        <v>10869400</v>
+        <v>10970200</v>
       </c>
       <c r="H49" s="3">
-        <v>10030700</v>
+        <v>10123700</v>
       </c>
       <c r="I49" s="3">
-        <v>10700800</v>
+        <v>10800000</v>
       </c>
       <c r="J49" s="3">
-        <v>6107100</v>
+        <v>6163700</v>
       </c>
       <c r="K49" s="3">
         <v>4603500</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3912200</v>
+        <v>3948400</v>
       </c>
       <c r="E52" s="3">
-        <v>3387800</v>
+        <v>3419200</v>
       </c>
       <c r="F52" s="3">
-        <v>4072400</v>
+        <v>4110200</v>
       </c>
       <c r="G52" s="3">
-        <v>3546500</v>
+        <v>3579400</v>
       </c>
       <c r="H52" s="3">
-        <v>2841200</v>
+        <v>2867500</v>
       </c>
       <c r="I52" s="3">
-        <v>3735100</v>
+        <v>3769700</v>
       </c>
       <c r="J52" s="3">
-        <v>3236000</v>
+        <v>3266000</v>
       </c>
       <c r="K52" s="3">
         <v>1733400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79897700</v>
+        <v>80638700</v>
       </c>
       <c r="E54" s="3">
-        <v>76894000</v>
+        <v>77607100</v>
       </c>
       <c r="F54" s="3">
-        <v>76111300</v>
+        <v>76817100</v>
       </c>
       <c r="G54" s="3">
-        <v>75836000</v>
+        <v>76539400</v>
       </c>
       <c r="H54" s="3">
-        <v>66008500</v>
+        <v>66620600</v>
       </c>
       <c r="I54" s="3">
-        <v>67503400</v>
+        <v>68129500</v>
       </c>
       <c r="J54" s="3">
-        <v>49370100</v>
+        <v>49828000</v>
       </c>
       <c r="K54" s="3">
         <v>45945100</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3206900</v>
+        <v>3236600</v>
       </c>
       <c r="E57" s="3">
-        <v>2343600</v>
+        <v>2365400</v>
       </c>
       <c r="F57" s="3">
-        <v>2861900</v>
+        <v>2888400</v>
       </c>
       <c r="G57" s="3">
-        <v>2986100</v>
+        <v>3013800</v>
       </c>
       <c r="H57" s="3">
-        <v>2813600</v>
+        <v>2839700</v>
       </c>
       <c r="I57" s="3">
-        <v>2115900</v>
+        <v>2135600</v>
       </c>
       <c r="J57" s="3">
-        <v>2803600</v>
+        <v>2829600</v>
       </c>
       <c r="K57" s="3">
         <v>1274900</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4972400</v>
+        <v>5018500</v>
       </c>
       <c r="E58" s="3">
-        <v>4713300</v>
+        <v>4757000</v>
       </c>
       <c r="F58" s="3">
-        <v>5370300</v>
+        <v>5420100</v>
       </c>
       <c r="G58" s="3">
-        <v>4771600</v>
+        <v>4815800</v>
       </c>
       <c r="H58" s="3">
-        <v>3548800</v>
+        <v>3581700</v>
       </c>
       <c r="I58" s="3">
-        <v>2002500</v>
+        <v>2021000</v>
       </c>
       <c r="J58" s="3">
-        <v>2886400</v>
+        <v>2913200</v>
       </c>
       <c r="K58" s="3">
         <v>3347500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1818500</v>
+        <v>1835300</v>
       </c>
       <c r="E59" s="3">
-        <v>2132800</v>
+        <v>2152600</v>
       </c>
       <c r="F59" s="3">
-        <v>1656700</v>
+        <v>1672100</v>
       </c>
       <c r="G59" s="3">
-        <v>2167300</v>
+        <v>2187400</v>
       </c>
       <c r="H59" s="3">
-        <v>1209800</v>
+        <v>1221000</v>
       </c>
       <c r="I59" s="3">
-        <v>1769400</v>
+        <v>1785800</v>
       </c>
       <c r="J59" s="3">
-        <v>1560100</v>
+        <v>1574600</v>
       </c>
       <c r="K59" s="3">
         <v>1331400</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9997800</v>
+        <v>10090500</v>
       </c>
       <c r="E60" s="3">
-        <v>9189700</v>
+        <v>9274900</v>
       </c>
       <c r="F60" s="3">
-        <v>9888900</v>
+        <v>9980600</v>
       </c>
       <c r="G60" s="3">
-        <v>9924900</v>
+        <v>10017000</v>
       </c>
       <c r="H60" s="3">
-        <v>7572100</v>
+        <v>7642300</v>
       </c>
       <c r="I60" s="3">
-        <v>5887800</v>
+        <v>5942400</v>
       </c>
       <c r="J60" s="3">
-        <v>5644000</v>
+        <v>5696300</v>
       </c>
       <c r="K60" s="3">
         <v>5950700</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35480100</v>
+        <v>35809200</v>
       </c>
       <c r="E61" s="3">
-        <v>33280600</v>
+        <v>33589300</v>
       </c>
       <c r="F61" s="3">
-        <v>32884300</v>
+        <v>33189200</v>
       </c>
       <c r="G61" s="3">
-        <v>33745200</v>
+        <v>34058200</v>
       </c>
       <c r="H61" s="3">
-        <v>29808500</v>
+        <v>30084900</v>
       </c>
       <c r="I61" s="3">
-        <v>32385200</v>
+        <v>32685500</v>
       </c>
       <c r="J61" s="3">
-        <v>24009600</v>
+        <v>24232300</v>
       </c>
       <c r="K61" s="3">
         <v>18935400</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8817100</v>
+        <v>8898900</v>
       </c>
       <c r="E62" s="3">
-        <v>8761900</v>
+        <v>8843200</v>
       </c>
       <c r="F62" s="3">
-        <v>8501300</v>
+        <v>8580100</v>
       </c>
       <c r="G62" s="3">
-        <v>8405400</v>
+        <v>8483400</v>
       </c>
       <c r="H62" s="3">
-        <v>8012200</v>
+        <v>8086500</v>
       </c>
       <c r="I62" s="3">
-        <v>9310800</v>
+        <v>9397200</v>
       </c>
       <c r="J62" s="3">
-        <v>6764100</v>
+        <v>6826800</v>
       </c>
       <c r="K62" s="3">
         <v>4845300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54390800</v>
+        <v>54895200</v>
       </c>
       <c r="E66" s="3">
-        <v>52823000</v>
+        <v>53312900</v>
       </c>
       <c r="F66" s="3">
-        <v>52527100</v>
+        <v>53014300</v>
       </c>
       <c r="G66" s="3">
-        <v>53344300</v>
+        <v>53839100</v>
       </c>
       <c r="H66" s="3">
-        <v>46812600</v>
+        <v>47246700</v>
       </c>
       <c r="I66" s="3">
-        <v>48907000</v>
+        <v>49360600</v>
       </c>
       <c r="J66" s="3">
-        <v>36768100</v>
+        <v>37109100</v>
       </c>
       <c r="K66" s="3">
         <v>30974100</v>
@@ -2891,25 +2891,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2673300</v>
+        <v>2698100</v>
       </c>
       <c r="E70" s="3">
-        <v>3051200</v>
+        <v>3079500</v>
       </c>
       <c r="F70" s="3">
-        <v>3051200</v>
+        <v>3079500</v>
       </c>
       <c r="G70" s="3">
-        <v>3051200</v>
+        <v>3079500</v>
       </c>
       <c r="H70" s="3">
-        <v>3051200</v>
+        <v>3079500</v>
       </c>
       <c r="I70" s="3">
-        <v>3051200</v>
+        <v>3079500</v>
       </c>
       <c r="J70" s="3">
-        <v>1915800</v>
+        <v>1933600</v>
       </c>
       <c r="K70" s="3">
         <v>1770300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2892500</v>
+        <v>2919400</v>
       </c>
       <c r="E72" s="3">
-        <v>4114600</v>
+        <v>4152700</v>
       </c>
       <c r="F72" s="3">
-        <v>3032100</v>
+        <v>3060200</v>
       </c>
       <c r="G72" s="3">
-        <v>2125900</v>
+        <v>2145600</v>
       </c>
       <c r="H72" s="3">
-        <v>1244300</v>
+        <v>1255800</v>
       </c>
       <c r="I72" s="3">
-        <v>872400</v>
+        <v>880500</v>
       </c>
       <c r="J72" s="3">
-        <v>2122800</v>
+        <v>2142500</v>
       </c>
       <c r="K72" s="3">
         <v>4300500</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22833600</v>
+        <v>23045300</v>
       </c>
       <c r="E76" s="3">
-        <v>21019800</v>
+        <v>21214700</v>
       </c>
       <c r="F76" s="3">
-        <v>20532900</v>
+        <v>20723400</v>
       </c>
       <c r="G76" s="3">
-        <v>19440500</v>
+        <v>19620800</v>
       </c>
       <c r="H76" s="3">
-        <v>16144700</v>
+        <v>16294400</v>
       </c>
       <c r="I76" s="3">
-        <v>15545200</v>
+        <v>15689400</v>
       </c>
       <c r="J76" s="3">
-        <v>10686200</v>
+        <v>10785300</v>
       </c>
       <c r="K76" s="3">
         <v>13200600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1391500</v>
+        <v>1404400</v>
       </c>
       <c r="E81" s="3">
-        <v>3416900</v>
+        <v>3448600</v>
       </c>
       <c r="F81" s="3">
-        <v>3048200</v>
+        <v>3076400</v>
       </c>
       <c r="G81" s="3">
-        <v>2713100</v>
+        <v>2738300</v>
       </c>
       <c r="H81" s="3">
-        <v>2297600</v>
+        <v>2318900</v>
       </c>
       <c r="I81" s="3">
-        <v>95100</v>
+        <v>95900</v>
       </c>
       <c r="J81" s="3">
-        <v>-950600</v>
+        <v>-959500</v>
       </c>
       <c r="K81" s="3">
         <v>1368300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1933500</v>
+        <v>1951400</v>
       </c>
       <c r="E83" s="3">
-        <v>1985600</v>
+        <v>2004000</v>
       </c>
       <c r="F83" s="3">
-        <v>1889000</v>
+        <v>1906500</v>
       </c>
       <c r="G83" s="3">
-        <v>1801600</v>
+        <v>1818300</v>
       </c>
       <c r="H83" s="3">
-        <v>1575400</v>
+        <v>1590100</v>
       </c>
       <c r="I83" s="3">
-        <v>1486500</v>
+        <v>1500300</v>
       </c>
       <c r="J83" s="3">
-        <v>1353100</v>
+        <v>1365700</v>
       </c>
       <c r="K83" s="3">
         <v>1264700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5282100</v>
+        <v>5331100</v>
       </c>
       <c r="E89" s="3">
-        <v>5410900</v>
+        <v>5461100</v>
       </c>
       <c r="F89" s="3">
-        <v>5429300</v>
+        <v>5479700</v>
       </c>
       <c r="G89" s="3">
-        <v>5025300</v>
+        <v>5071900</v>
       </c>
       <c r="H89" s="3">
-        <v>4009500</v>
+        <v>4046700</v>
       </c>
       <c r="I89" s="3">
-        <v>3886100</v>
+        <v>3922100</v>
       </c>
       <c r="J89" s="3">
-        <v>3154700</v>
+        <v>3184000</v>
       </c>
       <c r="K89" s="3">
         <v>3202200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4541600</v>
+        <v>-4583700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6236600</v>
+        <v>-6294500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6272600</v>
+        <v>-6330800</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600500</v>
+        <v>-7671000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5772000</v>
+        <v>-5825600</v>
       </c>
       <c r="I91" s="3">
-        <v>-4064700</v>
+        <v>-4102400</v>
       </c>
       <c r="J91" s="3">
-        <v>-3395400</v>
+        <v>-3426900</v>
       </c>
       <c r="K91" s="3">
         <v>-3420500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5912300</v>
+        <v>-5967200</v>
       </c>
       <c r="E94" s="3">
-        <v>-4639700</v>
+        <v>-4682700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5268400</v>
+        <v>-5317200</v>
       </c>
       <c r="G94" s="3">
-        <v>-7681000</v>
+        <v>-7752200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2835800</v>
+        <v>-2862100</v>
       </c>
       <c r="I94" s="3">
-        <v>-14399800</v>
+        <v>-14533300</v>
       </c>
       <c r="J94" s="3">
-        <v>-3534200</v>
+        <v>-3567000</v>
       </c>
       <c r="K94" s="3">
         <v>-3253200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2651000</v>
+        <v>-2675600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2411800</v>
+        <v>-2434200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1501100</v>
+        <v>-1515000</v>
       </c>
       <c r="G96" s="3">
-        <v>-1325500</v>
+        <v>-1337800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1145400</v>
+        <v>-1156000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1177600</v>
+        <v>-1188500</v>
       </c>
       <c r="J96" s="3">
-        <v>-1179100</v>
+        <v>-1190000</v>
       </c>
       <c r="K96" s="3">
         <v>-1129700</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67500</v>
+        <v>-68100</v>
       </c>
       <c r="E100" s="3">
-        <v>-613300</v>
+        <v>-619000</v>
       </c>
       <c r="F100" s="3">
-        <v>531300</v>
+        <v>536200</v>
       </c>
       <c r="G100" s="3">
-        <v>2106700</v>
+        <v>2126300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1087900</v>
+        <v>-1098000</v>
       </c>
       <c r="I100" s="3">
-        <v>10738300</v>
+        <v>10837900</v>
       </c>
       <c r="J100" s="3">
-        <v>570400</v>
+        <v>575700</v>
       </c>
       <c r="K100" s="3">
         <v>-292800</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="E101" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="F101" s="3">
         <v>-4600</v>
       </c>
       <c r="G101" s="3">
-        <v>56000</v>
+        <v>56500</v>
       </c>
       <c r="H101" s="3">
-        <v>-29900</v>
+        <v>-30200</v>
       </c>
       <c r="I101" s="3">
-        <v>-97400</v>
+        <v>-98300</v>
       </c>
       <c r="J101" s="3">
-        <v>85900</v>
+        <v>86700</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-657000</v>
+        <v>-663100</v>
       </c>
       <c r="E102" s="3">
-        <v>143400</v>
+        <v>144700</v>
       </c>
       <c r="F102" s="3">
-        <v>687700</v>
+        <v>694100</v>
       </c>
       <c r="G102" s="3">
-        <v>-492900</v>
+        <v>-497500</v>
       </c>
       <c r="H102" s="3">
-        <v>56000</v>
+        <v>56500</v>
       </c>
       <c r="I102" s="3">
-        <v>127300</v>
+        <v>128400</v>
       </c>
       <c r="J102" s="3">
-        <v>276800</v>
+        <v>279300</v>
       </c>
       <c r="K102" s="3">
         <v>-343900</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -725,25 +725,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10358200</v>
+        <v>10051800</v>
       </c>
       <c r="E8" s="3">
-        <v>10058000</v>
+        <v>9760400</v>
       </c>
       <c r="F8" s="3">
-        <v>10256100</v>
+        <v>9952600</v>
       </c>
       <c r="G8" s="3">
-        <v>10584100</v>
+        <v>10271000</v>
       </c>
       <c r="H8" s="3">
-        <v>10406200</v>
+        <v>10098300</v>
       </c>
       <c r="I8" s="3">
-        <v>9708200</v>
+        <v>9421000</v>
       </c>
       <c r="J8" s="3">
-        <v>8784400</v>
+        <v>8524500</v>
       </c>
       <c r="K8" s="3">
         <v>7995700</v>
@@ -764,25 +764,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3170800</v>
+        <v>3077000</v>
       </c>
       <c r="E9" s="3">
-        <v>3000600</v>
+        <v>2911800</v>
       </c>
       <c r="F9" s="3">
-        <v>3024600</v>
+        <v>2935100</v>
       </c>
       <c r="G9" s="3">
-        <v>2778500</v>
+        <v>2696300</v>
       </c>
       <c r="H9" s="3">
-        <v>3022300</v>
+        <v>2932900</v>
       </c>
       <c r="I9" s="3">
-        <v>2987400</v>
+        <v>2899100</v>
       </c>
       <c r="J9" s="3">
-        <v>2555700</v>
+        <v>2480100</v>
       </c>
       <c r="K9" s="3">
         <v>2334000</v>
@@ -803,25 +803,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7187400</v>
+        <v>6974700</v>
       </c>
       <c r="E10" s="3">
-        <v>7057400</v>
+        <v>6848600</v>
       </c>
       <c r="F10" s="3">
-        <v>7231500</v>
+        <v>7017500</v>
       </c>
       <c r="G10" s="3">
-        <v>7805600</v>
+        <v>7574700</v>
       </c>
       <c r="H10" s="3">
-        <v>7383900</v>
+        <v>7165500</v>
       </c>
       <c r="I10" s="3">
-        <v>6720800</v>
+        <v>6522000</v>
       </c>
       <c r="J10" s="3">
-        <v>6228700</v>
+        <v>6044400</v>
       </c>
       <c r="K10" s="3">
         <v>5661800</v>
@@ -937,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2147200</v>
+        <v>2083600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>619800</v>
+        <v>601400</v>
       </c>
       <c r="H14" s="3">
-        <v>972600</v>
+        <v>943800</v>
       </c>
       <c r="I14" s="3">
-        <v>1158300</v>
+        <v>1124000</v>
       </c>
       <c r="J14" s="3">
-        <v>2913900</v>
+        <v>2827700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1951400</v>
+        <v>1893700</v>
       </c>
       <c r="E15" s="3">
-        <v>2004000</v>
+        <v>1944700</v>
       </c>
       <c r="F15" s="3">
-        <v>1906500</v>
+        <v>1850100</v>
       </c>
       <c r="G15" s="3">
-        <v>1818300</v>
+        <v>1764500</v>
       </c>
       <c r="H15" s="3">
-        <v>1590100</v>
+        <v>1543000</v>
       </c>
       <c r="I15" s="3">
-        <v>1500300</v>
+        <v>1455900</v>
       </c>
       <c r="J15" s="3">
-        <v>1365700</v>
+        <v>1325300</v>
       </c>
       <c r="K15" s="3">
         <v>1264700</v>
@@ -1029,25 +1029,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7935600</v>
+        <v>7700800</v>
       </c>
       <c r="E17" s="3">
-        <v>5567100</v>
+        <v>5402400</v>
       </c>
       <c r="F17" s="3">
-        <v>5779100</v>
+        <v>5608200</v>
       </c>
       <c r="G17" s="3">
-        <v>6808200</v>
+        <v>6606800</v>
       </c>
       <c r="H17" s="3">
-        <v>7868300</v>
+        <v>7635500</v>
       </c>
       <c r="I17" s="3">
-        <v>7756100</v>
+        <v>7526600</v>
       </c>
       <c r="J17" s="3">
-        <v>8966200</v>
+        <v>8701000</v>
       </c>
       <c r="K17" s="3">
         <v>5411300</v>
@@ -1068,25 +1068,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2422600</v>
+        <v>2350900</v>
       </c>
       <c r="E18" s="3">
-        <v>4490800</v>
+        <v>4358000</v>
       </c>
       <c r="F18" s="3">
-        <v>4476900</v>
+        <v>4344500</v>
       </c>
       <c r="G18" s="3">
-        <v>3775900</v>
+        <v>3664200</v>
       </c>
       <c r="H18" s="3">
-        <v>2537900</v>
+        <v>2462800</v>
       </c>
       <c r="I18" s="3">
-        <v>1952200</v>
+        <v>1894400</v>
       </c>
       <c r="J18" s="3">
-        <v>-181800</v>
+        <v>-176500</v>
       </c>
       <c r="K18" s="3">
         <v>2584400</v>
@@ -1124,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1079400</v>
+        <v>1047400</v>
       </c>
       <c r="E20" s="3">
-        <v>1184600</v>
+        <v>1149600</v>
       </c>
       <c r="F20" s="3">
-        <v>1341700</v>
+        <v>1302000</v>
       </c>
       <c r="G20" s="3">
-        <v>1032200</v>
+        <v>1001600</v>
       </c>
       <c r="H20" s="3">
-        <v>1620200</v>
+        <v>1572300</v>
       </c>
       <c r="I20" s="3">
-        <v>152400</v>
+        <v>147900</v>
       </c>
       <c r="J20" s="3">
-        <v>475900</v>
+        <v>461800</v>
       </c>
       <c r="K20" s="3">
         <v>573100</v>
@@ -1163,25 +1163,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5447200</v>
+        <v>5263000</v>
       </c>
       <c r="E21" s="3">
-        <v>7673100</v>
+        <v>7422400</v>
       </c>
       <c r="F21" s="3">
-        <v>7719100</v>
+        <v>7468200</v>
       </c>
       <c r="G21" s="3">
-        <v>6620700</v>
+        <v>6403200</v>
       </c>
       <c r="H21" s="3">
-        <v>5743200</v>
+        <v>5554400</v>
       </c>
       <c r="I21" s="3">
-        <v>3600200</v>
+        <v>3475900</v>
       </c>
       <c r="J21" s="3">
-        <v>1655400</v>
+        <v>1590200</v>
       </c>
       <c r="K21" s="3">
         <v>4417500</v>
@@ -1202,25 +1202,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1826100</v>
+        <v>1772000</v>
       </c>
       <c r="E22" s="3">
-        <v>1723900</v>
+        <v>1672900</v>
       </c>
       <c r="F22" s="3">
-        <v>1805200</v>
+        <v>1751800</v>
       </c>
       <c r="G22" s="3">
-        <v>1752500</v>
+        <v>1700700</v>
       </c>
       <c r="H22" s="3">
-        <v>1600100</v>
+        <v>1552800</v>
       </c>
       <c r="I22" s="3">
-        <v>1457000</v>
+        <v>1413900</v>
       </c>
       <c r="J22" s="3">
-        <v>1149800</v>
+        <v>1115800</v>
       </c>
       <c r="K22" s="3">
         <v>940500</v>
@@ -1241,25 +1241,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1675900</v>
+        <v>1626400</v>
       </c>
       <c r="E23" s="3">
-        <v>3951500</v>
+        <v>3834600</v>
       </c>
       <c r="F23" s="3">
-        <v>4013400</v>
+        <v>3894700</v>
       </c>
       <c r="G23" s="3">
-        <v>3055500</v>
+        <v>2965100</v>
       </c>
       <c r="H23" s="3">
-        <v>2558000</v>
+        <v>2482300</v>
       </c>
       <c r="I23" s="3">
-        <v>647600</v>
+        <v>628500</v>
       </c>
       <c r="J23" s="3">
-        <v>-855800</v>
+        <v>-830500</v>
       </c>
       <c r="K23" s="3">
         <v>2217000</v>
@@ -1280,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92900</v>
+        <v>90100</v>
       </c>
       <c r="E24" s="3">
-        <v>150100</v>
+        <v>145700</v>
       </c>
       <c r="F24" s="3">
-        <v>583400</v>
+        <v>566100</v>
       </c>
       <c r="G24" s="3">
-        <v>463500</v>
+        <v>449800</v>
       </c>
       <c r="H24" s="3">
-        <v>553200</v>
+        <v>536900</v>
       </c>
       <c r="I24" s="3">
-        <v>272400</v>
+        <v>264300</v>
       </c>
       <c r="J24" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="K24" s="3">
         <v>652400</v>
@@ -1358,25 +1358,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1583100</v>
+        <v>1536300</v>
       </c>
       <c r="E26" s="3">
-        <v>3801400</v>
+        <v>3689000</v>
       </c>
       <c r="F26" s="3">
-        <v>3430000</v>
+        <v>3328600</v>
       </c>
       <c r="G26" s="3">
-        <v>2592100</v>
+        <v>2515400</v>
       </c>
       <c r="H26" s="3">
-        <v>2004800</v>
+        <v>1945500</v>
       </c>
       <c r="I26" s="3">
-        <v>375300</v>
+        <v>364200</v>
       </c>
       <c r="J26" s="3">
-        <v>-882100</v>
+        <v>-856000</v>
       </c>
       <c r="K26" s="3">
         <v>1564600</v>
@@ -1397,25 +1397,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1404400</v>
+        <v>1362800</v>
       </c>
       <c r="E27" s="3">
-        <v>3448600</v>
+        <v>3346600</v>
       </c>
       <c r="F27" s="3">
-        <v>3076400</v>
+        <v>2985400</v>
       </c>
       <c r="G27" s="3">
-        <v>2609100</v>
+        <v>2531900</v>
       </c>
       <c r="H27" s="3">
-        <v>1696800</v>
+        <v>1646600</v>
       </c>
       <c r="I27" s="3">
-        <v>95900</v>
+        <v>93100</v>
       </c>
       <c r="J27" s="3">
-        <v>-959500</v>
+        <v>-931100</v>
       </c>
       <c r="K27" s="3">
         <v>1368300</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>129200</v>
+        <v>125400</v>
       </c>
       <c r="H29" s="3">
-        <v>622100</v>
+        <v>603700</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1592,25 +1592,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1079400</v>
+        <v>-1047400</v>
       </c>
       <c r="E32" s="3">
-        <v>-1184600</v>
+        <v>-1149600</v>
       </c>
       <c r="F32" s="3">
-        <v>-1341700</v>
+        <v>-1302000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1032200</v>
+        <v>-1001600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1620200</v>
+        <v>-1572300</v>
       </c>
       <c r="I32" s="3">
-        <v>-152400</v>
+        <v>-147900</v>
       </c>
       <c r="J32" s="3">
-        <v>-475900</v>
+        <v>-461800</v>
       </c>
       <c r="K32" s="3">
         <v>-573100</v>
@@ -1631,25 +1631,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1404400</v>
+        <v>1362800</v>
       </c>
       <c r="E33" s="3">
-        <v>3448600</v>
+        <v>3346600</v>
       </c>
       <c r="F33" s="3">
-        <v>3076400</v>
+        <v>2985400</v>
       </c>
       <c r="G33" s="3">
-        <v>2738300</v>
+        <v>2657300</v>
       </c>
       <c r="H33" s="3">
-        <v>2318900</v>
+        <v>2250300</v>
       </c>
       <c r="I33" s="3">
-        <v>95900</v>
+        <v>93100</v>
       </c>
       <c r="J33" s="3">
-        <v>-959500</v>
+        <v>-931100</v>
       </c>
       <c r="K33" s="3">
         <v>1368300</v>
@@ -1709,25 +1709,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1404400</v>
+        <v>1362800</v>
       </c>
       <c r="E35" s="3">
-        <v>3448600</v>
+        <v>3346600</v>
       </c>
       <c r="F35" s="3">
-        <v>3076400</v>
+        <v>2985400</v>
       </c>
       <c r="G35" s="3">
-        <v>2738300</v>
+        <v>2657300</v>
       </c>
       <c r="H35" s="3">
-        <v>2318900</v>
+        <v>2250300</v>
       </c>
       <c r="I35" s="3">
-        <v>95900</v>
+        <v>93100</v>
       </c>
       <c r="J35" s="3">
-        <v>-959500</v>
+        <v>-931100</v>
       </c>
       <c r="K35" s="3">
         <v>1368300</v>
@@ -1826,25 +1826,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>520700</v>
+        <v>505300</v>
       </c>
       <c r="E41" s="3">
-        <v>1183800</v>
+        <v>1148800</v>
       </c>
       <c r="F41" s="3">
-        <v>1039100</v>
+        <v>1008400</v>
       </c>
       <c r="G41" s="3">
-        <v>345100</v>
+        <v>334900</v>
       </c>
       <c r="H41" s="3">
-        <v>842600</v>
+        <v>817700</v>
       </c>
       <c r="I41" s="3">
-        <v>786100</v>
+        <v>762900</v>
       </c>
       <c r="J41" s="3">
-        <v>657700</v>
+        <v>638200</v>
       </c>
       <c r="K41" s="3">
         <v>383900</v>
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>145500</v>
+        <v>141200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>554800</v>
+        <v>538400</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1904,25 +1904,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3490400</v>
+        <v>3387100</v>
       </c>
       <c r="E43" s="3">
-        <v>1775000</v>
+        <v>1722500</v>
       </c>
       <c r="F43" s="3">
-        <v>1992400</v>
+        <v>1933500</v>
       </c>
       <c r="G43" s="3">
-        <v>2084500</v>
+        <v>2022800</v>
       </c>
       <c r="H43" s="3">
-        <v>1951400</v>
+        <v>1893700</v>
       </c>
       <c r="I43" s="3">
-        <v>1605500</v>
+        <v>1558000</v>
       </c>
       <c r="J43" s="3">
-        <v>1073200</v>
+        <v>1041400</v>
       </c>
       <c r="K43" s="3">
         <v>1030800</v>
@@ -1943,25 +1943,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>560200</v>
+        <v>543600</v>
       </c>
       <c r="E44" s="3">
-        <v>486700</v>
+        <v>472300</v>
       </c>
       <c r="F44" s="3">
-        <v>349700</v>
+        <v>339400</v>
       </c>
       <c r="G44" s="3">
-        <v>333500</v>
+        <v>323600</v>
       </c>
       <c r="H44" s="3">
-        <v>292500</v>
+        <v>283800</v>
       </c>
       <c r="I44" s="3">
-        <v>284700</v>
+        <v>276300</v>
       </c>
       <c r="J44" s="3">
-        <v>249900</v>
+        <v>242500</v>
       </c>
       <c r="K44" s="3">
         <v>229200</v>
@@ -1982,25 +1982,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1172200</v>
+        <v>1137600</v>
       </c>
       <c r="E45" s="3">
-        <v>433300</v>
+        <v>420500</v>
       </c>
       <c r="F45" s="3">
-        <v>2538700</v>
+        <v>2463600</v>
       </c>
       <c r="G45" s="3">
-        <v>655400</v>
+        <v>636000</v>
       </c>
       <c r="H45" s="3">
-        <v>534700</v>
+        <v>518800</v>
       </c>
       <c r="I45" s="3">
-        <v>3578600</v>
+        <v>3472700</v>
       </c>
       <c r="J45" s="3">
-        <v>1584600</v>
+        <v>1537800</v>
       </c>
       <c r="K45" s="3">
         <v>1935100</v>
@@ -2021,25 +2021,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5743500</v>
+        <v>5573600</v>
       </c>
       <c r="E46" s="3">
-        <v>4024300</v>
+        <v>3905200</v>
       </c>
       <c r="F46" s="3">
-        <v>5920000</v>
+        <v>5744800</v>
       </c>
       <c r="G46" s="3">
-        <v>3973200</v>
+        <v>3855700</v>
       </c>
       <c r="H46" s="3">
-        <v>3621200</v>
+        <v>3514000</v>
       </c>
       <c r="I46" s="3">
-        <v>6255000</v>
+        <v>6070000</v>
       </c>
       <c r="J46" s="3">
-        <v>3031600</v>
+        <v>2941900</v>
       </c>
       <c r="K46" s="3">
         <v>2443900</v>
@@ -2060,25 +2060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6908000</v>
+        <v>6703700</v>
       </c>
       <c r="E47" s="3">
-        <v>6364900</v>
+        <v>6176600</v>
       </c>
       <c r="F47" s="3">
-        <v>6143600</v>
+        <v>5961800</v>
       </c>
       <c r="G47" s="3">
-        <v>6559900</v>
+        <v>6365800</v>
       </c>
       <c r="H47" s="3">
-        <v>5690200</v>
+        <v>5521800</v>
       </c>
       <c r="I47" s="3">
-        <v>5154700</v>
+        <v>5002200</v>
       </c>
       <c r="J47" s="3">
-        <v>5028600</v>
+        <v>4879800</v>
       </c>
       <c r="K47" s="3">
         <v>4583100</v>
@@ -2099,25 +2099,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54303300</v>
+        <v>52696900</v>
       </c>
       <c r="E48" s="3">
-        <v>53988400</v>
+        <v>52391300</v>
       </c>
       <c r="F48" s="3">
-        <v>50672100</v>
+        <v>49173100</v>
       </c>
       <c r="G48" s="3">
-        <v>51456700</v>
+        <v>49934400</v>
       </c>
       <c r="H48" s="3">
-        <v>44318100</v>
+        <v>43007000</v>
       </c>
       <c r="I48" s="3">
-        <v>42150000</v>
+        <v>40903100</v>
       </c>
       <c r="J48" s="3">
-        <v>69354300</v>
+        <v>67302600</v>
       </c>
       <c r="K48" s="3">
         <v>65589400</v>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9735300</v>
+        <v>9447300</v>
       </c>
       <c r="E49" s="3">
-        <v>9810400</v>
+        <v>9520200</v>
       </c>
       <c r="F49" s="3">
-        <v>9971300</v>
+        <v>9676300</v>
       </c>
       <c r="G49" s="3">
-        <v>10970200</v>
+        <v>10645700</v>
       </c>
       <c r="H49" s="3">
-        <v>10123700</v>
+        <v>9824300</v>
       </c>
       <c r="I49" s="3">
-        <v>10800000</v>
+        <v>10480500</v>
       </c>
       <c r="J49" s="3">
-        <v>6163700</v>
+        <v>5981400</v>
       </c>
       <c r="K49" s="3">
         <v>4603500</v>
@@ -2255,25 +2255,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3948400</v>
+        <v>3831600</v>
       </c>
       <c r="E52" s="3">
-        <v>3419200</v>
+        <v>3318100</v>
       </c>
       <c r="F52" s="3">
-        <v>4110200</v>
+        <v>3988600</v>
       </c>
       <c r="G52" s="3">
-        <v>3579400</v>
+        <v>3473500</v>
       </c>
       <c r="H52" s="3">
-        <v>2867500</v>
+        <v>2782700</v>
       </c>
       <c r="I52" s="3">
-        <v>3769700</v>
+        <v>3658200</v>
       </c>
       <c r="J52" s="3">
-        <v>3266000</v>
+        <v>3169400</v>
       </c>
       <c r="K52" s="3">
         <v>1733400</v>
@@ -2333,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80638700</v>
+        <v>78253100</v>
       </c>
       <c r="E54" s="3">
-        <v>77607100</v>
+        <v>75311300</v>
       </c>
       <c r="F54" s="3">
-        <v>76817100</v>
+        <v>74544600</v>
       </c>
       <c r="G54" s="3">
-        <v>76539400</v>
+        <v>74275100</v>
       </c>
       <c r="H54" s="3">
-        <v>66620600</v>
+        <v>64649800</v>
       </c>
       <c r="I54" s="3">
-        <v>68129500</v>
+        <v>66114000</v>
       </c>
       <c r="J54" s="3">
-        <v>49828000</v>
+        <v>48353900</v>
       </c>
       <c r="K54" s="3">
         <v>45945100</v>
@@ -2406,25 +2406,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3236600</v>
+        <v>3140800</v>
       </c>
       <c r="E57" s="3">
-        <v>2365400</v>
+        <v>2295400</v>
       </c>
       <c r="F57" s="3">
-        <v>2888400</v>
+        <v>2803000</v>
       </c>
       <c r="G57" s="3">
-        <v>3013800</v>
+        <v>2924600</v>
       </c>
       <c r="H57" s="3">
-        <v>2839700</v>
+        <v>2755700</v>
       </c>
       <c r="I57" s="3">
-        <v>2135600</v>
+        <v>2072400</v>
       </c>
       <c r="J57" s="3">
-        <v>2829600</v>
+        <v>2745900</v>
       </c>
       <c r="K57" s="3">
         <v>1274900</v>
@@ -2445,25 +2445,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5018500</v>
+        <v>4870100</v>
       </c>
       <c r="E58" s="3">
-        <v>4757000</v>
+        <v>4616300</v>
       </c>
       <c r="F58" s="3">
-        <v>5420100</v>
+        <v>5259800</v>
       </c>
       <c r="G58" s="3">
-        <v>4815800</v>
+        <v>4673400</v>
       </c>
       <c r="H58" s="3">
-        <v>3581700</v>
+        <v>3475700</v>
       </c>
       <c r="I58" s="3">
-        <v>2021000</v>
+        <v>1961200</v>
       </c>
       <c r="J58" s="3">
-        <v>2913200</v>
+        <v>2827000</v>
       </c>
       <c r="K58" s="3">
         <v>3347500</v>
@@ -2484,25 +2484,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1835300</v>
+        <v>1781000</v>
       </c>
       <c r="E59" s="3">
-        <v>2152600</v>
+        <v>2088900</v>
       </c>
       <c r="F59" s="3">
-        <v>1672100</v>
+        <v>1622600</v>
       </c>
       <c r="G59" s="3">
-        <v>2187400</v>
+        <v>2122700</v>
       </c>
       <c r="H59" s="3">
-        <v>1221000</v>
+        <v>1184900</v>
       </c>
       <c r="I59" s="3">
-        <v>1785800</v>
+        <v>1733000</v>
       </c>
       <c r="J59" s="3">
-        <v>1574600</v>
+        <v>1528000</v>
       </c>
       <c r="K59" s="3">
         <v>1331400</v>
@@ -2523,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10090500</v>
+        <v>9792000</v>
       </c>
       <c r="E60" s="3">
-        <v>9274900</v>
+        <v>9000600</v>
       </c>
       <c r="F60" s="3">
-        <v>9980600</v>
+        <v>9685300</v>
       </c>
       <c r="G60" s="3">
-        <v>10017000</v>
+        <v>9720600</v>
       </c>
       <c r="H60" s="3">
-        <v>7642300</v>
+        <v>7416200</v>
       </c>
       <c r="I60" s="3">
-        <v>5942400</v>
+        <v>5766600</v>
       </c>
       <c r="J60" s="3">
-        <v>5696300</v>
+        <v>5527800</v>
       </c>
       <c r="K60" s="3">
         <v>5950700</v>
@@ -2562,25 +2562,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>35809200</v>
+        <v>34749800</v>
       </c>
       <c r="E61" s="3">
-        <v>33589300</v>
+        <v>32595600</v>
       </c>
       <c r="F61" s="3">
-        <v>33189200</v>
+        <v>32207400</v>
       </c>
       <c r="G61" s="3">
-        <v>34058200</v>
+        <v>33050600</v>
       </c>
       <c r="H61" s="3">
-        <v>30084900</v>
+        <v>29194900</v>
       </c>
       <c r="I61" s="3">
-        <v>32685500</v>
+        <v>31718600</v>
       </c>
       <c r="J61" s="3">
-        <v>24232300</v>
+        <v>23515400</v>
       </c>
       <c r="K61" s="3">
         <v>18935400</v>
@@ -2601,25 +2601,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8898900</v>
+        <v>8635600</v>
       </c>
       <c r="E62" s="3">
-        <v>8843200</v>
+        <v>8581600</v>
       </c>
       <c r="F62" s="3">
-        <v>8580100</v>
+        <v>8326300</v>
       </c>
       <c r="G62" s="3">
-        <v>8483400</v>
+        <v>8232400</v>
       </c>
       <c r="H62" s="3">
-        <v>8086500</v>
+        <v>7847200</v>
       </c>
       <c r="I62" s="3">
-        <v>9397200</v>
+        <v>9119200</v>
       </c>
       <c r="J62" s="3">
-        <v>6826800</v>
+        <v>6624800</v>
       </c>
       <c r="K62" s="3">
         <v>4845300</v>
@@ -2757,25 +2757,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54895200</v>
+        <v>53271300</v>
       </c>
       <c r="E66" s="3">
-        <v>53312900</v>
+        <v>51735800</v>
       </c>
       <c r="F66" s="3">
-        <v>53014300</v>
+        <v>51445900</v>
       </c>
       <c r="G66" s="3">
-        <v>53839100</v>
+        <v>52246300</v>
       </c>
       <c r="H66" s="3">
-        <v>47246700</v>
+        <v>45849000</v>
       </c>
       <c r="I66" s="3">
-        <v>49360600</v>
+        <v>47900400</v>
       </c>
       <c r="J66" s="3">
-        <v>37109100</v>
+        <v>36011200</v>
       </c>
       <c r="K66" s="3">
         <v>30974100</v>
@@ -2891,25 +2891,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2698100</v>
+        <v>2618200</v>
       </c>
       <c r="E70" s="3">
-        <v>3079500</v>
+        <v>2988400</v>
       </c>
       <c r="F70" s="3">
-        <v>3079500</v>
+        <v>2988400</v>
       </c>
       <c r="G70" s="3">
-        <v>3079500</v>
+        <v>2988400</v>
       </c>
       <c r="H70" s="3">
-        <v>3079500</v>
+        <v>2988400</v>
       </c>
       <c r="I70" s="3">
-        <v>3079500</v>
+        <v>2988400</v>
       </c>
       <c r="J70" s="3">
-        <v>1933600</v>
+        <v>1876400</v>
       </c>
       <c r="K70" s="3">
         <v>1770300</v>
@@ -2969,25 +2969,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2919400</v>
+        <v>2833000</v>
       </c>
       <c r="E72" s="3">
-        <v>4152700</v>
+        <v>4029900</v>
       </c>
       <c r="F72" s="3">
-        <v>3060200</v>
+        <v>2969700</v>
       </c>
       <c r="G72" s="3">
-        <v>2145600</v>
+        <v>2082100</v>
       </c>
       <c r="H72" s="3">
-        <v>1255800</v>
+        <v>1218600</v>
       </c>
       <c r="I72" s="3">
-        <v>880500</v>
+        <v>854500</v>
       </c>
       <c r="J72" s="3">
-        <v>2142500</v>
+        <v>2079100</v>
       </c>
       <c r="K72" s="3">
         <v>4300500</v>
@@ -3125,25 +3125,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23045300</v>
+        <v>22363700</v>
       </c>
       <c r="E76" s="3">
-        <v>21214700</v>
+        <v>20587100</v>
       </c>
       <c r="F76" s="3">
-        <v>20723400</v>
+        <v>20110300</v>
       </c>
       <c r="G76" s="3">
-        <v>19620800</v>
+        <v>19040300</v>
       </c>
       <c r="H76" s="3">
-        <v>16294400</v>
+        <v>15812400</v>
       </c>
       <c r="I76" s="3">
-        <v>15689400</v>
+        <v>15225200</v>
       </c>
       <c r="J76" s="3">
-        <v>10785300</v>
+        <v>10466200</v>
       </c>
       <c r="K76" s="3">
         <v>13200600</v>
@@ -3247,25 +3247,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1404400</v>
+        <v>1362800</v>
       </c>
       <c r="E81" s="3">
-        <v>3448600</v>
+        <v>3346600</v>
       </c>
       <c r="F81" s="3">
-        <v>3076400</v>
+        <v>2985400</v>
       </c>
       <c r="G81" s="3">
-        <v>2738300</v>
+        <v>2657300</v>
       </c>
       <c r="H81" s="3">
-        <v>2318900</v>
+        <v>2250300</v>
       </c>
       <c r="I81" s="3">
-        <v>95900</v>
+        <v>93100</v>
       </c>
       <c r="J81" s="3">
-        <v>-959500</v>
+        <v>-931100</v>
       </c>
       <c r="K81" s="3">
         <v>1368300</v>
@@ -3303,25 +3303,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1951400</v>
+        <v>1893700</v>
       </c>
       <c r="E83" s="3">
-        <v>2004000</v>
+        <v>1944700</v>
       </c>
       <c r="F83" s="3">
-        <v>1906500</v>
+        <v>1850100</v>
       </c>
       <c r="G83" s="3">
-        <v>1818300</v>
+        <v>1764500</v>
       </c>
       <c r="H83" s="3">
-        <v>1590100</v>
+        <v>1543000</v>
       </c>
       <c r="I83" s="3">
-        <v>1500300</v>
+        <v>1455900</v>
       </c>
       <c r="J83" s="3">
-        <v>1365700</v>
+        <v>1325300</v>
       </c>
       <c r="K83" s="3">
         <v>1264700</v>
@@ -3537,25 +3537,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5331100</v>
+        <v>5173400</v>
       </c>
       <c r="E89" s="3">
-        <v>5461100</v>
+        <v>5299600</v>
       </c>
       <c r="F89" s="3">
-        <v>5479700</v>
+        <v>5317600</v>
       </c>
       <c r="G89" s="3">
-        <v>5071900</v>
+        <v>4921900</v>
       </c>
       <c r="H89" s="3">
-        <v>4046700</v>
+        <v>3927000</v>
       </c>
       <c r="I89" s="3">
-        <v>3922100</v>
+        <v>3806100</v>
       </c>
       <c r="J89" s="3">
-        <v>3184000</v>
+        <v>3089800</v>
       </c>
       <c r="K89" s="3">
         <v>3202200</v>
@@ -3593,25 +3593,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4583700</v>
+        <v>-4448100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6294500</v>
+        <v>-6108200</v>
       </c>
       <c r="F91" s="3">
-        <v>-6330800</v>
+        <v>-6143500</v>
       </c>
       <c r="G91" s="3">
-        <v>-7671000</v>
+        <v>-7444000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5825600</v>
+        <v>-5653200</v>
       </c>
       <c r="I91" s="3">
-        <v>-4102400</v>
+        <v>-3981100</v>
       </c>
       <c r="J91" s="3">
-        <v>-3426900</v>
+        <v>-3325600</v>
       </c>
       <c r="K91" s="3">
         <v>-3420500</v>
@@ -3710,25 +3710,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5967200</v>
+        <v>-5790600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4682700</v>
+        <v>-4544200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5317200</v>
+        <v>-5159900</v>
       </c>
       <c r="G94" s="3">
-        <v>-7752200</v>
+        <v>-7522900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2862100</v>
+        <v>-2777400</v>
       </c>
       <c r="I94" s="3">
-        <v>-14533300</v>
+        <v>-14103400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3567000</v>
+        <v>-3461500</v>
       </c>
       <c r="K94" s="3">
         <v>-3253200</v>
@@ -3766,25 +3766,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2675600</v>
+        <v>-2596500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2434200</v>
+        <v>-2362200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1515000</v>
+        <v>-1470200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1337800</v>
+        <v>-1298200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1156000</v>
+        <v>-1121800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1188500</v>
+        <v>-1153300</v>
       </c>
       <c r="J96" s="3">
-        <v>-1190000</v>
+        <v>-1154800</v>
       </c>
       <c r="K96" s="3">
         <v>-1129700</v>
@@ -3922,25 +3922,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-68100</v>
+        <v>-66100</v>
       </c>
       <c r="E100" s="3">
-        <v>-619000</v>
+        <v>-600700</v>
       </c>
       <c r="F100" s="3">
-        <v>536200</v>
+        <v>520300</v>
       </c>
       <c r="G100" s="3">
-        <v>2126300</v>
+        <v>2063400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1098000</v>
+        <v>-1065500</v>
       </c>
       <c r="I100" s="3">
-        <v>10837900</v>
+        <v>10517300</v>
       </c>
       <c r="J100" s="3">
-        <v>575700</v>
+        <v>558600</v>
       </c>
       <c r="K100" s="3">
         <v>-292800</v>
@@ -3961,25 +3961,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="E101" s="3">
-        <v>-14700</v>
+        <v>-14300</v>
       </c>
       <c r="F101" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G101" s="3">
-        <v>56500</v>
+        <v>54800</v>
       </c>
       <c r="H101" s="3">
-        <v>-30200</v>
+        <v>-29300</v>
       </c>
       <c r="I101" s="3">
-        <v>-98300</v>
+        <v>-95400</v>
       </c>
       <c r="J101" s="3">
-        <v>86700</v>
+        <v>84100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4000,25 +4000,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-663100</v>
+        <v>-643500</v>
       </c>
       <c r="E102" s="3">
-        <v>144700</v>
+        <v>140400</v>
       </c>
       <c r="F102" s="3">
-        <v>694100</v>
+        <v>673500</v>
       </c>
       <c r="G102" s="3">
-        <v>-497500</v>
+        <v>-482800</v>
       </c>
       <c r="H102" s="3">
-        <v>56500</v>
+        <v>54800</v>
       </c>
       <c r="I102" s="3">
-        <v>128400</v>
+        <v>124600</v>
       </c>
       <c r="J102" s="3">
-        <v>279300</v>
+        <v>271100</v>
       </c>
       <c r="K102" s="3">
         <v>-343900</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TRP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10051800</v>
+        <v>10831700</v>
       </c>
       <c r="E8" s="3">
-        <v>9760400</v>
+        <v>9681700</v>
       </c>
       <c r="F8" s="3">
-        <v>9952600</v>
+        <v>9401100</v>
       </c>
       <c r="G8" s="3">
-        <v>10271000</v>
+        <v>9586300</v>
       </c>
       <c r="H8" s="3">
-        <v>10098300</v>
+        <v>9892900</v>
       </c>
       <c r="I8" s="3">
-        <v>9421000</v>
+        <v>9726600</v>
       </c>
       <c r="J8" s="3">
+        <v>9074200</v>
+      </c>
+      <c r="K8" s="3">
         <v>8524500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7995700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6772100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6027600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6022200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3077000</v>
+        <v>3566900</v>
       </c>
       <c r="E9" s="3">
-        <v>2911800</v>
+        <v>2963800</v>
       </c>
       <c r="F9" s="3">
-        <v>2935100</v>
+        <v>2804600</v>
       </c>
       <c r="G9" s="3">
-        <v>2696300</v>
+        <v>2827100</v>
       </c>
       <c r="H9" s="3">
-        <v>2932900</v>
+        <v>2597100</v>
       </c>
       <c r="I9" s="3">
-        <v>2899100</v>
+        <v>2824900</v>
       </c>
       <c r="J9" s="3">
+        <v>2792400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2480100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2334000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2058500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1939900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2572800</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6974700</v>
+        <v>7264700</v>
       </c>
       <c r="E10" s="3">
-        <v>6848600</v>
+        <v>6718000</v>
       </c>
       <c r="F10" s="3">
-        <v>7017500</v>
+        <v>6596500</v>
       </c>
       <c r="G10" s="3">
-        <v>7574700</v>
+        <v>6759200</v>
       </c>
       <c r="H10" s="3">
-        <v>7165500</v>
+        <v>7295800</v>
       </c>
       <c r="I10" s="3">
-        <v>6522000</v>
+        <v>6901700</v>
       </c>
       <c r="J10" s="3">
+        <v>6281900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6044400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5661800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4713600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4087600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3449400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,38 +946,41 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2083600</v>
+        <v>2532000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>2006900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>601400</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>943800</v>
+        <v>579300</v>
       </c>
       <c r="I14" s="3">
-        <v>1124000</v>
+        <v>909100</v>
       </c>
       <c r="J14" s="3">
+        <v>1082700</v>
+      </c>
+      <c r="K14" s="3">
         <v>2827700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -969,48 +988,54 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1893700</v>
+        <v>1868800</v>
       </c>
       <c r="E15" s="3">
-        <v>1944700</v>
+        <v>1824000</v>
       </c>
       <c r="F15" s="3">
-        <v>1850100</v>
+        <v>1873100</v>
       </c>
       <c r="G15" s="3">
-        <v>1764500</v>
+        <v>1782000</v>
       </c>
       <c r="H15" s="3">
-        <v>1543000</v>
+        <v>1699600</v>
       </c>
       <c r="I15" s="3">
-        <v>1455900</v>
+        <v>1486200</v>
       </c>
       <c r="J15" s="3">
+        <v>1402300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1325300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1264700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1143200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1035100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1020200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7700800</v>
+        <v>8967200</v>
       </c>
       <c r="E17" s="3">
-        <v>5402400</v>
+        <v>7417300</v>
       </c>
       <c r="F17" s="3">
-        <v>5608200</v>
+        <v>5203600</v>
       </c>
       <c r="G17" s="3">
-        <v>6606800</v>
+        <v>5401700</v>
       </c>
       <c r="H17" s="3">
-        <v>7635500</v>
+        <v>6363600</v>
       </c>
       <c r="I17" s="3">
-        <v>7526600</v>
+        <v>7354400</v>
       </c>
       <c r="J17" s="3">
+        <v>7249600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8701000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5411300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4558100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4091400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3908000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2350900</v>
+        <v>1864500</v>
       </c>
       <c r="E18" s="3">
-        <v>4358000</v>
+        <v>2264400</v>
       </c>
       <c r="F18" s="3">
-        <v>4344500</v>
+        <v>4197600</v>
       </c>
       <c r="G18" s="3">
-        <v>3664200</v>
+        <v>4184600</v>
       </c>
       <c r="H18" s="3">
-        <v>2462800</v>
+        <v>3529300</v>
       </c>
       <c r="I18" s="3">
-        <v>1894400</v>
+        <v>2372200</v>
       </c>
       <c r="J18" s="3">
+        <v>1824700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-176500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2584400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2214000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1936200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2114200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1047400</v>
+        <v>1000900</v>
       </c>
       <c r="E20" s="3">
-        <v>1149600</v>
+        <v>1008900</v>
       </c>
       <c r="F20" s="3">
-        <v>1302000</v>
+        <v>1107200</v>
       </c>
       <c r="G20" s="3">
-        <v>1001600</v>
+        <v>1254100</v>
       </c>
       <c r="H20" s="3">
-        <v>1572300</v>
+        <v>964800</v>
       </c>
       <c r="I20" s="3">
-        <v>147900</v>
+        <v>1514400</v>
       </c>
       <c r="J20" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K20" s="3">
         <v>461800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>573100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>501900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-310900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>399500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5263000</v>
+        <v>4737300</v>
       </c>
       <c r="E21" s="3">
-        <v>7422400</v>
+        <v>5100300</v>
       </c>
       <c r="F21" s="3">
-        <v>7468200</v>
+        <v>7181100</v>
       </c>
       <c r="G21" s="3">
-        <v>6403200</v>
+        <v>7223600</v>
       </c>
       <c r="H21" s="3">
-        <v>5554400</v>
+        <v>6196500</v>
       </c>
       <c r="I21" s="3">
-        <v>3475900</v>
+        <v>5375300</v>
       </c>
       <c r="J21" s="3">
+        <v>3371800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1590200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4417500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3857100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2660800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3538700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1772000</v>
+        <v>1871700</v>
       </c>
       <c r="E22" s="3">
-        <v>1672900</v>
+        <v>1706800</v>
       </c>
       <c r="F22" s="3">
-        <v>1751800</v>
+        <v>1611300</v>
       </c>
       <c r="G22" s="3">
-        <v>1700700</v>
+        <v>1687300</v>
       </c>
       <c r="H22" s="3">
-        <v>1552800</v>
+        <v>1638100</v>
       </c>
       <c r="I22" s="3">
-        <v>1413900</v>
+        <v>1495600</v>
       </c>
       <c r="J22" s="3">
+        <v>1361800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1115800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>940500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>774400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>166400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>758200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1626400</v>
+        <v>993700</v>
       </c>
       <c r="E23" s="3">
-        <v>3834600</v>
+        <v>1566500</v>
       </c>
       <c r="F23" s="3">
-        <v>3894700</v>
+        <v>3693500</v>
       </c>
       <c r="G23" s="3">
-        <v>2965100</v>
+        <v>3751300</v>
       </c>
       <c r="H23" s="3">
-        <v>2482300</v>
+        <v>2856000</v>
       </c>
       <c r="I23" s="3">
-        <v>628500</v>
+        <v>2391000</v>
       </c>
       <c r="J23" s="3">
+        <v>605300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-830500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2217000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1941500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1458900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1755400</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90100</v>
+        <v>426000</v>
       </c>
       <c r="E24" s="3">
-        <v>145700</v>
+        <v>86800</v>
       </c>
       <c r="F24" s="3">
-        <v>566100</v>
+        <v>140300</v>
       </c>
       <c r="G24" s="3">
-        <v>449800</v>
+        <v>545300</v>
       </c>
       <c r="H24" s="3">
-        <v>536900</v>
+        <v>433200</v>
       </c>
       <c r="I24" s="3">
-        <v>264300</v>
+        <v>517100</v>
       </c>
       <c r="J24" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K24" s="3">
         <v>25500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>652400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>470400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>350800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>441700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1536300</v>
+        <v>567700</v>
       </c>
       <c r="E26" s="3">
-        <v>3689000</v>
+        <v>1479700</v>
       </c>
       <c r="F26" s="3">
-        <v>3328600</v>
+        <v>3553200</v>
       </c>
       <c r="G26" s="3">
-        <v>2515400</v>
+        <v>3206000</v>
       </c>
       <c r="H26" s="3">
-        <v>1945500</v>
+        <v>2422800</v>
       </c>
       <c r="I26" s="3">
-        <v>364200</v>
+        <v>1873900</v>
       </c>
       <c r="J26" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-856000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1564600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1471100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1108100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1313700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1362800</v>
+        <v>463600</v>
       </c>
       <c r="E27" s="3">
-        <v>3346600</v>
+        <v>1312600</v>
       </c>
       <c r="F27" s="3">
-        <v>2985400</v>
+        <v>3223400</v>
       </c>
       <c r="G27" s="3">
-        <v>2531900</v>
+        <v>2875500</v>
       </c>
       <c r="H27" s="3">
-        <v>1646600</v>
+        <v>2438700</v>
       </c>
       <c r="I27" s="3">
-        <v>93100</v>
+        <v>1586000</v>
       </c>
       <c r="J27" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-931100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1368300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1317900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>977900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1172300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,35 +1525,38 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>125400</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>603700</v>
+        <v>120800</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>581500</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1047400</v>
+        <v>-1000900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1149600</v>
+        <v>-1008900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1302000</v>
+        <v>-1107200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1001600</v>
+        <v>-1254100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1572300</v>
+        <v>-964800</v>
       </c>
       <c r="I32" s="3">
-        <v>-147900</v>
+        <v>-1514400</v>
       </c>
       <c r="J32" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-461800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-573100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-501900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>310900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-399500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1362800</v>
+        <v>463600</v>
       </c>
       <c r="E33" s="3">
-        <v>3346600</v>
+        <v>1312600</v>
       </c>
       <c r="F33" s="3">
-        <v>2985400</v>
+        <v>3223400</v>
       </c>
       <c r="G33" s="3">
-        <v>2657300</v>
+        <v>2875500</v>
       </c>
       <c r="H33" s="3">
-        <v>2250300</v>
+        <v>2559500</v>
       </c>
       <c r="I33" s="3">
-        <v>93100</v>
+        <v>2167500</v>
       </c>
       <c r="J33" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-931100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1368300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1317900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>977900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1172300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1362800</v>
+        <v>463600</v>
       </c>
       <c r="E35" s="3">
-        <v>3346600</v>
+        <v>1312600</v>
       </c>
       <c r="F35" s="3">
-        <v>2985400</v>
+        <v>3223400</v>
       </c>
       <c r="G35" s="3">
-        <v>2657300</v>
+        <v>2875500</v>
       </c>
       <c r="H35" s="3">
-        <v>2250300</v>
+        <v>2559500</v>
       </c>
       <c r="I35" s="3">
-        <v>93100</v>
+        <v>2167500</v>
       </c>
       <c r="J35" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-931100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1368300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1317900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>977900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1172300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,64 +1905,68 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>505300</v>
+        <v>448400</v>
       </c>
       <c r="E41" s="3">
-        <v>1148800</v>
+        <v>486700</v>
       </c>
       <c r="F41" s="3">
-        <v>1008400</v>
+        <v>1106500</v>
       </c>
       <c r="G41" s="3">
-        <v>334900</v>
+        <v>971300</v>
       </c>
       <c r="H41" s="3">
-        <v>817700</v>
+        <v>322600</v>
       </c>
       <c r="I41" s="3">
-        <v>762900</v>
+        <v>787600</v>
       </c>
       <c r="J41" s="3">
+        <v>734800</v>
+      </c>
+      <c r="K41" s="3">
         <v>638200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>383900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>713600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>414800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>502400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>141200</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>538400</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="F42" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H42" s="3">
+        <v>518500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1894,285 +1983,309 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3387100</v>
+        <v>2733000</v>
       </c>
       <c r="E43" s="3">
-        <v>1722500</v>
+        <v>3262400</v>
       </c>
       <c r="F43" s="3">
-        <v>1933500</v>
+        <v>1659100</v>
       </c>
       <c r="G43" s="3">
-        <v>2022800</v>
+        <v>1862300</v>
       </c>
       <c r="H43" s="3">
-        <v>1893700</v>
+        <v>1948400</v>
       </c>
       <c r="I43" s="3">
-        <v>1558000</v>
+        <v>1824000</v>
       </c>
       <c r="J43" s="3">
+        <v>1500700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1041400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1030800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>863700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>791900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>840400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>543600</v>
+        <v>676900</v>
       </c>
       <c r="E44" s="3">
-        <v>472300</v>
+        <v>523600</v>
       </c>
       <c r="F44" s="3">
-        <v>339400</v>
+        <v>454900</v>
       </c>
       <c r="G44" s="3">
-        <v>323600</v>
+        <v>326900</v>
       </c>
       <c r="H44" s="3">
-        <v>283800</v>
+        <v>311700</v>
       </c>
       <c r="I44" s="3">
-        <v>276300</v>
+        <v>273400</v>
       </c>
       <c r="J44" s="3">
+        <v>266100</v>
+      </c>
+      <c r="K44" s="3">
         <v>242500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>229200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>193200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>168600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>190500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1137600</v>
+        <v>1444300</v>
       </c>
       <c r="E45" s="3">
-        <v>420500</v>
+        <v>1095700</v>
       </c>
       <c r="F45" s="3">
-        <v>2463600</v>
+        <v>405000</v>
       </c>
       <c r="G45" s="3">
-        <v>636000</v>
+        <v>2372900</v>
       </c>
       <c r="H45" s="3">
-        <v>518800</v>
+        <v>612600</v>
       </c>
       <c r="I45" s="3">
-        <v>3472700</v>
+        <v>499700</v>
       </c>
       <c r="J45" s="3">
+        <v>3344900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1537800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1935100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>652000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>750500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>855800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5573600</v>
+        <v>5302600</v>
       </c>
       <c r="E46" s="3">
-        <v>3905200</v>
+        <v>5368500</v>
       </c>
       <c r="F46" s="3">
-        <v>5744800</v>
+        <v>3761500</v>
       </c>
       <c r="G46" s="3">
-        <v>3855700</v>
+        <v>5533400</v>
       </c>
       <c r="H46" s="3">
-        <v>3514000</v>
+        <v>3713700</v>
       </c>
       <c r="I46" s="3">
-        <v>6070000</v>
+        <v>3384700</v>
       </c>
       <c r="J46" s="3">
+        <v>5846500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2941900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2443900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2422600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2125900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2389200</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6703700</v>
+        <v>8523100</v>
       </c>
       <c r="E47" s="3">
-        <v>6176600</v>
+        <v>6456900</v>
       </c>
       <c r="F47" s="3">
-        <v>5961800</v>
+        <v>5949200</v>
       </c>
       <c r="G47" s="3">
-        <v>6365800</v>
+        <v>5742400</v>
       </c>
       <c r="H47" s="3">
-        <v>5521800</v>
+        <v>6131500</v>
       </c>
       <c r="I47" s="3">
-        <v>5002200</v>
+        <v>5318600</v>
       </c>
       <c r="J47" s="3">
+        <v>4818100</v>
+      </c>
+      <c r="K47" s="3">
         <v>4879800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4583100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4660500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4327800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4236000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>52696900</v>
+        <v>54921300</v>
       </c>
       <c r="E48" s="3">
-        <v>52391300</v>
+        <v>50757000</v>
       </c>
       <c r="F48" s="3">
-        <v>49173100</v>
+        <v>50462700</v>
       </c>
       <c r="G48" s="3">
-        <v>49934400</v>
+        <v>47363000</v>
       </c>
       <c r="H48" s="3">
-        <v>43007000</v>
+        <v>48096300</v>
       </c>
       <c r="I48" s="3">
-        <v>40903100</v>
+        <v>41423900</v>
       </c>
       <c r="J48" s="3">
+        <v>39397400</v>
+      </c>
+      <c r="K48" s="3">
         <v>67302600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65589400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28949900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25378800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>93656500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9447300</v>
+        <v>9288300</v>
       </c>
       <c r="E49" s="3">
-        <v>9520200</v>
+        <v>9099600</v>
       </c>
       <c r="F49" s="3">
-        <v>9676300</v>
+        <v>9169700</v>
       </c>
       <c r="G49" s="3">
-        <v>10645700</v>
+        <v>9320100</v>
       </c>
       <c r="H49" s="3">
-        <v>9824300</v>
+        <v>10253800</v>
       </c>
       <c r="I49" s="3">
-        <v>10480500</v>
+        <v>9462600</v>
       </c>
       <c r="J49" s="3">
+        <v>10094700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5981400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4603500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3534200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2886200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4594800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3831600</v>
+        <v>4663300</v>
       </c>
       <c r="E52" s="3">
-        <v>3318100</v>
+        <v>3690600</v>
       </c>
       <c r="F52" s="3">
-        <v>3988600</v>
+        <v>3195900</v>
       </c>
       <c r="G52" s="3">
-        <v>3473500</v>
+        <v>3841700</v>
       </c>
       <c r="H52" s="3">
-        <v>2782700</v>
+        <v>3345600</v>
       </c>
       <c r="I52" s="3">
-        <v>3658200</v>
+        <v>2680300</v>
       </c>
       <c r="J52" s="3">
+        <v>3523500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3169400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1733400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1924500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1665900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1738500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78253100</v>
+        <v>82698800</v>
       </c>
       <c r="E54" s="3">
-        <v>75311300</v>
+        <v>75372500</v>
       </c>
       <c r="F54" s="3">
-        <v>74544600</v>
+        <v>72539000</v>
       </c>
       <c r="G54" s="3">
-        <v>74275100</v>
+        <v>71800600</v>
       </c>
       <c r="H54" s="3">
-        <v>64649800</v>
+        <v>71540900</v>
       </c>
       <c r="I54" s="3">
-        <v>66114000</v>
+        <v>62270000</v>
       </c>
       <c r="J54" s="3">
+        <v>63680200</v>
+      </c>
+      <c r="K54" s="3">
         <v>48353900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45945100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41491800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36384600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36366500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3140800</v>
+        <v>3990000</v>
       </c>
       <c r="E57" s="3">
-        <v>2295400</v>
+        <v>3025200</v>
       </c>
       <c r="F57" s="3">
-        <v>2803000</v>
+        <v>2210900</v>
       </c>
       <c r="G57" s="3">
-        <v>2924600</v>
+        <v>2699800</v>
       </c>
       <c r="H57" s="3">
-        <v>2755700</v>
+        <v>2816900</v>
       </c>
       <c r="I57" s="3">
-        <v>2072400</v>
+        <v>2654200</v>
       </c>
       <c r="J57" s="3">
+        <v>1996100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2745900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1274900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>666700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>694800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>534700</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4870100</v>
+        <v>5901500</v>
       </c>
       <c r="E58" s="3">
-        <v>4616300</v>
+        <v>4690800</v>
       </c>
       <c r="F58" s="3">
-        <v>5259800</v>
+        <v>4446400</v>
       </c>
       <c r="G58" s="3">
-        <v>4673400</v>
+        <v>5066200</v>
       </c>
       <c r="H58" s="3">
-        <v>3475700</v>
+        <v>4501300</v>
       </c>
       <c r="I58" s="3">
-        <v>1961200</v>
+        <v>3347800</v>
       </c>
       <c r="J58" s="3">
+        <v>1889100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2827000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3347500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2167000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2385600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2174900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1781000</v>
+        <v>2336000</v>
       </c>
       <c r="E59" s="3">
-        <v>2088900</v>
+        <v>1715500</v>
       </c>
       <c r="F59" s="3">
-        <v>1622600</v>
+        <v>2012000</v>
       </c>
       <c r="G59" s="3">
-        <v>2122700</v>
+        <v>1562900</v>
       </c>
       <c r="H59" s="3">
-        <v>1184900</v>
+        <v>2044500</v>
       </c>
       <c r="I59" s="3">
-        <v>1733000</v>
+        <v>1141200</v>
       </c>
       <c r="J59" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1528000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1331400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1291000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1346700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1558000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9792000</v>
+        <v>12227500</v>
       </c>
       <c r="E60" s="3">
-        <v>9000600</v>
+        <v>9431500</v>
       </c>
       <c r="F60" s="3">
-        <v>9685300</v>
+        <v>8669200</v>
       </c>
       <c r="G60" s="3">
-        <v>9720600</v>
+        <v>9328800</v>
       </c>
       <c r="H60" s="3">
-        <v>7416200</v>
+        <v>9362800</v>
       </c>
       <c r="I60" s="3">
-        <v>5766600</v>
+        <v>7143200</v>
       </c>
       <c r="J60" s="3">
+        <v>5554300</v>
+      </c>
+      <c r="K60" s="3">
         <v>5527800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5950700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4124700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4427200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4242200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34749800</v>
+        <v>36262300</v>
       </c>
       <c r="E61" s="3">
-        <v>32595600</v>
+        <v>33470600</v>
       </c>
       <c r="F61" s="3">
-        <v>32207400</v>
+        <v>31395700</v>
       </c>
       <c r="G61" s="3">
-        <v>33050600</v>
+        <v>31021800</v>
       </c>
       <c r="H61" s="3">
-        <v>29194900</v>
+        <v>31834000</v>
       </c>
       <c r="I61" s="3">
-        <v>31718600</v>
+        <v>28120200</v>
       </c>
       <c r="J61" s="3">
+        <v>30551000</v>
+      </c>
+      <c r="K61" s="3">
         <v>23515400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18935400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17671200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14312800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14396600</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8635600</v>
+        <v>9535700</v>
       </c>
       <c r="E62" s="3">
-        <v>8581600</v>
+        <v>8317800</v>
       </c>
       <c r="F62" s="3">
-        <v>8326300</v>
+        <v>8265700</v>
       </c>
       <c r="G62" s="3">
-        <v>8232400</v>
+        <v>8019800</v>
       </c>
       <c r="H62" s="3">
-        <v>7847200</v>
+        <v>7929400</v>
       </c>
       <c r="I62" s="3">
-        <v>9119200</v>
+        <v>7558400</v>
       </c>
       <c r="J62" s="3">
+        <v>8783500</v>
+      </c>
+      <c r="K62" s="3">
         <v>6624800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4845300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4194700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3841500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4414200</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53271300</v>
+        <v>58116500</v>
       </c>
       <c r="E66" s="3">
-        <v>51735800</v>
+        <v>51310300</v>
       </c>
       <c r="F66" s="3">
-        <v>51445900</v>
+        <v>49831300</v>
       </c>
       <c r="G66" s="3">
-        <v>52246300</v>
+        <v>49552100</v>
       </c>
       <c r="H66" s="3">
-        <v>45849000</v>
+        <v>50323100</v>
       </c>
       <c r="I66" s="3">
-        <v>47900400</v>
+        <v>44161300</v>
       </c>
       <c r="J66" s="3">
+        <v>46137100</v>
+      </c>
+      <c r="K66" s="3">
         <v>36011200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30974100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27230800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23654200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23464800</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,48 +3048,54 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2618200</v>
+        <v>1807300</v>
       </c>
       <c r="E70" s="3">
-        <v>2988400</v>
+        <v>2521900</v>
       </c>
       <c r="F70" s="3">
-        <v>2988400</v>
+        <v>2878400</v>
       </c>
       <c r="G70" s="3">
-        <v>2988400</v>
+        <v>2878400</v>
       </c>
       <c r="H70" s="3">
-        <v>2988400</v>
+        <v>2878400</v>
       </c>
       <c r="I70" s="3">
-        <v>2988400</v>
+        <v>2878400</v>
       </c>
       <c r="J70" s="3">
+        <v>2878400</v>
+      </c>
+      <c r="K70" s="3">
         <v>1876400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1770300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1395700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>921400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1880600</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2833000</v>
+        <v>592300</v>
       </c>
       <c r="E72" s="3">
-        <v>4029900</v>
+        <v>2728700</v>
       </c>
       <c r="F72" s="3">
-        <v>2969700</v>
+        <v>3881500</v>
       </c>
       <c r="G72" s="3">
-        <v>2082100</v>
+        <v>2860300</v>
       </c>
       <c r="H72" s="3">
-        <v>1218600</v>
+        <v>2005500</v>
       </c>
       <c r="I72" s="3">
-        <v>854500</v>
+        <v>1173800</v>
       </c>
       <c r="J72" s="3">
+        <v>823000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2079100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4300500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3923000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3528300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3555400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22363700</v>
+        <v>22774900</v>
       </c>
       <c r="E76" s="3">
-        <v>20587100</v>
+        <v>21540400</v>
       </c>
       <c r="F76" s="3">
-        <v>20110300</v>
+        <v>19829300</v>
       </c>
       <c r="G76" s="3">
-        <v>19040300</v>
+        <v>19370000</v>
       </c>
       <c r="H76" s="3">
-        <v>15812400</v>
+        <v>18339400</v>
       </c>
       <c r="I76" s="3">
-        <v>15225200</v>
+        <v>15230300</v>
       </c>
       <c r="J76" s="3">
+        <v>14664700</v>
+      </c>
+      <c r="K76" s="3">
         <v>10466200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13200600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12865200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11809000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11021100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1362800</v>
+        <v>463600</v>
       </c>
       <c r="E81" s="3">
-        <v>3346600</v>
+        <v>1312600</v>
       </c>
       <c r="F81" s="3">
-        <v>2985400</v>
+        <v>3223400</v>
       </c>
       <c r="G81" s="3">
-        <v>2657300</v>
+        <v>2875500</v>
       </c>
       <c r="H81" s="3">
-        <v>2250300</v>
+        <v>2559500</v>
       </c>
       <c r="I81" s="3">
-        <v>93100</v>
+        <v>2167500</v>
       </c>
       <c r="J81" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-931100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1368300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1317900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>977900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1172300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1893700</v>
+        <v>1868800</v>
       </c>
       <c r="E83" s="3">
-        <v>1944700</v>
+        <v>1824000</v>
       </c>
       <c r="F83" s="3">
-        <v>1850100</v>
+        <v>1873100</v>
       </c>
       <c r="G83" s="3">
-        <v>1764500</v>
+        <v>1782000</v>
       </c>
       <c r="H83" s="3">
-        <v>1543000</v>
+        <v>1699600</v>
       </c>
       <c r="I83" s="3">
-        <v>1455900</v>
+        <v>1486200</v>
       </c>
       <c r="J83" s="3">
+        <v>1402300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1325300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1264700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1143200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1035100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1020200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5173400</v>
+        <v>4610500</v>
       </c>
       <c r="E89" s="3">
-        <v>5299600</v>
+        <v>4983000</v>
       </c>
       <c r="F89" s="3">
-        <v>5317600</v>
+        <v>5104500</v>
       </c>
       <c r="G89" s="3">
-        <v>4921900</v>
+        <v>5121800</v>
       </c>
       <c r="H89" s="3">
-        <v>3927000</v>
+        <v>4740700</v>
       </c>
       <c r="I89" s="3">
-        <v>3806100</v>
+        <v>3782400</v>
       </c>
       <c r="J89" s="3">
+        <v>3666000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3089800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3202200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2828300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2688200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2831700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4448100</v>
+        <v>-4865100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6108200</v>
+        <v>-4284400</v>
       </c>
       <c r="F91" s="3">
-        <v>-6143500</v>
+        <v>-5883400</v>
       </c>
       <c r="G91" s="3">
-        <v>-7444000</v>
+        <v>-5917400</v>
       </c>
       <c r="H91" s="3">
-        <v>-5653200</v>
+        <v>-7170000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3981100</v>
+        <v>-5445100</v>
       </c>
       <c r="J91" s="3">
+        <v>-3834500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3325600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3420500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3434200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1953500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1930600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5790600</v>
+        <v>-5069000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4544200</v>
+        <v>-5577500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5159900</v>
+        <v>-4376900</v>
       </c>
       <c r="G94" s="3">
-        <v>-7522900</v>
+        <v>-4970000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2777400</v>
+        <v>-7245900</v>
       </c>
       <c r="I94" s="3">
-        <v>-14103400</v>
+        <v>-2675200</v>
       </c>
       <c r="J94" s="3">
+        <v>-13584200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3461500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3253200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3941500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2451100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2346200</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2596500</v>
+        <v>-2385200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2362200</v>
+        <v>-2500900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1470200</v>
+        <v>-2275300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1298200</v>
+        <v>-1416100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1121800</v>
+        <v>-1250400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1153300</v>
+        <v>-1080500</v>
       </c>
       <c r="J96" s="3">
+        <v>-1110900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1154800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1129700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1043900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-964300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1561000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-66100</v>
+        <v>352200</v>
       </c>
       <c r="E100" s="3">
-        <v>-600700</v>
+        <v>-63600</v>
       </c>
       <c r="F100" s="3">
-        <v>520300</v>
+        <v>-578600</v>
       </c>
       <c r="G100" s="3">
-        <v>2063400</v>
+        <v>501200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1065500</v>
+        <v>1987400</v>
       </c>
       <c r="I100" s="3">
-        <v>10517300</v>
+        <v>-1026200</v>
       </c>
       <c r="J100" s="3">
+        <v>10130100</v>
+      </c>
+      <c r="K100" s="3">
         <v>558600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-292800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1381100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-303400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-493200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39800</v>
+        <v>68000</v>
       </c>
       <c r="E101" s="3">
-        <v>-14300</v>
+        <v>38300</v>
       </c>
       <c r="F101" s="3">
-        <v>-4500</v>
+        <v>-13700</v>
       </c>
       <c r="G101" s="3">
-        <v>54800</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
-        <v>-29300</v>
+        <v>52800</v>
       </c>
       <c r="I101" s="3">
-        <v>-95400</v>
+        <v>-28200</v>
       </c>
       <c r="J101" s="3">
+        <v>-91800</v>
+      </c>
+      <c r="K101" s="3">
         <v>84100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>21600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-11300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-643500</v>
+        <v>-38300</v>
       </c>
       <c r="E102" s="3">
-        <v>140400</v>
+        <v>-619800</v>
       </c>
       <c r="F102" s="3">
-        <v>673500</v>
+        <v>135200</v>
       </c>
       <c r="G102" s="3">
-        <v>-482800</v>
+        <v>648700</v>
       </c>
       <c r="H102" s="3">
-        <v>54800</v>
+        <v>-465000</v>
       </c>
       <c r="I102" s="3">
-        <v>124600</v>
+        <v>52800</v>
       </c>
       <c r="J102" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K102" s="3">
         <v>271100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-343900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>289500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-77500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10831700</v>
+        <v>11094100</v>
       </c>
       <c r="E8" s="3">
-        <v>9681700</v>
+        <v>9916300</v>
       </c>
       <c r="F8" s="3">
-        <v>9401100</v>
+        <v>9628900</v>
       </c>
       <c r="G8" s="3">
-        <v>9586300</v>
+        <v>9818500</v>
       </c>
       <c r="H8" s="3">
-        <v>9892900</v>
+        <v>10132600</v>
       </c>
       <c r="I8" s="3">
-        <v>9726600</v>
+        <v>9962200</v>
       </c>
       <c r="J8" s="3">
-        <v>9074200</v>
+        <v>9294100</v>
       </c>
       <c r="K8" s="3">
         <v>8524500</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3566900</v>
+        <v>3653300</v>
       </c>
       <c r="E9" s="3">
-        <v>2963800</v>
+        <v>3035600</v>
       </c>
       <c r="F9" s="3">
-        <v>2804600</v>
+        <v>2872600</v>
       </c>
       <c r="G9" s="3">
-        <v>2827100</v>
+        <v>2895600</v>
       </c>
       <c r="H9" s="3">
-        <v>2597100</v>
+        <v>2660000</v>
       </c>
       <c r="I9" s="3">
-        <v>2824900</v>
+        <v>2893300</v>
       </c>
       <c r="J9" s="3">
-        <v>2792400</v>
+        <v>2860000</v>
       </c>
       <c r="K9" s="3">
         <v>2480100</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7264700</v>
+        <v>7440700</v>
       </c>
       <c r="E10" s="3">
-        <v>6718000</v>
+        <v>6880700</v>
       </c>
       <c r="F10" s="3">
-        <v>6596500</v>
+        <v>6756300</v>
       </c>
       <c r="G10" s="3">
-        <v>6759200</v>
+        <v>6923000</v>
       </c>
       <c r="H10" s="3">
-        <v>7295800</v>
+        <v>7472600</v>
       </c>
       <c r="I10" s="3">
-        <v>6901700</v>
+        <v>7068900</v>
       </c>
       <c r="J10" s="3">
-        <v>6281900</v>
+        <v>6434100</v>
       </c>
       <c r="K10" s="3">
         <v>6044400</v>
@@ -956,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2532000</v>
+        <v>2593300</v>
       </c>
       <c r="E14" s="3">
-        <v>2006900</v>
+        <v>2055600</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>579300</v>
+        <v>593300</v>
       </c>
       <c r="I14" s="3">
-        <v>909100</v>
+        <v>931100</v>
       </c>
       <c r="J14" s="3">
-        <v>1082700</v>
+        <v>1108900</v>
       </c>
       <c r="K14" s="3">
         <v>2827700</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1868800</v>
+        <v>1914100</v>
       </c>
       <c r="E15" s="3">
-        <v>1824000</v>
+        <v>1868100</v>
       </c>
       <c r="F15" s="3">
-        <v>1873100</v>
+        <v>1918500</v>
       </c>
       <c r="G15" s="3">
-        <v>1782000</v>
+        <v>1825200</v>
       </c>
       <c r="H15" s="3">
-        <v>1699600</v>
+        <v>1740700</v>
       </c>
       <c r="I15" s="3">
-        <v>1486200</v>
+        <v>1522200</v>
       </c>
       <c r="J15" s="3">
-        <v>1402300</v>
+        <v>1436300</v>
       </c>
       <c r="K15" s="3">
         <v>1325300</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8967200</v>
+        <v>9184400</v>
       </c>
       <c r="E17" s="3">
-        <v>7417300</v>
+        <v>7597000</v>
       </c>
       <c r="F17" s="3">
-        <v>5203600</v>
+        <v>5329600</v>
       </c>
       <c r="G17" s="3">
-        <v>5401700</v>
+        <v>5532600</v>
       </c>
       <c r="H17" s="3">
-        <v>6363600</v>
+        <v>6517800</v>
       </c>
       <c r="I17" s="3">
-        <v>7354400</v>
+        <v>7532600</v>
       </c>
       <c r="J17" s="3">
-        <v>7249600</v>
+        <v>7425200</v>
       </c>
       <c r="K17" s="3">
         <v>8701000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1864500</v>
+        <v>1909600</v>
       </c>
       <c r="E18" s="3">
-        <v>2264400</v>
+        <v>2319300</v>
       </c>
       <c r="F18" s="3">
-        <v>4197600</v>
+        <v>4299300</v>
       </c>
       <c r="G18" s="3">
-        <v>4184600</v>
+        <v>4285900</v>
       </c>
       <c r="H18" s="3">
-        <v>3529300</v>
+        <v>3614800</v>
       </c>
       <c r="I18" s="3">
-        <v>2372200</v>
+        <v>2429600</v>
       </c>
       <c r="J18" s="3">
-        <v>1824700</v>
+        <v>1868900</v>
       </c>
       <c r="K18" s="3">
         <v>-176500</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1000900</v>
+        <v>1025200</v>
       </c>
       <c r="E20" s="3">
-        <v>1008900</v>
+        <v>1033300</v>
       </c>
       <c r="F20" s="3">
-        <v>1107200</v>
+        <v>1134100</v>
       </c>
       <c r="G20" s="3">
-        <v>1254100</v>
+        <v>1284400</v>
       </c>
       <c r="H20" s="3">
-        <v>964800</v>
+        <v>988100</v>
       </c>
       <c r="I20" s="3">
-        <v>1514400</v>
+        <v>1551100</v>
       </c>
       <c r="J20" s="3">
-        <v>142500</v>
+        <v>145900</v>
       </c>
       <c r="K20" s="3">
         <v>461800</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4737300</v>
+        <v>4855900</v>
       </c>
       <c r="E21" s="3">
-        <v>5100300</v>
+        <v>5227500</v>
       </c>
       <c r="F21" s="3">
-        <v>7181100</v>
+        <v>7358800</v>
       </c>
       <c r="G21" s="3">
-        <v>7223600</v>
+        <v>7402200</v>
       </c>
       <c r="H21" s="3">
-        <v>6196500</v>
+        <v>6350000</v>
       </c>
       <c r="I21" s="3">
-        <v>5375300</v>
+        <v>5508500</v>
       </c>
       <c r="J21" s="3">
-        <v>3371800</v>
+        <v>3456300</v>
       </c>
       <c r="K21" s="3">
         <v>1590200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1871700</v>
+        <v>1917000</v>
       </c>
       <c r="E22" s="3">
-        <v>1706800</v>
+        <v>1748100</v>
       </c>
       <c r="F22" s="3">
-        <v>1611300</v>
+        <v>1650400</v>
       </c>
       <c r="G22" s="3">
-        <v>1687300</v>
+        <v>1728100</v>
       </c>
       <c r="H22" s="3">
-        <v>1638100</v>
+        <v>1677800</v>
       </c>
       <c r="I22" s="3">
-        <v>1495600</v>
+        <v>1531900</v>
       </c>
       <c r="J22" s="3">
-        <v>1361800</v>
+        <v>1394800</v>
       </c>
       <c r="K22" s="3">
         <v>1115800</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>993700</v>
+        <v>1017800</v>
       </c>
       <c r="E23" s="3">
-        <v>1566500</v>
+        <v>1604400</v>
       </c>
       <c r="F23" s="3">
-        <v>3693500</v>
+        <v>3783000</v>
       </c>
       <c r="G23" s="3">
-        <v>3751300</v>
+        <v>3842200</v>
       </c>
       <c r="H23" s="3">
-        <v>2856000</v>
+        <v>2925200</v>
       </c>
       <c r="I23" s="3">
-        <v>2391000</v>
+        <v>2448900</v>
       </c>
       <c r="J23" s="3">
-        <v>605300</v>
+        <v>620000</v>
       </c>
       <c r="K23" s="3">
         <v>-830500</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>426000</v>
+        <v>436300</v>
       </c>
       <c r="E24" s="3">
-        <v>86800</v>
+        <v>88900</v>
       </c>
       <c r="F24" s="3">
-        <v>140300</v>
+        <v>143700</v>
       </c>
       <c r="G24" s="3">
-        <v>545300</v>
+        <v>558500</v>
       </c>
       <c r="H24" s="3">
-        <v>433200</v>
+        <v>443700</v>
       </c>
       <c r="I24" s="3">
-        <v>517100</v>
+        <v>529600</v>
       </c>
       <c r="J24" s="3">
-        <v>254600</v>
+        <v>260700</v>
       </c>
       <c r="K24" s="3">
         <v>25500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>567700</v>
+        <v>581500</v>
       </c>
       <c r="E26" s="3">
-        <v>1479700</v>
+        <v>1515600</v>
       </c>
       <c r="F26" s="3">
-        <v>3553200</v>
+        <v>3639300</v>
       </c>
       <c r="G26" s="3">
-        <v>3206000</v>
+        <v>3283700</v>
       </c>
       <c r="H26" s="3">
-        <v>2422800</v>
+        <v>2481500</v>
       </c>
       <c r="I26" s="3">
-        <v>1873900</v>
+        <v>1919300</v>
       </c>
       <c r="J26" s="3">
-        <v>350800</v>
+        <v>359300</v>
       </c>
       <c r="K26" s="3">
         <v>-856000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>463600</v>
+        <v>474800</v>
       </c>
       <c r="E27" s="3">
-        <v>1312600</v>
+        <v>1344400</v>
       </c>
       <c r="F27" s="3">
-        <v>3223400</v>
+        <v>3301500</v>
       </c>
       <c r="G27" s="3">
-        <v>2875500</v>
+        <v>2945200</v>
       </c>
       <c r="H27" s="3">
-        <v>2438700</v>
+        <v>2497800</v>
       </c>
       <c r="I27" s="3">
-        <v>1586000</v>
+        <v>1624400</v>
       </c>
       <c r="J27" s="3">
-        <v>89700</v>
+        <v>91900</v>
       </c>
       <c r="K27" s="3">
         <v>-931100</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>120800</v>
+        <v>123700</v>
       </c>
       <c r="I29" s="3">
-        <v>581500</v>
+        <v>595600</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000900</v>
+        <v>-1025200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1008900</v>
+        <v>-1033300</v>
       </c>
       <c r="F32" s="3">
-        <v>-1107200</v>
+        <v>-1134100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1254100</v>
+        <v>-1284400</v>
       </c>
       <c r="H32" s="3">
-        <v>-964800</v>
+        <v>-988100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1514400</v>
+        <v>-1551100</v>
       </c>
       <c r="J32" s="3">
-        <v>-142500</v>
+        <v>-145900</v>
       </c>
       <c r="K32" s="3">
         <v>-461800</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>463600</v>
+        <v>474800</v>
       </c>
       <c r="E33" s="3">
-        <v>1312600</v>
+        <v>1344400</v>
       </c>
       <c r="F33" s="3">
-        <v>3223400</v>
+        <v>3301500</v>
       </c>
       <c r="G33" s="3">
-        <v>2875500</v>
+        <v>2945200</v>
       </c>
       <c r="H33" s="3">
-        <v>2559500</v>
+        <v>2621500</v>
       </c>
       <c r="I33" s="3">
-        <v>2167500</v>
+        <v>2220000</v>
       </c>
       <c r="J33" s="3">
-        <v>89700</v>
+        <v>91900</v>
       </c>
       <c r="K33" s="3">
         <v>-931100</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>463600</v>
+        <v>474800</v>
       </c>
       <c r="E35" s="3">
-        <v>1312600</v>
+        <v>1344400</v>
       </c>
       <c r="F35" s="3">
-        <v>3223400</v>
+        <v>3301500</v>
       </c>
       <c r="G35" s="3">
-        <v>2875500</v>
+        <v>2945200</v>
       </c>
       <c r="H35" s="3">
-        <v>2559500</v>
+        <v>2621500</v>
       </c>
       <c r="I35" s="3">
-        <v>2167500</v>
+        <v>2220000</v>
       </c>
       <c r="J35" s="3">
-        <v>89700</v>
+        <v>91900</v>
       </c>
       <c r="K35" s="3">
         <v>-931100</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>448400</v>
+        <v>459300</v>
       </c>
       <c r="E41" s="3">
-        <v>486700</v>
+        <v>498500</v>
       </c>
       <c r="F41" s="3">
-        <v>1106500</v>
+        <v>1133300</v>
       </c>
       <c r="G41" s="3">
-        <v>971300</v>
+        <v>994800</v>
       </c>
       <c r="H41" s="3">
-        <v>322600</v>
+        <v>330400</v>
       </c>
       <c r="I41" s="3">
-        <v>787600</v>
+        <v>806700</v>
       </c>
       <c r="J41" s="3">
-        <v>734800</v>
+        <v>752600</v>
       </c>
       <c r="K41" s="3">
         <v>638200</v>
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>136000</v>
+        <v>139300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>518500</v>
+        <v>531100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2733000</v>
+        <v>2799300</v>
       </c>
       <c r="E43" s="3">
-        <v>3262400</v>
+        <v>3341500</v>
       </c>
       <c r="F43" s="3">
-        <v>1659100</v>
+        <v>1699300</v>
       </c>
       <c r="G43" s="3">
-        <v>1862300</v>
+        <v>1907400</v>
       </c>
       <c r="H43" s="3">
-        <v>1948400</v>
+        <v>1995600</v>
       </c>
       <c r="I43" s="3">
-        <v>1824000</v>
+        <v>1868100</v>
       </c>
       <c r="J43" s="3">
-        <v>1500700</v>
+        <v>1537000</v>
       </c>
       <c r="K43" s="3">
         <v>1041400</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>676900</v>
+        <v>693300</v>
       </c>
       <c r="E44" s="3">
-        <v>523600</v>
+        <v>536300</v>
       </c>
       <c r="F44" s="3">
-        <v>454900</v>
+        <v>465900</v>
       </c>
       <c r="G44" s="3">
-        <v>326900</v>
+        <v>334800</v>
       </c>
       <c r="H44" s="3">
-        <v>311700</v>
+        <v>319300</v>
       </c>
       <c r="I44" s="3">
-        <v>273400</v>
+        <v>280000</v>
       </c>
       <c r="J44" s="3">
-        <v>266100</v>
+        <v>272600</v>
       </c>
       <c r="K44" s="3">
         <v>242500</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1444300</v>
+        <v>1479300</v>
       </c>
       <c r="E45" s="3">
-        <v>1095700</v>
+        <v>1122200</v>
       </c>
       <c r="F45" s="3">
-        <v>405000</v>
+        <v>414800</v>
       </c>
       <c r="G45" s="3">
-        <v>2372900</v>
+        <v>2430400</v>
       </c>
       <c r="H45" s="3">
-        <v>612600</v>
+        <v>627400</v>
       </c>
       <c r="I45" s="3">
-        <v>499700</v>
+        <v>511900</v>
       </c>
       <c r="J45" s="3">
-        <v>3344900</v>
+        <v>3425900</v>
       </c>
       <c r="K45" s="3">
         <v>1537800</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5302600</v>
+        <v>5431100</v>
       </c>
       <c r="E46" s="3">
-        <v>5368500</v>
+        <v>5498500</v>
       </c>
       <c r="F46" s="3">
-        <v>3761500</v>
+        <v>3852600</v>
       </c>
       <c r="G46" s="3">
-        <v>5533400</v>
+        <v>5667400</v>
       </c>
       <c r="H46" s="3">
-        <v>3713700</v>
+        <v>3803700</v>
       </c>
       <c r="I46" s="3">
-        <v>3384700</v>
+        <v>3466700</v>
       </c>
       <c r="J46" s="3">
-        <v>5846500</v>
+        <v>5988100</v>
       </c>
       <c r="K46" s="3">
         <v>2941900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8523100</v>
+        <v>8729600</v>
       </c>
       <c r="E47" s="3">
-        <v>6456900</v>
+        <v>6613300</v>
       </c>
       <c r="F47" s="3">
-        <v>5949200</v>
+        <v>6093300</v>
       </c>
       <c r="G47" s="3">
-        <v>5742400</v>
+        <v>5881500</v>
       </c>
       <c r="H47" s="3">
-        <v>6131500</v>
+        <v>6280000</v>
       </c>
       <c r="I47" s="3">
-        <v>5318600</v>
+        <v>5447400</v>
       </c>
       <c r="J47" s="3">
-        <v>4818100</v>
+        <v>4934800</v>
       </c>
       <c r="K47" s="3">
         <v>4879800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54921300</v>
+        <v>56251800</v>
       </c>
       <c r="E48" s="3">
-        <v>50757000</v>
+        <v>51986600</v>
       </c>
       <c r="F48" s="3">
-        <v>50462700</v>
+        <v>51685100</v>
       </c>
       <c r="G48" s="3">
-        <v>47363000</v>
+        <v>48510300</v>
       </c>
       <c r="H48" s="3">
-        <v>48096300</v>
+        <v>49261400</v>
       </c>
       <c r="I48" s="3">
-        <v>41423900</v>
+        <v>42427400</v>
       </c>
       <c r="J48" s="3">
-        <v>39397400</v>
+        <v>40351800</v>
       </c>
       <c r="K48" s="3">
         <v>67302600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9288300</v>
+        <v>9513300</v>
       </c>
       <c r="E49" s="3">
-        <v>9099600</v>
+        <v>9320000</v>
       </c>
       <c r="F49" s="3">
-        <v>9169700</v>
+        <v>9391800</v>
       </c>
       <c r="G49" s="3">
-        <v>9320100</v>
+        <v>9545900</v>
       </c>
       <c r="H49" s="3">
-        <v>10253800</v>
+        <v>10502200</v>
       </c>
       <c r="I49" s="3">
-        <v>9462600</v>
+        <v>9691800</v>
       </c>
       <c r="J49" s="3">
-        <v>10094700</v>
+        <v>10339200</v>
       </c>
       <c r="K49" s="3">
         <v>5981400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4663300</v>
+        <v>4776300</v>
       </c>
       <c r="E52" s="3">
-        <v>3690600</v>
+        <v>3780000</v>
       </c>
       <c r="F52" s="3">
-        <v>3195900</v>
+        <v>3273300</v>
       </c>
       <c r="G52" s="3">
-        <v>3841700</v>
+        <v>3934800</v>
       </c>
       <c r="H52" s="3">
-        <v>3345600</v>
+        <v>3426700</v>
       </c>
       <c r="I52" s="3">
-        <v>2680300</v>
+        <v>2745200</v>
       </c>
       <c r="J52" s="3">
-        <v>3523500</v>
+        <v>3608900</v>
       </c>
       <c r="K52" s="3">
         <v>3169400</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82698800</v>
+        <v>84702100</v>
       </c>
       <c r="E54" s="3">
-        <v>75372500</v>
+        <v>77198400</v>
       </c>
       <c r="F54" s="3">
-        <v>72539000</v>
+        <v>74296200</v>
       </c>
       <c r="G54" s="3">
-        <v>71800600</v>
+        <v>73539900</v>
       </c>
       <c r="H54" s="3">
-        <v>71540900</v>
+        <v>73274000</v>
       </c>
       <c r="I54" s="3">
-        <v>62270000</v>
+        <v>63778500</v>
       </c>
       <c r="J54" s="3">
-        <v>63680200</v>
+        <v>65222900</v>
       </c>
       <c r="K54" s="3">
         <v>48353900</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3990000</v>
+        <v>4086700</v>
       </c>
       <c r="E57" s="3">
-        <v>3025200</v>
+        <v>3098500</v>
       </c>
       <c r="F57" s="3">
-        <v>2210900</v>
+        <v>2264400</v>
       </c>
       <c r="G57" s="3">
-        <v>2699800</v>
+        <v>2765200</v>
       </c>
       <c r="H57" s="3">
-        <v>2816900</v>
+        <v>2885200</v>
       </c>
       <c r="I57" s="3">
-        <v>2654200</v>
+        <v>2718500</v>
       </c>
       <c r="J57" s="3">
-        <v>1996100</v>
+        <v>2044400</v>
       </c>
       <c r="K57" s="3">
         <v>2745900</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5901500</v>
+        <v>6044400</v>
       </c>
       <c r="E58" s="3">
-        <v>4690800</v>
+        <v>4804400</v>
       </c>
       <c r="F58" s="3">
-        <v>4446400</v>
+        <v>4554100</v>
       </c>
       <c r="G58" s="3">
-        <v>5066200</v>
+        <v>5188900</v>
       </c>
       <c r="H58" s="3">
-        <v>4501300</v>
+        <v>4610400</v>
       </c>
       <c r="I58" s="3">
-        <v>3347800</v>
+        <v>3428900</v>
       </c>
       <c r="J58" s="3">
-        <v>1889100</v>
+        <v>1934800</v>
       </c>
       <c r="K58" s="3">
         <v>2827000</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2336000</v>
+        <v>2392600</v>
       </c>
       <c r="E59" s="3">
-        <v>1715500</v>
+        <v>1757000</v>
       </c>
       <c r="F59" s="3">
-        <v>2012000</v>
+        <v>2060700</v>
       </c>
       <c r="G59" s="3">
-        <v>1562900</v>
+        <v>1600700</v>
       </c>
       <c r="H59" s="3">
-        <v>2044500</v>
+        <v>2094100</v>
       </c>
       <c r="I59" s="3">
-        <v>1141200</v>
+        <v>1168900</v>
       </c>
       <c r="J59" s="3">
-        <v>1669200</v>
+        <v>1709600</v>
       </c>
       <c r="K59" s="3">
         <v>1528000</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12227500</v>
+        <v>12523700</v>
       </c>
       <c r="E60" s="3">
-        <v>9431500</v>
+        <v>9660000</v>
       </c>
       <c r="F60" s="3">
-        <v>8669200</v>
+        <v>8879300</v>
       </c>
       <c r="G60" s="3">
-        <v>9328800</v>
+        <v>9554800</v>
       </c>
       <c r="H60" s="3">
-        <v>9362800</v>
+        <v>9589600</v>
       </c>
       <c r="I60" s="3">
-        <v>7143200</v>
+        <v>7316300</v>
       </c>
       <c r="J60" s="3">
-        <v>5554300</v>
+        <v>5688900</v>
       </c>
       <c r="K60" s="3">
         <v>5527800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36262300</v>
+        <v>37140700</v>
       </c>
       <c r="E61" s="3">
-        <v>33470600</v>
+        <v>34281400</v>
       </c>
       <c r="F61" s="3">
-        <v>31395700</v>
+        <v>32156300</v>
       </c>
       <c r="G61" s="3">
-        <v>31021800</v>
+        <v>31773300</v>
       </c>
       <c r="H61" s="3">
-        <v>31834000</v>
+        <v>32605200</v>
       </c>
       <c r="I61" s="3">
-        <v>28120200</v>
+        <v>28801500</v>
       </c>
       <c r="J61" s="3">
-        <v>30551000</v>
+        <v>31291100</v>
       </c>
       <c r="K61" s="3">
         <v>23515400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9535700</v>
+        <v>9766700</v>
       </c>
       <c r="E62" s="3">
-        <v>8317800</v>
+        <v>8519300</v>
       </c>
       <c r="F62" s="3">
-        <v>8265700</v>
+        <v>8465900</v>
       </c>
       <c r="G62" s="3">
-        <v>8019800</v>
+        <v>8214100</v>
       </c>
       <c r="H62" s="3">
-        <v>7929400</v>
+        <v>8121500</v>
       </c>
       <c r="I62" s="3">
-        <v>7558400</v>
+        <v>7741500</v>
       </c>
       <c r="J62" s="3">
-        <v>8783500</v>
+        <v>8996300</v>
       </c>
       <c r="K62" s="3">
         <v>6624800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58116500</v>
+        <v>59524400</v>
       </c>
       <c r="E66" s="3">
-        <v>51310300</v>
+        <v>52553300</v>
       </c>
       <c r="F66" s="3">
-        <v>49831300</v>
+        <v>51038500</v>
       </c>
       <c r="G66" s="3">
-        <v>49552100</v>
+        <v>50752500</v>
       </c>
       <c r="H66" s="3">
-        <v>50323100</v>
+        <v>51542200</v>
       </c>
       <c r="I66" s="3">
-        <v>44161300</v>
+        <v>45231100</v>
       </c>
       <c r="J66" s="3">
-        <v>46137100</v>
+        <v>47254800</v>
       </c>
       <c r="K66" s="3">
         <v>36011200</v>
@@ -3058,25 +3058,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1807300</v>
+        <v>1851100</v>
       </c>
       <c r="E70" s="3">
-        <v>2521900</v>
+        <v>2583000</v>
       </c>
       <c r="F70" s="3">
-        <v>2878400</v>
+        <v>2948100</v>
       </c>
       <c r="G70" s="3">
-        <v>2878400</v>
+        <v>2948100</v>
       </c>
       <c r="H70" s="3">
-        <v>2878400</v>
+        <v>2948100</v>
       </c>
       <c r="I70" s="3">
-        <v>2878400</v>
+        <v>2948100</v>
       </c>
       <c r="J70" s="3">
-        <v>2878400</v>
+        <v>2948100</v>
       </c>
       <c r="K70" s="3">
         <v>1876400</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>592300</v>
+        <v>606700</v>
       </c>
       <c r="E72" s="3">
-        <v>2728700</v>
+        <v>2794800</v>
       </c>
       <c r="F72" s="3">
-        <v>3881500</v>
+        <v>3975600</v>
       </c>
       <c r="G72" s="3">
-        <v>2860300</v>
+        <v>2929600</v>
       </c>
       <c r="H72" s="3">
-        <v>2005500</v>
+        <v>2054100</v>
       </c>
       <c r="I72" s="3">
-        <v>1173800</v>
+        <v>1202200</v>
       </c>
       <c r="J72" s="3">
-        <v>823000</v>
+        <v>843000</v>
       </c>
       <c r="K72" s="3">
         <v>2079100</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22774900</v>
+        <v>23326700</v>
       </c>
       <c r="E76" s="3">
-        <v>21540400</v>
+        <v>22062200</v>
       </c>
       <c r="F76" s="3">
-        <v>19829300</v>
+        <v>20309700</v>
       </c>
       <c r="G76" s="3">
-        <v>19370000</v>
+        <v>19839300</v>
       </c>
       <c r="H76" s="3">
-        <v>18339400</v>
+        <v>18783700</v>
       </c>
       <c r="I76" s="3">
-        <v>15230300</v>
+        <v>15599300</v>
       </c>
       <c r="J76" s="3">
-        <v>14664700</v>
+        <v>15020000</v>
       </c>
       <c r="K76" s="3">
         <v>10466200</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>463600</v>
+        <v>474800</v>
       </c>
       <c r="E81" s="3">
-        <v>1312600</v>
+        <v>1344400</v>
       </c>
       <c r="F81" s="3">
-        <v>3223400</v>
+        <v>3301500</v>
       </c>
       <c r="G81" s="3">
-        <v>2875500</v>
+        <v>2945200</v>
       </c>
       <c r="H81" s="3">
-        <v>2559500</v>
+        <v>2621500</v>
       </c>
       <c r="I81" s="3">
-        <v>2167500</v>
+        <v>2220000</v>
       </c>
       <c r="J81" s="3">
-        <v>89700</v>
+        <v>91900</v>
       </c>
       <c r="K81" s="3">
         <v>-931100</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1868800</v>
+        <v>1914100</v>
       </c>
       <c r="E83" s="3">
-        <v>1824000</v>
+        <v>1868100</v>
       </c>
       <c r="F83" s="3">
-        <v>1873100</v>
+        <v>1918500</v>
       </c>
       <c r="G83" s="3">
-        <v>1782000</v>
+        <v>1825200</v>
       </c>
       <c r="H83" s="3">
-        <v>1699600</v>
+        <v>1740700</v>
       </c>
       <c r="I83" s="3">
-        <v>1486200</v>
+        <v>1522200</v>
       </c>
       <c r="J83" s="3">
-        <v>1402300</v>
+        <v>1436300</v>
       </c>
       <c r="K83" s="3">
         <v>1325300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4610500</v>
+        <v>4722200</v>
       </c>
       <c r="E89" s="3">
-        <v>4983000</v>
+        <v>5103700</v>
       </c>
       <c r="F89" s="3">
-        <v>5104500</v>
+        <v>5228100</v>
       </c>
       <c r="G89" s="3">
-        <v>5121800</v>
+        <v>5245900</v>
       </c>
       <c r="H89" s="3">
-        <v>4740700</v>
+        <v>4855600</v>
       </c>
       <c r="I89" s="3">
-        <v>3782400</v>
+        <v>3874100</v>
       </c>
       <c r="J89" s="3">
-        <v>3666000</v>
+        <v>3754800</v>
       </c>
       <c r="K89" s="3">
         <v>3089800</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4865100</v>
+        <v>-4983000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4284400</v>
+        <v>-4388100</v>
       </c>
       <c r="F91" s="3">
-        <v>-5883400</v>
+        <v>-6025900</v>
       </c>
       <c r="G91" s="3">
-        <v>-5917400</v>
+        <v>-6060700</v>
       </c>
       <c r="H91" s="3">
-        <v>-7170000</v>
+        <v>-7343700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5445100</v>
+        <v>-5577000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3834500</v>
+        <v>-3927400</v>
       </c>
       <c r="K91" s="3">
         <v>-3325600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5069000</v>
+        <v>-5191800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5577500</v>
+        <v>-5712600</v>
       </c>
       <c r="F94" s="3">
-        <v>-4376900</v>
+        <v>-4483000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4970000</v>
+        <v>-5090400</v>
       </c>
       <c r="H94" s="3">
-        <v>-7245900</v>
+        <v>-7421500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2675200</v>
+        <v>-2740000</v>
       </c>
       <c r="J94" s="3">
-        <v>-13584200</v>
+        <v>-13913300</v>
       </c>
       <c r="K94" s="3">
         <v>-3461500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2385200</v>
+        <v>-2443000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2500900</v>
+        <v>-2561500</v>
       </c>
       <c r="F96" s="3">
-        <v>-2275300</v>
+        <v>-2330400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1416100</v>
+        <v>-1450400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1250400</v>
+        <v>-1280700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1080500</v>
+        <v>-1106700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1110900</v>
+        <v>-1137800</v>
       </c>
       <c r="K96" s="3">
         <v>-1154800</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>352200</v>
+        <v>360700</v>
       </c>
       <c r="E100" s="3">
-        <v>-63600</v>
+        <v>-65200</v>
       </c>
       <c r="F100" s="3">
-        <v>-578600</v>
+        <v>-592600</v>
       </c>
       <c r="G100" s="3">
-        <v>501200</v>
+        <v>513300</v>
       </c>
       <c r="H100" s="3">
-        <v>1987400</v>
+        <v>2035600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1026200</v>
+        <v>-1051100</v>
       </c>
       <c r="J100" s="3">
-        <v>10130100</v>
+        <v>10375500</v>
       </c>
       <c r="K100" s="3">
         <v>558600</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68000</v>
+        <v>69600</v>
       </c>
       <c r="E101" s="3">
-        <v>38300</v>
+        <v>39300</v>
       </c>
       <c r="F101" s="3">
-        <v>-13700</v>
+        <v>-14100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>52800</v>
+        <v>54100</v>
       </c>
       <c r="I101" s="3">
-        <v>-28200</v>
+        <v>-28900</v>
       </c>
       <c r="J101" s="3">
-        <v>-91800</v>
+        <v>-94100</v>
       </c>
       <c r="K101" s="3">
         <v>84100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-38300</v>
+        <v>-39300</v>
       </c>
       <c r="E102" s="3">
-        <v>-619800</v>
+        <v>-634800</v>
       </c>
       <c r="F102" s="3">
-        <v>135200</v>
+        <v>138500</v>
       </c>
       <c r="G102" s="3">
-        <v>648700</v>
+        <v>664400</v>
       </c>
       <c r="H102" s="3">
-        <v>-465000</v>
+        <v>-476300</v>
       </c>
       <c r="I102" s="3">
-        <v>52800</v>
+        <v>54100</v>
       </c>
       <c r="J102" s="3">
-        <v>120100</v>
+        <v>123000</v>
       </c>
       <c r="K102" s="3">
         <v>271100</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11094100</v>
+        <v>11088400</v>
       </c>
       <c r="E8" s="3">
-        <v>9916300</v>
+        <v>9911200</v>
       </c>
       <c r="F8" s="3">
-        <v>9628900</v>
+        <v>9623900</v>
       </c>
       <c r="G8" s="3">
-        <v>9818500</v>
+        <v>9813500</v>
       </c>
       <c r="H8" s="3">
-        <v>10132600</v>
+        <v>10127400</v>
       </c>
       <c r="I8" s="3">
-        <v>9962200</v>
+        <v>9957100</v>
       </c>
       <c r="J8" s="3">
-        <v>9294100</v>
+        <v>9289300</v>
       </c>
       <c r="K8" s="3">
         <v>8524500</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3653300</v>
+        <v>3651500</v>
       </c>
       <c r="E9" s="3">
-        <v>3035600</v>
+        <v>3034000</v>
       </c>
       <c r="F9" s="3">
-        <v>2872600</v>
+        <v>2871100</v>
       </c>
       <c r="G9" s="3">
-        <v>2895600</v>
+        <v>2894100</v>
       </c>
       <c r="H9" s="3">
-        <v>2660000</v>
+        <v>2658600</v>
       </c>
       <c r="I9" s="3">
-        <v>2893300</v>
+        <v>2891800</v>
       </c>
       <c r="J9" s="3">
-        <v>2860000</v>
+        <v>2858500</v>
       </c>
       <c r="K9" s="3">
         <v>2480100</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7440700</v>
+        <v>7436900</v>
       </c>
       <c r="E10" s="3">
-        <v>6880700</v>
+        <v>6877200</v>
       </c>
       <c r="F10" s="3">
-        <v>6756300</v>
+        <v>6752800</v>
       </c>
       <c r="G10" s="3">
-        <v>6923000</v>
+        <v>6919400</v>
       </c>
       <c r="H10" s="3">
-        <v>7472600</v>
+        <v>7468800</v>
       </c>
       <c r="I10" s="3">
-        <v>7068900</v>
+        <v>7065300</v>
       </c>
       <c r="J10" s="3">
-        <v>6434100</v>
+        <v>6430800</v>
       </c>
       <c r="K10" s="3">
         <v>6044400</v>
@@ -956,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2593300</v>
+        <v>2592000</v>
       </c>
       <c r="E14" s="3">
-        <v>2055600</v>
+        <v>2054500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>593300</v>
+        <v>593000</v>
       </c>
       <c r="I14" s="3">
-        <v>931100</v>
+        <v>930600</v>
       </c>
       <c r="J14" s="3">
-        <v>1108900</v>
+        <v>1108300</v>
       </c>
       <c r="K14" s="3">
         <v>2827700</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1914100</v>
+        <v>1913100</v>
       </c>
       <c r="E15" s="3">
-        <v>1868100</v>
+        <v>1867200</v>
       </c>
       <c r="F15" s="3">
-        <v>1918500</v>
+        <v>1917500</v>
       </c>
       <c r="G15" s="3">
-        <v>1825200</v>
+        <v>1824200</v>
       </c>
       <c r="H15" s="3">
-        <v>1740700</v>
+        <v>1739800</v>
       </c>
       <c r="I15" s="3">
-        <v>1522200</v>
+        <v>1521400</v>
       </c>
       <c r="J15" s="3">
-        <v>1436300</v>
+        <v>1435600</v>
       </c>
       <c r="K15" s="3">
         <v>1325300</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9184400</v>
+        <v>9179700</v>
       </c>
       <c r="E17" s="3">
-        <v>7597000</v>
+        <v>7593100</v>
       </c>
       <c r="F17" s="3">
-        <v>5329600</v>
+        <v>5326900</v>
       </c>
       <c r="G17" s="3">
-        <v>5532600</v>
+        <v>5529700</v>
       </c>
       <c r="H17" s="3">
-        <v>6517800</v>
+        <v>6514400</v>
       </c>
       <c r="I17" s="3">
-        <v>7532600</v>
+        <v>7528700</v>
       </c>
       <c r="J17" s="3">
-        <v>7425200</v>
+        <v>7421400</v>
       </c>
       <c r="K17" s="3">
         <v>8701000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1909600</v>
+        <v>1908600</v>
       </c>
       <c r="E18" s="3">
-        <v>2319300</v>
+        <v>2318100</v>
       </c>
       <c r="F18" s="3">
-        <v>4299300</v>
+        <v>4297000</v>
       </c>
       <c r="G18" s="3">
-        <v>4285900</v>
+        <v>4283700</v>
       </c>
       <c r="H18" s="3">
-        <v>3614800</v>
+        <v>3613000</v>
       </c>
       <c r="I18" s="3">
-        <v>2429600</v>
+        <v>2428400</v>
       </c>
       <c r="J18" s="3">
-        <v>1868900</v>
+        <v>1867900</v>
       </c>
       <c r="K18" s="3">
         <v>-176500</v>
@@ -1157,22 +1157,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1025200</v>
+        <v>1024700</v>
       </c>
       <c r="E20" s="3">
-        <v>1033300</v>
+        <v>1032800</v>
       </c>
       <c r="F20" s="3">
-        <v>1134100</v>
+        <v>1133500</v>
       </c>
       <c r="G20" s="3">
-        <v>1284400</v>
+        <v>1283800</v>
       </c>
       <c r="H20" s="3">
-        <v>988100</v>
+        <v>987600</v>
       </c>
       <c r="I20" s="3">
-        <v>1551100</v>
+        <v>1550300</v>
       </c>
       <c r="J20" s="3">
         <v>145900</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4855900</v>
+        <v>4846400</v>
       </c>
       <c r="E21" s="3">
-        <v>5227500</v>
+        <v>5218100</v>
       </c>
       <c r="F21" s="3">
-        <v>7358800</v>
+        <v>7348100</v>
       </c>
       <c r="G21" s="3">
-        <v>7402200</v>
+        <v>7391800</v>
       </c>
       <c r="H21" s="3">
-        <v>6350000</v>
+        <v>6340400</v>
       </c>
       <c r="I21" s="3">
-        <v>5508500</v>
+        <v>5500100</v>
       </c>
       <c r="J21" s="3">
-        <v>3456300</v>
+        <v>3449300</v>
       </c>
       <c r="K21" s="3">
         <v>1590200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1917000</v>
+        <v>1916100</v>
       </c>
       <c r="E22" s="3">
-        <v>1748100</v>
+        <v>1747200</v>
       </c>
       <c r="F22" s="3">
-        <v>1650400</v>
+        <v>1649500</v>
       </c>
       <c r="G22" s="3">
-        <v>1728100</v>
+        <v>1727300</v>
       </c>
       <c r="H22" s="3">
-        <v>1677800</v>
+        <v>1676900</v>
       </c>
       <c r="I22" s="3">
-        <v>1531900</v>
+        <v>1531100</v>
       </c>
       <c r="J22" s="3">
-        <v>1394800</v>
+        <v>1394100</v>
       </c>
       <c r="K22" s="3">
         <v>1115800</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1017800</v>
+        <v>1017300</v>
       </c>
       <c r="E23" s="3">
-        <v>1604400</v>
+        <v>1603600</v>
       </c>
       <c r="F23" s="3">
-        <v>3783000</v>
+        <v>3781000</v>
       </c>
       <c r="G23" s="3">
-        <v>3842200</v>
+        <v>3840200</v>
       </c>
       <c r="H23" s="3">
-        <v>2925200</v>
+        <v>2923700</v>
       </c>
       <c r="I23" s="3">
-        <v>2448900</v>
+        <v>2447600</v>
       </c>
       <c r="J23" s="3">
-        <v>620000</v>
+        <v>619700</v>
       </c>
       <c r="K23" s="3">
         <v>-830500</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>436300</v>
+        <v>436100</v>
       </c>
       <c r="E24" s="3">
-        <v>88900</v>
+        <v>88800</v>
       </c>
       <c r="F24" s="3">
-        <v>143700</v>
+        <v>143600</v>
       </c>
       <c r="G24" s="3">
-        <v>558500</v>
+        <v>558200</v>
       </c>
       <c r="H24" s="3">
-        <v>443700</v>
+        <v>443500</v>
       </c>
       <c r="I24" s="3">
-        <v>529600</v>
+        <v>529400</v>
       </c>
       <c r="J24" s="3">
-        <v>260700</v>
+        <v>260600</v>
       </c>
       <c r="K24" s="3">
         <v>25500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>581500</v>
+        <v>581200</v>
       </c>
       <c r="E26" s="3">
-        <v>1515600</v>
+        <v>1514800</v>
       </c>
       <c r="F26" s="3">
-        <v>3639300</v>
+        <v>3637400</v>
       </c>
       <c r="G26" s="3">
-        <v>3283700</v>
+        <v>3282000</v>
       </c>
       <c r="H26" s="3">
-        <v>2481500</v>
+        <v>2480200</v>
       </c>
       <c r="I26" s="3">
-        <v>1919300</v>
+        <v>1918300</v>
       </c>
       <c r="J26" s="3">
-        <v>359300</v>
+        <v>359100</v>
       </c>
       <c r="K26" s="3">
         <v>-856000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474800</v>
+        <v>474600</v>
       </c>
       <c r="E27" s="3">
-        <v>1344400</v>
+        <v>1343800</v>
       </c>
       <c r="F27" s="3">
-        <v>3301500</v>
+        <v>3299800</v>
       </c>
       <c r="G27" s="3">
-        <v>2945200</v>
+        <v>2943700</v>
       </c>
       <c r="H27" s="3">
-        <v>2497800</v>
+        <v>2496500</v>
       </c>
       <c r="I27" s="3">
-        <v>1624400</v>
+        <v>1623600</v>
       </c>
       <c r="J27" s="3">
-        <v>91900</v>
+        <v>91800</v>
       </c>
       <c r="K27" s="3">
         <v>-931100</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>123700</v>
+        <v>123600</v>
       </c>
       <c r="I29" s="3">
-        <v>595600</v>
+        <v>595200</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1661,22 +1661,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1025200</v>
+        <v>-1024700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1033300</v>
+        <v>-1032800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1134100</v>
+        <v>-1133500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1284400</v>
+        <v>-1283800</v>
       </c>
       <c r="H32" s="3">
-        <v>-988100</v>
+        <v>-987600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1551100</v>
+        <v>-1550300</v>
       </c>
       <c r="J32" s="3">
         <v>-145900</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474800</v>
+        <v>474600</v>
       </c>
       <c r="E33" s="3">
-        <v>1344400</v>
+        <v>1343800</v>
       </c>
       <c r="F33" s="3">
-        <v>3301500</v>
+        <v>3299800</v>
       </c>
       <c r="G33" s="3">
-        <v>2945200</v>
+        <v>2943700</v>
       </c>
       <c r="H33" s="3">
-        <v>2621500</v>
+        <v>2620100</v>
       </c>
       <c r="I33" s="3">
-        <v>2220000</v>
+        <v>2218900</v>
       </c>
       <c r="J33" s="3">
-        <v>91900</v>
+        <v>91800</v>
       </c>
       <c r="K33" s="3">
         <v>-931100</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474800</v>
+        <v>474600</v>
       </c>
       <c r="E35" s="3">
-        <v>1344400</v>
+        <v>1343800</v>
       </c>
       <c r="F35" s="3">
-        <v>3301500</v>
+        <v>3299800</v>
       </c>
       <c r="G35" s="3">
-        <v>2945200</v>
+        <v>2943700</v>
       </c>
       <c r="H35" s="3">
-        <v>2621500</v>
+        <v>2620100</v>
       </c>
       <c r="I35" s="3">
-        <v>2220000</v>
+        <v>2218900</v>
       </c>
       <c r="J35" s="3">
-        <v>91900</v>
+        <v>91800</v>
       </c>
       <c r="K35" s="3">
         <v>-931100</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>459300</v>
+        <v>459000</v>
       </c>
       <c r="E41" s="3">
-        <v>498500</v>
+        <v>498300</v>
       </c>
       <c r="F41" s="3">
-        <v>1133300</v>
+        <v>1132800</v>
       </c>
       <c r="G41" s="3">
-        <v>994800</v>
+        <v>994300</v>
       </c>
       <c r="H41" s="3">
-        <v>330400</v>
+        <v>330200</v>
       </c>
       <c r="I41" s="3">
-        <v>806700</v>
+        <v>806300</v>
       </c>
       <c r="J41" s="3">
-        <v>752600</v>
+        <v>752200</v>
       </c>
       <c r="K41" s="3">
         <v>638200</v>
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>139300</v>
+        <v>139200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>531100</v>
+        <v>530800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2799300</v>
+        <v>2797800</v>
       </c>
       <c r="E43" s="3">
-        <v>3341500</v>
+        <v>3339800</v>
       </c>
       <c r="F43" s="3">
-        <v>1699300</v>
+        <v>1698400</v>
       </c>
       <c r="G43" s="3">
-        <v>1907400</v>
+        <v>1906400</v>
       </c>
       <c r="H43" s="3">
-        <v>1995600</v>
+        <v>1994500</v>
       </c>
       <c r="I43" s="3">
-        <v>1868100</v>
+        <v>1867200</v>
       </c>
       <c r="J43" s="3">
-        <v>1537000</v>
+        <v>1536200</v>
       </c>
       <c r="K43" s="3">
         <v>1041400</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>693300</v>
+        <v>693000</v>
       </c>
       <c r="E44" s="3">
-        <v>536300</v>
+        <v>536000</v>
       </c>
       <c r="F44" s="3">
-        <v>465900</v>
+        <v>465700</v>
       </c>
       <c r="G44" s="3">
-        <v>334800</v>
+        <v>334600</v>
       </c>
       <c r="H44" s="3">
-        <v>319300</v>
+        <v>319100</v>
       </c>
       <c r="I44" s="3">
-        <v>280000</v>
+        <v>279900</v>
       </c>
       <c r="J44" s="3">
-        <v>272600</v>
+        <v>272500</v>
       </c>
       <c r="K44" s="3">
         <v>242500</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1479300</v>
+        <v>1478500</v>
       </c>
       <c r="E45" s="3">
-        <v>1122200</v>
+        <v>1121600</v>
       </c>
       <c r="F45" s="3">
-        <v>414800</v>
+        <v>414600</v>
       </c>
       <c r="G45" s="3">
-        <v>2430400</v>
+        <v>2429100</v>
       </c>
       <c r="H45" s="3">
-        <v>627400</v>
+        <v>627100</v>
       </c>
       <c r="I45" s="3">
-        <v>511900</v>
+        <v>511600</v>
       </c>
       <c r="J45" s="3">
-        <v>3425900</v>
+        <v>3424200</v>
       </c>
       <c r="K45" s="3">
         <v>1537800</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5431100</v>
+        <v>5428300</v>
       </c>
       <c r="E46" s="3">
-        <v>5498500</v>
+        <v>5495700</v>
       </c>
       <c r="F46" s="3">
-        <v>3852600</v>
+        <v>3850600</v>
       </c>
       <c r="G46" s="3">
-        <v>5667400</v>
+        <v>5664500</v>
       </c>
       <c r="H46" s="3">
-        <v>3803700</v>
+        <v>3801700</v>
       </c>
       <c r="I46" s="3">
-        <v>3466700</v>
+        <v>3464900</v>
       </c>
       <c r="J46" s="3">
-        <v>5988100</v>
+        <v>5985100</v>
       </c>
       <c r="K46" s="3">
         <v>2941900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8729600</v>
+        <v>8725100</v>
       </c>
       <c r="E47" s="3">
-        <v>6613300</v>
+        <v>6609900</v>
       </c>
       <c r="F47" s="3">
-        <v>6093300</v>
+        <v>6090200</v>
       </c>
       <c r="G47" s="3">
-        <v>5881500</v>
+        <v>5878500</v>
       </c>
       <c r="H47" s="3">
-        <v>6280000</v>
+        <v>6276800</v>
       </c>
       <c r="I47" s="3">
-        <v>5447400</v>
+        <v>5444600</v>
       </c>
       <c r="J47" s="3">
-        <v>4934800</v>
+        <v>4932300</v>
       </c>
       <c r="K47" s="3">
         <v>4879800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56251800</v>
+        <v>56222900</v>
       </c>
       <c r="E48" s="3">
-        <v>51986600</v>
+        <v>51959900</v>
       </c>
       <c r="F48" s="3">
-        <v>51685100</v>
+        <v>51658600</v>
       </c>
       <c r="G48" s="3">
-        <v>48510300</v>
+        <v>48485400</v>
       </c>
       <c r="H48" s="3">
-        <v>49261400</v>
+        <v>49236200</v>
       </c>
       <c r="I48" s="3">
-        <v>42427400</v>
+        <v>42405600</v>
       </c>
       <c r="J48" s="3">
-        <v>40351800</v>
+        <v>40331100</v>
       </c>
       <c r="K48" s="3">
         <v>67302600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9513300</v>
+        <v>9508400</v>
       </c>
       <c r="E49" s="3">
-        <v>9320000</v>
+        <v>9315200</v>
       </c>
       <c r="F49" s="3">
-        <v>9391800</v>
+        <v>9387000</v>
       </c>
       <c r="G49" s="3">
-        <v>9545900</v>
+        <v>9541000</v>
       </c>
       <c r="H49" s="3">
-        <v>10502200</v>
+        <v>10496800</v>
       </c>
       <c r="I49" s="3">
-        <v>9691800</v>
+        <v>9686900</v>
       </c>
       <c r="J49" s="3">
-        <v>10339200</v>
+        <v>10333900</v>
       </c>
       <c r="K49" s="3">
         <v>5981400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4776300</v>
+        <v>4773800</v>
       </c>
       <c r="E52" s="3">
-        <v>3780000</v>
+        <v>3778100</v>
       </c>
       <c r="F52" s="3">
-        <v>3273300</v>
+        <v>3271700</v>
       </c>
       <c r="G52" s="3">
-        <v>3934800</v>
+        <v>3932800</v>
       </c>
       <c r="H52" s="3">
-        <v>3426700</v>
+        <v>3424900</v>
       </c>
       <c r="I52" s="3">
-        <v>2745200</v>
+        <v>2743800</v>
       </c>
       <c r="J52" s="3">
-        <v>3608900</v>
+        <v>3607000</v>
       </c>
       <c r="K52" s="3">
         <v>3169400</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84702100</v>
+        <v>84658700</v>
       </c>
       <c r="E54" s="3">
-        <v>77198400</v>
+        <v>77158800</v>
       </c>
       <c r="F54" s="3">
-        <v>74296200</v>
+        <v>74258100</v>
       </c>
       <c r="G54" s="3">
-        <v>73539900</v>
+        <v>73502200</v>
       </c>
       <c r="H54" s="3">
-        <v>73274000</v>
+        <v>73236400</v>
       </c>
       <c r="I54" s="3">
-        <v>63778500</v>
+        <v>63745700</v>
       </c>
       <c r="J54" s="3">
-        <v>65222900</v>
+        <v>65189400</v>
       </c>
       <c r="K54" s="3">
         <v>48353900</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4086700</v>
+        <v>4084600</v>
       </c>
       <c r="E57" s="3">
-        <v>3098500</v>
+        <v>3096900</v>
       </c>
       <c r="F57" s="3">
-        <v>2264400</v>
+        <v>2263300</v>
       </c>
       <c r="G57" s="3">
-        <v>2765200</v>
+        <v>2763800</v>
       </c>
       <c r="H57" s="3">
-        <v>2885200</v>
+        <v>2883700</v>
       </c>
       <c r="I57" s="3">
-        <v>2718500</v>
+        <v>2717100</v>
       </c>
       <c r="J57" s="3">
-        <v>2044400</v>
+        <v>2043400</v>
       </c>
       <c r="K57" s="3">
         <v>2745900</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6044400</v>
+        <v>6041300</v>
       </c>
       <c r="E58" s="3">
-        <v>4804400</v>
+        <v>4802000</v>
       </c>
       <c r="F58" s="3">
-        <v>4554100</v>
+        <v>4551700</v>
       </c>
       <c r="G58" s="3">
-        <v>5188900</v>
+        <v>5186200</v>
       </c>
       <c r="H58" s="3">
-        <v>4610400</v>
+        <v>4608000</v>
       </c>
       <c r="I58" s="3">
-        <v>3428900</v>
+        <v>3427100</v>
       </c>
       <c r="J58" s="3">
-        <v>1934800</v>
+        <v>1933800</v>
       </c>
       <c r="K58" s="3">
         <v>2827000</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2392600</v>
+        <v>2391400</v>
       </c>
       <c r="E59" s="3">
-        <v>1757000</v>
+        <v>1756100</v>
       </c>
       <c r="F59" s="3">
-        <v>2060700</v>
+        <v>2059700</v>
       </c>
       <c r="G59" s="3">
-        <v>1600700</v>
+        <v>1599900</v>
       </c>
       <c r="H59" s="3">
-        <v>2094100</v>
+        <v>2093000</v>
       </c>
       <c r="I59" s="3">
-        <v>1168900</v>
+        <v>1168300</v>
       </c>
       <c r="J59" s="3">
-        <v>1709600</v>
+        <v>1708800</v>
       </c>
       <c r="K59" s="3">
         <v>1528000</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12523700</v>
+        <v>12517300</v>
       </c>
       <c r="E60" s="3">
-        <v>9660000</v>
+        <v>9655000</v>
       </c>
       <c r="F60" s="3">
-        <v>8879300</v>
+        <v>8874700</v>
       </c>
       <c r="G60" s="3">
-        <v>9554800</v>
+        <v>9549900</v>
       </c>
       <c r="H60" s="3">
-        <v>9589600</v>
+        <v>9584700</v>
       </c>
       <c r="I60" s="3">
-        <v>7316300</v>
+        <v>7312500</v>
       </c>
       <c r="J60" s="3">
-        <v>5688900</v>
+        <v>5686000</v>
       </c>
       <c r="K60" s="3">
         <v>5527800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37140700</v>
+        <v>37121700</v>
       </c>
       <c r="E61" s="3">
-        <v>34281400</v>
+        <v>34263900</v>
       </c>
       <c r="F61" s="3">
-        <v>32156300</v>
+        <v>32139800</v>
       </c>
       <c r="G61" s="3">
-        <v>31773300</v>
+        <v>31757000</v>
       </c>
       <c r="H61" s="3">
-        <v>32605200</v>
+        <v>32588400</v>
       </c>
       <c r="I61" s="3">
-        <v>28801500</v>
+        <v>28786700</v>
       </c>
       <c r="J61" s="3">
-        <v>31291100</v>
+        <v>31275000</v>
       </c>
       <c r="K61" s="3">
         <v>23515400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9766700</v>
+        <v>9761600</v>
       </c>
       <c r="E62" s="3">
-        <v>8519300</v>
+        <v>8514900</v>
       </c>
       <c r="F62" s="3">
-        <v>8465900</v>
+        <v>8461600</v>
       </c>
       <c r="G62" s="3">
-        <v>8214100</v>
+        <v>8209900</v>
       </c>
       <c r="H62" s="3">
-        <v>8121500</v>
+        <v>8117300</v>
       </c>
       <c r="I62" s="3">
-        <v>7741500</v>
+        <v>7737500</v>
       </c>
       <c r="J62" s="3">
-        <v>8996300</v>
+        <v>8991700</v>
       </c>
       <c r="K62" s="3">
         <v>6624800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59524400</v>
+        <v>59493800</v>
       </c>
       <c r="E66" s="3">
-        <v>52553300</v>
+        <v>52526300</v>
       </c>
       <c r="F66" s="3">
-        <v>51038500</v>
+        <v>51012300</v>
       </c>
       <c r="G66" s="3">
-        <v>50752500</v>
+        <v>50726500</v>
       </c>
       <c r="H66" s="3">
-        <v>51542200</v>
+        <v>51515700</v>
       </c>
       <c r="I66" s="3">
-        <v>45231100</v>
+        <v>45207900</v>
       </c>
       <c r="J66" s="3">
-        <v>47254800</v>
+        <v>47230500</v>
       </c>
       <c r="K66" s="3">
         <v>36011200</v>
@@ -3058,25 +3058,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1851100</v>
+        <v>1850200</v>
       </c>
       <c r="E70" s="3">
-        <v>2583000</v>
+        <v>2581600</v>
       </c>
       <c r="F70" s="3">
-        <v>2948100</v>
+        <v>2946600</v>
       </c>
       <c r="G70" s="3">
-        <v>2948100</v>
+        <v>2946600</v>
       </c>
       <c r="H70" s="3">
-        <v>2948100</v>
+        <v>2946600</v>
       </c>
       <c r="I70" s="3">
-        <v>2948100</v>
+        <v>2946600</v>
       </c>
       <c r="J70" s="3">
-        <v>2948100</v>
+        <v>2946600</v>
       </c>
       <c r="K70" s="3">
         <v>1876400</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>606700</v>
+        <v>606400</v>
       </c>
       <c r="E72" s="3">
-        <v>2794800</v>
+        <v>2793400</v>
       </c>
       <c r="F72" s="3">
-        <v>3975600</v>
+        <v>3973500</v>
       </c>
       <c r="G72" s="3">
-        <v>2929600</v>
+        <v>2928100</v>
       </c>
       <c r="H72" s="3">
-        <v>2054100</v>
+        <v>2053000</v>
       </c>
       <c r="I72" s="3">
-        <v>1202200</v>
+        <v>1201600</v>
       </c>
       <c r="J72" s="3">
-        <v>843000</v>
+        <v>842500</v>
       </c>
       <c r="K72" s="3">
         <v>2079100</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23326700</v>
+        <v>23314600</v>
       </c>
       <c r="E76" s="3">
-        <v>22062200</v>
+        <v>22050900</v>
       </c>
       <c r="F76" s="3">
-        <v>20309700</v>
+        <v>20299200</v>
       </c>
       <c r="G76" s="3">
-        <v>19839300</v>
+        <v>19829100</v>
       </c>
       <c r="H76" s="3">
-        <v>18783700</v>
+        <v>18774100</v>
       </c>
       <c r="I76" s="3">
-        <v>15599300</v>
+        <v>15591300</v>
       </c>
       <c r="J76" s="3">
-        <v>15020000</v>
+        <v>15012300</v>
       </c>
       <c r="K76" s="3">
         <v>10466200</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474800</v>
+        <v>474600</v>
       </c>
       <c r="E81" s="3">
-        <v>1344400</v>
+        <v>1343800</v>
       </c>
       <c r="F81" s="3">
-        <v>3301500</v>
+        <v>3299800</v>
       </c>
       <c r="G81" s="3">
-        <v>2945200</v>
+        <v>2943700</v>
       </c>
       <c r="H81" s="3">
-        <v>2621500</v>
+        <v>2620100</v>
       </c>
       <c r="I81" s="3">
-        <v>2220000</v>
+        <v>2218900</v>
       </c>
       <c r="J81" s="3">
-        <v>91900</v>
+        <v>91800</v>
       </c>
       <c r="K81" s="3">
         <v>-931100</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1914100</v>
+        <v>1913100</v>
       </c>
       <c r="E83" s="3">
-        <v>1868100</v>
+        <v>1867200</v>
       </c>
       <c r="F83" s="3">
-        <v>1918500</v>
+        <v>1917500</v>
       </c>
       <c r="G83" s="3">
-        <v>1825200</v>
+        <v>1824200</v>
       </c>
       <c r="H83" s="3">
-        <v>1740700</v>
+        <v>1739800</v>
       </c>
       <c r="I83" s="3">
-        <v>1522200</v>
+        <v>1521400</v>
       </c>
       <c r="J83" s="3">
-        <v>1436300</v>
+        <v>1435600</v>
       </c>
       <c r="K83" s="3">
         <v>1325300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4722200</v>
+        <v>4719800</v>
       </c>
       <c r="E89" s="3">
-        <v>5103700</v>
+        <v>5101100</v>
       </c>
       <c r="F89" s="3">
-        <v>5228100</v>
+        <v>5225500</v>
       </c>
       <c r="G89" s="3">
-        <v>5245900</v>
+        <v>5243200</v>
       </c>
       <c r="H89" s="3">
-        <v>4855600</v>
+        <v>4853100</v>
       </c>
       <c r="I89" s="3">
-        <v>3874100</v>
+        <v>3872100</v>
       </c>
       <c r="J89" s="3">
-        <v>3754800</v>
+        <v>3752900</v>
       </c>
       <c r="K89" s="3">
         <v>3089800</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4983000</v>
+        <v>-4980400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4388100</v>
+        <v>-4385900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6025900</v>
+        <v>-6022800</v>
       </c>
       <c r="G91" s="3">
-        <v>-6060700</v>
+        <v>-6057600</v>
       </c>
       <c r="H91" s="3">
-        <v>-7343700</v>
+        <v>-7339900</v>
       </c>
       <c r="I91" s="3">
-        <v>-5577000</v>
+        <v>-5574200</v>
       </c>
       <c r="J91" s="3">
-        <v>-3927400</v>
+        <v>-3925400</v>
       </c>
       <c r="K91" s="3">
         <v>-3325600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5191800</v>
+        <v>-5189200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5712600</v>
+        <v>-5709700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4483000</v>
+        <v>-4480700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5090400</v>
+        <v>-5087800</v>
       </c>
       <c r="H94" s="3">
-        <v>-7421500</v>
+        <v>-7417700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2740000</v>
+        <v>-2738600</v>
       </c>
       <c r="J94" s="3">
-        <v>-13913300</v>
+        <v>-13906200</v>
       </c>
       <c r="K94" s="3">
         <v>-3461500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2443000</v>
+        <v>-2441700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2561500</v>
+        <v>-2560200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2330400</v>
+        <v>-2329200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1450400</v>
+        <v>-1449600</v>
       </c>
       <c r="H96" s="3">
-        <v>-1280700</v>
+        <v>-1280100</v>
       </c>
       <c r="I96" s="3">
-        <v>-1106700</v>
+        <v>-1106100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1137800</v>
+        <v>-1137200</v>
       </c>
       <c r="K96" s="3">
         <v>-1154800</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>360700</v>
+        <v>360600</v>
       </c>
       <c r="E100" s="3">
         <v>-65200</v>
       </c>
       <c r="F100" s="3">
-        <v>-592600</v>
+        <v>-592300</v>
       </c>
       <c r="G100" s="3">
-        <v>513300</v>
+        <v>513100</v>
       </c>
       <c r="H100" s="3">
-        <v>2035600</v>
+        <v>2034500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1051100</v>
+        <v>-1050600</v>
       </c>
       <c r="J100" s="3">
-        <v>10375500</v>
+        <v>10370200</v>
       </c>
       <c r="K100" s="3">
         <v>558600</v>
@@ -4212,7 +4212,7 @@
         <v>69600</v>
       </c>
       <c r="E101" s="3">
-        <v>39300</v>
+        <v>39200</v>
       </c>
       <c r="F101" s="3">
         <v>-14100</v>
@@ -4221,13 +4221,13 @@
         <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>54100</v>
+        <v>54000</v>
       </c>
       <c r="I101" s="3">
         <v>-28900</v>
       </c>
       <c r="J101" s="3">
-        <v>-94100</v>
+        <v>-94000</v>
       </c>
       <c r="K101" s="3">
         <v>84100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39300</v>
+        <v>-39200</v>
       </c>
       <c r="E102" s="3">
-        <v>-634800</v>
+        <v>-634500</v>
       </c>
       <c r="F102" s="3">
-        <v>138500</v>
+        <v>138400</v>
       </c>
       <c r="G102" s="3">
-        <v>664400</v>
+        <v>664100</v>
       </c>
       <c r="H102" s="3">
-        <v>-476300</v>
+        <v>-476100</v>
       </c>
       <c r="I102" s="3">
-        <v>54100</v>
+        <v>54000</v>
       </c>
       <c r="J102" s="3">
-        <v>123000</v>
+        <v>122900</v>
       </c>
       <c r="K102" s="3">
         <v>271100</v>

--- a/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TRP_YR_FIN.xlsx
@@ -728,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11088400</v>
+        <v>10888400</v>
       </c>
       <c r="E8" s="3">
-        <v>9911200</v>
+        <v>9732500</v>
       </c>
       <c r="F8" s="3">
-        <v>9623900</v>
+        <v>9450400</v>
       </c>
       <c r="G8" s="3">
-        <v>9813500</v>
+        <v>9636500</v>
       </c>
       <c r="H8" s="3">
-        <v>10127400</v>
+        <v>9944800</v>
       </c>
       <c r="I8" s="3">
-        <v>9957100</v>
+        <v>9777600</v>
       </c>
       <c r="J8" s="3">
-        <v>9289300</v>
+        <v>9121800</v>
       </c>
       <c r="K8" s="3">
         <v>8524500</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3651500</v>
+        <v>3585600</v>
       </c>
       <c r="E9" s="3">
-        <v>3034000</v>
+        <v>2979300</v>
       </c>
       <c r="F9" s="3">
-        <v>2871100</v>
+        <v>2819300</v>
       </c>
       <c r="G9" s="3">
-        <v>2894100</v>
+        <v>2841900</v>
       </c>
       <c r="H9" s="3">
-        <v>2658600</v>
+        <v>2610700</v>
       </c>
       <c r="I9" s="3">
-        <v>2891800</v>
+        <v>2839700</v>
       </c>
       <c r="J9" s="3">
-        <v>2858500</v>
+        <v>2807000</v>
       </c>
       <c r="K9" s="3">
         <v>2480100</v>
@@ -812,25 +812,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7436900</v>
+        <v>7302800</v>
       </c>
       <c r="E10" s="3">
-        <v>6877200</v>
+        <v>6753200</v>
       </c>
       <c r="F10" s="3">
-        <v>6752800</v>
+        <v>6631100</v>
       </c>
       <c r="G10" s="3">
-        <v>6919400</v>
+        <v>6794600</v>
       </c>
       <c r="H10" s="3">
-        <v>7468800</v>
+        <v>7334100</v>
       </c>
       <c r="I10" s="3">
-        <v>7065300</v>
+        <v>6937900</v>
       </c>
       <c r="J10" s="3">
-        <v>6430800</v>
+        <v>6314800</v>
       </c>
       <c r="K10" s="3">
         <v>6044400</v>
@@ -956,10 +956,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2592000</v>
+        <v>2545300</v>
       </c>
       <c r="E14" s="3">
-        <v>2054500</v>
+        <v>2017500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>593000</v>
+        <v>582300</v>
       </c>
       <c r="I14" s="3">
-        <v>930600</v>
+        <v>913900</v>
       </c>
       <c r="J14" s="3">
-        <v>1108300</v>
+        <v>1088300</v>
       </c>
       <c r="K14" s="3">
         <v>2827700</v>
@@ -998,25 +998,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1913100</v>
+        <v>1878600</v>
       </c>
       <c r="E15" s="3">
-        <v>1867200</v>
+        <v>1833500</v>
       </c>
       <c r="F15" s="3">
-        <v>1917500</v>
+        <v>1883000</v>
       </c>
       <c r="G15" s="3">
-        <v>1824200</v>
+        <v>1791400</v>
       </c>
       <c r="H15" s="3">
-        <v>1739800</v>
+        <v>1708500</v>
       </c>
       <c r="I15" s="3">
-        <v>1521400</v>
+        <v>1494000</v>
       </c>
       <c r="J15" s="3">
-        <v>1435600</v>
+        <v>1409700</v>
       </c>
       <c r="K15" s="3">
         <v>1325300</v>
@@ -1055,25 +1055,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9179700</v>
+        <v>9014200</v>
       </c>
       <c r="E17" s="3">
-        <v>7593100</v>
+        <v>7456200</v>
       </c>
       <c r="F17" s="3">
-        <v>5326900</v>
+        <v>5230800</v>
       </c>
       <c r="G17" s="3">
-        <v>5529700</v>
+        <v>5430000</v>
       </c>
       <c r="H17" s="3">
-        <v>6514400</v>
+        <v>6397000</v>
       </c>
       <c r="I17" s="3">
-        <v>7528700</v>
+        <v>7393000</v>
       </c>
       <c r="J17" s="3">
-        <v>7421400</v>
+        <v>7287500</v>
       </c>
       <c r="K17" s="3">
         <v>8701000</v>
@@ -1097,25 +1097,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1908600</v>
+        <v>1874200</v>
       </c>
       <c r="E18" s="3">
-        <v>2318100</v>
+        <v>2276300</v>
       </c>
       <c r="F18" s="3">
-        <v>4297000</v>
+        <v>4219600</v>
       </c>
       <c r="G18" s="3">
-        <v>4283700</v>
+        <v>4206500</v>
       </c>
       <c r="H18" s="3">
-        <v>3613000</v>
+        <v>3547800</v>
       </c>
       <c r="I18" s="3">
-        <v>2428400</v>
+        <v>2384600</v>
       </c>
       <c r="J18" s="3">
-        <v>1867900</v>
+        <v>1834200</v>
       </c>
       <c r="K18" s="3">
         <v>-176500</v>
@@ -1157,25 +1157,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1024700</v>
+        <v>1006200</v>
       </c>
       <c r="E20" s="3">
-        <v>1032800</v>
+        <v>1014200</v>
       </c>
       <c r="F20" s="3">
-        <v>1133500</v>
+        <v>1113100</v>
       </c>
       <c r="G20" s="3">
-        <v>1283800</v>
+        <v>1260600</v>
       </c>
       <c r="H20" s="3">
-        <v>987600</v>
+        <v>969800</v>
       </c>
       <c r="I20" s="3">
-        <v>1550300</v>
+        <v>1522400</v>
       </c>
       <c r="J20" s="3">
-        <v>145900</v>
+        <v>143200</v>
       </c>
       <c r="K20" s="3">
         <v>461800</v>
@@ -1199,25 +1199,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4846400</v>
+        <v>4769600</v>
       </c>
       <c r="E21" s="3">
-        <v>5218100</v>
+        <v>5134300</v>
       </c>
       <c r="F21" s="3">
-        <v>7348100</v>
+        <v>7226200</v>
       </c>
       <c r="G21" s="3">
-        <v>7391800</v>
+        <v>7268500</v>
       </c>
       <c r="H21" s="3">
-        <v>6340400</v>
+        <v>6235700</v>
       </c>
       <c r="I21" s="3">
-        <v>5500100</v>
+        <v>5409400</v>
       </c>
       <c r="J21" s="3">
-        <v>3449300</v>
+        <v>3395100</v>
       </c>
       <c r="K21" s="3">
         <v>1590200</v>
@@ -1241,25 +1241,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1916100</v>
+        <v>1881500</v>
       </c>
       <c r="E22" s="3">
-        <v>1747200</v>
+        <v>1715700</v>
       </c>
       <c r="F22" s="3">
-        <v>1649500</v>
+        <v>1619800</v>
       </c>
       <c r="G22" s="3">
-        <v>1727300</v>
+        <v>1696100</v>
       </c>
       <c r="H22" s="3">
-        <v>1676900</v>
+        <v>1646700</v>
       </c>
       <c r="I22" s="3">
-        <v>1531100</v>
+        <v>1503500</v>
       </c>
       <c r="J22" s="3">
-        <v>1394100</v>
+        <v>1369000</v>
       </c>
       <c r="K22" s="3">
         <v>1115800</v>
@@ -1283,25 +1283,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1017300</v>
+        <v>998900</v>
       </c>
       <c r="E23" s="3">
-        <v>1603600</v>
+        <v>1574700</v>
       </c>
       <c r="F23" s="3">
-        <v>3781000</v>
+        <v>3712800</v>
       </c>
       <c r="G23" s="3">
-        <v>3840200</v>
+        <v>3771000</v>
       </c>
       <c r="H23" s="3">
-        <v>2923700</v>
+        <v>2871000</v>
       </c>
       <c r="I23" s="3">
-        <v>2447600</v>
+        <v>2403500</v>
       </c>
       <c r="J23" s="3">
-        <v>619700</v>
+        <v>608500</v>
       </c>
       <c r="K23" s="3">
         <v>-830500</v>
@@ -1325,25 +1325,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>436100</v>
+        <v>428200</v>
       </c>
       <c r="E24" s="3">
-        <v>88800</v>
+        <v>87200</v>
       </c>
       <c r="F24" s="3">
-        <v>143600</v>
+        <v>141000</v>
       </c>
       <c r="G24" s="3">
-        <v>558200</v>
+        <v>548200</v>
       </c>
       <c r="H24" s="3">
-        <v>443500</v>
+        <v>435500</v>
       </c>
       <c r="I24" s="3">
-        <v>529400</v>
+        <v>519800</v>
       </c>
       <c r="J24" s="3">
-        <v>260600</v>
+        <v>255900</v>
       </c>
       <c r="K24" s="3">
         <v>25500</v>
@@ -1409,25 +1409,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>581200</v>
+        <v>570700</v>
       </c>
       <c r="E26" s="3">
-        <v>1514800</v>
+        <v>1487500</v>
       </c>
       <c r="F26" s="3">
-        <v>3637400</v>
+        <v>3571800</v>
       </c>
       <c r="G26" s="3">
-        <v>3282000</v>
+        <v>3222800</v>
       </c>
       <c r="H26" s="3">
-        <v>2480200</v>
+        <v>2435500</v>
       </c>
       <c r="I26" s="3">
-        <v>1918300</v>
+        <v>1883700</v>
       </c>
       <c r="J26" s="3">
-        <v>359100</v>
+        <v>352600</v>
       </c>
       <c r="K26" s="3">
         <v>-856000</v>
@@ -1451,25 +1451,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474600</v>
+        <v>466000</v>
       </c>
       <c r="E27" s="3">
-        <v>1343800</v>
+        <v>1319500</v>
       </c>
       <c r="F27" s="3">
-        <v>3299800</v>
+        <v>3240300</v>
       </c>
       <c r="G27" s="3">
-        <v>2943700</v>
+        <v>2890600</v>
       </c>
       <c r="H27" s="3">
-        <v>2496500</v>
+        <v>2451500</v>
       </c>
       <c r="I27" s="3">
-        <v>1623600</v>
+        <v>1594300</v>
       </c>
       <c r="J27" s="3">
-        <v>91800</v>
+        <v>90100</v>
       </c>
       <c r="K27" s="3">
         <v>-931100</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>123600</v>
+        <v>121400</v>
       </c>
       <c r="I29" s="3">
-        <v>595200</v>
+        <v>584500</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1661,25 +1661,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1024700</v>
+        <v>-1006200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1032800</v>
+        <v>-1014200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1133500</v>
+        <v>-1113100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1283800</v>
+        <v>-1260600</v>
       </c>
       <c r="H32" s="3">
-        <v>-987600</v>
+        <v>-969800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1550300</v>
+        <v>-1522400</v>
       </c>
       <c r="J32" s="3">
-        <v>-145900</v>
+        <v>-143200</v>
       </c>
       <c r="K32" s="3">
         <v>-461800</v>
@@ -1703,25 +1703,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474600</v>
+        <v>466000</v>
       </c>
       <c r="E33" s="3">
-        <v>1343800</v>
+        <v>1319500</v>
       </c>
       <c r="F33" s="3">
-        <v>3299800</v>
+        <v>3240300</v>
       </c>
       <c r="G33" s="3">
-        <v>2943700</v>
+        <v>2890600</v>
       </c>
       <c r="H33" s="3">
-        <v>2620100</v>
+        <v>2572900</v>
       </c>
       <c r="I33" s="3">
-        <v>2218900</v>
+        <v>2178800</v>
       </c>
       <c r="J33" s="3">
-        <v>91800</v>
+        <v>90100</v>
       </c>
       <c r="K33" s="3">
         <v>-931100</v>
@@ -1787,25 +1787,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474600</v>
+        <v>466000</v>
       </c>
       <c r="E35" s="3">
-        <v>1343800</v>
+        <v>1319500</v>
       </c>
       <c r="F35" s="3">
-        <v>3299800</v>
+        <v>3240300</v>
       </c>
       <c r="G35" s="3">
-        <v>2943700</v>
+        <v>2890600</v>
       </c>
       <c r="H35" s="3">
-        <v>2620100</v>
+        <v>2572900</v>
       </c>
       <c r="I35" s="3">
-        <v>2218900</v>
+        <v>2178800</v>
       </c>
       <c r="J35" s="3">
-        <v>91800</v>
+        <v>90100</v>
       </c>
       <c r="K35" s="3">
         <v>-931100</v>
@@ -1912,25 +1912,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>459000</v>
+        <v>450700</v>
       </c>
       <c r="E41" s="3">
-        <v>498300</v>
+        <v>489300</v>
       </c>
       <c r="F41" s="3">
-        <v>1132800</v>
+        <v>1112300</v>
       </c>
       <c r="G41" s="3">
-        <v>994300</v>
+        <v>976400</v>
       </c>
       <c r="H41" s="3">
-        <v>330200</v>
+        <v>324200</v>
       </c>
       <c r="I41" s="3">
-        <v>806300</v>
+        <v>791700</v>
       </c>
       <c r="J41" s="3">
-        <v>752200</v>
+        <v>738600</v>
       </c>
       <c r="K41" s="3">
         <v>638200</v>
@@ -1960,13 +1960,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>139200</v>
+        <v>136700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>530800</v>
+        <v>521300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2797800</v>
+        <v>2747400</v>
       </c>
       <c r="E43" s="3">
-        <v>3339800</v>
+        <v>3279500</v>
       </c>
       <c r="F43" s="3">
-        <v>1698400</v>
+        <v>1667800</v>
       </c>
       <c r="G43" s="3">
-        <v>1906400</v>
+        <v>1872100</v>
       </c>
       <c r="H43" s="3">
-        <v>1994500</v>
+        <v>1958600</v>
       </c>
       <c r="I43" s="3">
-        <v>1867200</v>
+        <v>1833500</v>
       </c>
       <c r="J43" s="3">
-        <v>1536200</v>
+        <v>1508500</v>
       </c>
       <c r="K43" s="3">
         <v>1041400</v>
@@ -2038,25 +2038,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>693000</v>
+        <v>680500</v>
       </c>
       <c r="E44" s="3">
-        <v>536000</v>
+        <v>526400</v>
       </c>
       <c r="F44" s="3">
-        <v>465700</v>
+        <v>457300</v>
       </c>
       <c r="G44" s="3">
-        <v>334600</v>
+        <v>328600</v>
       </c>
       <c r="H44" s="3">
-        <v>319100</v>
+        <v>313300</v>
       </c>
       <c r="I44" s="3">
-        <v>279900</v>
+        <v>274800</v>
       </c>
       <c r="J44" s="3">
-        <v>272500</v>
+        <v>267500</v>
       </c>
       <c r="K44" s="3">
         <v>242500</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1478500</v>
+        <v>1451800</v>
       </c>
       <c r="E45" s="3">
-        <v>1121600</v>
+        <v>1101400</v>
       </c>
       <c r="F45" s="3">
-        <v>414600</v>
+        <v>407100</v>
       </c>
       <c r="G45" s="3">
-        <v>2429100</v>
+        <v>2385300</v>
       </c>
       <c r="H45" s="3">
-        <v>627100</v>
+        <v>615800</v>
       </c>
       <c r="I45" s="3">
-        <v>511600</v>
+        <v>502400</v>
       </c>
       <c r="J45" s="3">
-        <v>3424200</v>
+        <v>3362400</v>
       </c>
       <c r="K45" s="3">
         <v>1537800</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5428300</v>
+        <v>5330400</v>
       </c>
       <c r="E46" s="3">
-        <v>5495700</v>
+        <v>5396600</v>
       </c>
       <c r="F46" s="3">
-        <v>3850600</v>
+        <v>3781200</v>
       </c>
       <c r="G46" s="3">
-        <v>5664500</v>
+        <v>5562400</v>
       </c>
       <c r="H46" s="3">
-        <v>3801700</v>
+        <v>3733200</v>
       </c>
       <c r="I46" s="3">
-        <v>3464900</v>
+        <v>3402400</v>
       </c>
       <c r="J46" s="3">
-        <v>5985100</v>
+        <v>5877100</v>
       </c>
       <c r="K46" s="3">
         <v>2941900</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8725100</v>
+        <v>8567800</v>
       </c>
       <c r="E47" s="3">
-        <v>6609900</v>
+        <v>6490700</v>
       </c>
       <c r="F47" s="3">
-        <v>6090200</v>
+        <v>5980400</v>
       </c>
       <c r="G47" s="3">
-        <v>5878500</v>
+        <v>5772500</v>
       </c>
       <c r="H47" s="3">
-        <v>6276800</v>
+        <v>6163600</v>
       </c>
       <c r="I47" s="3">
-        <v>5444600</v>
+        <v>5346400</v>
       </c>
       <c r="J47" s="3">
-        <v>4932300</v>
+        <v>4843300</v>
       </c>
       <c r="K47" s="3">
         <v>4879800</v>
@@ -2206,25 +2206,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56222900</v>
+        <v>55209100</v>
       </c>
       <c r="E48" s="3">
-        <v>51959900</v>
+        <v>51023000</v>
       </c>
       <c r="F48" s="3">
-        <v>51658600</v>
+        <v>50727100</v>
       </c>
       <c r="G48" s="3">
-        <v>48485400</v>
+        <v>47611200</v>
       </c>
       <c r="H48" s="3">
-        <v>49236200</v>
+        <v>48348300</v>
       </c>
       <c r="I48" s="3">
-        <v>42405600</v>
+        <v>41641000</v>
       </c>
       <c r="J48" s="3">
-        <v>40331100</v>
+        <v>39603900</v>
       </c>
       <c r="K48" s="3">
         <v>67302600</v>
@@ -2248,25 +2248,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9508400</v>
+        <v>9337000</v>
       </c>
       <c r="E49" s="3">
-        <v>9315200</v>
+        <v>9147200</v>
       </c>
       <c r="F49" s="3">
-        <v>9387000</v>
+        <v>9217800</v>
       </c>
       <c r="G49" s="3">
-        <v>9541000</v>
+        <v>9369000</v>
       </c>
       <c r="H49" s="3">
-        <v>10496800</v>
+        <v>10307500</v>
       </c>
       <c r="I49" s="3">
-        <v>9686900</v>
+        <v>9512200</v>
       </c>
       <c r="J49" s="3">
-        <v>10333900</v>
+        <v>10147600</v>
       </c>
       <c r="K49" s="3">
         <v>5981400</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4773800</v>
+        <v>4687800</v>
       </c>
       <c r="E52" s="3">
-        <v>3778100</v>
+        <v>3709900</v>
       </c>
       <c r="F52" s="3">
-        <v>3271700</v>
+        <v>3212700</v>
       </c>
       <c r="G52" s="3">
-        <v>3932800</v>
+        <v>3861900</v>
       </c>
       <c r="H52" s="3">
-        <v>3424900</v>
+        <v>3363100</v>
       </c>
       <c r="I52" s="3">
-        <v>2743800</v>
+        <v>2694300</v>
       </c>
       <c r="J52" s="3">
-        <v>3607000</v>
+        <v>3542000</v>
       </c>
       <c r="K52" s="3">
         <v>3169400</v>
@@ -2458,25 +2458,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84658700</v>
+        <v>83132100</v>
       </c>
       <c r="E54" s="3">
-        <v>77158800</v>
+        <v>75767500</v>
       </c>
       <c r="F54" s="3">
-        <v>74258100</v>
+        <v>72919100</v>
       </c>
       <c r="G54" s="3">
-        <v>73502200</v>
+        <v>72176800</v>
       </c>
       <c r="H54" s="3">
-        <v>73236400</v>
+        <v>71915800</v>
       </c>
       <c r="I54" s="3">
-        <v>63745700</v>
+        <v>62596300</v>
       </c>
       <c r="J54" s="3">
-        <v>65189400</v>
+        <v>64014000</v>
       </c>
       <c r="K54" s="3">
         <v>48353900</v>
@@ -2536,25 +2536,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4084600</v>
+        <v>4010900</v>
       </c>
       <c r="E57" s="3">
-        <v>3096900</v>
+        <v>3041100</v>
       </c>
       <c r="F57" s="3">
-        <v>2263300</v>
+        <v>2222500</v>
       </c>
       <c r="G57" s="3">
-        <v>2763800</v>
+        <v>2713900</v>
       </c>
       <c r="H57" s="3">
-        <v>2883700</v>
+        <v>2831700</v>
       </c>
       <c r="I57" s="3">
-        <v>2717100</v>
+        <v>2668100</v>
       </c>
       <c r="J57" s="3">
-        <v>2043400</v>
+        <v>2006500</v>
       </c>
       <c r="K57" s="3">
         <v>2745900</v>
@@ -2578,25 +2578,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6041300</v>
+        <v>5932400</v>
       </c>
       <c r="E58" s="3">
-        <v>4802000</v>
+        <v>4715400</v>
       </c>
       <c r="F58" s="3">
-        <v>4551700</v>
+        <v>4469700</v>
       </c>
       <c r="G58" s="3">
-        <v>5186200</v>
+        <v>5092700</v>
       </c>
       <c r="H58" s="3">
-        <v>4608000</v>
+        <v>4524900</v>
       </c>
       <c r="I58" s="3">
-        <v>3427100</v>
+        <v>3365300</v>
       </c>
       <c r="J58" s="3">
-        <v>1933800</v>
+        <v>1899000</v>
       </c>
       <c r="K58" s="3">
         <v>2827000</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2391400</v>
+        <v>2348200</v>
       </c>
       <c r="E59" s="3">
-        <v>1756100</v>
+        <v>1724500</v>
       </c>
       <c r="F59" s="3">
-        <v>2059700</v>
+        <v>2022500</v>
       </c>
       <c r="G59" s="3">
-        <v>1599900</v>
+        <v>1571100</v>
       </c>
       <c r="H59" s="3">
-        <v>2093000</v>
+        <v>2055300</v>
       </c>
       <c r="I59" s="3">
-        <v>1168300</v>
+        <v>1147200</v>
       </c>
       <c r="J59" s="3">
-        <v>1708800</v>
+        <v>1677900</v>
       </c>
       <c r="K59" s="3">
         <v>1528000</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12517300</v>
+        <v>12291600</v>
       </c>
       <c r="E60" s="3">
-        <v>9655000</v>
+        <v>9480900</v>
       </c>
       <c r="F60" s="3">
-        <v>8874700</v>
+        <v>8714700</v>
       </c>
       <c r="G60" s="3">
-        <v>9549900</v>
+        <v>9377700</v>
       </c>
       <c r="H60" s="3">
-        <v>9584700</v>
+        <v>9411900</v>
       </c>
       <c r="I60" s="3">
-        <v>7312500</v>
+        <v>7180700</v>
       </c>
       <c r="J60" s="3">
-        <v>5686000</v>
+        <v>5583400</v>
       </c>
       <c r="K60" s="3">
         <v>5527800</v>
@@ -2704,25 +2704,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37121700</v>
+        <v>36452300</v>
       </c>
       <c r="E61" s="3">
-        <v>34263900</v>
+        <v>33646000</v>
       </c>
       <c r="F61" s="3">
-        <v>32139800</v>
+        <v>31560200</v>
       </c>
       <c r="G61" s="3">
-        <v>31757000</v>
+        <v>31184400</v>
       </c>
       <c r="H61" s="3">
-        <v>32588400</v>
+        <v>32000800</v>
       </c>
       <c r="I61" s="3">
-        <v>28786700</v>
+        <v>28267600</v>
       </c>
       <c r="J61" s="3">
-        <v>31275000</v>
+        <v>30711100</v>
       </c>
       <c r="K61" s="3">
         <v>23515400</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9761600</v>
+        <v>9585600</v>
       </c>
       <c r="E62" s="3">
-        <v>8514900</v>
+        <v>8361300</v>
       </c>
       <c r="F62" s="3">
-        <v>8461600</v>
+        <v>8309000</v>
       </c>
       <c r="G62" s="3">
-        <v>8209900</v>
+        <v>8061800</v>
       </c>
       <c r="H62" s="3">
-        <v>8117300</v>
+        <v>7970900</v>
       </c>
       <c r="I62" s="3">
-        <v>7737500</v>
+        <v>7598000</v>
       </c>
       <c r="J62" s="3">
-        <v>8991700</v>
+        <v>8829500</v>
       </c>
       <c r="K62" s="3">
         <v>6624800</v>
@@ -2914,25 +2914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59493800</v>
+        <v>58421100</v>
       </c>
       <c r="E66" s="3">
-        <v>52526300</v>
+        <v>51579200</v>
       </c>
       <c r="F66" s="3">
-        <v>51012300</v>
+        <v>50092400</v>
       </c>
       <c r="G66" s="3">
-        <v>50726500</v>
+        <v>49811800</v>
       </c>
       <c r="H66" s="3">
-        <v>51515700</v>
+        <v>50586800</v>
       </c>
       <c r="I66" s="3">
-        <v>45207900</v>
+        <v>44392700</v>
       </c>
       <c r="J66" s="3">
-        <v>47230500</v>
+        <v>46378900</v>
       </c>
       <c r="K66" s="3">
         <v>36011200</v>
@@ -3058,25 +3058,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1850200</v>
+        <v>1816800</v>
       </c>
       <c r="E70" s="3">
-        <v>2581600</v>
+        <v>2535100</v>
       </c>
       <c r="F70" s="3">
-        <v>2946600</v>
+        <v>2893500</v>
       </c>
       <c r="G70" s="3">
-        <v>2946600</v>
+        <v>2893500</v>
       </c>
       <c r="H70" s="3">
-        <v>2946600</v>
+        <v>2893500</v>
       </c>
       <c r="I70" s="3">
-        <v>2946600</v>
+        <v>2893500</v>
       </c>
       <c r="J70" s="3">
-        <v>2946600</v>
+        <v>2893500</v>
       </c>
       <c r="K70" s="3">
         <v>1876400</v>
@@ -3142,25 +3142,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>606400</v>
+        <v>595400</v>
       </c>
       <c r="E72" s="3">
-        <v>2793400</v>
+        <v>2743000</v>
       </c>
       <c r="F72" s="3">
-        <v>3973500</v>
+        <v>3901900</v>
       </c>
       <c r="G72" s="3">
-        <v>2928100</v>
+        <v>2875300</v>
       </c>
       <c r="H72" s="3">
-        <v>2053000</v>
+        <v>2016000</v>
       </c>
       <c r="I72" s="3">
-        <v>1201600</v>
+        <v>1179900</v>
       </c>
       <c r="J72" s="3">
-        <v>842500</v>
+        <v>827300</v>
       </c>
       <c r="K72" s="3">
         <v>2079100</v>
@@ -3310,25 +3310,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23314600</v>
+        <v>22894300</v>
       </c>
       <c r="E76" s="3">
-        <v>22050900</v>
+        <v>21653200</v>
       </c>
       <c r="F76" s="3">
-        <v>20299200</v>
+        <v>19933200</v>
       </c>
       <c r="G76" s="3">
-        <v>19829100</v>
+        <v>19471500</v>
       </c>
       <c r="H76" s="3">
-        <v>18774100</v>
+        <v>18435500</v>
       </c>
       <c r="I76" s="3">
-        <v>15591300</v>
+        <v>15310100</v>
       </c>
       <c r="J76" s="3">
-        <v>15012300</v>
+        <v>14741600</v>
       </c>
       <c r="K76" s="3">
         <v>10466200</v>
@@ -3441,25 +3441,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474600</v>
+        <v>466000</v>
       </c>
       <c r="E81" s="3">
-        <v>1343800</v>
+        <v>1319500</v>
       </c>
       <c r="F81" s="3">
-        <v>3299800</v>
+        <v>3240300</v>
       </c>
       <c r="G81" s="3">
-        <v>2943700</v>
+        <v>2890600</v>
       </c>
       <c r="H81" s="3">
-        <v>2620100</v>
+        <v>2572900</v>
       </c>
       <c r="I81" s="3">
-        <v>2218900</v>
+        <v>2178800</v>
       </c>
       <c r="J81" s="3">
-        <v>91800</v>
+        <v>90100</v>
       </c>
       <c r="K81" s="3">
         <v>-931100</v>
@@ -3501,25 +3501,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1913100</v>
+        <v>1878600</v>
       </c>
       <c r="E83" s="3">
-        <v>1867200</v>
+        <v>1833500</v>
       </c>
       <c r="F83" s="3">
-        <v>1917500</v>
+        <v>1883000</v>
       </c>
       <c r="G83" s="3">
-        <v>1824200</v>
+        <v>1791400</v>
       </c>
       <c r="H83" s="3">
-        <v>1739800</v>
+        <v>1708500</v>
       </c>
       <c r="I83" s="3">
-        <v>1521400</v>
+        <v>1494000</v>
       </c>
       <c r="J83" s="3">
-        <v>1435600</v>
+        <v>1409700</v>
       </c>
       <c r="K83" s="3">
         <v>1325300</v>
@@ -3753,25 +3753,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4719800</v>
+        <v>4634700</v>
       </c>
       <c r="E89" s="3">
-        <v>5101100</v>
+        <v>5009100</v>
       </c>
       <c r="F89" s="3">
-        <v>5225500</v>
+        <v>5131200</v>
       </c>
       <c r="G89" s="3">
-        <v>5243200</v>
+        <v>5148700</v>
       </c>
       <c r="H89" s="3">
-        <v>4853100</v>
+        <v>4765600</v>
       </c>
       <c r="I89" s="3">
-        <v>3872100</v>
+        <v>3802300</v>
       </c>
       <c r="J89" s="3">
-        <v>3752900</v>
+        <v>3685200</v>
       </c>
       <c r="K89" s="3">
         <v>3089800</v>
@@ -3813,25 +3813,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4980400</v>
+        <v>-4890600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4385900</v>
+        <v>-4306800</v>
       </c>
       <c r="F91" s="3">
-        <v>-6022800</v>
+        <v>-5914200</v>
       </c>
       <c r="G91" s="3">
-        <v>-6057600</v>
+        <v>-5948400</v>
       </c>
       <c r="H91" s="3">
-        <v>-7339900</v>
+        <v>-7207600</v>
       </c>
       <c r="I91" s="3">
-        <v>-5574200</v>
+        <v>-5473700</v>
       </c>
       <c r="J91" s="3">
-        <v>-3925400</v>
+        <v>-3854600</v>
       </c>
       <c r="K91" s="3">
         <v>-3325600</v>
@@ -3939,25 +3939,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5189200</v>
+        <v>-5095600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5709700</v>
+        <v>-5606700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4480700</v>
+        <v>-4399900</v>
       </c>
       <c r="G94" s="3">
-        <v>-5087800</v>
+        <v>-4996000</v>
       </c>
       <c r="H94" s="3">
-        <v>-7417700</v>
+        <v>-7283900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2738600</v>
+        <v>-2689200</v>
       </c>
       <c r="J94" s="3">
-        <v>-13906200</v>
+        <v>-13655400</v>
       </c>
       <c r="K94" s="3">
         <v>-3461500</v>
@@ -3999,25 +3999,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2441700</v>
+        <v>-2397700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2560200</v>
+        <v>-2514000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2329200</v>
+        <v>-2287200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1449600</v>
+        <v>-1423500</v>
       </c>
       <c r="H96" s="3">
-        <v>-1280100</v>
+        <v>-1257000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1106100</v>
+        <v>-1086200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1137200</v>
+        <v>-1116700</v>
       </c>
       <c r="K96" s="3">
         <v>-1154800</v>
@@ -4167,25 +4167,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>360600</v>
+        <v>354100</v>
       </c>
       <c r="E100" s="3">
-        <v>-65200</v>
+        <v>-64000</v>
       </c>
       <c r="F100" s="3">
-        <v>-592300</v>
+        <v>-581600</v>
       </c>
       <c r="G100" s="3">
-        <v>513100</v>
+        <v>503800</v>
       </c>
       <c r="H100" s="3">
-        <v>2034500</v>
+        <v>1997800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1050600</v>
+        <v>-1031600</v>
       </c>
       <c r="J100" s="3">
-        <v>10370200</v>
+        <v>10183200</v>
       </c>
       <c r="K100" s="3">
         <v>558600</v>
@@ -4209,25 +4209,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>69600</v>
+        <v>68300</v>
       </c>
       <c r="E101" s="3">
-        <v>39200</v>
+        <v>38500</v>
       </c>
       <c r="F101" s="3">
-        <v>-14100</v>
+        <v>-13800</v>
       </c>
       <c r="G101" s="3">
         <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>54000</v>
+        <v>53100</v>
       </c>
       <c r="I101" s="3">
-        <v>-28900</v>
+        <v>-28400</v>
       </c>
       <c r="J101" s="3">
-        <v>-94000</v>
+        <v>-92300</v>
       </c>
       <c r="K101" s="3">
         <v>84100</v>
@@ -4251,25 +4251,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-39200</v>
+        <v>-38500</v>
       </c>
       <c r="E102" s="3">
-        <v>-634500</v>
+        <v>-623000</v>
       </c>
       <c r="F102" s="3">
-        <v>138400</v>
+        <v>136000</v>
       </c>
       <c r="G102" s="3">
-        <v>664100</v>
+        <v>652100</v>
       </c>
       <c r="H102" s="3">
-        <v>-476100</v>
+        <v>-467500</v>
       </c>
       <c r="I102" s="3">
-        <v>54000</v>
+        <v>53100</v>
       </c>
       <c r="J102" s="3">
-        <v>122900</v>
+        <v>120700</v>
       </c>
       <c r="K102" s="3">
         <v>271100</v>
